--- a/trunk/Document/Design/SDD_UserManager.xlsx
+++ b/trunk/Document/Design/SDD_UserManager.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Contents!$A$1:$E$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$D$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Guide Line'!$B$2:$BE$103</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Guide Line'!$B$2:$BE$102</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Screen Detail'!$B$2:$BE$103</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Signature!$A$1:$F$24</definedName>
   </definedNames>
@@ -29,6 +29,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>HP</author>
+    <author>VoTaKa</author>
   </authors>
   <commentList>
     <comment ref="AQ2" authorId="0">
@@ -296,6 +297,537 @@
         </r>
       </text>
     </comment>
+    <comment ref="D10" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VoTaKa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Icon
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG12" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VoTaKa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+btnLogOut</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL12" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VoTaKa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+btnDelete
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP12" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VoTaKa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+btnEdit
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT12" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VoTaKa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+btnNew</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX12" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VoTaKa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+btnHelp</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VoTaKa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+txtFilter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L20" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VoTaKa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+btnGo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O20" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VoTaKa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+btnReset</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS20" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VoTaKa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+cboSelectGroup</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA20" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VoTaKa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+cboSelectLogStatus</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F23" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VoTaKa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+columnSTT</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H23" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VoTaKa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+column checkbox</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J23" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VoTaKa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+column Name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q23" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VoTaKa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+columnUserName</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X23" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VoTaKa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+columnStatusLog</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB23" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VoTaKa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+columnStatusEnable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF23" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VoTaKa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+columnGroup</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN23" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VoTaKa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+columnEmail</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU23" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VoTaKa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+columnLastVisit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA23" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VoTaKa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+columnID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD33" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VoTaKa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+cboDisplay</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C41" authorId="0">
       <text>
         <r>
@@ -542,7 +1074,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="131">
   <si>
     <t>&lt;Project Name&gt;</t>
   </si>
@@ -802,14 +1334,146 @@
     <t>KhoaVT</t>
   </si>
   <si>
-    <t>14/102011</t>
+    <t>Chỉ được edit 1 user trong 1 thời điểm</t>
+  </si>
+  <si>
+    <t>Ú</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>User Manager</t>
+  </si>
+  <si>
+    <t>LogOut</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Filter :</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Group </t>
+  </si>
+  <si>
+    <t>Select Log Status</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Logged In</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Last Visit</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>checkbox ( tick chọn User trong bảng danh sách User)</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>All(Tất cả column)</t>
+  </si>
+  <si>
+    <t>cboSelectGroup(chọn user theo group)</t>
+  </si>
+  <si>
+    <t>cboSelectLogStatus(chọn user theo trạng thái login)</t>
+  </si>
+  <si>
+    <t>LogStatus</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>Chuyển user sang trạng thái đăng xuất</t>
+  </si>
+  <si>
+    <t>Xóa user đã được chọn- tùy theo quyền hạn của user(Có thể chọn được nhiều user trong cùng 1 lúc)</t>
+  </si>
+  <si>
+    <t>Vào giao diện chỉnh sửa thông tin user(chỉ được chọn 1 user trong khi chỉnh sửa)</t>
+  </si>
+  <si>
+    <t>Tạo mới 1 user</t>
+  </si>
+  <si>
+    <t>Vào page hướng dẫn sử dụng</t>
+  </si>
+  <si>
+    <t>Đến filter đã được chọn bên khung txtfilter</t>
+  </si>
+  <si>
+    <t>Reset lại chọn lựa user</t>
+  </si>
+  <si>
+    <t>Chọn số dòng user hiển thị</t>
+  </si>
+  <si>
+    <t>Tìm User cần thao tác theo Group</t>
+  </si>
+  <si>
+    <t>Tìm User cần thao tác theo Log Status</t>
+  </si>
+  <si>
+    <t>16/102011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -924,8 +1588,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -950,8 +1632,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1387,11 +2081,288 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1496,41 +2467,95 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1538,61 +2563,253 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1961,14 +3178,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="33">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
@@ -2188,12 +3405,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="33">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="5" spans="2:5" ht="15.75">
       <c r="B5" s="21" t="s">
@@ -2255,11 +3472,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="33">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="22"/>
@@ -2442,128 +3659,128 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:57">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="60" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60" t="s">
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60"/>
-      <c r="BB2" s="60"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="61"/>
+      <c r="BE2" s="61"/>
     </row>
     <row r="3" spans="2:57">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="58"/>
-      <c r="AQ3" s="61"/>
-      <c r="AR3" s="61"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="61"/>
-      <c r="BB3" s="61"/>
-      <c r="BC3" s="61"/>
-      <c r="BD3" s="61"/>
-      <c r="BE3" s="61"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="63"/>
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="63"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="63"/>
+      <c r="AZ3" s="63"/>
+      <c r="BA3" s="63"/>
+      <c r="BB3" s="63"/>
+      <c r="BC3" s="63"/>
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
     </row>
     <row r="4" spans="2:57">
       <c r="B4" s="31" t="s">
@@ -2572,15 +3789,15 @@
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
       <c r="O4" s="31" t="s">
         <v>28</v>
       </c>
@@ -2589,47 +3806,47 @@
       <c r="R4" s="31"/>
       <c r="S4" s="31"/>
       <c r="T4" s="31"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="59"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="62"/>
+      <c r="AK4" s="62"/>
+      <c r="AL4" s="62"/>
+      <c r="AM4" s="62"/>
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="62"/>
+      <c r="AP4" s="62"/>
       <c r="AQ4" s="31" t="s">
         <v>24</v>
       </c>
       <c r="AR4" s="31"/>
       <c r="AS4" s="31"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AV4" s="59"/>
-      <c r="AW4" s="59"/>
+      <c r="AT4" s="62"/>
+      <c r="AU4" s="62"/>
+      <c r="AV4" s="62"/>
+      <c r="AW4" s="62"/>
       <c r="AX4" s="31" t="s">
         <v>25</v>
       </c>
       <c r="AY4" s="31"/>
       <c r="AZ4" s="31"/>
       <c r="BA4" s="31"/>
-      <c r="BB4" s="59"/>
-      <c r="BC4" s="59"/>
-      <c r="BD4" s="59"/>
-      <c r="BE4" s="59"/>
+      <c r="BB4" s="62"/>
+      <c r="BC4" s="62"/>
+      <c r="BD4" s="62"/>
+      <c r="BE4" s="62"/>
     </row>
     <row r="5" spans="2:57">
       <c r="B5" s="31" t="s">
@@ -2638,15 +3855,15 @@
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
       <c r="O5" s="31" t="s">
         <v>29</v>
       </c>
@@ -2655,47 +3872,47 @@
       <c r="R5" s="31"/>
       <c r="S5" s="31"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="59"/>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="59"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="59"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="59"/>
-      <c r="AK5" s="59"/>
-      <c r="AL5" s="59"/>
-      <c r="AM5" s="59"/>
-      <c r="AN5" s="59"/>
-      <c r="AO5" s="59"/>
-      <c r="AP5" s="59"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="62"/>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="62"/>
+      <c r="AL5" s="62"/>
+      <c r="AM5" s="62"/>
+      <c r="AN5" s="62"/>
+      <c r="AO5" s="62"/>
+      <c r="AP5" s="62"/>
       <c r="AQ5" s="31" t="s">
         <v>24</v>
       </c>
       <c r="AR5" s="31"/>
       <c r="AS5" s="31"/>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="59"/>
-      <c r="AV5" s="59"/>
-      <c r="AW5" s="59"/>
+      <c r="AT5" s="62"/>
+      <c r="AU5" s="62"/>
+      <c r="AV5" s="62"/>
+      <c r="AW5" s="62"/>
       <c r="AX5" s="31" t="s">
         <v>25</v>
       </c>
       <c r="AY5" s="31"/>
       <c r="AZ5" s="31"/>
       <c r="BA5" s="31"/>
-      <c r="BB5" s="59"/>
-      <c r="BC5" s="59"/>
-      <c r="BD5" s="59"/>
-      <c r="BE5" s="59"/>
+      <c r="BB5" s="62"/>
+      <c r="BC5" s="62"/>
+      <c r="BD5" s="62"/>
+      <c r="BE5" s="62"/>
     </row>
     <row r="7" spans="2:57">
       <c r="C7" s="33" t="s">
@@ -2716,82 +3933,82 @@
       <c r="C42" s="33"/>
     </row>
     <row r="43" spans="3:56" ht="15">
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54" t="s">
+      <c r="D43" s="67"/>
+      <c r="E43" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54" t="s">
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54" t="s">
+      <c r="O43" s="67"/>
+      <c r="P43" s="67"/>
+      <c r="Q43" s="67"/>
+      <c r="R43" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="S43" s="54"/>
-      <c r="T43" s="54"/>
-      <c r="U43" s="54" t="s">
+      <c r="S43" s="67"/>
+      <c r="T43" s="67"/>
+      <c r="U43" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="V43" s="54"/>
-      <c r="W43" s="54"/>
-      <c r="X43" s="54" t="s">
+      <c r="V43" s="67"/>
+      <c r="W43" s="67"/>
+      <c r="X43" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="Y43" s="54"/>
-      <c r="Z43" s="54"/>
-      <c r="AA43" s="54"/>
-      <c r="AB43" s="54"/>
-      <c r="AC43" s="54"/>
-      <c r="AD43" s="54"/>
-      <c r="AE43" s="54" t="s">
+      <c r="Y43" s="67"/>
+      <c r="Z43" s="67"/>
+      <c r="AA43" s="67"/>
+      <c r="AB43" s="67"/>
+      <c r="AC43" s="67"/>
+      <c r="AD43" s="67"/>
+      <c r="AE43" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AF43" s="54"/>
-      <c r="AG43" s="54"/>
-      <c r="AH43" s="54"/>
-      <c r="AI43" s="54"/>
-      <c r="AJ43" s="54" t="s">
+      <c r="AF43" s="67"/>
+      <c r="AG43" s="67"/>
+      <c r="AH43" s="67"/>
+      <c r="AI43" s="67"/>
+      <c r="AJ43" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AK43" s="54"/>
-      <c r="AL43" s="54"/>
-      <c r="AM43" s="54"/>
-      <c r="AN43" s="54" t="s">
+      <c r="AK43" s="67"/>
+      <c r="AL43" s="67"/>
+      <c r="AM43" s="67"/>
+      <c r="AN43" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="AO43" s="54"/>
-      <c r="AP43" s="54"/>
-      <c r="AQ43" s="54" t="s">
+      <c r="AO43" s="67"/>
+      <c r="AP43" s="67"/>
+      <c r="AQ43" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="AR43" s="54"/>
-      <c r="AS43" s="54"/>
-      <c r="AT43" s="54"/>
-      <c r="AU43" s="54"/>
-      <c r="AV43" s="54"/>
-      <c r="AW43" s="54" t="s">
+      <c r="AR43" s="67"/>
+      <c r="AS43" s="67"/>
+      <c r="AT43" s="67"/>
+      <c r="AU43" s="67"/>
+      <c r="AV43" s="67"/>
+      <c r="AW43" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="AX43" s="54"/>
-      <c r="AY43" s="54"/>
-      <c r="AZ43" s="54"/>
-      <c r="BA43" s="54"/>
-      <c r="BB43" s="54"/>
-      <c r="BC43" s="54"/>
-      <c r="BD43" s="55"/>
+      <c r="AX43" s="67"/>
+      <c r="AY43" s="67"/>
+      <c r="AZ43" s="67"/>
+      <c r="BA43" s="67"/>
+      <c r="BB43" s="67"/>
+      <c r="BC43" s="67"/>
+      <c r="BD43" s="68"/>
     </row>
     <row r="44" spans="3:56">
       <c r="C44" s="35"/>
@@ -4090,72 +5307,72 @@
       <c r="C68" s="33"/>
     </row>
     <row r="69" spans="3:56" ht="15">
-      <c r="C69" s="52" t="s">
+      <c r="C69" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51" t="s">
+      <c r="D69" s="69"/>
+      <c r="E69" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="51"/>
-      <c r="L69" s="51"/>
-      <c r="M69" s="51"/>
-      <c r="N69" s="51"/>
-      <c r="O69" s="51"/>
-      <c r="P69" s="51"/>
-      <c r="Q69" s="51"/>
-      <c r="R69" s="51" t="s">
+      <c r="F69" s="69"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
+      <c r="J69" s="69"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="69"/>
+      <c r="M69" s="69"/>
+      <c r="N69" s="69"/>
+      <c r="O69" s="69"/>
+      <c r="P69" s="69"/>
+      <c r="Q69" s="69"/>
+      <c r="R69" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="S69" s="51"/>
-      <c r="T69" s="51"/>
-      <c r="U69" s="51"/>
-      <c r="V69" s="51"/>
-      <c r="W69" s="51"/>
-      <c r="X69" s="51" t="s">
+      <c r="S69" s="69"/>
+      <c r="T69" s="69"/>
+      <c r="U69" s="69"/>
+      <c r="V69" s="69"/>
+      <c r="W69" s="69"/>
+      <c r="X69" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="Y69" s="51"/>
-      <c r="Z69" s="51"/>
-      <c r="AA69" s="51"/>
-      <c r="AB69" s="51"/>
-      <c r="AC69" s="51"/>
-      <c r="AD69" s="51"/>
-      <c r="AE69" s="51" t="s">
+      <c r="Y69" s="69"/>
+      <c r="Z69" s="69"/>
+      <c r="AA69" s="69"/>
+      <c r="AB69" s="69"/>
+      <c r="AC69" s="69"/>
+      <c r="AD69" s="69"/>
+      <c r="AE69" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="AF69" s="51"/>
-      <c r="AG69" s="51"/>
-      <c r="AH69" s="51"/>
-      <c r="AI69" s="51"/>
-      <c r="AJ69" s="51"/>
-      <c r="AK69" s="51"/>
-      <c r="AL69" s="51" t="s">
+      <c r="AF69" s="69"/>
+      <c r="AG69" s="69"/>
+      <c r="AH69" s="69"/>
+      <c r="AI69" s="69"/>
+      <c r="AJ69" s="69"/>
+      <c r="AK69" s="69"/>
+      <c r="AL69" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="AM69" s="51"/>
-      <c r="AN69" s="51"/>
-      <c r="AO69" s="51"/>
-      <c r="AP69" s="51"/>
-      <c r="AQ69" s="51"/>
-      <c r="AR69" s="51"/>
-      <c r="AS69" s="51"/>
-      <c r="AT69" s="51"/>
-      <c r="AU69" s="51"/>
-      <c r="AV69" s="51"/>
-      <c r="AW69" s="51"/>
-      <c r="AX69" s="51"/>
-      <c r="AY69" s="51"/>
-      <c r="AZ69" s="51"/>
-      <c r="BA69" s="51"/>
-      <c r="BB69" s="51"/>
-      <c r="BC69" s="51"/>
-      <c r="BD69" s="53"/>
+      <c r="AM69" s="69"/>
+      <c r="AN69" s="69"/>
+      <c r="AO69" s="69"/>
+      <c r="AP69" s="69"/>
+      <c r="AQ69" s="69"/>
+      <c r="AR69" s="69"/>
+      <c r="AS69" s="69"/>
+      <c r="AT69" s="69"/>
+      <c r="AU69" s="69"/>
+      <c r="AV69" s="69"/>
+      <c r="AW69" s="69"/>
+      <c r="AX69" s="69"/>
+      <c r="AY69" s="69"/>
+      <c r="AZ69" s="69"/>
+      <c r="BA69" s="69"/>
+      <c r="BB69" s="69"/>
+      <c r="BC69" s="69"/>
+      <c r="BD69" s="70"/>
     </row>
     <row r="70" spans="3:56">
       <c r="C70" s="48"/>
@@ -5003,68 +6220,68 @@
       </c>
     </row>
     <row r="88" spans="3:56" ht="15">
-      <c r="C88" s="52" t="s">
+      <c r="C88" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D88" s="51"/>
-      <c r="E88" s="51" t="s">
+      <c r="D88" s="69"/>
+      <c r="E88" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="F88" s="51"/>
-      <c r="G88" s="51"/>
-      <c r="H88" s="51"/>
-      <c r="I88" s="51"/>
-      <c r="J88" s="51"/>
-      <c r="K88" s="51"/>
-      <c r="L88" s="51"/>
-      <c r="M88" s="51"/>
-      <c r="N88" s="51"/>
-      <c r="O88" s="51"/>
-      <c r="P88" s="51"/>
-      <c r="Q88" s="51"/>
-      <c r="R88" s="51" t="s">
+      <c r="F88" s="69"/>
+      <c r="G88" s="69"/>
+      <c r="H88" s="69"/>
+      <c r="I88" s="69"/>
+      <c r="J88" s="69"/>
+      <c r="K88" s="69"/>
+      <c r="L88" s="69"/>
+      <c r="M88" s="69"/>
+      <c r="N88" s="69"/>
+      <c r="O88" s="69"/>
+      <c r="P88" s="69"/>
+      <c r="Q88" s="69"/>
+      <c r="R88" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="S88" s="51"/>
-      <c r="T88" s="51"/>
-      <c r="U88" s="51"/>
-      <c r="V88" s="51"/>
-      <c r="W88" s="51"/>
-      <c r="X88" s="51" t="s">
+      <c r="S88" s="69"/>
+      <c r="T88" s="69"/>
+      <c r="U88" s="69"/>
+      <c r="V88" s="69"/>
+      <c r="W88" s="69"/>
+      <c r="X88" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="Y88" s="51"/>
-      <c r="Z88" s="51"/>
-      <c r="AA88" s="51"/>
-      <c r="AB88" s="51"/>
-      <c r="AC88" s="51"/>
-      <c r="AD88" s="51"/>
-      <c r="AE88" s="51"/>
-      <c r="AF88" s="51"/>
-      <c r="AG88" s="51"/>
-      <c r="AH88" s="51"/>
-      <c r="AI88" s="51"/>
-      <c r="AJ88" s="51"/>
-      <c r="AK88" s="51"/>
-      <c r="AL88" s="51"/>
-      <c r="AM88" s="51"/>
-      <c r="AN88" s="51"/>
-      <c r="AO88" s="51"/>
-      <c r="AP88" s="51"/>
-      <c r="AQ88" s="51"/>
-      <c r="AR88" s="51"/>
-      <c r="AS88" s="51"/>
-      <c r="AT88" s="51"/>
-      <c r="AU88" s="51"/>
-      <c r="AV88" s="51"/>
-      <c r="AW88" s="51"/>
-      <c r="AX88" s="51"/>
-      <c r="AY88" s="51"/>
-      <c r="AZ88" s="51"/>
-      <c r="BA88" s="51"/>
-      <c r="BB88" s="51"/>
-      <c r="BC88" s="51"/>
-      <c r="BD88" s="53"/>
+      <c r="Y88" s="69"/>
+      <c r="Z88" s="69"/>
+      <c r="AA88" s="69"/>
+      <c r="AB88" s="69"/>
+      <c r="AC88" s="69"/>
+      <c r="AD88" s="69"/>
+      <c r="AE88" s="69"/>
+      <c r="AF88" s="69"/>
+      <c r="AG88" s="69"/>
+      <c r="AH88" s="69"/>
+      <c r="AI88" s="69"/>
+      <c r="AJ88" s="69"/>
+      <c r="AK88" s="69"/>
+      <c r="AL88" s="69"/>
+      <c r="AM88" s="69"/>
+      <c r="AN88" s="69"/>
+      <c r="AO88" s="69"/>
+      <c r="AP88" s="69"/>
+      <c r="AQ88" s="69"/>
+      <c r="AR88" s="69"/>
+      <c r="AS88" s="69"/>
+      <c r="AT88" s="69"/>
+      <c r="AU88" s="69"/>
+      <c r="AV88" s="69"/>
+      <c r="AW88" s="69"/>
+      <c r="AX88" s="69"/>
+      <c r="AY88" s="69"/>
+      <c r="AZ88" s="69"/>
+      <c r="BA88" s="69"/>
+      <c r="BB88" s="69"/>
+      <c r="BC88" s="69"/>
+      <c r="BD88" s="70"/>
     </row>
     <row r="89" spans="3:56">
       <c r="C89" s="35"/>
@@ -5852,6 +7069,34 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="X88:BD88"/>
+    <mergeCell ref="E69:Q69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:Q88"/>
+    <mergeCell ref="R88:W88"/>
+    <mergeCell ref="AW43:BD43"/>
+    <mergeCell ref="AL69:BD69"/>
+    <mergeCell ref="AE69:AK69"/>
+    <mergeCell ref="X69:AD69"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="X43:AD43"/>
+    <mergeCell ref="AE43:AI43"/>
+    <mergeCell ref="AJ43:AM43"/>
+    <mergeCell ref="AN43:AP43"/>
+    <mergeCell ref="AQ43:AV43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:AP3"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="AT5:AW5"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="AQ2:AW2"/>
     <mergeCell ref="AX2:BE2"/>
     <mergeCell ref="BB4:BE4"/>
     <mergeCell ref="BB5:BE5"/>
@@ -5859,34 +7104,6 @@
     <mergeCell ref="U5:AP5"/>
     <mergeCell ref="AQ3:AW3"/>
     <mergeCell ref="AX3:BE3"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:AP3"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="AT5:AW5"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="AQ2:AW2"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="X43:AD43"/>
-    <mergeCell ref="AE43:AI43"/>
-    <mergeCell ref="AJ43:AM43"/>
-    <mergeCell ref="AN43:AP43"/>
-    <mergeCell ref="AQ43:AV43"/>
-    <mergeCell ref="AW43:BD43"/>
-    <mergeCell ref="AL69:BD69"/>
-    <mergeCell ref="AE69:AK69"/>
-    <mergeCell ref="X69:AD69"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="E69:Q69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:Q88"/>
-    <mergeCell ref="R88:W88"/>
-    <mergeCell ref="X88:BD88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="98" orientation="portrait" r:id="rId1"/>
@@ -5898,386 +7115,2017 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:BE102"/>
+  <dimension ref="B2:BE101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR19" sqref="AR19"/>
+      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AX3" sqref="AX3:BE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="4" width="3.140625" style="32" customWidth="1"/>
     <col min="5" max="5" width="4.5703125" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="3.140625" style="32"/>
+    <col min="6" max="16" width="3.140625" style="32"/>
+    <col min="17" max="17" width="6" style="32" customWidth="1"/>
+    <col min="18" max="33" width="3.140625" style="32"/>
+    <col min="34" max="34" width="3.140625" style="32" customWidth="1"/>
+    <col min="35" max="35" width="3.140625" style="32" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="3.140625" style="32"/>
+    <col min="37" max="37" width="3.42578125" style="32" customWidth="1"/>
+    <col min="38" max="38" width="8" style="32" customWidth="1"/>
+    <col min="39" max="39" width="0.140625" style="32" customWidth="1"/>
+    <col min="40" max="43" width="3.140625" style="32"/>
+    <col min="44" max="44" width="4.42578125" style="32" customWidth="1"/>
+    <col min="45" max="47" width="3.140625" style="32"/>
+    <col min="48" max="48" width="3.42578125" style="32" customWidth="1"/>
+    <col min="49" max="16384" width="3.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:57">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="60" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60" t="s">
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60"/>
-      <c r="BB2" s="60"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="61"/>
+      <c r="BE2" s="61"/>
     </row>
     <row r="3" spans="2:57">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="58"/>
-      <c r="AQ3" s="61" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="AR3" s="61"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="61"/>
-      <c r="BB3" s="61"/>
-      <c r="BC3" s="61"/>
-      <c r="BD3" s="61"/>
-      <c r="BE3" s="61"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="63"/>
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="63"/>
+      <c r="AX3" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY3" s="63"/>
+      <c r="AZ3" s="63"/>
+      <c r="BA3" s="63"/>
+      <c r="BB3" s="63"/>
+      <c r="BC3" s="63"/>
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
     </row>
     <row r="4" spans="2:57">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="66" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="59" t="s">
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="59"/>
-      <c r="AQ4" s="67" t="s">
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="62"/>
+      <c r="AK4" s="62"/>
+      <c r="AL4" s="62"/>
+      <c r="AM4" s="62"/>
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="62"/>
+      <c r="AP4" s="62"/>
+      <c r="AQ4" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="AR4" s="68"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AV4" s="59"/>
-      <c r="AW4" s="59"/>
-      <c r="AX4" s="67" t="s">
+      <c r="AR4" s="73"/>
+      <c r="AS4" s="74"/>
+      <c r="AT4" s="62"/>
+      <c r="AU4" s="62"/>
+      <c r="AV4" s="62"/>
+      <c r="AW4" s="62"/>
+      <c r="AX4" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="AY4" s="68"/>
-      <c r="AZ4" s="68"/>
-      <c r="BA4" s="69"/>
-      <c r="BB4" s="59"/>
-      <c r="BC4" s="59"/>
-      <c r="BD4" s="59"/>
-      <c r="BE4" s="59"/>
+      <c r="AY4" s="73"/>
+      <c r="AZ4" s="73"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="62"/>
+      <c r="BC4" s="62"/>
+      <c r="BD4" s="62"/>
+      <c r="BE4" s="62"/>
     </row>
     <row r="5" spans="2:57">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="66" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="59"/>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="59"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="59"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="59"/>
-      <c r="AK5" s="59"/>
-      <c r="AL5" s="59"/>
-      <c r="AM5" s="59"/>
-      <c r="AN5" s="59"/>
-      <c r="AO5" s="59"/>
-      <c r="AP5" s="59"/>
-      <c r="AQ5" s="66" t="s">
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="62"/>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="62"/>
+      <c r="AL5" s="62"/>
+      <c r="AM5" s="62"/>
+      <c r="AN5" s="62"/>
+      <c r="AO5" s="62"/>
+      <c r="AP5" s="62"/>
+      <c r="AQ5" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="AR5" s="70"/>
-      <c r="AS5" s="65"/>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="59"/>
-      <c r="AV5" s="59"/>
-      <c r="AW5" s="59"/>
-      <c r="AX5" s="66" t="s">
+      <c r="AR5" s="82"/>
+      <c r="AS5" s="77"/>
+      <c r="AT5" s="62"/>
+      <c r="AU5" s="62"/>
+      <c r="AV5" s="62"/>
+      <c r="AW5" s="62"/>
+      <c r="AX5" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="AY5" s="64"/>
-      <c r="AZ5" s="64"/>
-      <c r="BA5" s="65"/>
-      <c r="BB5" s="59"/>
-      <c r="BC5" s="59"/>
-      <c r="BD5" s="59"/>
-      <c r="BE5" s="59"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="77"/>
+      <c r="BB5" s="62"/>
+      <c r="BC5" s="62"/>
+      <c r="BD5" s="62"/>
+      <c r="BE5" s="62"/>
     </row>
     <row r="7" spans="2:57">
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-    </row>
-    <row r="9" spans="2:57">
-      <c r="C9" s="34" t="s">
-        <v>35</v>
-      </c>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+    </row>
+    <row r="9" spans="2:57" ht="13.5" thickBot="1">
+      <c r="C9" s="34"/>
+    </row>
+    <row r="10" spans="2:57" ht="15" customHeight="1">
+      <c r="D10" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="114"/>
+      <c r="V10" s="103"/>
+      <c r="W10" s="103"/>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="103"/>
+      <c r="Z10" s="103"/>
+      <c r="AA10" s="103"/>
+      <c r="AB10" s="103"/>
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="103"/>
+      <c r="AE10" s="103"/>
+      <c r="AF10" s="103"/>
+      <c r="AG10" s="103"/>
+      <c r="AH10" s="103"/>
+      <c r="AI10" s="103"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="103"/>
+      <c r="AL10" s="103"/>
+      <c r="AM10" s="103"/>
+      <c r="AN10" s="103"/>
+      <c r="AO10" s="103"/>
+      <c r="AP10" s="103"/>
+      <c r="AQ10" s="103"/>
+      <c r="AR10" s="103"/>
+      <c r="AS10" s="103"/>
+      <c r="AT10" s="103"/>
+      <c r="AU10" s="103"/>
+      <c r="AV10" s="103"/>
+      <c r="AW10" s="103"/>
+      <c r="AX10" s="103"/>
+      <c r="AY10" s="103"/>
+      <c r="AZ10" s="103"/>
+      <c r="BA10" s="103"/>
+      <c r="BB10" s="103"/>
+      <c r="BC10" s="104"/>
+    </row>
+    <row r="11" spans="2:57" ht="13.5" thickBot="1">
+      <c r="D11" s="123"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="115"/>
+      <c r="P11" s="115"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="115"/>
+      <c r="S11" s="115"/>
+      <c r="T11" s="115"/>
+      <c r="U11" s="115"/>
+      <c r="V11" s="105"/>
+      <c r="W11" s="105"/>
+      <c r="X11" s="105"/>
+      <c r="Y11" s="105"/>
+      <c r="Z11" s="105"/>
+      <c r="AA11" s="105"/>
+      <c r="AB11" s="105"/>
+      <c r="AC11" s="105"/>
+      <c r="AD11" s="105"/>
+      <c r="AE11" s="105"/>
+      <c r="AF11" s="105"/>
+      <c r="AG11" s="105"/>
+      <c r="AH11" s="105"/>
+      <c r="AI11" s="105"/>
+      <c r="AJ11" s="105"/>
+      <c r="AK11" s="105"/>
+      <c r="AL11" s="105"/>
+      <c r="AM11" s="105"/>
+      <c r="AN11" s="105"/>
+      <c r="AO11" s="105"/>
+      <c r="AP11" s="105"/>
+      <c r="AQ11" s="105"/>
+      <c r="AR11" s="105"/>
+      <c r="AS11" s="105"/>
+      <c r="AT11" s="105"/>
+      <c r="AU11" s="105"/>
+      <c r="AV11" s="105"/>
+      <c r="AW11" s="105"/>
+      <c r="AX11" s="105"/>
+      <c r="AY11" s="105"/>
+      <c r="AZ11" s="105"/>
+      <c r="BA11" s="105"/>
+      <c r="BB11" s="105"/>
+      <c r="BC11" s="106"/>
+    </row>
+    <row r="12" spans="2:57" ht="15" customHeight="1">
+      <c r="D12" s="123"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="115"/>
+      <c r="S12" s="115"/>
+      <c r="T12" s="115"/>
+      <c r="U12" s="115"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="105"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="105"/>
+      <c r="AA12" s="105"/>
+      <c r="AB12" s="105"/>
+      <c r="AC12" s="105"/>
+      <c r="AD12" s="105"/>
+      <c r="AE12" s="105"/>
+      <c r="AF12" s="105"/>
+      <c r="AG12" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH12" s="109"/>
+      <c r="AI12" s="109"/>
+      <c r="AJ12" s="116"/>
+      <c r="AK12" s="105"/>
+      <c r="AL12" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM12" s="121"/>
+      <c r="AN12" s="122"/>
+      <c r="AO12" s="105"/>
+      <c r="AP12" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ12" s="121"/>
+      <c r="AR12" s="122"/>
+      <c r="AS12" s="105"/>
+      <c r="AT12" s="120" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU12" s="121"/>
+      <c r="AV12" s="122"/>
+      <c r="AW12" s="129"/>
+      <c r="AX12" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY12" s="121"/>
+      <c r="AZ12" s="122"/>
+      <c r="BA12" s="105"/>
+      <c r="BB12" s="105"/>
+      <c r="BC12" s="106"/>
+    </row>
+    <row r="13" spans="2:57" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="115"/>
+      <c r="S13" s="115"/>
+      <c r="T13" s="115"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="105"/>
+      <c r="X13" s="105"/>
+      <c r="Y13" s="105"/>
+      <c r="Z13" s="105"/>
+      <c r="AA13" s="105"/>
+      <c r="AB13" s="105"/>
+      <c r="AC13" s="105"/>
+      <c r="AD13" s="105"/>
+      <c r="AE13" s="105"/>
+      <c r="AF13" s="105"/>
+      <c r="AG13" s="117"/>
+      <c r="AH13" s="118"/>
+      <c r="AI13" s="118"/>
+      <c r="AJ13" s="119"/>
+      <c r="AK13" s="105"/>
+      <c r="AL13" s="126"/>
+      <c r="AM13" s="127"/>
+      <c r="AN13" s="128"/>
+      <c r="AO13" s="105"/>
+      <c r="AP13" s="126"/>
+      <c r="AQ13" s="127"/>
+      <c r="AR13" s="128"/>
+      <c r="AS13" s="105"/>
+      <c r="AT13" s="126"/>
+      <c r="AU13" s="127"/>
+      <c r="AV13" s="128"/>
+      <c r="AW13" s="129"/>
+      <c r="AX13" s="126"/>
+      <c r="AY13" s="127"/>
+      <c r="AZ13" s="128"/>
+      <c r="BA13" s="105"/>
+      <c r="BB13" s="105"/>
+      <c r="BC13" s="106"/>
+    </row>
+    <row r="14" spans="2:57">
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="115"/>
+      <c r="T14" s="115"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="105"/>
+      <c r="X14" s="105"/>
+      <c r="Y14" s="107"/>
+      <c r="Z14" s="105"/>
+      <c r="AA14" s="105"/>
+      <c r="AB14" s="105"/>
+      <c r="AC14" s="105"/>
+      <c r="AD14" s="105"/>
+      <c r="AE14" s="105"/>
+      <c r="AF14" s="105"/>
+      <c r="AG14" s="105"/>
+      <c r="AH14" s="105"/>
+      <c r="AI14" s="105"/>
+      <c r="AJ14" s="105"/>
+      <c r="AK14" s="105"/>
+      <c r="AL14" s="105"/>
+      <c r="AM14" s="105"/>
+      <c r="AN14" s="105"/>
+      <c r="AO14" s="105"/>
+      <c r="AP14" s="105"/>
+      <c r="AQ14" s="105"/>
+      <c r="AR14" s="105"/>
+      <c r="AS14" s="105"/>
+      <c r="AT14" s="105"/>
+      <c r="AU14" s="105"/>
+      <c r="AV14" s="105"/>
+      <c r="AW14" s="105"/>
+      <c r="AX14" s="105"/>
+      <c r="AY14" s="105"/>
+      <c r="AZ14" s="105"/>
+      <c r="BA14" s="105"/>
+      <c r="BB14" s="105"/>
+      <c r="BC14" s="106"/>
+    </row>
+    <row r="15" spans="2:57">
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="115"/>
+      <c r="T15" s="115"/>
+      <c r="U15" s="115"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="105"/>
+      <c r="X15" s="105"/>
+      <c r="Y15" s="105"/>
+      <c r="Z15" s="105"/>
+      <c r="AA15" s="105"/>
+      <c r="AB15" s="105"/>
+      <c r="AC15" s="105"/>
+      <c r="AD15" s="105"/>
+      <c r="AE15" s="105"/>
+      <c r="AF15" s="105"/>
+      <c r="AG15" s="105"/>
+      <c r="AH15" s="105"/>
+      <c r="AI15" s="105"/>
+      <c r="AJ15" s="105"/>
+      <c r="AK15" s="105"/>
+      <c r="AL15" s="105"/>
+      <c r="AM15" s="105"/>
+      <c r="AN15" s="105"/>
+      <c r="AO15" s="105"/>
+      <c r="AP15" s="105"/>
+      <c r="AQ15" s="105"/>
+      <c r="AR15" s="105"/>
+      <c r="AS15" s="105"/>
+      <c r="AT15" s="105"/>
+      <c r="AU15" s="105"/>
+      <c r="AV15" s="105"/>
+      <c r="AW15" s="105"/>
+      <c r="AX15" s="105"/>
+      <c r="AY15" s="105"/>
+      <c r="AZ15" s="105"/>
+      <c r="BA15" s="105"/>
+      <c r="BB15" s="105"/>
+      <c r="BC15" s="106"/>
+    </row>
+    <row r="16" spans="2:57">
+      <c r="D16" s="98"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="47"/>
+      <c r="AD16" s="47"/>
+      <c r="AE16" s="47"/>
+      <c r="AF16" s="47"/>
+      <c r="AG16" s="47"/>
+      <c r="AH16" s="47"/>
+      <c r="AI16" s="47"/>
+      <c r="AJ16" s="47"/>
+      <c r="AK16" s="47"/>
+      <c r="AL16" s="47"/>
+      <c r="AM16" s="47"/>
+      <c r="AN16" s="47"/>
+      <c r="AO16" s="47"/>
+      <c r="AP16" s="47"/>
+      <c r="AQ16" s="47"/>
+      <c r="AR16" s="47"/>
+      <c r="AS16" s="47"/>
+      <c r="AT16" s="47"/>
+      <c r="AU16" s="47"/>
+      <c r="AV16" s="47"/>
+      <c r="AW16" s="47"/>
+      <c r="AX16" s="47"/>
+      <c r="AY16" s="47"/>
+      <c r="AZ16" s="47"/>
+      <c r="BA16" s="47"/>
+      <c r="BB16" s="47"/>
+      <c r="BC16" s="99"/>
+    </row>
+    <row r="17" spans="4:55">
+      <c r="D17" s="98"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="47"/>
+      <c r="AK17" s="47"/>
+      <c r="AL17" s="47"/>
+      <c r="AM17" s="47"/>
+      <c r="AN17" s="47"/>
+      <c r="AO17" s="47"/>
+      <c r="AP17" s="47"/>
+      <c r="AQ17" s="47"/>
+      <c r="AR17" s="47"/>
+      <c r="AS17" s="47"/>
+      <c r="AT17" s="47"/>
+      <c r="AU17" s="47"/>
+      <c r="AV17" s="47"/>
+      <c r="AW17" s="47"/>
+      <c r="AX17" s="47"/>
+      <c r="AY17" s="47"/>
+      <c r="AZ17" s="47"/>
+      <c r="BA17" s="47"/>
+      <c r="BB17" s="47"/>
+      <c r="BC17" s="99"/>
+    </row>
+    <row r="18" spans="4:55">
+      <c r="D18" s="98"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="130"/>
+      <c r="R18" s="130"/>
+      <c r="S18" s="130"/>
+      <c r="T18" s="130"/>
+      <c r="U18" s="131"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="57"/>
+      <c r="AG18" s="57"/>
+      <c r="AH18" s="57"/>
+      <c r="AI18" s="57"/>
+      <c r="AJ18" s="57"/>
+      <c r="AK18" s="57"/>
+      <c r="AL18" s="57"/>
+      <c r="AM18" s="57"/>
+      <c r="AN18" s="57"/>
+      <c r="AO18" s="57"/>
+      <c r="AP18" s="57"/>
+      <c r="AQ18" s="57"/>
+      <c r="AR18" s="57"/>
+      <c r="AS18" s="57"/>
+      <c r="AT18" s="57"/>
+      <c r="AU18" s="57"/>
+      <c r="AV18" s="57"/>
+      <c r="AW18" s="57"/>
+      <c r="AX18" s="57"/>
+      <c r="AY18" s="57"/>
+      <c r="AZ18" s="57"/>
+      <c r="BA18" s="57"/>
+      <c r="BB18" s="92"/>
+      <c r="BC18" s="99"/>
+    </row>
+    <row r="19" spans="4:55">
+      <c r="D19" s="98"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="47"/>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="47"/>
+      <c r="AJ19" s="47"/>
+      <c r="AK19" s="47"/>
+      <c r="AL19" s="47"/>
+      <c r="AM19" s="47"/>
+      <c r="AN19" s="47"/>
+      <c r="AO19" s="47"/>
+      <c r="AP19" s="47"/>
+      <c r="AQ19" s="47"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
+      <c r="AT19" s="47"/>
+      <c r="AU19" s="47"/>
+      <c r="AV19" s="47"/>
+      <c r="AW19" s="47"/>
+      <c r="AX19" s="47"/>
+      <c r="AY19" s="47"/>
+      <c r="AZ19" s="47"/>
+      <c r="BA19" s="47"/>
+      <c r="BB19" s="94"/>
+      <c r="BC19" s="99"/>
+    </row>
+    <row r="20" spans="4:55">
+      <c r="D20" s="98"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="47"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20" s="86"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="47"/>
+      <c r="AL20" s="47"/>
+      <c r="AM20" s="47"/>
+      <c r="AN20" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO20" s="85"/>
+      <c r="AP20" s="85"/>
+      <c r="AQ20" s="85"/>
+      <c r="AR20" s="86"/>
+      <c r="AS20" s="133" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT20" s="47"/>
+      <c r="AU20" s="47"/>
+      <c r="AV20" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW20" s="85"/>
+      <c r="AX20" s="85"/>
+      <c r="AY20" s="85"/>
+      <c r="AZ20" s="86"/>
+      <c r="BA20" s="133" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB20" s="94"/>
+      <c r="BC20" s="99"/>
+    </row>
+    <row r="21" spans="4:55">
+      <c r="D21" s="98"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="47"/>
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="47"/>
+      <c r="AJ21" s="47"/>
+      <c r="AK21" s="47"/>
+      <c r="AL21" s="47"/>
+      <c r="AM21" s="47"/>
+      <c r="AN21" s="47"/>
+      <c r="AO21" s="47"/>
+      <c r="AP21" s="47"/>
+      <c r="AQ21" s="47"/>
+      <c r="AR21" s="47"/>
+      <c r="AS21" s="47"/>
+      <c r="AT21" s="47"/>
+      <c r="AU21" s="47"/>
+      <c r="AV21" s="47"/>
+      <c r="AW21" s="47"/>
+      <c r="AX21" s="47"/>
+      <c r="AY21" s="47"/>
+      <c r="AZ21" s="47"/>
+      <c r="BA21" s="47"/>
+      <c r="BB21" s="94"/>
+      <c r="BC21" s="99"/>
+    </row>
+    <row r="22" spans="4:55">
+      <c r="D22" s="98"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="132" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="47"/>
+      <c r="AF22" s="47"/>
+      <c r="AG22" s="47"/>
+      <c r="AH22" s="47"/>
+      <c r="AI22" s="47"/>
+      <c r="AJ22" s="47"/>
+      <c r="AK22" s="47"/>
+      <c r="AL22" s="47"/>
+      <c r="AM22" s="47"/>
+      <c r="AN22" s="47"/>
+      <c r="AO22" s="47"/>
+      <c r="AP22" s="47"/>
+      <c r="AQ22" s="47"/>
+      <c r="AR22" s="47"/>
+      <c r="AS22" s="47"/>
+      <c r="AT22" s="47"/>
+      <c r="AU22" s="47"/>
+      <c r="AV22" s="47"/>
+      <c r="AW22" s="47"/>
+      <c r="AX22" s="47"/>
+      <c r="AY22" s="47"/>
+      <c r="AZ22" s="47"/>
+      <c r="BA22" s="47"/>
+      <c r="BB22" s="94"/>
+      <c r="BC22" s="99"/>
+    </row>
+    <row r="23" spans="4:55">
+      <c r="D23" s="98"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="135"/>
+      <c r="H23" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="138"/>
+      <c r="J23" s="141" t="s">
+        <v>102</v>
+      </c>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="136"/>
+      <c r="Q23" s="142" t="s">
+        <v>103</v>
+      </c>
+      <c r="R23" s="112"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="112"/>
+      <c r="U23" s="112"/>
+      <c r="V23" s="112"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="142" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y23" s="112"/>
+      <c r="Z23" s="112"/>
+      <c r="AA23" s="135"/>
+      <c r="AB23" s="142" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC23" s="112"/>
+      <c r="AD23" s="112"/>
+      <c r="AE23" s="135"/>
+      <c r="AF23" s="142" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG23" s="112"/>
+      <c r="AH23" s="112"/>
+      <c r="AI23" s="112"/>
+      <c r="AJ23" s="112"/>
+      <c r="AK23" s="112"/>
+      <c r="AL23" s="112"/>
+      <c r="AM23" s="134"/>
+      <c r="AN23" s="142" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO23" s="112"/>
+      <c r="AP23" s="112"/>
+      <c r="AQ23" s="112"/>
+      <c r="AR23" s="112"/>
+      <c r="AS23" s="112"/>
+      <c r="AT23" s="135"/>
+      <c r="AU23" s="142" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV23" s="112"/>
+      <c r="AW23" s="112"/>
+      <c r="AX23" s="112"/>
+      <c r="AY23" s="112"/>
+      <c r="AZ23" s="135"/>
+      <c r="BA23" s="143" t="s">
+        <v>108</v>
+      </c>
+      <c r="BB23" s="94"/>
+      <c r="BC23" s="99"/>
+    </row>
+    <row r="24" spans="4:55">
+      <c r="D24" s="98"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="136"/>
+      <c r="Q24" s="141"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="110"/>
+      <c r="T24" s="110"/>
+      <c r="U24" s="110"/>
+      <c r="V24" s="110"/>
+      <c r="W24" s="136"/>
+      <c r="X24" s="141"/>
+      <c r="Y24" s="110"/>
+      <c r="Z24" s="110"/>
+      <c r="AA24" s="136"/>
+      <c r="AB24" s="141"/>
+      <c r="AC24" s="110"/>
+      <c r="AD24" s="110"/>
+      <c r="AE24" s="136"/>
+      <c r="AF24" s="141"/>
+      <c r="AG24" s="110"/>
+      <c r="AH24" s="110"/>
+      <c r="AI24" s="110"/>
+      <c r="AJ24" s="110"/>
+      <c r="AK24" s="110"/>
+      <c r="AL24" s="110"/>
+      <c r="AM24" s="105"/>
+      <c r="AN24" s="141"/>
+      <c r="AO24" s="110"/>
+      <c r="AP24" s="110"/>
+      <c r="AQ24" s="110"/>
+      <c r="AR24" s="110"/>
+      <c r="AS24" s="110"/>
+      <c r="AT24" s="136"/>
+      <c r="AU24" s="141"/>
+      <c r="AV24" s="110"/>
+      <c r="AW24" s="110"/>
+      <c r="AX24" s="110"/>
+      <c r="AY24" s="110"/>
+      <c r="AZ24" s="136"/>
+      <c r="BA24" s="144"/>
+      <c r="BB24" s="94"/>
+      <c r="BC24" s="99"/>
+    </row>
+    <row r="25" spans="4:55">
+      <c r="D25" s="98"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="145"/>
+      <c r="Q25" s="146"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="145"/>
+      <c r="X25" s="146"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="145"/>
+      <c r="AB25" s="146"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="145"/>
+      <c r="AF25" s="146"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="36"/>
+      <c r="AI25" s="36"/>
+      <c r="AJ25" s="36"/>
+      <c r="AK25" s="36"/>
+      <c r="AL25" s="36"/>
+      <c r="AM25" s="36"/>
+      <c r="AN25" s="146"/>
+      <c r="AO25" s="36"/>
+      <c r="AP25" s="36"/>
+      <c r="AQ25" s="36"/>
+      <c r="AR25" s="36"/>
+      <c r="AS25" s="36"/>
+      <c r="AT25" s="145"/>
+      <c r="AU25" s="146"/>
+      <c r="AV25" s="36"/>
+      <c r="AW25" s="36"/>
+      <c r="AX25" s="36"/>
+      <c r="AY25" s="36"/>
+      <c r="AZ25" s="145"/>
+      <c r="BA25" s="39"/>
+      <c r="BB25" s="94"/>
+      <c r="BC25" s="99"/>
+    </row>
+    <row r="26" spans="4:55">
+      <c r="D26" s="98"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="147"/>
+      <c r="Q26" s="148"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="147"/>
+      <c r="X26" s="148"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="147"/>
+      <c r="AB26" s="148"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="147"/>
+      <c r="AF26" s="148"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="40"/>
+      <c r="AI26" s="40"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="40"/>
+      <c r="AL26" s="40"/>
+      <c r="AM26" s="40"/>
+      <c r="AN26" s="148"/>
+      <c r="AO26" s="40"/>
+      <c r="AP26" s="40"/>
+      <c r="AQ26" s="40"/>
+      <c r="AR26" s="40"/>
+      <c r="AS26" s="40"/>
+      <c r="AT26" s="147"/>
+      <c r="AU26" s="148"/>
+      <c r="AV26" s="40"/>
+      <c r="AW26" s="40"/>
+      <c r="AX26" s="40"/>
+      <c r="AY26" s="40"/>
+      <c r="AZ26" s="147"/>
+      <c r="BA26" s="43"/>
+      <c r="BB26" s="94"/>
+      <c r="BC26" s="99"/>
+    </row>
+    <row r="27" spans="4:55">
+      <c r="D27" s="98"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="147"/>
+      <c r="Q27" s="148"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="147"/>
+      <c r="X27" s="148"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="147"/>
+      <c r="AB27" s="148"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="147"/>
+      <c r="AF27" s="148"/>
+      <c r="AG27" s="40"/>
+      <c r="AH27" s="40"/>
+      <c r="AI27" s="40"/>
+      <c r="AJ27" s="40"/>
+      <c r="AK27" s="40"/>
+      <c r="AL27" s="40"/>
+      <c r="AM27" s="40"/>
+      <c r="AN27" s="148"/>
+      <c r="AO27" s="40"/>
+      <c r="AP27" s="40"/>
+      <c r="AQ27" s="40"/>
+      <c r="AR27" s="40"/>
+      <c r="AS27" s="40"/>
+      <c r="AT27" s="147"/>
+      <c r="AU27" s="148"/>
+      <c r="AV27" s="40"/>
+      <c r="AW27" s="40"/>
+      <c r="AX27" s="40"/>
+      <c r="AY27" s="40"/>
+      <c r="AZ27" s="147"/>
+      <c r="BA27" s="43"/>
+      <c r="BB27" s="94"/>
+      <c r="BC27" s="99"/>
+    </row>
+    <row r="28" spans="4:55">
+      <c r="D28" s="98"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="147"/>
+      <c r="Q28" s="148"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="147"/>
+      <c r="X28" s="148"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="147"/>
+      <c r="AB28" s="148"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="147"/>
+      <c r="AF28" s="148"/>
+      <c r="AG28" s="40"/>
+      <c r="AH28" s="40"/>
+      <c r="AI28" s="40"/>
+      <c r="AJ28" s="40"/>
+      <c r="AK28" s="40"/>
+      <c r="AL28" s="40"/>
+      <c r="AM28" s="40"/>
+      <c r="AN28" s="148"/>
+      <c r="AO28" s="40"/>
+      <c r="AP28" s="40"/>
+      <c r="AQ28" s="40"/>
+      <c r="AR28" s="40"/>
+      <c r="AS28" s="40"/>
+      <c r="AT28" s="147"/>
+      <c r="AU28" s="148"/>
+      <c r="AV28" s="40"/>
+      <c r="AW28" s="40"/>
+      <c r="AX28" s="40"/>
+      <c r="AY28" s="40"/>
+      <c r="AZ28" s="147"/>
+      <c r="BA28" s="43"/>
+      <c r="BB28" s="94"/>
+      <c r="BC28" s="99"/>
+    </row>
+    <row r="29" spans="4:55">
+      <c r="D29" s="98"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="147"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="147"/>
+      <c r="X29" s="148"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="147"/>
+      <c r="AB29" s="148"/>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="147"/>
+      <c r="AF29" s="148"/>
+      <c r="AG29" s="40"/>
+      <c r="AH29" s="40"/>
+      <c r="AI29" s="40"/>
+      <c r="AJ29" s="40"/>
+      <c r="AK29" s="40"/>
+      <c r="AL29" s="40"/>
+      <c r="AM29" s="40"/>
+      <c r="AN29" s="148"/>
+      <c r="AO29" s="40"/>
+      <c r="AP29" s="40"/>
+      <c r="AQ29" s="40"/>
+      <c r="AR29" s="40"/>
+      <c r="AS29" s="40"/>
+      <c r="AT29" s="147"/>
+      <c r="AU29" s="148"/>
+      <c r="AV29" s="40"/>
+      <c r="AW29" s="40"/>
+      <c r="AX29" s="40"/>
+      <c r="AY29" s="40"/>
+      <c r="AZ29" s="147"/>
+      <c r="BA29" s="43"/>
+      <c r="BB29" s="94"/>
+      <c r="BC29" s="99"/>
+    </row>
+    <row r="30" spans="4:55">
+      <c r="D30" s="98"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="147"/>
+      <c r="Q30" s="148"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="147"/>
+      <c r="X30" s="148"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="40"/>
+      <c r="AA30" s="147"/>
+      <c r="AB30" s="148"/>
+      <c r="AC30" s="40"/>
+      <c r="AD30" s="40"/>
+      <c r="AE30" s="147"/>
+      <c r="AF30" s="148"/>
+      <c r="AG30" s="40"/>
+      <c r="AH30" s="40"/>
+      <c r="AI30" s="40"/>
+      <c r="AJ30" s="40"/>
+      <c r="AK30" s="40"/>
+      <c r="AL30" s="40"/>
+      <c r="AM30" s="40"/>
+      <c r="AN30" s="148"/>
+      <c r="AO30" s="40"/>
+      <c r="AP30" s="40"/>
+      <c r="AQ30" s="40"/>
+      <c r="AR30" s="40"/>
+      <c r="AS30" s="40"/>
+      <c r="AT30" s="147"/>
+      <c r="AU30" s="148"/>
+      <c r="AV30" s="40"/>
+      <c r="AW30" s="40"/>
+      <c r="AX30" s="40"/>
+      <c r="AY30" s="40"/>
+      <c r="AZ30" s="147"/>
+      <c r="BA30" s="43"/>
+      <c r="BB30" s="94"/>
+      <c r="BC30" s="99"/>
+    </row>
+    <row r="31" spans="4:55">
+      <c r="D31" s="98"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="149"/>
+      <c r="Q31" s="150"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="149"/>
+      <c r="X31" s="150"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45"/>
+      <c r="AA31" s="149"/>
+      <c r="AB31" s="150"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="45"/>
+      <c r="AE31" s="149"/>
+      <c r="AF31" s="150"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="45"/>
+      <c r="AI31" s="45"/>
+      <c r="AJ31" s="45"/>
+      <c r="AK31" s="45"/>
+      <c r="AL31" s="45"/>
+      <c r="AM31" s="45"/>
+      <c r="AN31" s="150"/>
+      <c r="AO31" s="45"/>
+      <c r="AP31" s="45"/>
+      <c r="AQ31" s="45"/>
+      <c r="AR31" s="45"/>
+      <c r="AS31" s="45"/>
+      <c r="AT31" s="149"/>
+      <c r="AU31" s="150"/>
+      <c r="AV31" s="45"/>
+      <c r="AW31" s="45"/>
+      <c r="AX31" s="45"/>
+      <c r="AY31" s="45"/>
+      <c r="AZ31" s="149"/>
+      <c r="BA31" s="46"/>
+      <c r="BB31" s="94"/>
+      <c r="BC31" s="99"/>
+    </row>
+    <row r="32" spans="4:55">
+      <c r="D32" s="98"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="47"/>
+      <c r="AB32" s="47"/>
+      <c r="AC32" s="47"/>
+      <c r="AD32" s="47"/>
+      <c r="AE32" s="47"/>
+      <c r="AF32" s="47"/>
+      <c r="AG32" s="47"/>
+      <c r="AH32" s="47"/>
+      <c r="AI32" s="47"/>
+      <c r="AJ32" s="47"/>
+      <c r="AK32" s="47"/>
+      <c r="AL32" s="47"/>
+      <c r="AM32" s="47"/>
+      <c r="AN32" s="47"/>
+      <c r="AO32" s="47"/>
+      <c r="AP32" s="47"/>
+      <c r="AQ32" s="47"/>
+      <c r="AR32" s="47"/>
+      <c r="AS32" s="47"/>
+      <c r="AT32" s="47"/>
+      <c r="AU32" s="47"/>
+      <c r="AV32" s="47"/>
+      <c r="AW32" s="47"/>
+      <c r="AX32" s="47"/>
+      <c r="AY32" s="47"/>
+      <c r="AZ32" s="47"/>
+      <c r="BA32" s="47"/>
+      <c r="BB32" s="94"/>
+      <c r="BC32" s="99"/>
+    </row>
+    <row r="33" spans="3:56">
+      <c r="D33" s="98"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="47"/>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB33" s="47"/>
+      <c r="AC33" s="83"/>
+      <c r="AD33" s="133" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE33" s="47"/>
+      <c r="AF33" s="47"/>
+      <c r="AG33" s="47"/>
+      <c r="AH33" s="47"/>
+      <c r="AI33" s="47"/>
+      <c r="AJ33" s="47"/>
+      <c r="AK33" s="47"/>
+      <c r="AL33" s="47"/>
+      <c r="AM33" s="47"/>
+      <c r="AN33" s="47"/>
+      <c r="AO33" s="47"/>
+      <c r="AP33" s="47"/>
+      <c r="AQ33" s="47"/>
+      <c r="AR33" s="47"/>
+      <c r="AS33" s="47"/>
+      <c r="AT33" s="47"/>
+      <c r="AU33" s="47"/>
+      <c r="AV33" s="47"/>
+      <c r="AW33" s="47"/>
+      <c r="AX33" s="47"/>
+      <c r="AY33" s="47"/>
+      <c r="AZ33" s="47"/>
+      <c r="BA33" s="47"/>
+      <c r="BB33" s="94"/>
+      <c r="BC33" s="99"/>
+    </row>
+    <row r="34" spans="3:56">
+      <c r="D34" s="98"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="47"/>
+      <c r="AA34" s="47"/>
+      <c r="AB34" s="47"/>
+      <c r="AC34" s="47"/>
+      <c r="AD34" s="47"/>
+      <c r="AE34" s="47"/>
+      <c r="AF34" s="47"/>
+      <c r="AG34" s="47"/>
+      <c r="AH34" s="47"/>
+      <c r="AI34" s="47"/>
+      <c r="AJ34" s="47"/>
+      <c r="AK34" s="47"/>
+      <c r="AL34" s="47"/>
+      <c r="AM34" s="47"/>
+      <c r="AN34" s="47"/>
+      <c r="AO34" s="47"/>
+      <c r="AP34" s="47"/>
+      <c r="AQ34" s="47"/>
+      <c r="AR34" s="47"/>
+      <c r="AS34" s="47"/>
+      <c r="AT34" s="47"/>
+      <c r="AU34" s="47"/>
+      <c r="AV34" s="47"/>
+      <c r="AW34" s="47"/>
+      <c r="AX34" s="47"/>
+      <c r="AY34" s="47"/>
+      <c r="AZ34" s="47"/>
+      <c r="BA34" s="47"/>
+      <c r="BB34" s="94"/>
+      <c r="BC34" s="99"/>
+    </row>
+    <row r="35" spans="3:56">
+      <c r="D35" s="98"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="47"/>
+      <c r="W35" s="47"/>
+      <c r="X35" s="47"/>
+      <c r="Y35" s="47"/>
+      <c r="Z35" s="47"/>
+      <c r="AA35" s="47"/>
+      <c r="AB35" s="47"/>
+      <c r="AC35" s="47"/>
+      <c r="AD35" s="47"/>
+      <c r="AE35" s="47"/>
+      <c r="AF35" s="47"/>
+      <c r="AG35" s="47"/>
+      <c r="AH35" s="47"/>
+      <c r="AI35" s="47"/>
+      <c r="AJ35" s="47"/>
+      <c r="AK35" s="47"/>
+      <c r="AL35" s="47"/>
+      <c r="AM35" s="47"/>
+      <c r="AN35" s="47"/>
+      <c r="AO35" s="47"/>
+      <c r="AP35" s="47"/>
+      <c r="AQ35" s="47"/>
+      <c r="AR35" s="47"/>
+      <c r="AS35" s="47"/>
+      <c r="AT35" s="47"/>
+      <c r="AU35" s="47"/>
+      <c r="AV35" s="47"/>
+      <c r="AW35" s="47"/>
+      <c r="AX35" s="47"/>
+      <c r="AY35" s="47"/>
+      <c r="AZ35" s="47"/>
+      <c r="BA35" s="47"/>
+      <c r="BB35" s="94"/>
+      <c r="BC35" s="99"/>
+    </row>
+    <row r="36" spans="3:56">
+      <c r="D36" s="98"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="96"/>
+      <c r="M36" s="96"/>
+      <c r="N36" s="96"/>
+      <c r="O36" s="96"/>
+      <c r="P36" s="96"/>
+      <c r="Q36" s="96"/>
+      <c r="R36" s="96"/>
+      <c r="S36" s="96"/>
+      <c r="T36" s="96"/>
+      <c r="U36" s="96"/>
+      <c r="V36" s="96"/>
+      <c r="W36" s="96"/>
+      <c r="X36" s="96"/>
+      <c r="Y36" s="96"/>
+      <c r="Z36" s="96"/>
+      <c r="AA36" s="96"/>
+      <c r="AB36" s="96"/>
+      <c r="AC36" s="96"/>
+      <c r="AD36" s="96"/>
+      <c r="AE36" s="96"/>
+      <c r="AF36" s="96"/>
+      <c r="AG36" s="96"/>
+      <c r="AH36" s="96"/>
+      <c r="AI36" s="96"/>
+      <c r="AJ36" s="96"/>
+      <c r="AK36" s="96"/>
+      <c r="AL36" s="96"/>
+      <c r="AM36" s="96"/>
+      <c r="AN36" s="96"/>
+      <c r="AO36" s="96"/>
+      <c r="AP36" s="96"/>
+      <c r="AQ36" s="96"/>
+      <c r="AR36" s="96"/>
+      <c r="AS36" s="96"/>
+      <c r="AT36" s="96"/>
+      <c r="AU36" s="96"/>
+      <c r="AV36" s="96"/>
+      <c r="AW36" s="96"/>
+      <c r="AX36" s="96"/>
+      <c r="AY36" s="96"/>
+      <c r="AZ36" s="96"/>
+      <c r="BA36" s="96"/>
+      <c r="BB36" s="97"/>
+      <c r="BC36" s="99"/>
+    </row>
+    <row r="37" spans="3:56">
+      <c r="D37" s="98"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="47"/>
+      <c r="AF37" s="47"/>
+      <c r="AG37" s="47"/>
+      <c r="AH37" s="47"/>
+      <c r="AI37" s="47"/>
+      <c r="AJ37" s="47"/>
+      <c r="AK37" s="47"/>
+      <c r="AL37" s="47"/>
+      <c r="AM37" s="47"/>
+      <c r="AN37" s="47"/>
+      <c r="AO37" s="47"/>
+      <c r="AP37" s="47"/>
+      <c r="AQ37" s="47"/>
+      <c r="AR37" s="47"/>
+      <c r="AS37" s="47"/>
+      <c r="AT37" s="47"/>
+      <c r="AU37" s="47"/>
+      <c r="AV37" s="47"/>
+      <c r="AW37" s="47"/>
+      <c r="AX37" s="47"/>
+      <c r="AY37" s="47"/>
+      <c r="AZ37" s="47"/>
+      <c r="BA37" s="47"/>
+      <c r="BB37" s="47"/>
+      <c r="BC37" s="99"/>
+    </row>
+    <row r="38" spans="3:56" ht="13.5" thickBot="1">
+      <c r="D38" s="100"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="101"/>
+      <c r="J38" s="101"/>
+      <c r="K38" s="101"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="101"/>
+      <c r="N38" s="101"/>
+      <c r="O38" s="101"/>
+      <c r="P38" s="101"/>
+      <c r="Q38" s="101"/>
+      <c r="R38" s="101"/>
+      <c r="S38" s="101"/>
+      <c r="T38" s="101"/>
+      <c r="U38" s="101"/>
+      <c r="V38" s="101"/>
+      <c r="W38" s="101"/>
+      <c r="X38" s="101"/>
+      <c r="Y38" s="101"/>
+      <c r="Z38" s="101"/>
+      <c r="AA38" s="101"/>
+      <c r="AB38" s="101"/>
+      <c r="AC38" s="101"/>
+      <c r="AD38" s="101"/>
+      <c r="AE38" s="101"/>
+      <c r="AF38" s="101"/>
+      <c r="AG38" s="101"/>
+      <c r="AH38" s="101"/>
+      <c r="AI38" s="101"/>
+      <c r="AJ38" s="101"/>
+      <c r="AK38" s="101"/>
+      <c r="AL38" s="101"/>
+      <c r="AM38" s="101"/>
+      <c r="AN38" s="101"/>
+      <c r="AO38" s="101"/>
+      <c r="AP38" s="101"/>
+      <c r="AQ38" s="101"/>
+      <c r="AR38" s="101"/>
+      <c r="AS38" s="101"/>
+      <c r="AT38" s="101"/>
+      <c r="AU38" s="101"/>
+      <c r="AV38" s="101"/>
+      <c r="AW38" s="101"/>
+      <c r="AX38" s="101"/>
+      <c r="AY38" s="101"/>
+      <c r="AZ38" s="101"/>
+      <c r="BA38" s="101"/>
+      <c r="BB38" s="101"/>
+      <c r="BC38" s="102"/>
     </row>
     <row r="41" spans="3:56">
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
     </row>
     <row r="42" spans="3:56">
       <c r="C42" s="33"/>
     </row>
     <row r="43" spans="3:56" ht="15">
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54" t="s">
+      <c r="D43" s="67"/>
+      <c r="E43" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54" t="s">
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54" t="s">
+      <c r="O43" s="67"/>
+      <c r="P43" s="67"/>
+      <c r="Q43" s="67"/>
+      <c r="R43" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="S43" s="54"/>
-      <c r="T43" s="54"/>
-      <c r="U43" s="54" t="s">
+      <c r="S43" s="67"/>
+      <c r="T43" s="67"/>
+      <c r="U43" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="V43" s="54"/>
-      <c r="W43" s="54"/>
-      <c r="X43" s="54" t="s">
+      <c r="V43" s="67"/>
+      <c r="W43" s="67"/>
+      <c r="X43" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="Y43" s="54"/>
-      <c r="Z43" s="54"/>
-      <c r="AA43" s="54"/>
-      <c r="AB43" s="54"/>
-      <c r="AC43" s="54"/>
-      <c r="AD43" s="54"/>
-      <c r="AE43" s="54" t="s">
+      <c r="Y43" s="67"/>
+      <c r="Z43" s="67"/>
+      <c r="AA43" s="67"/>
+      <c r="AB43" s="67"/>
+      <c r="AC43" s="67"/>
+      <c r="AD43" s="67"/>
+      <c r="AE43" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AF43" s="54"/>
-      <c r="AG43" s="54"/>
-      <c r="AH43" s="54"/>
-      <c r="AI43" s="54"/>
-      <c r="AJ43" s="54" t="s">
+      <c r="AF43" s="67"/>
+      <c r="AG43" s="67"/>
+      <c r="AH43" s="67"/>
+      <c r="AI43" s="67"/>
+      <c r="AJ43" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AK43" s="54"/>
-      <c r="AL43" s="54"/>
-      <c r="AM43" s="54"/>
-      <c r="AN43" s="54" t="s">
+      <c r="AK43" s="67"/>
+      <c r="AL43" s="67"/>
+      <c r="AM43" s="67"/>
+      <c r="AN43" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="AO43" s="54"/>
-      <c r="AP43" s="54"/>
-      <c r="AQ43" s="54" t="s">
+      <c r="AO43" s="67"/>
+      <c r="AP43" s="67"/>
+      <c r="AQ43" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="AR43" s="54"/>
-      <c r="AS43" s="54"/>
-      <c r="AT43" s="54"/>
-      <c r="AU43" s="54"/>
-      <c r="AV43" s="54"/>
-      <c r="AW43" s="54" t="s">
+      <c r="AR43" s="67"/>
+      <c r="AS43" s="67"/>
+      <c r="AT43" s="67"/>
+      <c r="AU43" s="67"/>
+      <c r="AV43" s="67"/>
+      <c r="AW43" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="AX43" s="54"/>
-      <c r="AY43" s="54"/>
-      <c r="AZ43" s="54"/>
-      <c r="BA43" s="54"/>
-      <c r="BB43" s="54"/>
-      <c r="BC43" s="54"/>
-      <c r="BD43" s="55"/>
+      <c r="AX43" s="67"/>
+      <c r="AY43" s="67"/>
+      <c r="AZ43" s="67"/>
+      <c r="BA43" s="67"/>
+      <c r="BB43" s="67"/>
+      <c r="BC43" s="67"/>
+      <c r="BD43" s="68"/>
     </row>
     <row r="44" spans="3:56">
       <c r="C44" s="35"/>
@@ -6327,7 +9175,7 @@
       <c r="AI44" s="36"/>
       <c r="AJ44" s="35"/>
       <c r="AK44" s="36"/>
-      <c r="AL44" s="73">
+      <c r="AL44" s="50">
         <v>1</v>
       </c>
       <c r="AM44" s="36"/>
@@ -6403,7 +9251,7 @@
       <c r="AI45" s="40"/>
       <c r="AJ45" s="41"/>
       <c r="AK45" s="40"/>
-      <c r="AL45" s="73">
+      <c r="AL45" s="50">
         <v>1</v>
       </c>
       <c r="AM45" s="40"/>
@@ -6431,7 +9279,7 @@
       <c r="BC45" s="40"/>
       <c r="BD45" s="43"/>
     </row>
-    <row r="46" spans="3:56">
+    <row r="46" spans="3:56" ht="15" customHeight="1">
       <c r="C46" s="41"/>
       <c r="D46" s="40"/>
       <c r="E46" s="35" t="s">
@@ -6479,7 +9327,7 @@
       <c r="AI46" s="40"/>
       <c r="AJ46" s="41"/>
       <c r="AK46" s="40"/>
-      <c r="AL46" s="74">
+      <c r="AL46" s="51">
         <v>1</v>
       </c>
       <c r="AM46" s="40"/>
@@ -6488,14 +9336,14 @@
         <v>55</v>
       </c>
       <c r="AP46" s="40"/>
-      <c r="AQ46" s="41"/>
-      <c r="AR46" s="40"/>
-      <c r="AS46" s="40"/>
-      <c r="AT46" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU46" s="40"/>
-      <c r="AV46" s="40"/>
+      <c r="AQ46" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR46" s="89"/>
+      <c r="AS46" s="89"/>
+      <c r="AT46" s="89"/>
+      <c r="AU46" s="89"/>
+      <c r="AV46" s="90"/>
       <c r="AW46" s="41" t="s">
         <v>60</v>
       </c>
@@ -6555,7 +9403,7 @@
       <c r="AI47" s="40"/>
       <c r="AJ47" s="41"/>
       <c r="AK47" s="40"/>
-      <c r="AL47" s="73">
+      <c r="AL47" s="50">
         <v>1</v>
       </c>
       <c r="AM47" s="40"/>
@@ -6631,7 +9479,7 @@
       <c r="AI48" s="40"/>
       <c r="AJ48" s="41"/>
       <c r="AK48" s="40"/>
-      <c r="AL48" s="73" t="s">
+      <c r="AL48" s="50" t="s">
         <v>55</v>
       </c>
       <c r="AM48" s="40"/>
@@ -6705,7 +9553,7 @@
       <c r="AI49" s="40"/>
       <c r="AJ49" s="41"/>
       <c r="AK49" s="40"/>
-      <c r="AL49" s="73" t="s">
+      <c r="AL49" s="50" t="s">
         <v>55</v>
       </c>
       <c r="AM49" s="40"/>
@@ -6781,7 +9629,7 @@
       <c r="AI50" s="40"/>
       <c r="AJ50" s="41"/>
       <c r="AK50" s="40"/>
-      <c r="AL50" s="73" t="s">
+      <c r="AL50" s="50" t="s">
         <v>55</v>
       </c>
       <c r="AM50" s="40"/>
@@ -7159,7 +10007,7 @@
       <c r="AI55" s="40"/>
       <c r="AJ55" s="41"/>
       <c r="AK55" s="40"/>
-      <c r="AL55" s="73">
+      <c r="AL55" s="50">
         <v>1</v>
       </c>
       <c r="AM55" s="40"/>
@@ -7235,7 +10083,7 @@
       <c r="AI56" s="40"/>
       <c r="AJ56" s="41"/>
       <c r="AK56" s="40"/>
-      <c r="AL56" s="73">
+      <c r="AL56" s="50">
         <v>1</v>
       </c>
       <c r="AM56" s="40"/>
@@ -7264,116 +10112,116 @@
       <c r="BD56" s="43"/>
     </row>
     <row r="57" spans="3:56">
-      <c r="C57" s="75"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="75"/>
-      <c r="O57" s="76"/>
-      <c r="P57" s="76"/>
-      <c r="Q57" s="76"/>
-      <c r="R57" s="75"/>
-      <c r="S57" s="76"/>
-      <c r="T57" s="76"/>
-      <c r="U57" s="75"/>
-      <c r="V57" s="77"/>
-      <c r="W57" s="76"/>
-      <c r="X57" s="75"/>
-      <c r="Y57" s="76"/>
-      <c r="Z57" s="76"/>
-      <c r="AA57" s="77"/>
-      <c r="AB57" s="76"/>
-      <c r="AC57" s="76"/>
-      <c r="AD57" s="76"/>
-      <c r="AE57" s="75"/>
-      <c r="AF57" s="76"/>
-      <c r="AG57" s="77"/>
-      <c r="AH57" s="76"/>
-      <c r="AI57" s="76"/>
-      <c r="AJ57" s="75"/>
-      <c r="AK57" s="76"/>
-      <c r="AL57" s="78"/>
-      <c r="AM57" s="76"/>
-      <c r="AN57" s="75"/>
-      <c r="AO57" s="77"/>
-      <c r="AP57" s="76"/>
-      <c r="AQ57" s="75"/>
-      <c r="AR57" s="76"/>
-      <c r="AS57" s="76"/>
-      <c r="AT57" s="78"/>
-      <c r="AU57" s="76"/>
-      <c r="AV57" s="76"/>
-      <c r="AW57" s="75"/>
-      <c r="AX57" s="76"/>
-      <c r="AY57" s="76"/>
-      <c r="AZ57" s="76"/>
-      <c r="BA57" s="76"/>
-      <c r="BB57" s="76"/>
-      <c r="BC57" s="76"/>
-      <c r="BD57" s="79"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="53"/>
+      <c r="P57" s="53"/>
+      <c r="Q57" s="53"/>
+      <c r="R57" s="52"/>
+      <c r="S57" s="53"/>
+      <c r="T57" s="53"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="54"/>
+      <c r="W57" s="53"/>
+      <c r="X57" s="52"/>
+      <c r="Y57" s="53"/>
+      <c r="Z57" s="53"/>
+      <c r="AA57" s="54"/>
+      <c r="AB57" s="53"/>
+      <c r="AC57" s="53"/>
+      <c r="AD57" s="53"/>
+      <c r="AE57" s="52"/>
+      <c r="AF57" s="53"/>
+      <c r="AG57" s="54"/>
+      <c r="AH57" s="53"/>
+      <c r="AI57" s="53"/>
+      <c r="AJ57" s="52"/>
+      <c r="AK57" s="53"/>
+      <c r="AL57" s="55"/>
+      <c r="AM57" s="53"/>
+      <c r="AN57" s="52"/>
+      <c r="AO57" s="54"/>
+      <c r="AP57" s="53"/>
+      <c r="AQ57" s="52"/>
+      <c r="AR57" s="53"/>
+      <c r="AS57" s="53"/>
+      <c r="AT57" s="55"/>
+      <c r="AU57" s="53"/>
+      <c r="AV57" s="53"/>
+      <c r="AW57" s="52"/>
+      <c r="AX57" s="53"/>
+      <c r="AY57" s="53"/>
+      <c r="AZ57" s="53"/>
+      <c r="BA57" s="53"/>
+      <c r="BB57" s="53"/>
+      <c r="BC57" s="53"/>
+      <c r="BD57" s="56"/>
     </row>
     <row r="58" spans="3:56">
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="80"/>
-      <c r="J58" s="80"/>
-      <c r="K58" s="80"/>
-      <c r="L58" s="80"/>
-      <c r="M58" s="80"/>
-      <c r="N58" s="80"/>
-      <c r="O58" s="80"/>
-      <c r="P58" s="80"/>
-      <c r="Q58" s="80"/>
-      <c r="R58" s="80"/>
-      <c r="S58" s="80"/>
-      <c r="T58" s="80"/>
-      <c r="U58" s="80"/>
-      <c r="V58" s="81"/>
-      <c r="W58" s="80"/>
-      <c r="X58" s="80"/>
-      <c r="Y58" s="80"/>
-      <c r="Z58" s="80"/>
-      <c r="AA58" s="81"/>
-      <c r="AB58" s="80"/>
-      <c r="AC58" s="80"/>
-      <c r="AD58" s="80"/>
-      <c r="AE58" s="80"/>
-      <c r="AF58" s="80"/>
-      <c r="AG58" s="81"/>
-      <c r="AH58" s="80"/>
-      <c r="AI58" s="80"/>
-      <c r="AJ58" s="80"/>
-      <c r="AK58" s="80"/>
-      <c r="AL58" s="82"/>
-      <c r="AM58" s="80"/>
-      <c r="AN58" s="80"/>
-      <c r="AO58" s="81"/>
-      <c r="AP58" s="80"/>
-      <c r="AQ58" s="80"/>
-      <c r="AR58" s="80"/>
-      <c r="AS58" s="80"/>
-      <c r="AT58" s="82"/>
-      <c r="AU58" s="80"/>
-      <c r="AV58" s="80"/>
-      <c r="AW58" s="80"/>
-      <c r="AX58" s="80"/>
-      <c r="AY58" s="80"/>
-      <c r="AZ58" s="80"/>
-      <c r="BA58" s="80"/>
-      <c r="BB58" s="80"/>
-      <c r="BC58" s="80"/>
-      <c r="BD58" s="80"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+      <c r="N58" s="57"/>
+      <c r="O58" s="57"/>
+      <c r="P58" s="57"/>
+      <c r="Q58" s="57"/>
+      <c r="R58" s="57"/>
+      <c r="S58" s="57"/>
+      <c r="T58" s="57"/>
+      <c r="U58" s="57"/>
+      <c r="V58" s="58"/>
+      <c r="W58" s="57"/>
+      <c r="X58" s="57"/>
+      <c r="Y58" s="57"/>
+      <c r="Z58" s="57"/>
+      <c r="AA58" s="58"/>
+      <c r="AB58" s="57"/>
+      <c r="AC58" s="57"/>
+      <c r="AD58" s="57"/>
+      <c r="AE58" s="57"/>
+      <c r="AF58" s="57"/>
+      <c r="AG58" s="58"/>
+      <c r="AH58" s="57"/>
+      <c r="AI58" s="57"/>
+      <c r="AJ58" s="57"/>
+      <c r="AK58" s="57"/>
+      <c r="AL58" s="59"/>
+      <c r="AM58" s="57"/>
+      <c r="AN58" s="57"/>
+      <c r="AO58" s="58"/>
+      <c r="AP58" s="57"/>
+      <c r="AQ58" s="57"/>
+      <c r="AR58" s="57"/>
+      <c r="AS58" s="57"/>
+      <c r="AT58" s="59"/>
+      <c r="AU58" s="57"/>
+      <c r="AV58" s="57"/>
+      <c r="AW58" s="57"/>
+      <c r="AX58" s="57"/>
+      <c r="AY58" s="57"/>
+      <c r="AZ58" s="57"/>
+      <c r="BA58" s="57"/>
+      <c r="BB58" s="57"/>
+      <c r="BC58" s="57"/>
+      <c r="BD58" s="57"/>
     </row>
     <row r="59" spans="3:56">
       <c r="C59" s="47"/>
@@ -7395,31 +10243,31 @@
       <c r="S59" s="47"/>
       <c r="T59" s="47"/>
       <c r="U59" s="47"/>
-      <c r="V59" s="77"/>
+      <c r="V59" s="54"/>
       <c r="W59" s="47"/>
       <c r="X59" s="47"/>
       <c r="Y59" s="47"/>
       <c r="Z59" s="47"/>
-      <c r="AA59" s="77"/>
+      <c r="AA59" s="54"/>
       <c r="AB59" s="47"/>
       <c r="AC59" s="47"/>
       <c r="AD59" s="47"/>
       <c r="AE59" s="47"/>
       <c r="AF59" s="47"/>
-      <c r="AG59" s="77"/>
+      <c r="AG59" s="54"/>
       <c r="AH59" s="47"/>
       <c r="AI59" s="47"/>
       <c r="AJ59" s="47"/>
       <c r="AK59" s="47"/>
-      <c r="AL59" s="78"/>
+      <c r="AL59" s="55"/>
       <c r="AM59" s="47"/>
       <c r="AN59" s="47"/>
-      <c r="AO59" s="77"/>
+      <c r="AO59" s="54"/>
       <c r="AP59" s="47"/>
       <c r="AQ59" s="47"/>
       <c r="AR59" s="47"/>
       <c r="AS59" s="47"/>
-      <c r="AT59" s="78"/>
+      <c r="AT59" s="55"/>
       <c r="AU59" s="47"/>
       <c r="AV59" s="47"/>
       <c r="AW59" s="47"/>
@@ -7451,31 +10299,31 @@
       <c r="S60" s="47"/>
       <c r="T60" s="47"/>
       <c r="U60" s="47"/>
-      <c r="V60" s="77"/>
+      <c r="V60" s="54"/>
       <c r="W60" s="47"/>
       <c r="X60" s="47"/>
       <c r="Y60" s="47"/>
       <c r="Z60" s="47"/>
-      <c r="AA60" s="77"/>
+      <c r="AA60" s="54"/>
       <c r="AB60" s="47"/>
       <c r="AC60" s="47"/>
       <c r="AD60" s="47"/>
       <c r="AE60" s="47"/>
       <c r="AF60" s="47"/>
-      <c r="AG60" s="77"/>
+      <c r="AG60" s="54"/>
       <c r="AH60" s="47"/>
       <c r="AI60" s="47"/>
       <c r="AJ60" s="47"/>
       <c r="AK60" s="47"/>
-      <c r="AL60" s="78"/>
+      <c r="AL60" s="55"/>
       <c r="AM60" s="47"/>
       <c r="AN60" s="47"/>
-      <c r="AO60" s="77"/>
+      <c r="AO60" s="54"/>
       <c r="AP60" s="47"/>
       <c r="AQ60" s="47"/>
       <c r="AR60" s="47"/>
       <c r="AS60" s="47"/>
-      <c r="AT60" s="78"/>
+      <c r="AT60" s="55"/>
       <c r="AU60" s="47"/>
       <c r="AV60" s="47"/>
       <c r="AW60" s="47"/>
@@ -7507,31 +10355,31 @@
       <c r="S61" s="47"/>
       <c r="T61" s="47"/>
       <c r="U61" s="47"/>
-      <c r="V61" s="77"/>
+      <c r="V61" s="54"/>
       <c r="W61" s="47"/>
       <c r="X61" s="47"/>
       <c r="Y61" s="47"/>
       <c r="Z61" s="47"/>
-      <c r="AA61" s="77"/>
+      <c r="AA61" s="54"/>
       <c r="AB61" s="47"/>
       <c r="AC61" s="47"/>
       <c r="AD61" s="47"/>
       <c r="AE61" s="47"/>
       <c r="AF61" s="47"/>
-      <c r="AG61" s="77"/>
+      <c r="AG61" s="54"/>
       <c r="AH61" s="47"/>
       <c r="AI61" s="47"/>
       <c r="AJ61" s="47"/>
       <c r="AK61" s="47"/>
-      <c r="AL61" s="78"/>
+      <c r="AL61" s="55"/>
       <c r="AM61" s="47"/>
       <c r="AN61" s="47"/>
-      <c r="AO61" s="77"/>
+      <c r="AO61" s="54"/>
       <c r="AP61" s="47"/>
       <c r="AQ61" s="47"/>
       <c r="AR61" s="47"/>
       <c r="AS61" s="47"/>
-      <c r="AT61" s="78"/>
+      <c r="AT61" s="55"/>
       <c r="AU61" s="47"/>
       <c r="AV61" s="47"/>
       <c r="AW61" s="47"/>
@@ -7563,31 +10411,31 @@
       <c r="S62" s="47"/>
       <c r="T62" s="47"/>
       <c r="U62" s="47"/>
-      <c r="V62" s="77"/>
+      <c r="V62" s="54"/>
       <c r="W62" s="47"/>
       <c r="X62" s="47"/>
       <c r="Y62" s="47"/>
       <c r="Z62" s="47"/>
-      <c r="AA62" s="77"/>
+      <c r="AA62" s="54"/>
       <c r="AB62" s="47"/>
       <c r="AC62" s="47"/>
       <c r="AD62" s="47"/>
       <c r="AE62" s="47"/>
       <c r="AF62" s="47"/>
-      <c r="AG62" s="77"/>
+      <c r="AG62" s="54"/>
       <c r="AH62" s="47"/>
       <c r="AI62" s="47"/>
       <c r="AJ62" s="47"/>
       <c r="AK62" s="47"/>
-      <c r="AL62" s="78"/>
+      <c r="AL62" s="55"/>
       <c r="AM62" s="47"/>
       <c r="AN62" s="47"/>
-      <c r="AO62" s="77"/>
+      <c r="AO62" s="54"/>
       <c r="AP62" s="47"/>
       <c r="AQ62" s="47"/>
       <c r="AR62" s="47"/>
       <c r="AS62" s="47"/>
-      <c r="AT62" s="78"/>
+      <c r="AT62" s="55"/>
       <c r="AU62" s="47"/>
       <c r="AV62" s="47"/>
       <c r="AW62" s="47"/>
@@ -7619,31 +10467,31 @@
       <c r="S63" s="47"/>
       <c r="T63" s="47"/>
       <c r="U63" s="47"/>
-      <c r="V63" s="77"/>
+      <c r="V63" s="54"/>
       <c r="W63" s="47"/>
       <c r="X63" s="47"/>
       <c r="Y63" s="47"/>
       <c r="Z63" s="47"/>
-      <c r="AA63" s="77"/>
+      <c r="AA63" s="54"/>
       <c r="AB63" s="47"/>
       <c r="AC63" s="47"/>
       <c r="AD63" s="47"/>
       <c r="AE63" s="47"/>
       <c r="AF63" s="47"/>
-      <c r="AG63" s="77"/>
+      <c r="AG63" s="54"/>
       <c r="AH63" s="47"/>
       <c r="AI63" s="47"/>
       <c r="AJ63" s="47"/>
       <c r="AK63" s="47"/>
-      <c r="AL63" s="78"/>
+      <c r="AL63" s="55"/>
       <c r="AM63" s="47"/>
       <c r="AN63" s="47"/>
-      <c r="AO63" s="77"/>
+      <c r="AO63" s="54"/>
       <c r="AP63" s="47"/>
       <c r="AQ63" s="47"/>
       <c r="AR63" s="47"/>
       <c r="AS63" s="47"/>
-      <c r="AT63" s="78"/>
+      <c r="AT63" s="55"/>
       <c r="AU63" s="47"/>
       <c r="AV63" s="47"/>
       <c r="AW63" s="47"/>
@@ -7675,31 +10523,31 @@
       <c r="S64" s="47"/>
       <c r="T64" s="47"/>
       <c r="U64" s="47"/>
-      <c r="V64" s="77"/>
+      <c r="V64" s="54"/>
       <c r="W64" s="47"/>
       <c r="X64" s="47"/>
       <c r="Y64" s="47"/>
       <c r="Z64" s="47"/>
-      <c r="AA64" s="77"/>
+      <c r="AA64" s="54"/>
       <c r="AB64" s="47"/>
       <c r="AC64" s="47"/>
       <c r="AD64" s="47"/>
       <c r="AE64" s="47"/>
       <c r="AF64" s="47"/>
-      <c r="AG64" s="77"/>
+      <c r="AG64" s="54"/>
       <c r="AH64" s="47"/>
       <c r="AI64" s="47"/>
       <c r="AJ64" s="47"/>
       <c r="AK64" s="47"/>
-      <c r="AL64" s="78"/>
+      <c r="AL64" s="55"/>
       <c r="AM64" s="47"/>
       <c r="AN64" s="47"/>
-      <c r="AO64" s="77"/>
+      <c r="AO64" s="54"/>
       <c r="AP64" s="47"/>
       <c r="AQ64" s="47"/>
       <c r="AR64" s="47"/>
       <c r="AS64" s="47"/>
-      <c r="AT64" s="78"/>
+      <c r="AT64" s="55"/>
       <c r="AU64" s="47"/>
       <c r="AV64" s="47"/>
       <c r="AW64" s="47"/>
@@ -7824,124 +10672,132 @@
       <c r="BD66" s="47"/>
     </row>
     <row r="67" spans="3:56">
-      <c r="C67" s="72" t="s">
+      <c r="C67" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="72"/>
-      <c r="J67" s="72"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="79"/>
+      <c r="H67" s="79"/>
+      <c r="I67" s="79"/>
+      <c r="J67" s="79"/>
     </row>
     <row r="68" spans="3:56">
       <c r="C68" s="33"/>
     </row>
     <row r="69" spans="3:56" ht="15">
-      <c r="C69" s="52" t="s">
+      <c r="C69" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51" t="s">
+      <c r="D69" s="69"/>
+      <c r="E69" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="51"/>
-      <c r="L69" s="51"/>
-      <c r="M69" s="51"/>
-      <c r="N69" s="51"/>
-      <c r="O69" s="51"/>
-      <c r="P69" s="51"/>
-      <c r="Q69" s="51"/>
-      <c r="R69" s="51" t="s">
+      <c r="F69" s="69"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
+      <c r="J69" s="69"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="69"/>
+      <c r="M69" s="69"/>
+      <c r="N69" s="69"/>
+      <c r="O69" s="69"/>
+      <c r="P69" s="69"/>
+      <c r="Q69" s="69"/>
+      <c r="R69" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="S69" s="51"/>
-      <c r="T69" s="51"/>
-      <c r="U69" s="51"/>
-      <c r="V69" s="51"/>
-      <c r="W69" s="51"/>
-      <c r="X69" s="51" t="s">
+      <c r="S69" s="69"/>
+      <c r="T69" s="69"/>
+      <c r="U69" s="69"/>
+      <c r="V69" s="69"/>
+      <c r="W69" s="69"/>
+      <c r="X69" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="Y69" s="51"/>
-      <c r="Z69" s="51"/>
-      <c r="AA69" s="51"/>
-      <c r="AB69" s="51"/>
-      <c r="AC69" s="51"/>
-      <c r="AD69" s="51"/>
-      <c r="AE69" s="51" t="s">
+      <c r="Y69" s="69"/>
+      <c r="Z69" s="69"/>
+      <c r="AA69" s="69"/>
+      <c r="AB69" s="69"/>
+      <c r="AC69" s="69"/>
+      <c r="AD69" s="69"/>
+      <c r="AE69" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="AF69" s="51"/>
-      <c r="AG69" s="51"/>
-      <c r="AH69" s="51"/>
-      <c r="AI69" s="51"/>
-      <c r="AJ69" s="51"/>
-      <c r="AK69" s="51"/>
-      <c r="AL69" s="51" t="s">
+      <c r="AF69" s="69"/>
+      <c r="AG69" s="69"/>
+      <c r="AH69" s="69"/>
+      <c r="AI69" s="69"/>
+      <c r="AJ69" s="69"/>
+      <c r="AK69" s="69"/>
+      <c r="AL69" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="AM69" s="51"/>
-      <c r="AN69" s="51"/>
-      <c r="AO69" s="51"/>
-      <c r="AP69" s="51"/>
-      <c r="AQ69" s="51"/>
-      <c r="AR69" s="51"/>
-      <c r="AS69" s="51"/>
-      <c r="AT69" s="51"/>
-      <c r="AU69" s="51"/>
-      <c r="AV69" s="51"/>
-      <c r="AW69" s="51"/>
-      <c r="AX69" s="51"/>
-      <c r="AY69" s="51"/>
-      <c r="AZ69" s="51"/>
-      <c r="BA69" s="51"/>
-      <c r="BB69" s="51"/>
-      <c r="BC69" s="51"/>
-      <c r="BD69" s="53"/>
-    </row>
-    <row r="70" spans="3:56">
+      <c r="AM69" s="69"/>
+      <c r="AN69" s="69"/>
+      <c r="AO69" s="69"/>
+      <c r="AP69" s="69"/>
+      <c r="AQ69" s="69"/>
+      <c r="AR69" s="69"/>
+      <c r="AS69" s="69"/>
+      <c r="AT69" s="69"/>
+      <c r="AU69" s="69"/>
+      <c r="AV69" s="69"/>
+      <c r="AW69" s="69"/>
+      <c r="AX69" s="69"/>
+      <c r="AY69" s="69"/>
+      <c r="AZ69" s="69"/>
+      <c r="BA69" s="69"/>
+      <c r="BB69" s="69"/>
+      <c r="BC69" s="69"/>
+      <c r="BD69" s="70"/>
+    </row>
+    <row r="70" spans="3:56" ht="15" customHeight="1">
       <c r="C70" s="48"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="36"/>
-      <c r="N70" s="36"/>
-      <c r="O70" s="36"/>
-      <c r="P70" s="36"/>
-      <c r="Q70" s="39"/>
+      <c r="D70" s="39">
+        <v>1</v>
+      </c>
+      <c r="E70" s="153" t="s">
+        <v>111</v>
+      </c>
+      <c r="F70" s="154"/>
+      <c r="G70" s="154"/>
+      <c r="H70" s="154"/>
+      <c r="I70" s="154"/>
+      <c r="J70" s="154"/>
+      <c r="K70" s="154"/>
+      <c r="L70" s="154"/>
+      <c r="M70" s="154"/>
+      <c r="N70" s="154"/>
+      <c r="O70" s="154"/>
+      <c r="P70" s="154"/>
+      <c r="Q70" s="155"/>
       <c r="R70" s="36"/>
       <c r="S70" s="36"/>
       <c r="T70" s="36"/>
       <c r="U70" s="36"/>
       <c r="V70" s="36"/>
       <c r="W70" s="39"/>
-      <c r="X70" s="36"/>
-      <c r="Y70" s="36"/>
-      <c r="Z70" s="36"/>
-      <c r="AA70" s="36"/>
-      <c r="AB70" s="36"/>
-      <c r="AC70" s="36"/>
-      <c r="AD70" s="39"/>
-      <c r="AE70" s="36"/>
-      <c r="AF70" s="36"/>
-      <c r="AG70" s="36"/>
-      <c r="AH70" s="36"/>
-      <c r="AI70" s="36"/>
-      <c r="AJ70" s="36"/>
-      <c r="AK70" s="39"/>
+      <c r="X70" s="151" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y70" s="87"/>
+      <c r="Z70" s="87"/>
+      <c r="AA70" s="87"/>
+      <c r="AB70" s="87"/>
+      <c r="AC70" s="87"/>
+      <c r="AD70" s="152"/>
+      <c r="AE70" s="153" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF70" s="154"/>
+      <c r="AG70" s="154"/>
+      <c r="AH70" s="154"/>
+      <c r="AI70" s="154"/>
+      <c r="AJ70" s="154"/>
+      <c r="AK70" s="155"/>
       <c r="AL70" s="36"/>
       <c r="AM70" s="36"/>
       <c r="AN70" s="36"/>
@@ -7962,42 +10818,50 @@
       <c r="BC70" s="36"/>
       <c r="BD70" s="39"/>
     </row>
-    <row r="71" spans="3:56">
+    <row r="71" spans="3:56" ht="15" customHeight="1">
       <c r="C71" s="49"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="40"/>
-      <c r="K71" s="40"/>
-      <c r="L71" s="40"/>
-      <c r="M71" s="40"/>
-      <c r="N71" s="40"/>
-      <c r="O71" s="40"/>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="43"/>
+      <c r="D71" s="43">
+        <v>2</v>
+      </c>
+      <c r="E71" s="156" t="s">
+        <v>114</v>
+      </c>
+      <c r="F71" s="157"/>
+      <c r="G71" s="157"/>
+      <c r="H71" s="157"/>
+      <c r="I71" s="157"/>
+      <c r="J71" s="157"/>
+      <c r="K71" s="157"/>
+      <c r="L71" s="157"/>
+      <c r="M71" s="157"/>
+      <c r="N71" s="157"/>
+      <c r="O71" s="157"/>
+      <c r="P71" s="157"/>
+      <c r="Q71" s="158"/>
       <c r="R71" s="40"/>
       <c r="S71" s="40"/>
       <c r="T71" s="40"/>
       <c r="U71" s="40"/>
       <c r="V71" s="40"/>
       <c r="W71" s="43"/>
-      <c r="X71" s="40"/>
-      <c r="Y71" s="40"/>
-      <c r="Z71" s="40"/>
-      <c r="AA71" s="40"/>
-      <c r="AB71" s="40"/>
-      <c r="AC71" s="40"/>
-      <c r="AD71" s="43"/>
-      <c r="AE71" s="40"/>
-      <c r="AF71" s="40"/>
-      <c r="AG71" s="40"/>
-      <c r="AH71" s="40"/>
-      <c r="AI71" s="40"/>
-      <c r="AJ71" s="40"/>
-      <c r="AK71" s="43"/>
+      <c r="X71" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y71" s="89"/>
+      <c r="Z71" s="89"/>
+      <c r="AA71" s="89"/>
+      <c r="AB71" s="89"/>
+      <c r="AC71" s="89"/>
+      <c r="AD71" s="90"/>
+      <c r="AE71" s="156" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF71" s="157"/>
+      <c r="AG71" s="157"/>
+      <c r="AH71" s="157"/>
+      <c r="AI71" s="157"/>
+      <c r="AJ71" s="157"/>
+      <c r="AK71" s="158"/>
       <c r="AL71" s="40"/>
       <c r="AM71" s="40"/>
       <c r="AN71" s="40"/>
@@ -8018,42 +10882,50 @@
       <c r="BC71" s="40"/>
       <c r="BD71" s="43"/>
     </row>
-    <row r="72" spans="3:56">
+    <row r="72" spans="3:56" ht="15" customHeight="1">
       <c r="C72" s="49"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="40"/>
-      <c r="N72" s="40"/>
-      <c r="O72" s="40"/>
-      <c r="P72" s="40"/>
-      <c r="Q72" s="43"/>
+      <c r="D72" s="43">
+        <v>3</v>
+      </c>
+      <c r="E72" s="156" t="s">
+        <v>115</v>
+      </c>
+      <c r="F72" s="157"/>
+      <c r="G72" s="157"/>
+      <c r="H72" s="157"/>
+      <c r="I72" s="157"/>
+      <c r="J72" s="157"/>
+      <c r="K72" s="157"/>
+      <c r="L72" s="157"/>
+      <c r="M72" s="157"/>
+      <c r="N72" s="157"/>
+      <c r="O72" s="157"/>
+      <c r="P72" s="157"/>
+      <c r="Q72" s="158"/>
       <c r="R72" s="40"/>
       <c r="S72" s="40"/>
       <c r="T72" s="40"/>
       <c r="U72" s="40"/>
       <c r="V72" s="40"/>
       <c r="W72" s="43"/>
-      <c r="X72" s="40"/>
-      <c r="Y72" s="40"/>
-      <c r="Z72" s="40"/>
-      <c r="AA72" s="40"/>
-      <c r="AB72" s="40"/>
-      <c r="AC72" s="40"/>
-      <c r="AD72" s="43"/>
-      <c r="AE72" s="40"/>
-      <c r="AF72" s="40"/>
-      <c r="AG72" s="40"/>
-      <c r="AH72" s="40"/>
-      <c r="AI72" s="40"/>
-      <c r="AJ72" s="40"/>
-      <c r="AK72" s="43"/>
+      <c r="X72" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y72" s="89"/>
+      <c r="Z72" s="89"/>
+      <c r="AA72" s="89"/>
+      <c r="AB72" s="89"/>
+      <c r="AC72" s="89"/>
+      <c r="AD72" s="90"/>
+      <c r="AE72" s="156" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF72" s="157"/>
+      <c r="AG72" s="157"/>
+      <c r="AH72" s="157"/>
+      <c r="AI72" s="157"/>
+      <c r="AJ72" s="157"/>
+      <c r="AK72" s="158"/>
       <c r="AL72" s="40"/>
       <c r="AM72" s="40"/>
       <c r="AN72" s="40"/>
@@ -8075,676 +10947,676 @@
       <c r="BD72" s="43"/>
     </row>
     <row r="73" spans="3:56">
-      <c r="C73" s="49"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="40"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="40"/>
-      <c r="K73" s="40"/>
-      <c r="L73" s="40"/>
-      <c r="M73" s="40"/>
-      <c r="N73" s="40"/>
-      <c r="O73" s="40"/>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="43"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="40"/>
-      <c r="T73" s="40"/>
-      <c r="U73" s="40"/>
-      <c r="V73" s="40"/>
-      <c r="W73" s="43"/>
-      <c r="X73" s="40"/>
-      <c r="Y73" s="40"/>
-      <c r="Z73" s="40"/>
-      <c r="AA73" s="40"/>
-      <c r="AB73" s="40"/>
-      <c r="AC73" s="40"/>
-      <c r="AD73" s="43"/>
-      <c r="AE73" s="40"/>
-      <c r="AF73" s="40"/>
-      <c r="AG73" s="40"/>
-      <c r="AH73" s="40"/>
-      <c r="AI73" s="40"/>
-      <c r="AJ73" s="40"/>
-      <c r="AK73" s="43"/>
-      <c r="AL73" s="40"/>
-      <c r="AM73" s="40"/>
-      <c r="AN73" s="40"/>
-      <c r="AO73" s="40"/>
-      <c r="AP73" s="40"/>
-      <c r="AQ73" s="40"/>
-      <c r="AR73" s="40"/>
-      <c r="AS73" s="40"/>
-      <c r="AT73" s="40"/>
-      <c r="AU73" s="40"/>
-      <c r="AV73" s="40"/>
-      <c r="AW73" s="40"/>
-      <c r="AX73" s="40"/>
-      <c r="AY73" s="40"/>
-      <c r="AZ73" s="40"/>
-      <c r="BA73" s="40"/>
-      <c r="BB73" s="40"/>
-      <c r="BC73" s="40"/>
-      <c r="BD73" s="43"/>
+      <c r="C73" s="159"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="53"/>
+      <c r="I73" s="53"/>
+      <c r="J73" s="53"/>
+      <c r="K73" s="53"/>
+      <c r="L73" s="53"/>
+      <c r="M73" s="53"/>
+      <c r="N73" s="53"/>
+      <c r="O73" s="53"/>
+      <c r="P73" s="53"/>
+      <c r="Q73" s="56"/>
+      <c r="R73" s="53"/>
+      <c r="S73" s="53"/>
+      <c r="T73" s="53"/>
+      <c r="U73" s="53"/>
+      <c r="V73" s="53"/>
+      <c r="W73" s="56"/>
+      <c r="X73" s="53"/>
+      <c r="Y73" s="53"/>
+      <c r="Z73" s="53"/>
+      <c r="AA73" s="53"/>
+      <c r="AB73" s="53"/>
+      <c r="AC73" s="53"/>
+      <c r="AD73" s="56"/>
+      <c r="AE73" s="53"/>
+      <c r="AF73" s="53"/>
+      <c r="AG73" s="53"/>
+      <c r="AH73" s="53"/>
+      <c r="AI73" s="53"/>
+      <c r="AJ73" s="53"/>
+      <c r="AK73" s="56"/>
+      <c r="AL73" s="53"/>
+      <c r="AM73" s="53"/>
+      <c r="AN73" s="53"/>
+      <c r="AO73" s="53"/>
+      <c r="AP73" s="53"/>
+      <c r="AQ73" s="53"/>
+      <c r="AR73" s="53"/>
+      <c r="AS73" s="53"/>
+      <c r="AT73" s="53"/>
+      <c r="AU73" s="53"/>
+      <c r="AV73" s="53"/>
+      <c r="AW73" s="53"/>
+      <c r="AX73" s="53"/>
+      <c r="AY73" s="53"/>
+      <c r="AZ73" s="53"/>
+      <c r="BA73" s="53"/>
+      <c r="BB73" s="53"/>
+      <c r="BC73" s="53"/>
+      <c r="BD73" s="56"/>
     </row>
     <row r="74" spans="3:56">
-      <c r="C74" s="49"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
-      <c r="L74" s="40"/>
-      <c r="M74" s="40"/>
-      <c r="N74" s="40"/>
-      <c r="O74" s="40"/>
-      <c r="P74" s="40"/>
-      <c r="Q74" s="43"/>
-      <c r="R74" s="40"/>
-      <c r="S74" s="40"/>
-      <c r="T74" s="40"/>
-      <c r="U74" s="40"/>
-      <c r="V74" s="40"/>
-      <c r="W74" s="43"/>
-      <c r="X74" s="40"/>
-      <c r="Y74" s="40"/>
-      <c r="Z74" s="40"/>
-      <c r="AA74" s="40"/>
-      <c r="AB74" s="40"/>
-      <c r="AC74" s="40"/>
-      <c r="AD74" s="43"/>
-      <c r="AE74" s="40"/>
-      <c r="AF74" s="40"/>
-      <c r="AG74" s="40"/>
-      <c r="AH74" s="40"/>
-      <c r="AI74" s="40"/>
-      <c r="AJ74" s="40"/>
-      <c r="AK74" s="43"/>
-      <c r="AL74" s="40"/>
-      <c r="AM74" s="40"/>
-      <c r="AN74" s="40"/>
-      <c r="AO74" s="40"/>
-      <c r="AP74" s="40"/>
-      <c r="AQ74" s="40"/>
-      <c r="AR74" s="40"/>
-      <c r="AS74" s="40"/>
-      <c r="AT74" s="40"/>
-      <c r="AU74" s="40"/>
-      <c r="AV74" s="40"/>
-      <c r="AW74" s="40"/>
-      <c r="AX74" s="40"/>
-      <c r="AY74" s="40"/>
-      <c r="AZ74" s="40"/>
-      <c r="BA74" s="40"/>
-      <c r="BB74" s="40"/>
-      <c r="BC74" s="40"/>
-      <c r="BD74" s="43"/>
+      <c r="C74" s="160"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="57"/>
+      <c r="K74" s="57"/>
+      <c r="L74" s="57"/>
+      <c r="M74" s="57"/>
+      <c r="N74" s="57"/>
+      <c r="O74" s="57"/>
+      <c r="P74" s="57"/>
+      <c r="Q74" s="57"/>
+      <c r="R74" s="57"/>
+      <c r="S74" s="57"/>
+      <c r="T74" s="57"/>
+      <c r="U74" s="57"/>
+      <c r="V74" s="57"/>
+      <c r="W74" s="57"/>
+      <c r="X74" s="57"/>
+      <c r="Y74" s="57"/>
+      <c r="Z74" s="57"/>
+      <c r="AA74" s="57"/>
+      <c r="AB74" s="57"/>
+      <c r="AC74" s="57"/>
+      <c r="AD74" s="57"/>
+      <c r="AE74" s="57"/>
+      <c r="AF74" s="57"/>
+      <c r="AG74" s="57"/>
+      <c r="AH74" s="57"/>
+      <c r="AI74" s="57"/>
+      <c r="AJ74" s="57"/>
+      <c r="AK74" s="57"/>
+      <c r="AL74" s="57"/>
+      <c r="AM74" s="57"/>
+      <c r="AN74" s="57"/>
+      <c r="AO74" s="57"/>
+      <c r="AP74" s="57"/>
+      <c r="AQ74" s="57"/>
+      <c r="AR74" s="57"/>
+      <c r="AS74" s="57"/>
+      <c r="AT74" s="57"/>
+      <c r="AU74" s="57"/>
+      <c r="AV74" s="57"/>
+      <c r="AW74" s="57"/>
+      <c r="AX74" s="57"/>
+      <c r="AY74" s="57"/>
+      <c r="AZ74" s="57"/>
+      <c r="BA74" s="57"/>
+      <c r="BB74" s="57"/>
+      <c r="BC74" s="57"/>
+      <c r="BD74" s="57"/>
     </row>
     <row r="75" spans="3:56">
-      <c r="C75" s="49"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="40"/>
-      <c r="N75" s="40"/>
-      <c r="O75" s="40"/>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="43"/>
-      <c r="R75" s="40"/>
-      <c r="S75" s="40"/>
-      <c r="T75" s="40"/>
-      <c r="U75" s="40"/>
-      <c r="V75" s="40"/>
-      <c r="W75" s="43"/>
-      <c r="X75" s="40"/>
-      <c r="Y75" s="40"/>
-      <c r="Z75" s="40"/>
-      <c r="AA75" s="40"/>
-      <c r="AB75" s="40"/>
-      <c r="AC75" s="40"/>
-      <c r="AD75" s="43"/>
-      <c r="AE75" s="40"/>
-      <c r="AF75" s="40"/>
-      <c r="AG75" s="40"/>
-      <c r="AH75" s="40"/>
-      <c r="AI75" s="40"/>
-      <c r="AJ75" s="40"/>
-      <c r="AK75" s="43"/>
-      <c r="AL75" s="40"/>
-      <c r="AM75" s="40"/>
-      <c r="AN75" s="40"/>
-      <c r="AO75" s="40"/>
-      <c r="AP75" s="40"/>
-      <c r="AQ75" s="40"/>
-      <c r="AR75" s="40"/>
-      <c r="AS75" s="40"/>
-      <c r="AT75" s="40"/>
-      <c r="AU75" s="40"/>
-      <c r="AV75" s="40"/>
-      <c r="AW75" s="40"/>
-      <c r="AX75" s="40"/>
-      <c r="AY75" s="40"/>
-      <c r="AZ75" s="40"/>
-      <c r="BA75" s="40"/>
-      <c r="BB75" s="40"/>
-      <c r="BC75" s="40"/>
-      <c r="BD75" s="43"/>
+      <c r="C75" s="161"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="47"/>
+      <c r="P75" s="47"/>
+      <c r="Q75" s="47"/>
+      <c r="R75" s="47"/>
+      <c r="S75" s="47"/>
+      <c r="T75" s="47"/>
+      <c r="U75" s="47"/>
+      <c r="V75" s="47"/>
+      <c r="W75" s="47"/>
+      <c r="X75" s="47"/>
+      <c r="Y75" s="47"/>
+      <c r="Z75" s="47"/>
+      <c r="AA75" s="47"/>
+      <c r="AB75" s="47"/>
+      <c r="AC75" s="47"/>
+      <c r="AD75" s="47"/>
+      <c r="AE75" s="47"/>
+      <c r="AF75" s="47"/>
+      <c r="AG75" s="47"/>
+      <c r="AH75" s="47"/>
+      <c r="AI75" s="47"/>
+      <c r="AJ75" s="47"/>
+      <c r="AK75" s="47"/>
+      <c r="AL75" s="47"/>
+      <c r="AM75" s="47"/>
+      <c r="AN75" s="47"/>
+      <c r="AO75" s="47"/>
+      <c r="AP75" s="47"/>
+      <c r="AQ75" s="47"/>
+      <c r="AR75" s="47"/>
+      <c r="AS75" s="47"/>
+      <c r="AT75" s="47"/>
+      <c r="AU75" s="47"/>
+      <c r="AV75" s="47"/>
+      <c r="AW75" s="47"/>
+      <c r="AX75" s="47"/>
+      <c r="AY75" s="47"/>
+      <c r="AZ75" s="47"/>
+      <c r="BA75" s="47"/>
+      <c r="BB75" s="47"/>
+      <c r="BC75" s="47"/>
+      <c r="BD75" s="47"/>
     </row>
     <row r="76" spans="3:56">
-      <c r="C76" s="49"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="43"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
-      <c r="T76" s="40"/>
-      <c r="U76" s="40"/>
-      <c r="V76" s="40"/>
-      <c r="W76" s="43"/>
-      <c r="X76" s="40"/>
-      <c r="Y76" s="40"/>
-      <c r="Z76" s="40"/>
-      <c r="AA76" s="40"/>
-      <c r="AB76" s="40"/>
-      <c r="AC76" s="40"/>
-      <c r="AD76" s="43"/>
-      <c r="AE76" s="40"/>
-      <c r="AF76" s="40"/>
-      <c r="AG76" s="40"/>
-      <c r="AH76" s="40"/>
-      <c r="AI76" s="40"/>
-      <c r="AJ76" s="40"/>
-      <c r="AK76" s="43"/>
-      <c r="AL76" s="40"/>
-      <c r="AM76" s="40"/>
-      <c r="AN76" s="40"/>
-      <c r="AO76" s="40"/>
-      <c r="AP76" s="40"/>
-      <c r="AQ76" s="40"/>
-      <c r="AR76" s="40"/>
-      <c r="AS76" s="40"/>
-      <c r="AT76" s="40"/>
-      <c r="AU76" s="40"/>
-      <c r="AV76" s="40"/>
-      <c r="AW76" s="40"/>
-      <c r="AX76" s="40"/>
-      <c r="AY76" s="40"/>
-      <c r="AZ76" s="40"/>
-      <c r="BA76" s="40"/>
-      <c r="BB76" s="40"/>
-      <c r="BC76" s="40"/>
-      <c r="BD76" s="43"/>
+      <c r="C76" s="161"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="47"/>
+      <c r="P76" s="47"/>
+      <c r="Q76" s="47"/>
+      <c r="R76" s="47"/>
+      <c r="S76" s="47"/>
+      <c r="T76" s="47"/>
+      <c r="U76" s="47"/>
+      <c r="V76" s="47"/>
+      <c r="W76" s="47"/>
+      <c r="X76" s="47"/>
+      <c r="Y76" s="47"/>
+      <c r="Z76" s="47"/>
+      <c r="AA76" s="47"/>
+      <c r="AB76" s="47"/>
+      <c r="AC76" s="47"/>
+      <c r="AD76" s="47"/>
+      <c r="AE76" s="47"/>
+      <c r="AF76" s="47"/>
+      <c r="AG76" s="47"/>
+      <c r="AH76" s="47"/>
+      <c r="AI76" s="47"/>
+      <c r="AJ76" s="47"/>
+      <c r="AK76" s="47"/>
+      <c r="AL76" s="47"/>
+      <c r="AM76" s="47"/>
+      <c r="AN76" s="47"/>
+      <c r="AO76" s="47"/>
+      <c r="AP76" s="47"/>
+      <c r="AQ76" s="47"/>
+      <c r="AR76" s="47"/>
+      <c r="AS76" s="47"/>
+      <c r="AT76" s="47"/>
+      <c r="AU76" s="47"/>
+      <c r="AV76" s="47"/>
+      <c r="AW76" s="47"/>
+      <c r="AX76" s="47"/>
+      <c r="AY76" s="47"/>
+      <c r="AZ76" s="47"/>
+      <c r="BA76" s="47"/>
+      <c r="BB76" s="47"/>
+      <c r="BC76" s="47"/>
+      <c r="BD76" s="47"/>
     </row>
     <row r="77" spans="3:56">
-      <c r="C77" s="41"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="40"/>
-      <c r="L77" s="40"/>
-      <c r="M77" s="40"/>
-      <c r="N77" s="40"/>
-      <c r="O77" s="40"/>
-      <c r="P77" s="40"/>
-      <c r="Q77" s="43"/>
-      <c r="R77" s="40"/>
-      <c r="S77" s="40"/>
-      <c r="T77" s="40"/>
-      <c r="U77" s="40"/>
-      <c r="V77" s="40"/>
-      <c r="W77" s="43"/>
-      <c r="X77" s="40"/>
-      <c r="Y77" s="40"/>
-      <c r="Z77" s="40"/>
-      <c r="AA77" s="40"/>
-      <c r="AB77" s="40"/>
-      <c r="AC77" s="40"/>
-      <c r="AD77" s="43"/>
-      <c r="AE77" s="40"/>
-      <c r="AF77" s="40"/>
-      <c r="AG77" s="40"/>
-      <c r="AH77" s="40"/>
-      <c r="AI77" s="40"/>
-      <c r="AJ77" s="40"/>
-      <c r="AK77" s="43"/>
-      <c r="AL77" s="40"/>
-      <c r="AM77" s="40"/>
-      <c r="AN77" s="40"/>
-      <c r="AO77" s="40"/>
-      <c r="AP77" s="40"/>
-      <c r="AQ77" s="40"/>
-      <c r="AR77" s="40"/>
-      <c r="AS77" s="40"/>
-      <c r="AT77" s="40"/>
-      <c r="AU77" s="40"/>
-      <c r="AV77" s="40"/>
-      <c r="AW77" s="40"/>
-      <c r="AX77" s="40"/>
-      <c r="AY77" s="40"/>
-      <c r="AZ77" s="40"/>
-      <c r="BA77" s="40"/>
-      <c r="BB77" s="40"/>
-      <c r="BC77" s="40"/>
-      <c r="BD77" s="43"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="47"/>
+      <c r="O77" s="47"/>
+      <c r="P77" s="47"/>
+      <c r="Q77" s="47"/>
+      <c r="R77" s="47"/>
+      <c r="S77" s="47"/>
+      <c r="T77" s="47"/>
+      <c r="U77" s="47"/>
+      <c r="V77" s="47"/>
+      <c r="W77" s="47"/>
+      <c r="X77" s="47"/>
+      <c r="Y77" s="47"/>
+      <c r="Z77" s="47"/>
+      <c r="AA77" s="47"/>
+      <c r="AB77" s="47"/>
+      <c r="AC77" s="47"/>
+      <c r="AD77" s="47"/>
+      <c r="AE77" s="47"/>
+      <c r="AF77" s="47"/>
+      <c r="AG77" s="47"/>
+      <c r="AH77" s="47"/>
+      <c r="AI77" s="47"/>
+      <c r="AJ77" s="47"/>
+      <c r="AK77" s="47"/>
+      <c r="AL77" s="47"/>
+      <c r="AM77" s="47"/>
+      <c r="AN77" s="47"/>
+      <c r="AO77" s="47"/>
+      <c r="AP77" s="47"/>
+      <c r="AQ77" s="47"/>
+      <c r="AR77" s="47"/>
+      <c r="AS77" s="47"/>
+      <c r="AT77" s="47"/>
+      <c r="AU77" s="47"/>
+      <c r="AV77" s="47"/>
+      <c r="AW77" s="47"/>
+      <c r="AX77" s="47"/>
+      <c r="AY77" s="47"/>
+      <c r="AZ77" s="47"/>
+      <c r="BA77" s="47"/>
+      <c r="BB77" s="47"/>
+      <c r="BC77" s="47"/>
+      <c r="BD77" s="47"/>
     </row>
     <row r="78" spans="3:56">
-      <c r="C78" s="41"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="40"/>
-      <c r="L78" s="40"/>
-      <c r="M78" s="40"/>
-      <c r="N78" s="40"/>
-      <c r="O78" s="40"/>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="43"/>
-      <c r="R78" s="40"/>
-      <c r="S78" s="40"/>
-      <c r="T78" s="40"/>
-      <c r="U78" s="40"/>
-      <c r="V78" s="40"/>
-      <c r="W78" s="43"/>
-      <c r="X78" s="40"/>
-      <c r="Y78" s="40"/>
-      <c r="Z78" s="40"/>
-      <c r="AA78" s="40"/>
-      <c r="AB78" s="40"/>
-      <c r="AC78" s="40"/>
-      <c r="AD78" s="43"/>
-      <c r="AE78" s="40"/>
-      <c r="AF78" s="40"/>
-      <c r="AG78" s="40"/>
-      <c r="AH78" s="40"/>
-      <c r="AI78" s="40"/>
-      <c r="AJ78" s="40"/>
-      <c r="AK78" s="43"/>
-      <c r="AL78" s="40"/>
-      <c r="AM78" s="40"/>
-      <c r="AN78" s="40"/>
-      <c r="AO78" s="40"/>
-      <c r="AP78" s="40"/>
-      <c r="AQ78" s="40"/>
-      <c r="AR78" s="40"/>
-      <c r="AS78" s="40"/>
-      <c r="AT78" s="40"/>
-      <c r="AU78" s="40"/>
-      <c r="AV78" s="40"/>
-      <c r="AW78" s="40"/>
-      <c r="AX78" s="40"/>
-      <c r="AY78" s="40"/>
-      <c r="AZ78" s="40"/>
-      <c r="BA78" s="40"/>
-      <c r="BB78" s="40"/>
-      <c r="BC78" s="40"/>
-      <c r="BD78" s="43"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
+      <c r="N78" s="47"/>
+      <c r="O78" s="47"/>
+      <c r="P78" s="47"/>
+      <c r="Q78" s="47"/>
+      <c r="R78" s="47"/>
+      <c r="S78" s="47"/>
+      <c r="T78" s="47"/>
+      <c r="U78" s="47"/>
+      <c r="V78" s="47"/>
+      <c r="W78" s="47"/>
+      <c r="X78" s="47"/>
+      <c r="Y78" s="47"/>
+      <c r="Z78" s="47"/>
+      <c r="AA78" s="47"/>
+      <c r="AB78" s="47"/>
+      <c r="AC78" s="47"/>
+      <c r="AD78" s="47"/>
+      <c r="AE78" s="47"/>
+      <c r="AF78" s="47"/>
+      <c r="AG78" s="47"/>
+      <c r="AH78" s="47"/>
+      <c r="AI78" s="47"/>
+      <c r="AJ78" s="47"/>
+      <c r="AK78" s="47"/>
+      <c r="AL78" s="47"/>
+      <c r="AM78" s="47"/>
+      <c r="AN78" s="47"/>
+      <c r="AO78" s="47"/>
+      <c r="AP78" s="47"/>
+      <c r="AQ78" s="47"/>
+      <c r="AR78" s="47"/>
+      <c r="AS78" s="47"/>
+      <c r="AT78" s="47"/>
+      <c r="AU78" s="47"/>
+      <c r="AV78" s="47"/>
+      <c r="AW78" s="47"/>
+      <c r="AX78" s="47"/>
+      <c r="AY78" s="47"/>
+      <c r="AZ78" s="47"/>
+      <c r="BA78" s="47"/>
+      <c r="BB78" s="47"/>
+      <c r="BC78" s="47"/>
+      <c r="BD78" s="47"/>
     </row>
     <row r="79" spans="3:56">
-      <c r="C79" s="41"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="40"/>
-      <c r="F79" s="40"/>
-      <c r="G79" s="40"/>
-      <c r="H79" s="40"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="40"/>
-      <c r="K79" s="40"/>
-      <c r="L79" s="40"/>
-      <c r="M79" s="40"/>
-      <c r="N79" s="40"/>
-      <c r="O79" s="40"/>
-      <c r="P79" s="40"/>
-      <c r="Q79" s="43"/>
-      <c r="R79" s="40"/>
-      <c r="S79" s="40"/>
-      <c r="T79" s="40"/>
-      <c r="U79" s="40"/>
-      <c r="V79" s="40"/>
-      <c r="W79" s="43"/>
-      <c r="X79" s="40"/>
-      <c r="Y79" s="40"/>
-      <c r="Z79" s="40"/>
-      <c r="AA79" s="40"/>
-      <c r="AB79" s="40"/>
-      <c r="AC79" s="40"/>
-      <c r="AD79" s="43"/>
-      <c r="AE79" s="40"/>
-      <c r="AF79" s="40"/>
-      <c r="AG79" s="40"/>
-      <c r="AH79" s="40"/>
-      <c r="AI79" s="40"/>
-      <c r="AJ79" s="40"/>
-      <c r="AK79" s="43"/>
-      <c r="AL79" s="40"/>
-      <c r="AM79" s="40"/>
-      <c r="AN79" s="40"/>
-      <c r="AO79" s="40"/>
-      <c r="AP79" s="40"/>
-      <c r="AQ79" s="40"/>
-      <c r="AR79" s="40"/>
-      <c r="AS79" s="40"/>
-      <c r="AT79" s="40"/>
-      <c r="AU79" s="40"/>
-      <c r="AV79" s="40"/>
-      <c r="AW79" s="40"/>
-      <c r="AX79" s="40"/>
-      <c r="AY79" s="40"/>
-      <c r="AZ79" s="40"/>
-      <c r="BA79" s="40"/>
-      <c r="BB79" s="40"/>
-      <c r="BC79" s="40"/>
-      <c r="BD79" s="43"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="47"/>
+      <c r="N79" s="47"/>
+      <c r="O79" s="47"/>
+      <c r="P79" s="47"/>
+      <c r="Q79" s="47"/>
+      <c r="R79" s="47"/>
+      <c r="S79" s="47"/>
+      <c r="T79" s="47"/>
+      <c r="U79" s="47"/>
+      <c r="V79" s="47"/>
+      <c r="W79" s="47"/>
+      <c r="X79" s="47"/>
+      <c r="Y79" s="47"/>
+      <c r="Z79" s="47"/>
+      <c r="AA79" s="47"/>
+      <c r="AB79" s="47"/>
+      <c r="AC79" s="47"/>
+      <c r="AD79" s="47"/>
+      <c r="AE79" s="47"/>
+      <c r="AF79" s="47"/>
+      <c r="AG79" s="47"/>
+      <c r="AH79" s="47"/>
+      <c r="AI79" s="47"/>
+      <c r="AJ79" s="47"/>
+      <c r="AK79" s="47"/>
+      <c r="AL79" s="47"/>
+      <c r="AM79" s="47"/>
+      <c r="AN79" s="47"/>
+      <c r="AO79" s="47"/>
+      <c r="AP79" s="47"/>
+      <c r="AQ79" s="47"/>
+      <c r="AR79" s="47"/>
+      <c r="AS79" s="47"/>
+      <c r="AT79" s="47"/>
+      <c r="AU79" s="47"/>
+      <c r="AV79" s="47"/>
+      <c r="AW79" s="47"/>
+      <c r="AX79" s="47"/>
+      <c r="AY79" s="47"/>
+      <c r="AZ79" s="47"/>
+      <c r="BA79" s="47"/>
+      <c r="BB79" s="47"/>
+      <c r="BC79" s="47"/>
+      <c r="BD79" s="47"/>
     </row>
     <row r="80" spans="3:56">
-      <c r="C80" s="41"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="40"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="40"/>
-      <c r="L80" s="40"/>
-      <c r="M80" s="40"/>
-      <c r="N80" s="40"/>
-      <c r="O80" s="40"/>
-      <c r="P80" s="40"/>
-      <c r="Q80" s="43"/>
-      <c r="R80" s="40"/>
-      <c r="S80" s="40"/>
-      <c r="T80" s="40"/>
-      <c r="U80" s="40"/>
-      <c r="V80" s="40"/>
-      <c r="W80" s="43"/>
-      <c r="X80" s="40"/>
-      <c r="Y80" s="40"/>
-      <c r="Z80" s="40"/>
-      <c r="AA80" s="40"/>
-      <c r="AB80" s="40"/>
-      <c r="AC80" s="40"/>
-      <c r="AD80" s="43"/>
-      <c r="AE80" s="40"/>
-      <c r="AF80" s="40"/>
-      <c r="AG80" s="40"/>
-      <c r="AH80" s="40"/>
-      <c r="AI80" s="40"/>
-      <c r="AJ80" s="40"/>
-      <c r="AK80" s="43"/>
-      <c r="AL80" s="40"/>
-      <c r="AM80" s="40"/>
-      <c r="AN80" s="40"/>
-      <c r="AO80" s="40"/>
-      <c r="AP80" s="40"/>
-      <c r="AQ80" s="40"/>
-      <c r="AR80" s="40"/>
-      <c r="AS80" s="40"/>
-      <c r="AT80" s="40"/>
-      <c r="AU80" s="40"/>
-      <c r="AV80" s="40"/>
-      <c r="AW80" s="40"/>
-      <c r="AX80" s="40"/>
-      <c r="AY80" s="40"/>
-      <c r="AZ80" s="40"/>
-      <c r="BA80" s="40"/>
-      <c r="BB80" s="40"/>
-      <c r="BC80" s="40"/>
-      <c r="BD80" s="43"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="47"/>
+      <c r="N80" s="47"/>
+      <c r="O80" s="47"/>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="47"/>
+      <c r="R80" s="47"/>
+      <c r="S80" s="47"/>
+      <c r="T80" s="47"/>
+      <c r="U80" s="47"/>
+      <c r="V80" s="47"/>
+      <c r="W80" s="47"/>
+      <c r="X80" s="47"/>
+      <c r="Y80" s="47"/>
+      <c r="Z80" s="47"/>
+      <c r="AA80" s="47"/>
+      <c r="AB80" s="47"/>
+      <c r="AC80" s="47"/>
+      <c r="AD80" s="47"/>
+      <c r="AE80" s="47"/>
+      <c r="AF80" s="47"/>
+      <c r="AG80" s="47"/>
+      <c r="AH80" s="47"/>
+      <c r="AI80" s="47"/>
+      <c r="AJ80" s="47"/>
+      <c r="AK80" s="47"/>
+      <c r="AL80" s="47"/>
+      <c r="AM80" s="47"/>
+      <c r="AN80" s="47"/>
+      <c r="AO80" s="47"/>
+      <c r="AP80" s="47"/>
+      <c r="AQ80" s="47"/>
+      <c r="AR80" s="47"/>
+      <c r="AS80" s="47"/>
+      <c r="AT80" s="47"/>
+      <c r="AU80" s="47"/>
+      <c r="AV80" s="47"/>
+      <c r="AW80" s="47"/>
+      <c r="AX80" s="47"/>
+      <c r="AY80" s="47"/>
+      <c r="AZ80" s="47"/>
+      <c r="BA80" s="47"/>
+      <c r="BB80" s="47"/>
+      <c r="BC80" s="47"/>
+      <c r="BD80" s="47"/>
     </row>
     <row r="81" spans="3:56">
-      <c r="C81" s="41"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="40"/>
-      <c r="F81" s="40"/>
-      <c r="G81" s="40"/>
-      <c r="H81" s="40"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="40"/>
-      <c r="K81" s="40"/>
-      <c r="L81" s="40"/>
-      <c r="M81" s="40"/>
-      <c r="N81" s="40"/>
-      <c r="O81" s="40"/>
-      <c r="P81" s="40"/>
-      <c r="Q81" s="43"/>
-      <c r="R81" s="40"/>
-      <c r="S81" s="40"/>
-      <c r="T81" s="40"/>
-      <c r="U81" s="40"/>
-      <c r="V81" s="40"/>
-      <c r="W81" s="43"/>
-      <c r="X81" s="40"/>
-      <c r="Y81" s="40"/>
-      <c r="Z81" s="40"/>
-      <c r="AA81" s="40"/>
-      <c r="AB81" s="40"/>
-      <c r="AC81" s="40"/>
-      <c r="AD81" s="43"/>
-      <c r="AE81" s="40"/>
-      <c r="AF81" s="40"/>
-      <c r="AG81" s="40"/>
-      <c r="AH81" s="40"/>
-      <c r="AI81" s="40"/>
-      <c r="AJ81" s="40"/>
-      <c r="AK81" s="43"/>
-      <c r="AL81" s="40"/>
-      <c r="AM81" s="40"/>
-      <c r="AN81" s="40"/>
-      <c r="AO81" s="40"/>
-      <c r="AP81" s="40"/>
-      <c r="AQ81" s="40"/>
-      <c r="AR81" s="40"/>
-      <c r="AS81" s="40"/>
-      <c r="AT81" s="40"/>
-      <c r="AU81" s="40"/>
-      <c r="AV81" s="40"/>
-      <c r="AW81" s="40"/>
-      <c r="AX81" s="40"/>
-      <c r="AY81" s="40"/>
-      <c r="AZ81" s="40"/>
-      <c r="BA81" s="40"/>
-      <c r="BB81" s="40"/>
-      <c r="BC81" s="40"/>
-      <c r="BD81" s="43"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="47"/>
+      <c r="L81" s="47"/>
+      <c r="M81" s="47"/>
+      <c r="N81" s="47"/>
+      <c r="O81" s="47"/>
+      <c r="P81" s="47"/>
+      <c r="Q81" s="47"/>
+      <c r="R81" s="47"/>
+      <c r="S81" s="47"/>
+      <c r="T81" s="47"/>
+      <c r="U81" s="47"/>
+      <c r="V81" s="47"/>
+      <c r="W81" s="47"/>
+      <c r="X81" s="47"/>
+      <c r="Y81" s="47"/>
+      <c r="Z81" s="47"/>
+      <c r="AA81" s="47"/>
+      <c r="AB81" s="47"/>
+      <c r="AC81" s="47"/>
+      <c r="AD81" s="47"/>
+      <c r="AE81" s="47"/>
+      <c r="AF81" s="47"/>
+      <c r="AG81" s="47"/>
+      <c r="AH81" s="47"/>
+      <c r="AI81" s="47"/>
+      <c r="AJ81" s="47"/>
+      <c r="AK81" s="47"/>
+      <c r="AL81" s="47"/>
+      <c r="AM81" s="47"/>
+      <c r="AN81" s="47"/>
+      <c r="AO81" s="47"/>
+      <c r="AP81" s="47"/>
+      <c r="AQ81" s="47"/>
+      <c r="AR81" s="47"/>
+      <c r="AS81" s="47"/>
+      <c r="AT81" s="47"/>
+      <c r="AU81" s="47"/>
+      <c r="AV81" s="47"/>
+      <c r="AW81" s="47"/>
+      <c r="AX81" s="47"/>
+      <c r="AY81" s="47"/>
+      <c r="AZ81" s="47"/>
+      <c r="BA81" s="47"/>
+      <c r="BB81" s="47"/>
+      <c r="BC81" s="47"/>
+      <c r="BD81" s="47"/>
     </row>
     <row r="82" spans="3:56">
-      <c r="C82" s="41"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="40"/>
-      <c r="F82" s="40"/>
-      <c r="G82" s="40"/>
-      <c r="H82" s="40"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="40"/>
-      <c r="K82" s="40"/>
-      <c r="L82" s="40"/>
-      <c r="M82" s="40"/>
-      <c r="N82" s="40"/>
-      <c r="O82" s="40"/>
-      <c r="P82" s="40"/>
-      <c r="Q82" s="43"/>
-      <c r="R82" s="40"/>
-      <c r="S82" s="40"/>
-      <c r="T82" s="40"/>
-      <c r="U82" s="40"/>
-      <c r="V82" s="40"/>
-      <c r="W82" s="43"/>
-      <c r="X82" s="40"/>
-      <c r="Y82" s="40"/>
-      <c r="Z82" s="40"/>
-      <c r="AA82" s="40"/>
-      <c r="AB82" s="40"/>
-      <c r="AC82" s="40"/>
-      <c r="AD82" s="43"/>
-      <c r="AE82" s="40"/>
-      <c r="AF82" s="40"/>
-      <c r="AG82" s="40"/>
-      <c r="AH82" s="40"/>
-      <c r="AI82" s="40"/>
-      <c r="AJ82" s="40"/>
-      <c r="AK82" s="43"/>
-      <c r="AL82" s="40"/>
-      <c r="AM82" s="40"/>
-      <c r="AN82" s="40"/>
-      <c r="AO82" s="40"/>
-      <c r="AP82" s="40"/>
-      <c r="AQ82" s="40"/>
-      <c r="AR82" s="40"/>
-      <c r="AS82" s="40"/>
-      <c r="AT82" s="40"/>
-      <c r="AU82" s="40"/>
-      <c r="AV82" s="40"/>
-      <c r="AW82" s="40"/>
-      <c r="AX82" s="40"/>
-      <c r="AY82" s="40"/>
-      <c r="AZ82" s="40"/>
-      <c r="BA82" s="40"/>
-      <c r="BB82" s="40"/>
-      <c r="BC82" s="40"/>
-      <c r="BD82" s="43"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="47"/>
+      <c r="L82" s="47"/>
+      <c r="M82" s="47"/>
+      <c r="N82" s="47"/>
+      <c r="O82" s="47"/>
+      <c r="P82" s="47"/>
+      <c r="Q82" s="47"/>
+      <c r="R82" s="47"/>
+      <c r="S82" s="47"/>
+      <c r="T82" s="47"/>
+      <c r="U82" s="47"/>
+      <c r="V82" s="47"/>
+      <c r="W82" s="47"/>
+      <c r="X82" s="47"/>
+      <c r="Y82" s="47"/>
+      <c r="Z82" s="47"/>
+      <c r="AA82" s="47"/>
+      <c r="AB82" s="47"/>
+      <c r="AC82" s="47"/>
+      <c r="AD82" s="47"/>
+      <c r="AE82" s="47"/>
+      <c r="AF82" s="47"/>
+      <c r="AG82" s="47"/>
+      <c r="AH82" s="47"/>
+      <c r="AI82" s="47"/>
+      <c r="AJ82" s="47"/>
+      <c r="AK82" s="47"/>
+      <c r="AL82" s="47"/>
+      <c r="AM82" s="47"/>
+      <c r="AN82" s="47"/>
+      <c r="AO82" s="47"/>
+      <c r="AP82" s="47"/>
+      <c r="AQ82" s="47"/>
+      <c r="AR82" s="47"/>
+      <c r="AS82" s="47"/>
+      <c r="AT82" s="47"/>
+      <c r="AU82" s="47"/>
+      <c r="AV82" s="47"/>
+      <c r="AW82" s="47"/>
+      <c r="AX82" s="47"/>
+      <c r="AY82" s="47"/>
+      <c r="AZ82" s="47"/>
+      <c r="BA82" s="47"/>
+      <c r="BB82" s="47"/>
+      <c r="BC82" s="47"/>
+      <c r="BD82" s="47"/>
     </row>
     <row r="83" spans="3:56">
-      <c r="C83" s="41"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="40"/>
-      <c r="G83" s="40"/>
-      <c r="H83" s="40"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="40"/>
-      <c r="K83" s="40"/>
-      <c r="L83" s="40"/>
-      <c r="M83" s="40"/>
-      <c r="N83" s="40"/>
-      <c r="O83" s="40"/>
-      <c r="P83" s="40"/>
-      <c r="Q83" s="43"/>
-      <c r="R83" s="40"/>
-      <c r="S83" s="40"/>
-      <c r="T83" s="40"/>
-      <c r="U83" s="40"/>
-      <c r="V83" s="40"/>
-      <c r="W83" s="43"/>
-      <c r="X83" s="40"/>
-      <c r="Y83" s="40"/>
-      <c r="Z83" s="40"/>
-      <c r="AA83" s="40"/>
-      <c r="AB83" s="40"/>
-      <c r="AC83" s="40"/>
-      <c r="AD83" s="43"/>
-      <c r="AE83" s="40"/>
-      <c r="AF83" s="40"/>
-      <c r="AG83" s="40"/>
-      <c r="AH83" s="40"/>
-      <c r="AI83" s="40"/>
-      <c r="AJ83" s="40"/>
-      <c r="AK83" s="43"/>
-      <c r="AL83" s="40"/>
-      <c r="AM83" s="40"/>
-      <c r="AN83" s="40"/>
-      <c r="AO83" s="40"/>
-      <c r="AP83" s="40"/>
-      <c r="AQ83" s="40"/>
-      <c r="AR83" s="40"/>
-      <c r="AS83" s="40"/>
-      <c r="AT83" s="40"/>
-      <c r="AU83" s="40"/>
-      <c r="AV83" s="40"/>
-      <c r="AW83" s="40"/>
-      <c r="AX83" s="40"/>
-      <c r="AY83" s="40"/>
-      <c r="AZ83" s="40"/>
-      <c r="BA83" s="40"/>
-      <c r="BB83" s="40"/>
-      <c r="BC83" s="40"/>
-      <c r="BD83" s="43"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="47"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="47"/>
+      <c r="M83" s="47"/>
+      <c r="N83" s="47"/>
+      <c r="O83" s="47"/>
+      <c r="P83" s="47"/>
+      <c r="Q83" s="47"/>
+      <c r="R83" s="47"/>
+      <c r="S83" s="47"/>
+      <c r="T83" s="47"/>
+      <c r="U83" s="47"/>
+      <c r="V83" s="47"/>
+      <c r="W83" s="47"/>
+      <c r="X83" s="47"/>
+      <c r="Y83" s="47"/>
+      <c r="Z83" s="47"/>
+      <c r="AA83" s="47"/>
+      <c r="AB83" s="47"/>
+      <c r="AC83" s="47"/>
+      <c r="AD83" s="47"/>
+      <c r="AE83" s="47"/>
+      <c r="AF83" s="47"/>
+      <c r="AG83" s="47"/>
+      <c r="AH83" s="47"/>
+      <c r="AI83" s="47"/>
+      <c r="AJ83" s="47"/>
+      <c r="AK83" s="47"/>
+      <c r="AL83" s="47"/>
+      <c r="AM83" s="47"/>
+      <c r="AN83" s="47"/>
+      <c r="AO83" s="47"/>
+      <c r="AP83" s="47"/>
+      <c r="AQ83" s="47"/>
+      <c r="AR83" s="47"/>
+      <c r="AS83" s="47"/>
+      <c r="AT83" s="47"/>
+      <c r="AU83" s="47"/>
+      <c r="AV83" s="47"/>
+      <c r="AW83" s="47"/>
+      <c r="AX83" s="47"/>
+      <c r="AY83" s="47"/>
+      <c r="AZ83" s="47"/>
+      <c r="BA83" s="47"/>
+      <c r="BB83" s="47"/>
+      <c r="BC83" s="47"/>
+      <c r="BD83" s="47"/>
     </row>
     <row r="84" spans="3:56">
-      <c r="C84" s="44"/>
-      <c r="D84" s="46"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="45"/>
-      <c r="J84" s="45"/>
-      <c r="K84" s="45"/>
-      <c r="L84" s="45"/>
-      <c r="M84" s="45"/>
-      <c r="N84" s="45"/>
-      <c r="O84" s="45"/>
-      <c r="P84" s="45"/>
-      <c r="Q84" s="46"/>
-      <c r="R84" s="45"/>
-      <c r="S84" s="45"/>
-      <c r="T84" s="45"/>
-      <c r="U84" s="45"/>
-      <c r="V84" s="45"/>
-      <c r="W84" s="46"/>
-      <c r="X84" s="45"/>
-      <c r="Y84" s="45"/>
-      <c r="Z84" s="45"/>
-      <c r="AA84" s="45"/>
-      <c r="AB84" s="45"/>
-      <c r="AC84" s="45"/>
-      <c r="AD84" s="46"/>
-      <c r="AE84" s="45"/>
-      <c r="AF84" s="45"/>
-      <c r="AG84" s="45"/>
-      <c r="AH84" s="45"/>
-      <c r="AI84" s="45"/>
-      <c r="AJ84" s="45"/>
-      <c r="AK84" s="46"/>
-      <c r="AL84" s="45"/>
-      <c r="AM84" s="45"/>
-      <c r="AN84" s="45"/>
-      <c r="AO84" s="45"/>
-      <c r="AP84" s="45"/>
-      <c r="AQ84" s="45"/>
-      <c r="AR84" s="45"/>
-      <c r="AS84" s="45"/>
-      <c r="AT84" s="45"/>
-      <c r="AU84" s="45"/>
-      <c r="AV84" s="45"/>
-      <c r="AW84" s="45"/>
-      <c r="AX84" s="45"/>
-      <c r="AY84" s="45"/>
-      <c r="AZ84" s="45"/>
-      <c r="BA84" s="45"/>
-      <c r="BB84" s="45"/>
-      <c r="BC84" s="45"/>
-      <c r="BD84" s="46"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="47"/>
+      <c r="I84" s="47"/>
+      <c r="J84" s="47"/>
+      <c r="K84" s="47"/>
+      <c r="L84" s="47"/>
+      <c r="M84" s="47"/>
+      <c r="N84" s="47"/>
+      <c r="O84" s="47"/>
+      <c r="P84" s="47"/>
+      <c r="Q84" s="47"/>
+      <c r="R84" s="47"/>
+      <c r="S84" s="47"/>
+      <c r="T84" s="47"/>
+      <c r="U84" s="47"/>
+      <c r="V84" s="47"/>
+      <c r="W84" s="47"/>
+      <c r="X84" s="47"/>
+      <c r="Y84" s="47"/>
+      <c r="Z84" s="47"/>
+      <c r="AA84" s="47"/>
+      <c r="AB84" s="47"/>
+      <c r="AC84" s="47"/>
+      <c r="AD84" s="47"/>
+      <c r="AE84" s="47"/>
+      <c r="AF84" s="47"/>
+      <c r="AG84" s="47"/>
+      <c r="AH84" s="47"/>
+      <c r="AI84" s="47"/>
+      <c r="AJ84" s="47"/>
+      <c r="AK84" s="47"/>
+      <c r="AL84" s="47"/>
+      <c r="AM84" s="47"/>
+      <c r="AN84" s="47"/>
+      <c r="AO84" s="47"/>
+      <c r="AP84" s="47"/>
+      <c r="AQ84" s="47"/>
+      <c r="AR84" s="47"/>
+      <c r="AS84" s="47"/>
+      <c r="AT84" s="47"/>
+      <c r="AU84" s="47"/>
+      <c r="AV84" s="47"/>
+      <c r="AW84" s="47"/>
+      <c r="AX84" s="47"/>
+      <c r="AY84" s="47"/>
+      <c r="AZ84" s="47"/>
+      <c r="BA84" s="47"/>
+      <c r="BB84" s="47"/>
+      <c r="BC84" s="47"/>
+      <c r="BD84" s="47"/>
     </row>
     <row r="86" spans="3:56">
       <c r="C86" s="33" t="s">
@@ -8752,73 +11624,77 @@
       </c>
     </row>
     <row r="88" spans="3:56" ht="15">
-      <c r="C88" s="52" t="s">
+      <c r="C88" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D88" s="51"/>
-      <c r="E88" s="51" t="s">
+      <c r="D88" s="69"/>
+      <c r="E88" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="F88" s="51"/>
-      <c r="G88" s="51"/>
-      <c r="H88" s="51"/>
-      <c r="I88" s="51"/>
-      <c r="J88" s="51"/>
-      <c r="K88" s="51"/>
-      <c r="L88" s="51"/>
-      <c r="M88" s="51"/>
-      <c r="N88" s="51"/>
-      <c r="O88" s="51"/>
-      <c r="P88" s="51"/>
-      <c r="Q88" s="51"/>
-      <c r="R88" s="51" t="s">
+      <c r="F88" s="69"/>
+      <c r="G88" s="69"/>
+      <c r="H88" s="69"/>
+      <c r="I88" s="69"/>
+      <c r="J88" s="69"/>
+      <c r="K88" s="69"/>
+      <c r="L88" s="69"/>
+      <c r="M88" s="69"/>
+      <c r="N88" s="69"/>
+      <c r="O88" s="69"/>
+      <c r="P88" s="69"/>
+      <c r="Q88" s="69"/>
+      <c r="R88" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="S88" s="51"/>
-      <c r="T88" s="51"/>
-      <c r="U88" s="51"/>
-      <c r="V88" s="51"/>
-      <c r="W88" s="51"/>
-      <c r="X88" s="51" t="s">
+      <c r="S88" s="69"/>
+      <c r="T88" s="69"/>
+      <c r="U88" s="69"/>
+      <c r="V88" s="69"/>
+      <c r="W88" s="69"/>
+      <c r="X88" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="Y88" s="51"/>
-      <c r="Z88" s="51"/>
-      <c r="AA88" s="51"/>
-      <c r="AB88" s="51"/>
-      <c r="AC88" s="51"/>
-      <c r="AD88" s="51"/>
-      <c r="AE88" s="51"/>
-      <c r="AF88" s="51"/>
-      <c r="AG88" s="51"/>
-      <c r="AH88" s="51"/>
-      <c r="AI88" s="51"/>
-      <c r="AJ88" s="51"/>
-      <c r="AK88" s="51"/>
-      <c r="AL88" s="51"/>
-      <c r="AM88" s="51"/>
-      <c r="AN88" s="51"/>
-      <c r="AO88" s="51"/>
-      <c r="AP88" s="51"/>
-      <c r="AQ88" s="51"/>
-      <c r="AR88" s="51"/>
-      <c r="AS88" s="51"/>
-      <c r="AT88" s="51"/>
-      <c r="AU88" s="51"/>
-      <c r="AV88" s="51"/>
-      <c r="AW88" s="51"/>
-      <c r="AX88" s="51"/>
-      <c r="AY88" s="51"/>
-      <c r="AZ88" s="51"/>
-      <c r="BA88" s="51"/>
-      <c r="BB88" s="51"/>
-      <c r="BC88" s="51"/>
-      <c r="BD88" s="53"/>
-    </row>
-    <row r="89" spans="3:56">
+      <c r="Y88" s="69"/>
+      <c r="Z88" s="69"/>
+      <c r="AA88" s="69"/>
+      <c r="AB88" s="69"/>
+      <c r="AC88" s="69"/>
+      <c r="AD88" s="69"/>
+      <c r="AE88" s="69"/>
+      <c r="AF88" s="69"/>
+      <c r="AG88" s="69"/>
+      <c r="AH88" s="69"/>
+      <c r="AI88" s="69"/>
+      <c r="AJ88" s="69"/>
+      <c r="AK88" s="69"/>
+      <c r="AL88" s="69"/>
+      <c r="AM88" s="69"/>
+      <c r="AN88" s="69"/>
+      <c r="AO88" s="69"/>
+      <c r="AP88" s="69"/>
+      <c r="AQ88" s="69"/>
+      <c r="AR88" s="69"/>
+      <c r="AS88" s="69"/>
+      <c r="AT88" s="69"/>
+      <c r="AU88" s="69"/>
+      <c r="AV88" s="69"/>
+      <c r="AW88" s="69"/>
+      <c r="AX88" s="69"/>
+      <c r="AY88" s="69"/>
+      <c r="AZ88" s="69"/>
+      <c r="BA88" s="69"/>
+      <c r="BB88" s="69"/>
+      <c r="BC88" s="69"/>
+      <c r="BD88" s="70"/>
+    </row>
+    <row r="89" spans="3:56" ht="15" customHeight="1">
       <c r="C89" s="35"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="36"/>
+      <c r="D89" s="39">
+        <v>1</v>
+      </c>
+      <c r="E89" s="35" t="s">
+        <v>52</v>
+      </c>
       <c r="F89" s="36"/>
       <c r="G89" s="36"/>
       <c r="H89" s="36"/>
@@ -8833,48 +11709,56 @@
       <c r="Q89" s="39"/>
       <c r="R89" s="36"/>
       <c r="S89" s="36"/>
-      <c r="T89" s="36"/>
+      <c r="T89" s="36" t="s">
+        <v>117</v>
+      </c>
       <c r="U89" s="36"/>
       <c r="V89" s="36"/>
       <c r="W89" s="39"/>
-      <c r="X89" s="36"/>
-      <c r="Y89" s="36"/>
-      <c r="Z89" s="36"/>
-      <c r="AA89" s="36"/>
-      <c r="AB89" s="36"/>
-      <c r="AC89" s="36"/>
-      <c r="AD89" s="36"/>
-      <c r="AE89" s="36"/>
-      <c r="AF89" s="36"/>
-      <c r="AG89" s="36"/>
-      <c r="AH89" s="36"/>
-      <c r="AI89" s="36"/>
-      <c r="AJ89" s="36"/>
-      <c r="AK89" s="36"/>
-      <c r="AL89" s="36"/>
-      <c r="AM89" s="36"/>
-      <c r="AN89" s="36"/>
-      <c r="AO89" s="36"/>
-      <c r="AP89" s="36"/>
-      <c r="AQ89" s="36"/>
-      <c r="AR89" s="36"/>
-      <c r="AS89" s="36"/>
-      <c r="AT89" s="36"/>
-      <c r="AU89" s="36"/>
-      <c r="AV89" s="36"/>
-      <c r="AW89" s="36"/>
-      <c r="AX89" s="36"/>
-      <c r="AY89" s="36"/>
-      <c r="AZ89" s="36"/>
-      <c r="BA89" s="36"/>
-      <c r="BB89" s="36"/>
-      <c r="BC89" s="36"/>
-      <c r="BD89" s="39"/>
-    </row>
-    <row r="90" spans="3:56">
+      <c r="X89" s="153" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y89" s="154"/>
+      <c r="Z89" s="154"/>
+      <c r="AA89" s="154"/>
+      <c r="AB89" s="154"/>
+      <c r="AC89" s="154"/>
+      <c r="AD89" s="154"/>
+      <c r="AE89" s="154"/>
+      <c r="AF89" s="154"/>
+      <c r="AG89" s="154"/>
+      <c r="AH89" s="154"/>
+      <c r="AI89" s="154"/>
+      <c r="AJ89" s="154"/>
+      <c r="AK89" s="154"/>
+      <c r="AL89" s="154"/>
+      <c r="AM89" s="154"/>
+      <c r="AN89" s="154"/>
+      <c r="AO89" s="154"/>
+      <c r="AP89" s="154"/>
+      <c r="AQ89" s="154"/>
+      <c r="AR89" s="154"/>
+      <c r="AS89" s="154"/>
+      <c r="AT89" s="154"/>
+      <c r="AU89" s="154"/>
+      <c r="AV89" s="154"/>
+      <c r="AW89" s="154"/>
+      <c r="AX89" s="154"/>
+      <c r="AY89" s="154"/>
+      <c r="AZ89" s="154"/>
+      <c r="BA89" s="154"/>
+      <c r="BB89" s="154"/>
+      <c r="BC89" s="154"/>
+      <c r="BD89" s="155"/>
+    </row>
+    <row r="90" spans="3:56" ht="15" customHeight="1">
       <c r="C90" s="41"/>
-      <c r="D90" s="43"/>
-      <c r="E90" s="40"/>
+      <c r="D90" s="43">
+        <v>2</v>
+      </c>
+      <c r="E90" s="41" t="s">
+        <v>57</v>
+      </c>
       <c r="F90" s="40"/>
       <c r="G90" s="40"/>
       <c r="H90" s="40"/>
@@ -8889,160 +11773,184 @@
       <c r="Q90" s="43"/>
       <c r="R90" s="40"/>
       <c r="S90" s="40"/>
-      <c r="T90" s="40"/>
+      <c r="T90" s="40" t="s">
+        <v>117</v>
+      </c>
       <c r="U90" s="40"/>
       <c r="V90" s="40"/>
       <c r="W90" s="43"/>
-      <c r="X90" s="40"/>
-      <c r="Y90" s="40"/>
-      <c r="Z90" s="40"/>
-      <c r="AA90" s="40"/>
-      <c r="AB90" s="40"/>
-      <c r="AC90" s="40"/>
-      <c r="AD90" s="40"/>
-      <c r="AE90" s="40"/>
-      <c r="AF90" s="40"/>
-      <c r="AG90" s="40"/>
-      <c r="AH90" s="40"/>
-      <c r="AI90" s="40"/>
-      <c r="AJ90" s="40"/>
-      <c r="AK90" s="40"/>
-      <c r="AL90" s="40"/>
-      <c r="AM90" s="40"/>
-      <c r="AN90" s="40"/>
-      <c r="AO90" s="40"/>
-      <c r="AP90" s="40"/>
-      <c r="AQ90" s="40"/>
-      <c r="AR90" s="40"/>
-      <c r="AS90" s="40"/>
-      <c r="AT90" s="40"/>
-      <c r="AU90" s="40"/>
-      <c r="AV90" s="40"/>
-      <c r="AW90" s="40"/>
-      <c r="AX90" s="40"/>
-      <c r="AY90" s="40"/>
-      <c r="AZ90" s="40"/>
-      <c r="BA90" s="40"/>
-      <c r="BB90" s="40"/>
-      <c r="BC90" s="40"/>
-      <c r="BD90" s="43"/>
-    </row>
-    <row r="91" spans="3:56">
+      <c r="X90" s="156" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y90" s="157"/>
+      <c r="Z90" s="157"/>
+      <c r="AA90" s="157"/>
+      <c r="AB90" s="157"/>
+      <c r="AC90" s="157"/>
+      <c r="AD90" s="157"/>
+      <c r="AE90" s="157"/>
+      <c r="AF90" s="157"/>
+      <c r="AG90" s="157"/>
+      <c r="AH90" s="157"/>
+      <c r="AI90" s="157"/>
+      <c r="AJ90" s="157"/>
+      <c r="AK90" s="157"/>
+      <c r="AL90" s="157"/>
+      <c r="AM90" s="157"/>
+      <c r="AN90" s="157"/>
+      <c r="AO90" s="157"/>
+      <c r="AP90" s="157"/>
+      <c r="AQ90" s="157"/>
+      <c r="AR90" s="157"/>
+      <c r="AS90" s="157"/>
+      <c r="AT90" s="157"/>
+      <c r="AU90" s="157"/>
+      <c r="AV90" s="157"/>
+      <c r="AW90" s="157"/>
+      <c r="AX90" s="157"/>
+      <c r="AY90" s="157"/>
+      <c r="AZ90" s="157"/>
+      <c r="BA90" s="157"/>
+      <c r="BB90" s="157"/>
+      <c r="BC90" s="157"/>
+      <c r="BD90" s="158"/>
+    </row>
+    <row r="91" spans="3:56" ht="15" customHeight="1">
       <c r="C91" s="41"/>
-      <c r="D91" s="43"/>
-      <c r="E91" s="40"/>
-      <c r="F91" s="40"/>
-      <c r="G91" s="40"/>
-      <c r="H91" s="40"/>
-      <c r="I91" s="40"/>
-      <c r="J91" s="40"/>
-      <c r="K91" s="40"/>
-      <c r="L91" s="40"/>
-      <c r="M91" s="40"/>
+      <c r="D91" s="43">
+        <v>3</v>
+      </c>
+      <c r="E91" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
       <c r="N91" s="40"/>
       <c r="O91" s="40"/>
       <c r="P91" s="40"/>
       <c r="Q91" s="43"/>
       <c r="R91" s="40"/>
       <c r="S91" s="40"/>
-      <c r="T91" s="40"/>
+      <c r="T91" s="40" t="s">
+        <v>117</v>
+      </c>
       <c r="U91" s="40"/>
       <c r="V91" s="40"/>
       <c r="W91" s="43"/>
-      <c r="X91" s="40"/>
-      <c r="Y91" s="40"/>
-      <c r="Z91" s="40"/>
-      <c r="AA91" s="40"/>
-      <c r="AB91" s="40"/>
-      <c r="AC91" s="40"/>
-      <c r="AD91" s="40"/>
-      <c r="AE91" s="40"/>
-      <c r="AF91" s="40"/>
-      <c r="AG91" s="40"/>
-      <c r="AH91" s="40"/>
-      <c r="AI91" s="40"/>
-      <c r="AJ91" s="40"/>
-      <c r="AK91" s="40"/>
-      <c r="AL91" s="40"/>
-      <c r="AM91" s="40"/>
-      <c r="AN91" s="40"/>
-      <c r="AO91" s="40"/>
-      <c r="AP91" s="40"/>
-      <c r="AQ91" s="40"/>
-      <c r="AR91" s="40"/>
-      <c r="AS91" s="40"/>
-      <c r="AT91" s="40"/>
-      <c r="AU91" s="40"/>
-      <c r="AV91" s="40"/>
-      <c r="AW91" s="40"/>
-      <c r="AX91" s="40"/>
-      <c r="AY91" s="40"/>
-      <c r="AZ91" s="40"/>
-      <c r="BA91" s="40"/>
-      <c r="BB91" s="40"/>
-      <c r="BC91" s="40"/>
-      <c r="BD91" s="43"/>
-    </row>
-    <row r="92" spans="3:56">
+      <c r="X91" s="156" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y91" s="157"/>
+      <c r="Z91" s="157"/>
+      <c r="AA91" s="157"/>
+      <c r="AB91" s="157"/>
+      <c r="AC91" s="157"/>
+      <c r="AD91" s="157"/>
+      <c r="AE91" s="157"/>
+      <c r="AF91" s="157"/>
+      <c r="AG91" s="157"/>
+      <c r="AH91" s="157"/>
+      <c r="AI91" s="157"/>
+      <c r="AJ91" s="157"/>
+      <c r="AK91" s="157"/>
+      <c r="AL91" s="157"/>
+      <c r="AM91" s="157"/>
+      <c r="AN91" s="157"/>
+      <c r="AO91" s="157"/>
+      <c r="AP91" s="157"/>
+      <c r="AQ91" s="157"/>
+      <c r="AR91" s="157"/>
+      <c r="AS91" s="157"/>
+      <c r="AT91" s="157"/>
+      <c r="AU91" s="157"/>
+      <c r="AV91" s="157"/>
+      <c r="AW91" s="157"/>
+      <c r="AX91" s="157"/>
+      <c r="AY91" s="157"/>
+      <c r="AZ91" s="157"/>
+      <c r="BA91" s="157"/>
+      <c r="BB91" s="157"/>
+      <c r="BC91" s="157"/>
+      <c r="BD91" s="158"/>
+    </row>
+    <row r="92" spans="3:56" ht="15" customHeight="1">
       <c r="C92" s="41"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="40"/>
-      <c r="F92" s="40"/>
-      <c r="G92" s="40"/>
-      <c r="H92" s="40"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="40"/>
-      <c r="K92" s="40"/>
-      <c r="L92" s="40"/>
-      <c r="M92" s="40"/>
+      <c r="D92" s="43">
+        <v>4</v>
+      </c>
+      <c r="E92" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
       <c r="N92" s="40"/>
       <c r="O92" s="40"/>
       <c r="P92" s="40"/>
       <c r="Q92" s="43"/>
       <c r="R92" s="40"/>
       <c r="S92" s="40"/>
-      <c r="T92" s="40"/>
+      <c r="T92" s="40" t="s">
+        <v>117</v>
+      </c>
       <c r="U92" s="40"/>
       <c r="V92" s="40"/>
       <c r="W92" s="43"/>
-      <c r="X92" s="40"/>
-      <c r="Y92" s="40"/>
-      <c r="Z92" s="40"/>
-      <c r="AA92" s="40"/>
-      <c r="AB92" s="40"/>
-      <c r="AC92" s="40"/>
-      <c r="AD92" s="40"/>
-      <c r="AE92" s="40"/>
-      <c r="AF92" s="40"/>
-      <c r="AG92" s="40"/>
-      <c r="AH92" s="40"/>
-      <c r="AI92" s="40"/>
-      <c r="AJ92" s="40"/>
-      <c r="AK92" s="40"/>
-      <c r="AL92" s="40"/>
-      <c r="AM92" s="40"/>
-      <c r="AN92" s="40"/>
-      <c r="AO92" s="40"/>
-      <c r="AP92" s="40"/>
-      <c r="AQ92" s="40"/>
-      <c r="AR92" s="40"/>
-      <c r="AS92" s="40"/>
-      <c r="AT92" s="40"/>
-      <c r="AU92" s="40"/>
-      <c r="AV92" s="40"/>
-      <c r="AW92" s="40"/>
-      <c r="AX92" s="40"/>
-      <c r="AY92" s="40"/>
-      <c r="AZ92" s="40"/>
-      <c r="BA92" s="40"/>
-      <c r="BB92" s="40"/>
-      <c r="BC92" s="40"/>
-      <c r="BD92" s="43"/>
-    </row>
-    <row r="93" spans="3:56">
+      <c r="X92" s="156" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y92" s="157"/>
+      <c r="Z92" s="157"/>
+      <c r="AA92" s="157"/>
+      <c r="AB92" s="157"/>
+      <c r="AC92" s="157"/>
+      <c r="AD92" s="157"/>
+      <c r="AE92" s="157"/>
+      <c r="AF92" s="157"/>
+      <c r="AG92" s="157"/>
+      <c r="AH92" s="157"/>
+      <c r="AI92" s="157"/>
+      <c r="AJ92" s="157"/>
+      <c r="AK92" s="157"/>
+      <c r="AL92" s="157"/>
+      <c r="AM92" s="157"/>
+      <c r="AN92" s="157"/>
+      <c r="AO92" s="157"/>
+      <c r="AP92" s="157"/>
+      <c r="AQ92" s="157"/>
+      <c r="AR92" s="157"/>
+      <c r="AS92" s="157"/>
+      <c r="AT92" s="157"/>
+      <c r="AU92" s="157"/>
+      <c r="AV92" s="157"/>
+      <c r="AW92" s="157"/>
+      <c r="AX92" s="157"/>
+      <c r="AY92" s="157"/>
+      <c r="AZ92" s="157"/>
+      <c r="BA92" s="157"/>
+      <c r="BB92" s="157"/>
+      <c r="BC92" s="157"/>
+      <c r="BD92" s="158"/>
+    </row>
+    <row r="93" spans="3:56" ht="15" customHeight="1">
       <c r="C93" s="41"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="40"/>
+      <c r="D93" s="43">
+        <v>5</v>
+      </c>
+      <c r="E93" s="41" t="s">
+        <v>63</v>
+      </c>
       <c r="F93" s="40"/>
       <c r="G93" s="40"/>
       <c r="H93" s="40"/>
@@ -9057,48 +11965,56 @@
       <c r="Q93" s="43"/>
       <c r="R93" s="40"/>
       <c r="S93" s="40"/>
-      <c r="T93" s="40"/>
+      <c r="T93" s="40" t="s">
+        <v>117</v>
+      </c>
       <c r="U93" s="40"/>
       <c r="V93" s="40"/>
       <c r="W93" s="43"/>
-      <c r="X93" s="40"/>
-      <c r="Y93" s="40"/>
-      <c r="Z93" s="40"/>
-      <c r="AA93" s="40"/>
-      <c r="AB93" s="40"/>
-      <c r="AC93" s="40"/>
-      <c r="AD93" s="40"/>
-      <c r="AE93" s="40"/>
-      <c r="AF93" s="40"/>
-      <c r="AG93" s="40"/>
-      <c r="AH93" s="40"/>
-      <c r="AI93" s="40"/>
-      <c r="AJ93" s="40"/>
-      <c r="AK93" s="40"/>
-      <c r="AL93" s="40"/>
-      <c r="AM93" s="40"/>
-      <c r="AN93" s="40"/>
-      <c r="AO93" s="40"/>
-      <c r="AP93" s="40"/>
-      <c r="AQ93" s="40"/>
-      <c r="AR93" s="40"/>
-      <c r="AS93" s="40"/>
-      <c r="AT93" s="40"/>
-      <c r="AU93" s="40"/>
-      <c r="AV93" s="40"/>
-      <c r="AW93" s="40"/>
-      <c r="AX93" s="40"/>
-      <c r="AY93" s="40"/>
-      <c r="AZ93" s="40"/>
-      <c r="BA93" s="40"/>
-      <c r="BB93" s="40"/>
-      <c r="BC93" s="40"/>
-      <c r="BD93" s="43"/>
-    </row>
-    <row r="94" spans="3:56">
+      <c r="X93" s="162" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y93" s="163"/>
+      <c r="Z93" s="163"/>
+      <c r="AA93" s="163"/>
+      <c r="AB93" s="163"/>
+      <c r="AC93" s="163"/>
+      <c r="AD93" s="163"/>
+      <c r="AE93" s="163"/>
+      <c r="AF93" s="163"/>
+      <c r="AG93" s="163"/>
+      <c r="AH93" s="163"/>
+      <c r="AI93" s="163"/>
+      <c r="AJ93" s="163"/>
+      <c r="AK93" s="163"/>
+      <c r="AL93" s="163"/>
+      <c r="AM93" s="163"/>
+      <c r="AN93" s="163"/>
+      <c r="AO93" s="163"/>
+      <c r="AP93" s="163"/>
+      <c r="AQ93" s="163"/>
+      <c r="AR93" s="163"/>
+      <c r="AS93" s="163"/>
+      <c r="AT93" s="163"/>
+      <c r="AU93" s="163"/>
+      <c r="AV93" s="163"/>
+      <c r="AW93" s="163"/>
+      <c r="AX93" s="163"/>
+      <c r="AY93" s="163"/>
+      <c r="AZ93" s="163"/>
+      <c r="BA93" s="163"/>
+      <c r="BB93" s="163"/>
+      <c r="BC93" s="163"/>
+      <c r="BD93" s="164"/>
+    </row>
+    <row r="94" spans="3:56" ht="15" customHeight="1">
       <c r="C94" s="41"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="40"/>
+      <c r="D94" s="43">
+        <v>6</v>
+      </c>
+      <c r="E94" s="41" t="s">
+        <v>68</v>
+      </c>
       <c r="F94" s="40"/>
       <c r="G94" s="40"/>
       <c r="H94" s="40"/>
@@ -9113,48 +12029,56 @@
       <c r="Q94" s="43"/>
       <c r="R94" s="40"/>
       <c r="S94" s="40"/>
-      <c r="T94" s="40"/>
+      <c r="T94" s="40" t="s">
+        <v>117</v>
+      </c>
       <c r="U94" s="40"/>
       <c r="V94" s="40"/>
       <c r="W94" s="43"/>
-      <c r="X94" s="40"/>
-      <c r="Y94" s="40"/>
-      <c r="Z94" s="40"/>
-      <c r="AA94" s="40"/>
-      <c r="AB94" s="40"/>
-      <c r="AC94" s="40"/>
-      <c r="AD94" s="40"/>
-      <c r="AE94" s="40"/>
-      <c r="AF94" s="40"/>
-      <c r="AG94" s="40"/>
-      <c r="AH94" s="40"/>
-      <c r="AI94" s="40"/>
-      <c r="AJ94" s="40"/>
-      <c r="AK94" s="40"/>
-      <c r="AL94" s="40"/>
-      <c r="AM94" s="40"/>
-      <c r="AN94" s="40"/>
-      <c r="AO94" s="40"/>
-      <c r="AP94" s="40"/>
-      <c r="AQ94" s="40"/>
-      <c r="AR94" s="40"/>
-      <c r="AS94" s="40"/>
-      <c r="AT94" s="40"/>
-      <c r="AU94" s="40"/>
-      <c r="AV94" s="40"/>
-      <c r="AW94" s="40"/>
-      <c r="AX94" s="40"/>
-      <c r="AY94" s="40"/>
-      <c r="AZ94" s="40"/>
-      <c r="BA94" s="40"/>
-      <c r="BB94" s="40"/>
-      <c r="BC94" s="40"/>
-      <c r="BD94" s="43"/>
-    </row>
-    <row r="95" spans="3:56">
+      <c r="X94" s="162" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y94" s="163"/>
+      <c r="Z94" s="163"/>
+      <c r="AA94" s="163"/>
+      <c r="AB94" s="163"/>
+      <c r="AC94" s="163"/>
+      <c r="AD94" s="163"/>
+      <c r="AE94" s="163"/>
+      <c r="AF94" s="163"/>
+      <c r="AG94" s="163"/>
+      <c r="AH94" s="163"/>
+      <c r="AI94" s="163"/>
+      <c r="AJ94" s="163"/>
+      <c r="AK94" s="163"/>
+      <c r="AL94" s="163"/>
+      <c r="AM94" s="163"/>
+      <c r="AN94" s="163"/>
+      <c r="AO94" s="163"/>
+      <c r="AP94" s="163"/>
+      <c r="AQ94" s="163"/>
+      <c r="AR94" s="163"/>
+      <c r="AS94" s="163"/>
+      <c r="AT94" s="163"/>
+      <c r="AU94" s="163"/>
+      <c r="AV94" s="163"/>
+      <c r="AW94" s="163"/>
+      <c r="AX94" s="163"/>
+      <c r="AY94" s="163"/>
+      <c r="AZ94" s="163"/>
+      <c r="BA94" s="163"/>
+      <c r="BB94" s="163"/>
+      <c r="BC94" s="163"/>
+      <c r="BD94" s="164"/>
+    </row>
+    <row r="95" spans="3:56" ht="15" customHeight="1">
       <c r="C95" s="41"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="40"/>
+      <c r="D95" s="43">
+        <v>7</v>
+      </c>
+      <c r="E95" s="41" t="s">
+        <v>70</v>
+      </c>
       <c r="F95" s="40"/>
       <c r="G95" s="40"/>
       <c r="H95" s="40"/>
@@ -9169,48 +12093,56 @@
       <c r="Q95" s="43"/>
       <c r="R95" s="40"/>
       <c r="S95" s="40"/>
-      <c r="T95" s="40"/>
+      <c r="T95" s="40" t="s">
+        <v>117</v>
+      </c>
       <c r="U95" s="40"/>
       <c r="V95" s="40"/>
       <c r="W95" s="43"/>
-      <c r="X95" s="40"/>
-      <c r="Y95" s="40"/>
-      <c r="Z95" s="40"/>
-      <c r="AA95" s="40"/>
-      <c r="AB95" s="40"/>
-      <c r="AC95" s="40"/>
-      <c r="AD95" s="40"/>
-      <c r="AE95" s="40"/>
-      <c r="AF95" s="40"/>
-      <c r="AG95" s="40"/>
-      <c r="AH95" s="40"/>
-      <c r="AI95" s="40"/>
-      <c r="AJ95" s="40"/>
-      <c r="AK95" s="40"/>
-      <c r="AL95" s="40"/>
-      <c r="AM95" s="40"/>
-      <c r="AN95" s="40"/>
-      <c r="AO95" s="40"/>
-      <c r="AP95" s="40"/>
-      <c r="AQ95" s="40"/>
-      <c r="AR95" s="40"/>
-      <c r="AS95" s="40"/>
-      <c r="AT95" s="40"/>
-      <c r="AU95" s="40"/>
-      <c r="AV95" s="40"/>
-      <c r="AW95" s="40"/>
-      <c r="AX95" s="40"/>
-      <c r="AY95" s="40"/>
-      <c r="AZ95" s="40"/>
-      <c r="BA95" s="40"/>
-      <c r="BB95" s="40"/>
-      <c r="BC95" s="40"/>
-      <c r="BD95" s="43"/>
-    </row>
-    <row r="96" spans="3:56">
+      <c r="X95" s="156" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y95" s="157"/>
+      <c r="Z95" s="157"/>
+      <c r="AA95" s="157"/>
+      <c r="AB95" s="157"/>
+      <c r="AC95" s="157"/>
+      <c r="AD95" s="157"/>
+      <c r="AE95" s="157"/>
+      <c r="AF95" s="157"/>
+      <c r="AG95" s="157"/>
+      <c r="AH95" s="157"/>
+      <c r="AI95" s="157"/>
+      <c r="AJ95" s="157"/>
+      <c r="AK95" s="157"/>
+      <c r="AL95" s="157"/>
+      <c r="AM95" s="157"/>
+      <c r="AN95" s="157"/>
+      <c r="AO95" s="157"/>
+      <c r="AP95" s="157"/>
+      <c r="AQ95" s="157"/>
+      <c r="AR95" s="157"/>
+      <c r="AS95" s="157"/>
+      <c r="AT95" s="157"/>
+      <c r="AU95" s="157"/>
+      <c r="AV95" s="157"/>
+      <c r="AW95" s="157"/>
+      <c r="AX95" s="157"/>
+      <c r="AY95" s="157"/>
+      <c r="AZ95" s="157"/>
+      <c r="BA95" s="157"/>
+      <c r="BB95" s="157"/>
+      <c r="BC95" s="157"/>
+      <c r="BD95" s="158"/>
+    </row>
+    <row r="96" spans="3:56" ht="15" customHeight="1">
       <c r="C96" s="41"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="40"/>
+      <c r="D96" s="43">
+        <v>8</v>
+      </c>
+      <c r="E96" s="41" t="s">
+        <v>71</v>
+      </c>
       <c r="F96" s="40"/>
       <c r="G96" s="40"/>
       <c r="H96" s="40"/>
@@ -9225,48 +12157,56 @@
       <c r="Q96" s="43"/>
       <c r="R96" s="40"/>
       <c r="S96" s="40"/>
-      <c r="T96" s="40"/>
+      <c r="T96" s="40" t="s">
+        <v>118</v>
+      </c>
       <c r="U96" s="40"/>
       <c r="V96" s="40"/>
       <c r="W96" s="43"/>
-      <c r="X96" s="40"/>
-      <c r="Y96" s="40"/>
-      <c r="Z96" s="40"/>
-      <c r="AA96" s="40"/>
-      <c r="AB96" s="40"/>
-      <c r="AC96" s="40"/>
-      <c r="AD96" s="40"/>
-      <c r="AE96" s="40"/>
-      <c r="AF96" s="40"/>
-      <c r="AG96" s="40"/>
-      <c r="AH96" s="40"/>
-      <c r="AI96" s="40"/>
-      <c r="AJ96" s="40"/>
-      <c r="AK96" s="40"/>
-      <c r="AL96" s="40"/>
-      <c r="AM96" s="40"/>
-      <c r="AN96" s="40"/>
-      <c r="AO96" s="40"/>
-      <c r="AP96" s="40"/>
-      <c r="AQ96" s="40"/>
-      <c r="AR96" s="40"/>
-      <c r="AS96" s="40"/>
-      <c r="AT96" s="40"/>
-      <c r="AU96" s="40"/>
-      <c r="AV96" s="40"/>
-      <c r="AW96" s="40"/>
-      <c r="AX96" s="40"/>
-      <c r="AY96" s="40"/>
-      <c r="AZ96" s="40"/>
-      <c r="BA96" s="40"/>
-      <c r="BB96" s="40"/>
-      <c r="BC96" s="40"/>
-      <c r="BD96" s="43"/>
-    </row>
-    <row r="97" spans="3:56">
+      <c r="X96" s="162" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y96" s="163"/>
+      <c r="Z96" s="163"/>
+      <c r="AA96" s="163"/>
+      <c r="AB96" s="163"/>
+      <c r="AC96" s="163"/>
+      <c r="AD96" s="163"/>
+      <c r="AE96" s="163"/>
+      <c r="AF96" s="163"/>
+      <c r="AG96" s="163"/>
+      <c r="AH96" s="163"/>
+      <c r="AI96" s="163"/>
+      <c r="AJ96" s="163"/>
+      <c r="AK96" s="163"/>
+      <c r="AL96" s="163"/>
+      <c r="AM96" s="163"/>
+      <c r="AN96" s="163"/>
+      <c r="AO96" s="163"/>
+      <c r="AP96" s="163"/>
+      <c r="AQ96" s="163"/>
+      <c r="AR96" s="163"/>
+      <c r="AS96" s="163"/>
+      <c r="AT96" s="163"/>
+      <c r="AU96" s="163"/>
+      <c r="AV96" s="163"/>
+      <c r="AW96" s="163"/>
+      <c r="AX96" s="163"/>
+      <c r="AY96" s="163"/>
+      <c r="AZ96" s="163"/>
+      <c r="BA96" s="163"/>
+      <c r="BB96" s="163"/>
+      <c r="BC96" s="163"/>
+      <c r="BD96" s="164"/>
+    </row>
+    <row r="97" spans="3:56" ht="15" customHeight="1">
       <c r="C97" s="41"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="40"/>
+      <c r="D97" s="43">
+        <v>9</v>
+      </c>
+      <c r="E97" s="41" t="s">
+        <v>74</v>
+      </c>
       <c r="F97" s="40"/>
       <c r="G97" s="40"/>
       <c r="H97" s="40"/>
@@ -9281,48 +12221,56 @@
       <c r="Q97" s="43"/>
       <c r="R97" s="40"/>
       <c r="S97" s="40"/>
-      <c r="T97" s="40"/>
+      <c r="T97" s="40" t="s">
+        <v>118</v>
+      </c>
       <c r="U97" s="40"/>
       <c r="V97" s="40"/>
       <c r="W97" s="43"/>
-      <c r="X97" s="40"/>
-      <c r="Y97" s="40"/>
-      <c r="Z97" s="40"/>
-      <c r="AA97" s="40"/>
-      <c r="AB97" s="40"/>
-      <c r="AC97" s="40"/>
-      <c r="AD97" s="40"/>
-      <c r="AE97" s="40"/>
-      <c r="AF97" s="40"/>
-      <c r="AG97" s="40"/>
-      <c r="AH97" s="40"/>
-      <c r="AI97" s="40"/>
-      <c r="AJ97" s="40"/>
-      <c r="AK97" s="40"/>
-      <c r="AL97" s="40"/>
-      <c r="AM97" s="40"/>
-      <c r="AN97" s="40"/>
-      <c r="AO97" s="40"/>
-      <c r="AP97" s="40"/>
-      <c r="AQ97" s="40"/>
-      <c r="AR97" s="40"/>
-      <c r="AS97" s="40"/>
-      <c r="AT97" s="40"/>
-      <c r="AU97" s="40"/>
-      <c r="AV97" s="40"/>
-      <c r="AW97" s="40"/>
-      <c r="AX97" s="40"/>
-      <c r="AY97" s="40"/>
-      <c r="AZ97" s="40"/>
-      <c r="BA97" s="40"/>
-      <c r="BB97" s="40"/>
-      <c r="BC97" s="40"/>
-      <c r="BD97" s="43"/>
-    </row>
-    <row r="98" spans="3:56">
+      <c r="X97" s="162" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y97" s="163"/>
+      <c r="Z97" s="163"/>
+      <c r="AA97" s="163"/>
+      <c r="AB97" s="163"/>
+      <c r="AC97" s="163"/>
+      <c r="AD97" s="163"/>
+      <c r="AE97" s="163"/>
+      <c r="AF97" s="163"/>
+      <c r="AG97" s="163"/>
+      <c r="AH97" s="163"/>
+      <c r="AI97" s="163"/>
+      <c r="AJ97" s="163"/>
+      <c r="AK97" s="163"/>
+      <c r="AL97" s="163"/>
+      <c r="AM97" s="163"/>
+      <c r="AN97" s="163"/>
+      <c r="AO97" s="163"/>
+      <c r="AP97" s="163"/>
+      <c r="AQ97" s="163"/>
+      <c r="AR97" s="163"/>
+      <c r="AS97" s="163"/>
+      <c r="AT97" s="163"/>
+      <c r="AU97" s="163"/>
+      <c r="AV97" s="163"/>
+      <c r="AW97" s="163"/>
+      <c r="AX97" s="163"/>
+      <c r="AY97" s="163"/>
+      <c r="AZ97" s="163"/>
+      <c r="BA97" s="163"/>
+      <c r="BB97" s="163"/>
+      <c r="BC97" s="163"/>
+      <c r="BD97" s="164"/>
+    </row>
+    <row r="98" spans="3:56" ht="15" customHeight="1">
       <c r="C98" s="41"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="40"/>
+      <c r="D98" s="43">
+        <v>10</v>
+      </c>
+      <c r="E98" s="41" t="s">
+        <v>76</v>
+      </c>
       <c r="F98" s="40"/>
       <c r="G98" s="40"/>
       <c r="H98" s="40"/>
@@ -9337,48 +12285,56 @@
       <c r="Q98" s="43"/>
       <c r="R98" s="40"/>
       <c r="S98" s="40"/>
-      <c r="T98" s="40"/>
+      <c r="T98" s="40" t="s">
+        <v>118</v>
+      </c>
       <c r="U98" s="40"/>
       <c r="V98" s="40"/>
       <c r="W98" s="43"/>
-      <c r="X98" s="40"/>
-      <c r="Y98" s="40"/>
-      <c r="Z98" s="40"/>
-      <c r="AA98" s="40"/>
-      <c r="AB98" s="40"/>
-      <c r="AC98" s="40"/>
-      <c r="AD98" s="40"/>
-      <c r="AE98" s="40"/>
-      <c r="AF98" s="40"/>
-      <c r="AG98" s="40"/>
-      <c r="AH98" s="40"/>
-      <c r="AI98" s="40"/>
-      <c r="AJ98" s="40"/>
-      <c r="AK98" s="40"/>
-      <c r="AL98" s="40"/>
-      <c r="AM98" s="40"/>
-      <c r="AN98" s="40"/>
-      <c r="AO98" s="40"/>
-      <c r="AP98" s="40"/>
-      <c r="AQ98" s="40"/>
-      <c r="AR98" s="40"/>
-      <c r="AS98" s="40"/>
-      <c r="AT98" s="40"/>
-      <c r="AU98" s="40"/>
-      <c r="AV98" s="40"/>
-      <c r="AW98" s="40"/>
-      <c r="AX98" s="40"/>
-      <c r="AY98" s="40"/>
-      <c r="AZ98" s="40"/>
-      <c r="BA98" s="40"/>
-      <c r="BB98" s="40"/>
-      <c r="BC98" s="40"/>
-      <c r="BD98" s="43"/>
-    </row>
-    <row r="99" spans="3:56">
+      <c r="X98" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y98" s="163"/>
+      <c r="Z98" s="163"/>
+      <c r="AA98" s="163"/>
+      <c r="AB98" s="163"/>
+      <c r="AC98" s="163"/>
+      <c r="AD98" s="163"/>
+      <c r="AE98" s="163"/>
+      <c r="AF98" s="163"/>
+      <c r="AG98" s="163"/>
+      <c r="AH98" s="163"/>
+      <c r="AI98" s="163"/>
+      <c r="AJ98" s="163"/>
+      <c r="AK98" s="163"/>
+      <c r="AL98" s="163"/>
+      <c r="AM98" s="163"/>
+      <c r="AN98" s="163"/>
+      <c r="AO98" s="163"/>
+      <c r="AP98" s="163"/>
+      <c r="AQ98" s="163"/>
+      <c r="AR98" s="163"/>
+      <c r="AS98" s="163"/>
+      <c r="AT98" s="163"/>
+      <c r="AU98" s="163"/>
+      <c r="AV98" s="163"/>
+      <c r="AW98" s="163"/>
+      <c r="AX98" s="163"/>
+      <c r="AY98" s="163"/>
+      <c r="AZ98" s="163"/>
+      <c r="BA98" s="163"/>
+      <c r="BB98" s="163"/>
+      <c r="BC98" s="163"/>
+      <c r="BD98" s="164"/>
+    </row>
+    <row r="99" spans="3:56" ht="15" customHeight="1">
       <c r="C99" s="41"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="40"/>
+      <c r="D99" s="43">
+        <v>11</v>
+      </c>
+      <c r="E99" s="41" t="s">
+        <v>78</v>
+      </c>
       <c r="F99" s="40"/>
       <c r="G99" s="40"/>
       <c r="H99" s="40"/>
@@ -9393,43 +12349,47 @@
       <c r="Q99" s="43"/>
       <c r="R99" s="40"/>
       <c r="S99" s="40"/>
-      <c r="T99" s="40"/>
+      <c r="T99" s="40" t="s">
+        <v>119</v>
+      </c>
       <c r="U99" s="40"/>
       <c r="V99" s="40"/>
       <c r="W99" s="43"/>
-      <c r="X99" s="40"/>
-      <c r="Y99" s="40"/>
-      <c r="Z99" s="40"/>
-      <c r="AA99" s="40"/>
-      <c r="AB99" s="40"/>
-      <c r="AC99" s="40"/>
-      <c r="AD99" s="40"/>
-      <c r="AE99" s="40"/>
-      <c r="AF99" s="40"/>
-      <c r="AG99" s="40"/>
-      <c r="AH99" s="40"/>
-      <c r="AI99" s="40"/>
-      <c r="AJ99" s="40"/>
-      <c r="AK99" s="40"/>
-      <c r="AL99" s="40"/>
-      <c r="AM99" s="40"/>
-      <c r="AN99" s="40"/>
-      <c r="AO99" s="40"/>
-      <c r="AP99" s="40"/>
-      <c r="AQ99" s="40"/>
-      <c r="AR99" s="40"/>
-      <c r="AS99" s="40"/>
-      <c r="AT99" s="40"/>
-      <c r="AU99" s="40"/>
-      <c r="AV99" s="40"/>
-      <c r="AW99" s="40"/>
-      <c r="AX99" s="40"/>
-      <c r="AY99" s="40"/>
-      <c r="AZ99" s="40"/>
-      <c r="BA99" s="40"/>
-      <c r="BB99" s="40"/>
-      <c r="BC99" s="40"/>
-      <c r="BD99" s="43"/>
+      <c r="X99" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y99" s="163"/>
+      <c r="Z99" s="163"/>
+      <c r="AA99" s="163"/>
+      <c r="AB99" s="163"/>
+      <c r="AC99" s="163"/>
+      <c r="AD99" s="163"/>
+      <c r="AE99" s="163"/>
+      <c r="AF99" s="163"/>
+      <c r="AG99" s="163"/>
+      <c r="AH99" s="163"/>
+      <c r="AI99" s="163"/>
+      <c r="AJ99" s="163"/>
+      <c r="AK99" s="163"/>
+      <c r="AL99" s="163"/>
+      <c r="AM99" s="163"/>
+      <c r="AN99" s="163"/>
+      <c r="AO99" s="163"/>
+      <c r="AP99" s="163"/>
+      <c r="AQ99" s="163"/>
+      <c r="AR99" s="163"/>
+      <c r="AS99" s="163"/>
+      <c r="AT99" s="163"/>
+      <c r="AU99" s="163"/>
+      <c r="AV99" s="163"/>
+      <c r="AW99" s="163"/>
+      <c r="AX99" s="163"/>
+      <c r="AY99" s="163"/>
+      <c r="AZ99" s="163"/>
+      <c r="BA99" s="163"/>
+      <c r="BB99" s="163"/>
+      <c r="BC99" s="163"/>
+      <c r="BD99" s="164"/>
     </row>
     <row r="100" spans="3:56">
       <c r="C100" s="41"/>
@@ -9453,175 +12413,148 @@
       <c r="U100" s="40"/>
       <c r="V100" s="40"/>
       <c r="W100" s="43"/>
-      <c r="X100" s="40"/>
-      <c r="Y100" s="40"/>
-      <c r="Z100" s="40"/>
-      <c r="AA100" s="40"/>
-      <c r="AB100" s="40"/>
-      <c r="AC100" s="40"/>
-      <c r="AD100" s="40"/>
-      <c r="AE100" s="40"/>
-      <c r="AF100" s="40"/>
-      <c r="AG100" s="40"/>
-      <c r="AH100" s="40"/>
-      <c r="AI100" s="40"/>
-      <c r="AJ100" s="40"/>
-      <c r="AK100" s="40"/>
-      <c r="AL100" s="40"/>
-      <c r="AM100" s="40"/>
-      <c r="AN100" s="40"/>
-      <c r="AO100" s="40"/>
-      <c r="AP100" s="40"/>
-      <c r="AQ100" s="40"/>
-      <c r="AR100" s="40"/>
-      <c r="AS100" s="40"/>
-      <c r="AT100" s="40"/>
-      <c r="AU100" s="40"/>
-      <c r="AV100" s="40"/>
-      <c r="AW100" s="40"/>
-      <c r="AX100" s="40"/>
-      <c r="AY100" s="40"/>
-      <c r="AZ100" s="40"/>
-      <c r="BA100" s="40"/>
-      <c r="BB100" s="40"/>
-      <c r="BC100" s="40"/>
-      <c r="BD100" s="43"/>
+      <c r="X100" s="36"/>
+      <c r="Y100" s="36"/>
+      <c r="Z100" s="36"/>
+      <c r="AA100" s="36"/>
+      <c r="AB100" s="36"/>
+      <c r="AC100" s="36"/>
+      <c r="AD100" s="36"/>
+      <c r="AE100" s="36"/>
+      <c r="AF100" s="36"/>
+      <c r="AG100" s="36"/>
+      <c r="AH100" s="36"/>
+      <c r="AI100" s="36"/>
+      <c r="AJ100" s="36"/>
+      <c r="AK100" s="36"/>
+      <c r="AL100" s="36"/>
+      <c r="AM100" s="36"/>
+      <c r="AN100" s="36"/>
+      <c r="AO100" s="36"/>
+      <c r="AP100" s="36"/>
+      <c r="AQ100" s="36"/>
+      <c r="AR100" s="36"/>
+      <c r="AS100" s="36"/>
+      <c r="AT100" s="36"/>
+      <c r="AU100" s="36"/>
+      <c r="AV100" s="36"/>
+      <c r="AW100" s="36"/>
+      <c r="AX100" s="36"/>
+      <c r="AY100" s="36"/>
+      <c r="AZ100" s="36"/>
+      <c r="BA100" s="36"/>
+      <c r="BB100" s="36"/>
+      <c r="BC100" s="36"/>
+      <c r="BD100" s="39"/>
     </row>
     <row r="101" spans="3:56">
-      <c r="C101" s="41"/>
-      <c r="D101" s="43"/>
-      <c r="E101" s="40"/>
-      <c r="F101" s="40"/>
-      <c r="G101" s="40"/>
-      <c r="H101" s="40"/>
-      <c r="I101" s="40"/>
-      <c r="J101" s="40"/>
-      <c r="K101" s="40"/>
-      <c r="L101" s="40"/>
-      <c r="M101" s="40"/>
-      <c r="N101" s="40"/>
-      <c r="O101" s="40"/>
-      <c r="P101" s="40"/>
-      <c r="Q101" s="43"/>
-      <c r="R101" s="40"/>
-      <c r="S101" s="40"/>
-      <c r="T101" s="40"/>
-      <c r="U101" s="40"/>
-      <c r="V101" s="40"/>
-      <c r="W101" s="43"/>
-      <c r="X101" s="40"/>
-      <c r="Y101" s="40"/>
-      <c r="Z101" s="40"/>
-      <c r="AA101" s="40"/>
-      <c r="AB101" s="40"/>
-      <c r="AC101" s="40"/>
-      <c r="AD101" s="40"/>
-      <c r="AE101" s="40"/>
-      <c r="AF101" s="40"/>
-      <c r="AG101" s="40"/>
-      <c r="AH101" s="40"/>
-      <c r="AI101" s="40"/>
-      <c r="AJ101" s="40"/>
-      <c r="AK101" s="40"/>
-      <c r="AL101" s="40"/>
-      <c r="AM101" s="40"/>
-      <c r="AN101" s="40"/>
-      <c r="AO101" s="40"/>
-      <c r="AP101" s="40"/>
-      <c r="AQ101" s="40"/>
-      <c r="AR101" s="40"/>
-      <c r="AS101" s="40"/>
-      <c r="AT101" s="40"/>
-      <c r="AU101" s="40"/>
-      <c r="AV101" s="40"/>
-      <c r="AW101" s="40"/>
-      <c r="AX101" s="40"/>
-      <c r="AY101" s="40"/>
-      <c r="AZ101" s="40"/>
-      <c r="BA101" s="40"/>
-      <c r="BB101" s="40"/>
-      <c r="BC101" s="40"/>
-      <c r="BD101" s="43"/>
-    </row>
-    <row r="102" spans="3:56">
-      <c r="C102" s="44"/>
-      <c r="D102" s="46"/>
-      <c r="E102" s="45"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="45"/>
-      <c r="I102" s="45"/>
-      <c r="J102" s="45"/>
-      <c r="K102" s="45"/>
-      <c r="L102" s="45"/>
-      <c r="M102" s="45"/>
-      <c r="N102" s="45"/>
-      <c r="O102" s="45"/>
-      <c r="P102" s="45"/>
-      <c r="Q102" s="46"/>
-      <c r="R102" s="45"/>
-      <c r="S102" s="45"/>
-      <c r="T102" s="45"/>
-      <c r="U102" s="45"/>
-      <c r="V102" s="45"/>
-      <c r="W102" s="46"/>
-      <c r="X102" s="45"/>
-      <c r="Y102" s="45"/>
-      <c r="Z102" s="45"/>
-      <c r="AA102" s="45"/>
-      <c r="AB102" s="45"/>
-      <c r="AC102" s="45"/>
-      <c r="AD102" s="45"/>
-      <c r="AE102" s="45"/>
-      <c r="AF102" s="45"/>
-      <c r="AG102" s="45"/>
-      <c r="AH102" s="45"/>
-      <c r="AI102" s="45"/>
-      <c r="AJ102" s="45"/>
-      <c r="AK102" s="45"/>
-      <c r="AL102" s="45"/>
-      <c r="AM102" s="45"/>
-      <c r="AN102" s="45"/>
-      <c r="AO102" s="45"/>
-      <c r="AP102" s="45"/>
-      <c r="AQ102" s="45"/>
-      <c r="AR102" s="45"/>
-      <c r="AS102" s="45"/>
-      <c r="AT102" s="45"/>
-      <c r="AU102" s="45"/>
-      <c r="AV102" s="45"/>
-      <c r="AW102" s="45"/>
-      <c r="AX102" s="45"/>
-      <c r="AY102" s="45"/>
-      <c r="AZ102" s="45"/>
-      <c r="BA102" s="45"/>
-      <c r="BB102" s="45"/>
-      <c r="BC102" s="45"/>
-      <c r="BD102" s="46"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="45"/>
+      <c r="F101" s="45"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="45"/>
+      <c r="I101" s="45"/>
+      <c r="J101" s="45"/>
+      <c r="K101" s="45"/>
+      <c r="L101" s="45"/>
+      <c r="M101" s="45"/>
+      <c r="N101" s="45"/>
+      <c r="O101" s="45"/>
+      <c r="P101" s="45"/>
+      <c r="Q101" s="46"/>
+      <c r="R101" s="45"/>
+      <c r="S101" s="45"/>
+      <c r="T101" s="45"/>
+      <c r="U101" s="45"/>
+      <c r="V101" s="45"/>
+      <c r="W101" s="46"/>
+      <c r="X101" s="45"/>
+      <c r="Y101" s="45"/>
+      <c r="Z101" s="45"/>
+      <c r="AA101" s="45"/>
+      <c r="AB101" s="45"/>
+      <c r="AC101" s="45"/>
+      <c r="AD101" s="45"/>
+      <c r="AE101" s="45"/>
+      <c r="AF101" s="45"/>
+      <c r="AG101" s="45"/>
+      <c r="AH101" s="45"/>
+      <c r="AI101" s="45"/>
+      <c r="AJ101" s="45"/>
+      <c r="AK101" s="45"/>
+      <c r="AL101" s="45"/>
+      <c r="AM101" s="45"/>
+      <c r="AN101" s="45"/>
+      <c r="AO101" s="45"/>
+      <c r="AP101" s="45"/>
+      <c r="AQ101" s="45"/>
+      <c r="AR101" s="45"/>
+      <c r="AS101" s="45"/>
+      <c r="AT101" s="45"/>
+      <c r="AU101" s="45"/>
+      <c r="AV101" s="45"/>
+      <c r="AW101" s="45"/>
+      <c r="AX101" s="45"/>
+      <c r="AY101" s="45"/>
+      <c r="AZ101" s="45"/>
+      <c r="BA101" s="45"/>
+      <c r="BB101" s="45"/>
+      <c r="BC101" s="45"/>
+      <c r="BD101" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:AP3"/>
-    <mergeCell ref="AQ2:AW2"/>
-    <mergeCell ref="AX2:BE2"/>
-    <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="AX3:BE3"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BB4:BE4"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="U5:AP5"/>
-    <mergeCell ref="AT5:AW5"/>
-    <mergeCell ref="BB5:BE5"/>
-    <mergeCell ref="AX4:BA4"/>
-    <mergeCell ref="AX5:BA5"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="X43:AD43"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="U4:AP4"/>
-    <mergeCell ref="AN43:AP43"/>
+  <mergeCells count="90">
+    <mergeCell ref="X96:BD96"/>
+    <mergeCell ref="X97:BD97"/>
+    <mergeCell ref="X98:BD98"/>
+    <mergeCell ref="X99:BD99"/>
+    <mergeCell ref="X91:BD91"/>
+    <mergeCell ref="X92:BD92"/>
+    <mergeCell ref="X93:BD93"/>
+    <mergeCell ref="X94:BD94"/>
+    <mergeCell ref="X95:BD95"/>
+    <mergeCell ref="E72:Q72"/>
+    <mergeCell ref="X72:AD72"/>
+    <mergeCell ref="AE72:AK72"/>
+    <mergeCell ref="X89:BD89"/>
+    <mergeCell ref="X90:BD90"/>
+    <mergeCell ref="E70:Q70"/>
+    <mergeCell ref="X70:AD70"/>
+    <mergeCell ref="AE70:AK70"/>
+    <mergeCell ref="E71:Q71"/>
+    <mergeCell ref="X71:AD71"/>
+    <mergeCell ref="AE71:AK71"/>
+    <mergeCell ref="AB23:AE24"/>
+    <mergeCell ref="AF23:AL24"/>
+    <mergeCell ref="AN23:AT24"/>
+    <mergeCell ref="AU23:AZ24"/>
+    <mergeCell ref="BA23:BA24"/>
+    <mergeCell ref="AT12:AV13"/>
+    <mergeCell ref="AX12:AZ13"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AV20:AZ20"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="AQ5:AS5"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:Q88"/>
+    <mergeCell ref="R88:W88"/>
+    <mergeCell ref="X88:BD88"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="AE43:AI43"/>
+    <mergeCell ref="AJ43:AM43"/>
+    <mergeCell ref="AQ46:AV46"/>
+    <mergeCell ref="D10:G15"/>
+    <mergeCell ref="H10:U15"/>
     <mergeCell ref="AQ43:AV43"/>
     <mergeCell ref="AW43:BD43"/>
     <mergeCell ref="C69:D69"/>
@@ -9632,26 +12565,41 @@
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="E43:M43"/>
     <mergeCell ref="AL69:BD69"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:Q88"/>
-    <mergeCell ref="R88:W88"/>
-    <mergeCell ref="X88:BD88"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="AE43:AI43"/>
-    <mergeCell ref="AJ43:AM43"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="AQ4:AS4"/>
-    <mergeCell ref="AQ5:AS5"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="X43:AD43"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="U4:AP4"/>
+    <mergeCell ref="AN43:AP43"/>
+    <mergeCell ref="AL12:AN13"/>
+    <mergeCell ref="AP12:AR13"/>
+    <mergeCell ref="AG12:AJ13"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="H23:I24"/>
+    <mergeCell ref="J23:P24"/>
+    <mergeCell ref="Q23:W24"/>
+    <mergeCell ref="X23:AA24"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BB4:BE4"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="U5:AP5"/>
+    <mergeCell ref="AT5:AW5"/>
+    <mergeCell ref="BB5:BE5"/>
+    <mergeCell ref="AX4:BA4"/>
+    <mergeCell ref="AX5:BA5"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:AP3"/>
+    <mergeCell ref="AQ2:AW2"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="AQ3:AW3"/>
+    <mergeCell ref="AX3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="98" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="87" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="28" min="1" max="102" man="1"/>
+    <brk id="30" min="1" max="102" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/trunk/Document/Design/SDD_UserManager.xlsx
+++ b/trunk/Document/Design/SDD_UserManager.xlsx
@@ -2497,41 +2497,248 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2542,13 +2749,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2557,89 +2758,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2647,87 +2779,27 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2739,78 +2811,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3178,14 +3178,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="33">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
@@ -3405,12 +3405,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="33">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
     </row>
     <row r="5" spans="2:5" ht="15.75">
       <c r="B5" s="21" t="s">
@@ -3472,11 +3472,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="33">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="22"/>
@@ -3659,128 +3659,128 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:57">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65" t="s">
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="61" t="s">
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
+      <c r="AK2" s="100"/>
+      <c r="AL2" s="100"/>
+      <c r="AM2" s="100"/>
+      <c r="AN2" s="100"/>
+      <c r="AO2" s="100"/>
+      <c r="AP2" s="100"/>
+      <c r="AQ2" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="61"/>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="61"/>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="61"/>
-      <c r="AX2" s="61" t="s">
+      <c r="AR2" s="102"/>
+      <c r="AS2" s="102"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="102"/>
+      <c r="AW2" s="102"/>
+      <c r="AX2" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="AY2" s="61"/>
-      <c r="AZ2" s="61"/>
-      <c r="BA2" s="61"/>
-      <c r="BB2" s="61"/>
-      <c r="BC2" s="61"/>
-      <c r="BD2" s="61"/>
-      <c r="BE2" s="61"/>
+      <c r="AY2" s="102"/>
+      <c r="AZ2" s="102"/>
+      <c r="BA2" s="102"/>
+      <c r="BB2" s="102"/>
+      <c r="BC2" s="102"/>
+      <c r="BD2" s="102"/>
+      <c r="BE2" s="102"/>
     </row>
     <row r="3" spans="2:57">
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="63"/>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63"/>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="100"/>
+      <c r="AD3" s="100"/>
+      <c r="AE3" s="100"/>
+      <c r="AF3" s="100"/>
+      <c r="AG3" s="100"/>
+      <c r="AH3" s="100"/>
+      <c r="AI3" s="100"/>
+      <c r="AJ3" s="100"/>
+      <c r="AK3" s="100"/>
+      <c r="AL3" s="100"/>
+      <c r="AM3" s="100"/>
+      <c r="AN3" s="100"/>
+      <c r="AO3" s="100"/>
+      <c r="AP3" s="100"/>
+      <c r="AQ3" s="103"/>
+      <c r="AR3" s="103"/>
+      <c r="AS3" s="103"/>
+      <c r="AT3" s="103"/>
+      <c r="AU3" s="103"/>
+      <c r="AV3" s="103"/>
+      <c r="AW3" s="103"/>
+      <c r="AX3" s="103"/>
+      <c r="AY3" s="103"/>
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="103"/>
+      <c r="BB3" s="103"/>
+      <c r="BC3" s="103"/>
+      <c r="BD3" s="103"/>
+      <c r="BE3" s="103"/>
     </row>
     <row r="4" spans="2:57">
       <c r="B4" s="31" t="s">
@@ -3789,15 +3789,15 @@
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
       <c r="O4" s="31" t="s">
         <v>28</v>
       </c>
@@ -3806,47 +3806,47 @@
       <c r="R4" s="31"/>
       <c r="S4" s="31"/>
       <c r="T4" s="31"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="62"/>
-      <c r="AK4" s="62"/>
-      <c r="AL4" s="62"/>
-      <c r="AM4" s="62"/>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="62"/>
-      <c r="AP4" s="62"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="101"/>
+      <c r="AL4" s="101"/>
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="101"/>
+      <c r="AO4" s="101"/>
+      <c r="AP4" s="101"/>
       <c r="AQ4" s="31" t="s">
         <v>24</v>
       </c>
       <c r="AR4" s="31"/>
       <c r="AS4" s="31"/>
-      <c r="AT4" s="62"/>
-      <c r="AU4" s="62"/>
-      <c r="AV4" s="62"/>
-      <c r="AW4" s="62"/>
+      <c r="AT4" s="101"/>
+      <c r="AU4" s="101"/>
+      <c r="AV4" s="101"/>
+      <c r="AW4" s="101"/>
       <c r="AX4" s="31" t="s">
         <v>25</v>
       </c>
       <c r="AY4" s="31"/>
       <c r="AZ4" s="31"/>
       <c r="BA4" s="31"/>
-      <c r="BB4" s="62"/>
-      <c r="BC4" s="62"/>
-      <c r="BD4" s="62"/>
-      <c r="BE4" s="62"/>
+      <c r="BB4" s="101"/>
+      <c r="BC4" s="101"/>
+      <c r="BD4" s="101"/>
+      <c r="BE4" s="101"/>
     </row>
     <row r="5" spans="2:57">
       <c r="B5" s="31" t="s">
@@ -3855,15 +3855,15 @@
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
       <c r="O5" s="31" t="s">
         <v>29</v>
       </c>
@@ -3872,47 +3872,47 @@
       <c r="R5" s="31"/>
       <c r="S5" s="31"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="62"/>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="62"/>
-      <c r="AH5" s="62"/>
-      <c r="AI5" s="62"/>
-      <c r="AJ5" s="62"/>
-      <c r="AK5" s="62"/>
-      <c r="AL5" s="62"/>
-      <c r="AM5" s="62"/>
-      <c r="AN5" s="62"/>
-      <c r="AO5" s="62"/>
-      <c r="AP5" s="62"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
+      <c r="Y5" s="101"/>
+      <c r="Z5" s="101"/>
+      <c r="AA5" s="101"/>
+      <c r="AB5" s="101"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="101"/>
+      <c r="AE5" s="101"/>
+      <c r="AF5" s="101"/>
+      <c r="AG5" s="101"/>
+      <c r="AH5" s="101"/>
+      <c r="AI5" s="101"/>
+      <c r="AJ5" s="101"/>
+      <c r="AK5" s="101"/>
+      <c r="AL5" s="101"/>
+      <c r="AM5" s="101"/>
+      <c r="AN5" s="101"/>
+      <c r="AO5" s="101"/>
+      <c r="AP5" s="101"/>
       <c r="AQ5" s="31" t="s">
         <v>24</v>
       </c>
       <c r="AR5" s="31"/>
       <c r="AS5" s="31"/>
-      <c r="AT5" s="62"/>
-      <c r="AU5" s="62"/>
-      <c r="AV5" s="62"/>
-      <c r="AW5" s="62"/>
+      <c r="AT5" s="101"/>
+      <c r="AU5" s="101"/>
+      <c r="AV5" s="101"/>
+      <c r="AW5" s="101"/>
       <c r="AX5" s="31" t="s">
         <v>25</v>
       </c>
       <c r="AY5" s="31"/>
       <c r="AZ5" s="31"/>
       <c r="BA5" s="31"/>
-      <c r="BB5" s="62"/>
-      <c r="BC5" s="62"/>
-      <c r="BD5" s="62"/>
-      <c r="BE5" s="62"/>
+      <c r="BB5" s="101"/>
+      <c r="BC5" s="101"/>
+      <c r="BD5" s="101"/>
+      <c r="BE5" s="101"/>
     </row>
     <row r="7" spans="2:57">
       <c r="C7" s="33" t="s">
@@ -3933,82 +3933,82 @@
       <c r="C42" s="33"/>
     </row>
     <row r="43" spans="3:56" ht="15">
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67" t="s">
+      <c r="D43" s="96"/>
+      <c r="E43" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="67"/>
-      <c r="N43" s="67" t="s">
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="O43" s="67"/>
-      <c r="P43" s="67"/>
-      <c r="Q43" s="67"/>
-      <c r="R43" s="67" t="s">
+      <c r="O43" s="96"/>
+      <c r="P43" s="96"/>
+      <c r="Q43" s="96"/>
+      <c r="R43" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="S43" s="67"/>
-      <c r="T43" s="67"/>
-      <c r="U43" s="67" t="s">
+      <c r="S43" s="96"/>
+      <c r="T43" s="96"/>
+      <c r="U43" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="V43" s="67"/>
-      <c r="W43" s="67"/>
-      <c r="X43" s="67" t="s">
+      <c r="V43" s="96"/>
+      <c r="W43" s="96"/>
+      <c r="X43" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="Y43" s="67"/>
-      <c r="Z43" s="67"/>
-      <c r="AA43" s="67"/>
-      <c r="AB43" s="67"/>
-      <c r="AC43" s="67"/>
-      <c r="AD43" s="67"/>
-      <c r="AE43" s="67" t="s">
+      <c r="Y43" s="96"/>
+      <c r="Z43" s="96"/>
+      <c r="AA43" s="96"/>
+      <c r="AB43" s="96"/>
+      <c r="AC43" s="96"/>
+      <c r="AD43" s="96"/>
+      <c r="AE43" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="AF43" s="67"/>
-      <c r="AG43" s="67"/>
-      <c r="AH43" s="67"/>
-      <c r="AI43" s="67"/>
-      <c r="AJ43" s="67" t="s">
+      <c r="AF43" s="96"/>
+      <c r="AG43" s="96"/>
+      <c r="AH43" s="96"/>
+      <c r="AI43" s="96"/>
+      <c r="AJ43" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="AK43" s="67"/>
-      <c r="AL43" s="67"/>
-      <c r="AM43" s="67"/>
-      <c r="AN43" s="67" t="s">
+      <c r="AK43" s="96"/>
+      <c r="AL43" s="96"/>
+      <c r="AM43" s="96"/>
+      <c r="AN43" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="AO43" s="67"/>
-      <c r="AP43" s="67"/>
-      <c r="AQ43" s="67" t="s">
+      <c r="AO43" s="96"/>
+      <c r="AP43" s="96"/>
+      <c r="AQ43" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="AR43" s="67"/>
-      <c r="AS43" s="67"/>
-      <c r="AT43" s="67"/>
-      <c r="AU43" s="67"/>
-      <c r="AV43" s="67"/>
-      <c r="AW43" s="67" t="s">
+      <c r="AR43" s="96"/>
+      <c r="AS43" s="96"/>
+      <c r="AT43" s="96"/>
+      <c r="AU43" s="96"/>
+      <c r="AV43" s="96"/>
+      <c r="AW43" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="AX43" s="67"/>
-      <c r="AY43" s="67"/>
-      <c r="AZ43" s="67"/>
-      <c r="BA43" s="67"/>
-      <c r="BB43" s="67"/>
-      <c r="BC43" s="67"/>
-      <c r="BD43" s="68"/>
+      <c r="AX43" s="96"/>
+      <c r="AY43" s="96"/>
+      <c r="AZ43" s="96"/>
+      <c r="BA43" s="96"/>
+      <c r="BB43" s="96"/>
+      <c r="BC43" s="96"/>
+      <c r="BD43" s="97"/>
     </row>
     <row r="44" spans="3:56">
       <c r="C44" s="35"/>
@@ -5307,72 +5307,72 @@
       <c r="C68" s="33"/>
     </row>
     <row r="69" spans="3:56" ht="15">
-      <c r="C69" s="71" t="s">
+      <c r="C69" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="69"/>
-      <c r="E69" s="69" t="s">
+      <c r="D69" s="93"/>
+      <c r="E69" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="F69" s="69"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="69"/>
-      <c r="J69" s="69"/>
-      <c r="K69" s="69"/>
-      <c r="L69" s="69"/>
-      <c r="M69" s="69"/>
-      <c r="N69" s="69"/>
-      <c r="O69" s="69"/>
-      <c r="P69" s="69"/>
-      <c r="Q69" s="69"/>
-      <c r="R69" s="69" t="s">
+      <c r="F69" s="93"/>
+      <c r="G69" s="93"/>
+      <c r="H69" s="93"/>
+      <c r="I69" s="93"/>
+      <c r="J69" s="93"/>
+      <c r="K69" s="93"/>
+      <c r="L69" s="93"/>
+      <c r="M69" s="93"/>
+      <c r="N69" s="93"/>
+      <c r="O69" s="93"/>
+      <c r="P69" s="93"/>
+      <c r="Q69" s="93"/>
+      <c r="R69" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="S69" s="69"/>
-      <c r="T69" s="69"/>
-      <c r="U69" s="69"/>
-      <c r="V69" s="69"/>
-      <c r="W69" s="69"/>
-      <c r="X69" s="69" t="s">
+      <c r="S69" s="93"/>
+      <c r="T69" s="93"/>
+      <c r="U69" s="93"/>
+      <c r="V69" s="93"/>
+      <c r="W69" s="93"/>
+      <c r="X69" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="Y69" s="69"/>
-      <c r="Z69" s="69"/>
-      <c r="AA69" s="69"/>
-      <c r="AB69" s="69"/>
-      <c r="AC69" s="69"/>
-      <c r="AD69" s="69"/>
-      <c r="AE69" s="69" t="s">
+      <c r="Y69" s="93"/>
+      <c r="Z69" s="93"/>
+      <c r="AA69" s="93"/>
+      <c r="AB69" s="93"/>
+      <c r="AC69" s="93"/>
+      <c r="AD69" s="93"/>
+      <c r="AE69" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="AF69" s="69"/>
-      <c r="AG69" s="69"/>
-      <c r="AH69" s="69"/>
-      <c r="AI69" s="69"/>
-      <c r="AJ69" s="69"/>
-      <c r="AK69" s="69"/>
-      <c r="AL69" s="69" t="s">
+      <c r="AF69" s="93"/>
+      <c r="AG69" s="93"/>
+      <c r="AH69" s="93"/>
+      <c r="AI69" s="93"/>
+      <c r="AJ69" s="93"/>
+      <c r="AK69" s="93"/>
+      <c r="AL69" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="AM69" s="69"/>
-      <c r="AN69" s="69"/>
-      <c r="AO69" s="69"/>
-      <c r="AP69" s="69"/>
-      <c r="AQ69" s="69"/>
-      <c r="AR69" s="69"/>
-      <c r="AS69" s="69"/>
-      <c r="AT69" s="69"/>
-      <c r="AU69" s="69"/>
-      <c r="AV69" s="69"/>
-      <c r="AW69" s="69"/>
-      <c r="AX69" s="69"/>
-      <c r="AY69" s="69"/>
-      <c r="AZ69" s="69"/>
-      <c r="BA69" s="69"/>
-      <c r="BB69" s="69"/>
-      <c r="BC69" s="69"/>
-      <c r="BD69" s="70"/>
+      <c r="AM69" s="93"/>
+      <c r="AN69" s="93"/>
+      <c r="AO69" s="93"/>
+      <c r="AP69" s="93"/>
+      <c r="AQ69" s="93"/>
+      <c r="AR69" s="93"/>
+      <c r="AS69" s="93"/>
+      <c r="AT69" s="93"/>
+      <c r="AU69" s="93"/>
+      <c r="AV69" s="93"/>
+      <c r="AW69" s="93"/>
+      <c r="AX69" s="93"/>
+      <c r="AY69" s="93"/>
+      <c r="AZ69" s="93"/>
+      <c r="BA69" s="93"/>
+      <c r="BB69" s="93"/>
+      <c r="BC69" s="93"/>
+      <c r="BD69" s="94"/>
     </row>
     <row r="70" spans="3:56">
       <c r="C70" s="48"/>
@@ -6220,68 +6220,68 @@
       </c>
     </row>
     <row r="88" spans="3:56" ht="15">
-      <c r="C88" s="71" t="s">
+      <c r="C88" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="D88" s="69"/>
-      <c r="E88" s="69" t="s">
+      <c r="D88" s="93"/>
+      <c r="E88" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="F88" s="69"/>
-      <c r="G88" s="69"/>
-      <c r="H88" s="69"/>
-      <c r="I88" s="69"/>
-      <c r="J88" s="69"/>
-      <c r="K88" s="69"/>
-      <c r="L88" s="69"/>
-      <c r="M88" s="69"/>
-      <c r="N88" s="69"/>
-      <c r="O88" s="69"/>
-      <c r="P88" s="69"/>
-      <c r="Q88" s="69"/>
-      <c r="R88" s="69" t="s">
+      <c r="F88" s="93"/>
+      <c r="G88" s="93"/>
+      <c r="H88" s="93"/>
+      <c r="I88" s="93"/>
+      <c r="J88" s="93"/>
+      <c r="K88" s="93"/>
+      <c r="L88" s="93"/>
+      <c r="M88" s="93"/>
+      <c r="N88" s="93"/>
+      <c r="O88" s="93"/>
+      <c r="P88" s="93"/>
+      <c r="Q88" s="93"/>
+      <c r="R88" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="S88" s="69"/>
-      <c r="T88" s="69"/>
-      <c r="U88" s="69"/>
-      <c r="V88" s="69"/>
-      <c r="W88" s="69"/>
-      <c r="X88" s="69" t="s">
+      <c r="S88" s="93"/>
+      <c r="T88" s="93"/>
+      <c r="U88" s="93"/>
+      <c r="V88" s="93"/>
+      <c r="W88" s="93"/>
+      <c r="X88" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="Y88" s="69"/>
-      <c r="Z88" s="69"/>
-      <c r="AA88" s="69"/>
-      <c r="AB88" s="69"/>
-      <c r="AC88" s="69"/>
-      <c r="AD88" s="69"/>
-      <c r="AE88" s="69"/>
-      <c r="AF88" s="69"/>
-      <c r="AG88" s="69"/>
-      <c r="AH88" s="69"/>
-      <c r="AI88" s="69"/>
-      <c r="AJ88" s="69"/>
-      <c r="AK88" s="69"/>
-      <c r="AL88" s="69"/>
-      <c r="AM88" s="69"/>
-      <c r="AN88" s="69"/>
-      <c r="AO88" s="69"/>
-      <c r="AP88" s="69"/>
-      <c r="AQ88" s="69"/>
-      <c r="AR88" s="69"/>
-      <c r="AS88" s="69"/>
-      <c r="AT88" s="69"/>
-      <c r="AU88" s="69"/>
-      <c r="AV88" s="69"/>
-      <c r="AW88" s="69"/>
-      <c r="AX88" s="69"/>
-      <c r="AY88" s="69"/>
-      <c r="AZ88" s="69"/>
-      <c r="BA88" s="69"/>
-      <c r="BB88" s="69"/>
-      <c r="BC88" s="69"/>
-      <c r="BD88" s="70"/>
+      <c r="Y88" s="93"/>
+      <c r="Z88" s="93"/>
+      <c r="AA88" s="93"/>
+      <c r="AB88" s="93"/>
+      <c r="AC88" s="93"/>
+      <c r="AD88" s="93"/>
+      <c r="AE88" s="93"/>
+      <c r="AF88" s="93"/>
+      <c r="AG88" s="93"/>
+      <c r="AH88" s="93"/>
+      <c r="AI88" s="93"/>
+      <c r="AJ88" s="93"/>
+      <c r="AK88" s="93"/>
+      <c r="AL88" s="93"/>
+      <c r="AM88" s="93"/>
+      <c r="AN88" s="93"/>
+      <c r="AO88" s="93"/>
+      <c r="AP88" s="93"/>
+      <c r="AQ88" s="93"/>
+      <c r="AR88" s="93"/>
+      <c r="AS88" s="93"/>
+      <c r="AT88" s="93"/>
+      <c r="AU88" s="93"/>
+      <c r="AV88" s="93"/>
+      <c r="AW88" s="93"/>
+      <c r="AX88" s="93"/>
+      <c r="AY88" s="93"/>
+      <c r="AZ88" s="93"/>
+      <c r="BA88" s="93"/>
+      <c r="BB88" s="93"/>
+      <c r="BC88" s="93"/>
+      <c r="BD88" s="94"/>
     </row>
     <row r="89" spans="3:56">
       <c r="C89" s="35"/>
@@ -7069,12 +7069,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="X88:BD88"/>
-    <mergeCell ref="E69:Q69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:Q88"/>
-    <mergeCell ref="R88:W88"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="BB4:BE4"/>
+    <mergeCell ref="BB5:BE5"/>
+    <mergeCell ref="U4:AP4"/>
+    <mergeCell ref="U5:AP5"/>
+    <mergeCell ref="AQ3:AW3"/>
+    <mergeCell ref="AX3:BE3"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:AP3"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="AT5:AW5"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="AQ2:AW2"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:W43"/>
     <mergeCell ref="AW43:BD43"/>
     <mergeCell ref="AL69:BD69"/>
     <mergeCell ref="AE69:AK69"/>
@@ -7085,25 +7098,12 @@
     <mergeCell ref="AJ43:AM43"/>
     <mergeCell ref="AN43:AP43"/>
     <mergeCell ref="AQ43:AV43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:AP3"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="AT5:AW5"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="AQ2:AW2"/>
-    <mergeCell ref="AX2:BE2"/>
-    <mergeCell ref="BB4:BE4"/>
-    <mergeCell ref="BB5:BE5"/>
-    <mergeCell ref="U4:AP4"/>
-    <mergeCell ref="U5:AP5"/>
-    <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="AX3:BE3"/>
+    <mergeCell ref="X88:BD88"/>
+    <mergeCell ref="E69:Q69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:Q88"/>
+    <mergeCell ref="R88:W88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="98" orientation="portrait" r:id="rId1"/>
@@ -7118,8 +7118,8 @@
   <dimension ref="B2:BE101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AX3" sqref="AX3:BE3"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U4" sqref="U4:AP4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="12.75"/>
@@ -7143,620 +7143,620 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:57">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65" t="s">
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="61" t="s">
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
+      <c r="AK2" s="100"/>
+      <c r="AL2" s="100"/>
+      <c r="AM2" s="100"/>
+      <c r="AN2" s="100"/>
+      <c r="AO2" s="100"/>
+      <c r="AP2" s="100"/>
+      <c r="AQ2" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="61"/>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="61"/>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="61"/>
-      <c r="AX2" s="61" t="s">
+      <c r="AR2" s="102"/>
+      <c r="AS2" s="102"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="102"/>
+      <c r="AW2" s="102"/>
+      <c r="AX2" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="AY2" s="61"/>
-      <c r="AZ2" s="61"/>
-      <c r="BA2" s="61"/>
-      <c r="BB2" s="61"/>
-      <c r="BC2" s="61"/>
-      <c r="BD2" s="61"/>
-      <c r="BE2" s="61"/>
+      <c r="AY2" s="102"/>
+      <c r="AZ2" s="102"/>
+      <c r="BA2" s="102"/>
+      <c r="BB2" s="102"/>
+      <c r="BC2" s="102"/>
+      <c r="BD2" s="102"/>
+      <c r="BE2" s="102"/>
     </row>
     <row r="3" spans="2:57">
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="63" t="s">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="100"/>
+      <c r="AD3" s="100"/>
+      <c r="AE3" s="100"/>
+      <c r="AF3" s="100"/>
+      <c r="AG3" s="100"/>
+      <c r="AH3" s="100"/>
+      <c r="AI3" s="100"/>
+      <c r="AJ3" s="100"/>
+      <c r="AK3" s="100"/>
+      <c r="AL3" s="100"/>
+      <c r="AM3" s="100"/>
+      <c r="AN3" s="100"/>
+      <c r="AO3" s="100"/>
+      <c r="AP3" s="100"/>
+      <c r="AQ3" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="63"/>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="63" t="s">
+      <c r="AR3" s="103"/>
+      <c r="AS3" s="103"/>
+      <c r="AT3" s="103"/>
+      <c r="AU3" s="103"/>
+      <c r="AV3" s="103"/>
+      <c r="AW3" s="103"/>
+      <c r="AX3" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63"/>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
+      <c r="AY3" s="103"/>
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="103"/>
+      <c r="BB3" s="103"/>
+      <c r="BC3" s="103"/>
+      <c r="BD3" s="103"/>
+      <c r="BE3" s="103"/>
     </row>
     <row r="4" spans="2:57">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="75" t="s">
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="62" t="s">
+      <c r="P4" s="138"/>
+      <c r="Q4" s="138"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="138"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="62"/>
-      <c r="AK4" s="62"/>
-      <c r="AL4" s="62"/>
-      <c r="AM4" s="62"/>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="62"/>
-      <c r="AP4" s="62"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="101"/>
+      <c r="AL4" s="101"/>
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="101"/>
+      <c r="AO4" s="101"/>
+      <c r="AP4" s="101"/>
+      <c r="AQ4" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="AR4" s="73"/>
-      <c r="AS4" s="74"/>
-      <c r="AT4" s="62"/>
-      <c r="AU4" s="62"/>
-      <c r="AV4" s="62"/>
-      <c r="AW4" s="62"/>
-      <c r="AX4" s="72" t="s">
+      <c r="AR4" s="142"/>
+      <c r="AS4" s="143"/>
+      <c r="AT4" s="101"/>
+      <c r="AU4" s="101"/>
+      <c r="AV4" s="101"/>
+      <c r="AW4" s="101"/>
+      <c r="AX4" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="AY4" s="73"/>
-      <c r="AZ4" s="73"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="62"/>
-      <c r="BC4" s="62"/>
-      <c r="BD4" s="62"/>
-      <c r="BE4" s="62"/>
+      <c r="AY4" s="142"/>
+      <c r="AZ4" s="142"/>
+      <c r="BA4" s="143"/>
+      <c r="BB4" s="101"/>
+      <c r="BC4" s="101"/>
+      <c r="BD4" s="101"/>
+      <c r="BE4" s="101"/>
     </row>
     <row r="5" spans="2:57">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="75" t="s">
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="62"/>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="62"/>
-      <c r="AH5" s="62"/>
-      <c r="AI5" s="62"/>
-      <c r="AJ5" s="62"/>
-      <c r="AK5" s="62"/>
-      <c r="AL5" s="62"/>
-      <c r="AM5" s="62"/>
-      <c r="AN5" s="62"/>
-      <c r="AO5" s="62"/>
-      <c r="AP5" s="62"/>
-      <c r="AQ5" s="75" t="s">
+      <c r="P5" s="138"/>
+      <c r="Q5" s="138"/>
+      <c r="R5" s="138"/>
+      <c r="S5" s="138"/>
+      <c r="T5" s="139"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
+      <c r="Y5" s="101"/>
+      <c r="Z5" s="101"/>
+      <c r="AA5" s="101"/>
+      <c r="AB5" s="101"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="101"/>
+      <c r="AE5" s="101"/>
+      <c r="AF5" s="101"/>
+      <c r="AG5" s="101"/>
+      <c r="AH5" s="101"/>
+      <c r="AI5" s="101"/>
+      <c r="AJ5" s="101"/>
+      <c r="AK5" s="101"/>
+      <c r="AL5" s="101"/>
+      <c r="AM5" s="101"/>
+      <c r="AN5" s="101"/>
+      <c r="AO5" s="101"/>
+      <c r="AP5" s="101"/>
+      <c r="AQ5" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="AR5" s="82"/>
-      <c r="AS5" s="77"/>
-      <c r="AT5" s="62"/>
-      <c r="AU5" s="62"/>
-      <c r="AV5" s="62"/>
-      <c r="AW5" s="62"/>
-      <c r="AX5" s="75" t="s">
+      <c r="AR5" s="144"/>
+      <c r="AS5" s="139"/>
+      <c r="AT5" s="101"/>
+      <c r="AU5" s="101"/>
+      <c r="AV5" s="101"/>
+      <c r="AW5" s="101"/>
+      <c r="AX5" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="77"/>
-      <c r="BB5" s="62"/>
-      <c r="BC5" s="62"/>
-      <c r="BD5" s="62"/>
-      <c r="BE5" s="62"/>
+      <c r="AY5" s="138"/>
+      <c r="AZ5" s="138"/>
+      <c r="BA5" s="139"/>
+      <c r="BB5" s="101"/>
+      <c r="BC5" s="101"/>
+      <c r="BD5" s="101"/>
+      <c r="BE5" s="101"/>
     </row>
     <row r="7" spans="2:57">
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
     </row>
     <row r="9" spans="2:57" ht="13.5" thickBot="1">
       <c r="C9" s="34"/>
     </row>
     <row r="10" spans="2:57" ht="15" customHeight="1">
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="114" t="s">
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="114"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="103"/>
-      <c r="W10" s="103"/>
-      <c r="X10" s="103"/>
-      <c r="Y10" s="103"/>
-      <c r="Z10" s="103"/>
-      <c r="AA10" s="103"/>
-      <c r="AB10" s="103"/>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="103"/>
-      <c r="AE10" s="103"/>
-      <c r="AF10" s="103"/>
-      <c r="AG10" s="103"/>
-      <c r="AH10" s="103"/>
-      <c r="AI10" s="103"/>
-      <c r="AJ10" s="103"/>
-      <c r="AK10" s="103"/>
-      <c r="AL10" s="103"/>
-      <c r="AM10" s="103"/>
-      <c r="AN10" s="103"/>
-      <c r="AO10" s="103"/>
-      <c r="AP10" s="103"/>
-      <c r="AQ10" s="103"/>
-      <c r="AR10" s="103"/>
-      <c r="AS10" s="103"/>
-      <c r="AT10" s="103"/>
-      <c r="AU10" s="103"/>
-      <c r="AV10" s="103"/>
-      <c r="AW10" s="103"/>
-      <c r="AX10" s="103"/>
-      <c r="AY10" s="103"/>
-      <c r="AZ10" s="103"/>
-      <c r="BA10" s="103"/>
-      <c r="BB10" s="103"/>
-      <c r="BC10" s="104"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="150"/>
+      <c r="R10" s="150"/>
+      <c r="S10" s="150"/>
+      <c r="T10" s="150"/>
+      <c r="U10" s="150"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="73"/>
+      <c r="AE10" s="73"/>
+      <c r="AF10" s="73"/>
+      <c r="AG10" s="73"/>
+      <c r="AH10" s="73"/>
+      <c r="AI10" s="73"/>
+      <c r="AJ10" s="73"/>
+      <c r="AK10" s="73"/>
+      <c r="AL10" s="73"/>
+      <c r="AM10" s="73"/>
+      <c r="AN10" s="73"/>
+      <c r="AO10" s="73"/>
+      <c r="AP10" s="73"/>
+      <c r="AQ10" s="73"/>
+      <c r="AR10" s="73"/>
+      <c r="AS10" s="73"/>
+      <c r="AT10" s="73"/>
+      <c r="AU10" s="73"/>
+      <c r="AV10" s="73"/>
+      <c r="AW10" s="73"/>
+      <c r="AX10" s="73"/>
+      <c r="AY10" s="73"/>
+      <c r="AZ10" s="73"/>
+      <c r="BA10" s="73"/>
+      <c r="BB10" s="73"/>
+      <c r="BC10" s="74"/>
     </row>
     <row r="11" spans="2:57" ht="13.5" thickBot="1">
-      <c r="D11" s="123"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="115"/>
-      <c r="P11" s="115"/>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="115"/>
-      <c r="S11" s="115"/>
-      <c r="T11" s="115"/>
-      <c r="U11" s="115"/>
-      <c r="V11" s="105"/>
-      <c r="W11" s="105"/>
-      <c r="X11" s="105"/>
-      <c r="Y11" s="105"/>
-      <c r="Z11" s="105"/>
-      <c r="AA11" s="105"/>
-      <c r="AB11" s="105"/>
-      <c r="AC11" s="105"/>
-      <c r="AD11" s="105"/>
-      <c r="AE11" s="105"/>
-      <c r="AF11" s="105"/>
-      <c r="AG11" s="105"/>
-      <c r="AH11" s="105"/>
-      <c r="AI11" s="105"/>
-      <c r="AJ11" s="105"/>
-      <c r="AK11" s="105"/>
-      <c r="AL11" s="105"/>
-      <c r="AM11" s="105"/>
-      <c r="AN11" s="105"/>
-      <c r="AO11" s="105"/>
-      <c r="AP11" s="105"/>
-      <c r="AQ11" s="105"/>
-      <c r="AR11" s="105"/>
-      <c r="AS11" s="105"/>
-      <c r="AT11" s="105"/>
-      <c r="AU11" s="105"/>
-      <c r="AV11" s="105"/>
-      <c r="AW11" s="105"/>
-      <c r="AX11" s="105"/>
-      <c r="AY11" s="105"/>
-      <c r="AZ11" s="105"/>
-      <c r="BA11" s="105"/>
-      <c r="BB11" s="105"/>
-      <c r="BC11" s="106"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="151"/>
+      <c r="R11" s="151"/>
+      <c r="S11" s="151"/>
+      <c r="T11" s="151"/>
+      <c r="U11" s="151"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="75"/>
+      <c r="AH11" s="75"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="75"/>
+      <c r="AK11" s="75"/>
+      <c r="AL11" s="75"/>
+      <c r="AM11" s="75"/>
+      <c r="AN11" s="75"/>
+      <c r="AO11" s="75"/>
+      <c r="AP11" s="75"/>
+      <c r="AQ11" s="75"/>
+      <c r="AR11" s="75"/>
+      <c r="AS11" s="75"/>
+      <c r="AT11" s="75"/>
+      <c r="AU11" s="75"/>
+      <c r="AV11" s="75"/>
+      <c r="AW11" s="75"/>
+      <c r="AX11" s="75"/>
+      <c r="AY11" s="75"/>
+      <c r="AZ11" s="75"/>
+      <c r="BA11" s="75"/>
+      <c r="BB11" s="75"/>
+      <c r="BC11" s="76"/>
     </row>
     <row r="12" spans="2:57" ht="15" customHeight="1">
-      <c r="D12" s="123"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="115"/>
-      <c r="S12" s="115"/>
-      <c r="T12" s="115"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="105"/>
-      <c r="X12" s="105"/>
-      <c r="Y12" s="105"/>
-      <c r="Z12" s="105"/>
-      <c r="AA12" s="105"/>
-      <c r="AB12" s="105"/>
-      <c r="AC12" s="105"/>
-      <c r="AD12" s="105"/>
-      <c r="AE12" s="105"/>
-      <c r="AF12" s="105"/>
-      <c r="AG12" s="108" t="s">
+      <c r="D12" s="147"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="151"/>
+      <c r="S12" s="151"/>
+      <c r="T12" s="151"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="152" t="s">
         <v>90</v>
       </c>
-      <c r="AH12" s="109"/>
-      <c r="AI12" s="109"/>
-      <c r="AJ12" s="116"/>
-      <c r="AK12" s="105"/>
-      <c r="AL12" s="120" t="s">
+      <c r="AH12" s="153"/>
+      <c r="AI12" s="153"/>
+      <c r="AJ12" s="154"/>
+      <c r="AK12" s="75"/>
+      <c r="AL12" s="127" t="s">
         <v>91</v>
       </c>
-      <c r="AM12" s="121"/>
-      <c r="AN12" s="122"/>
-      <c r="AO12" s="105"/>
-      <c r="AP12" s="120" t="s">
+      <c r="AM12" s="128"/>
+      <c r="AN12" s="129"/>
+      <c r="AO12" s="75"/>
+      <c r="AP12" s="127" t="s">
         <v>92</v>
       </c>
-      <c r="AQ12" s="121"/>
-      <c r="AR12" s="122"/>
-      <c r="AS12" s="105"/>
-      <c r="AT12" s="120" t="s">
+      <c r="AQ12" s="128"/>
+      <c r="AR12" s="129"/>
+      <c r="AS12" s="75"/>
+      <c r="AT12" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="AU12" s="121"/>
-      <c r="AV12" s="122"/>
-      <c r="AW12" s="129"/>
-      <c r="AX12" s="120" t="s">
+      <c r="AU12" s="128"/>
+      <c r="AV12" s="129"/>
+      <c r="AW12" s="78"/>
+      <c r="AX12" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="AY12" s="121"/>
-      <c r="AZ12" s="122"/>
-      <c r="BA12" s="105"/>
-      <c r="BB12" s="105"/>
-      <c r="BC12" s="106"/>
+      <c r="AY12" s="128"/>
+      <c r="AZ12" s="129"/>
+      <c r="BA12" s="75"/>
+      <c r="BB12" s="75"/>
+      <c r="BC12" s="76"/>
     </row>
     <row r="13" spans="2:57" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115"/>
-      <c r="P13" s="115"/>
-      <c r="Q13" s="115"/>
-      <c r="R13" s="115"/>
-      <c r="S13" s="115"/>
-      <c r="T13" s="115"/>
-      <c r="U13" s="115"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="105"/>
-      <c r="X13" s="105"/>
-      <c r="Y13" s="105"/>
-      <c r="Z13" s="105"/>
-      <c r="AA13" s="105"/>
-      <c r="AB13" s="105"/>
-      <c r="AC13" s="105"/>
-      <c r="AD13" s="105"/>
-      <c r="AE13" s="105"/>
-      <c r="AF13" s="105"/>
-      <c r="AG13" s="117"/>
-      <c r="AH13" s="118"/>
-      <c r="AI13" s="118"/>
-      <c r="AJ13" s="119"/>
-      <c r="AK13" s="105"/>
-      <c r="AL13" s="126"/>
-      <c r="AM13" s="127"/>
-      <c r="AN13" s="128"/>
-      <c r="AO13" s="105"/>
-      <c r="AP13" s="126"/>
-      <c r="AQ13" s="127"/>
-      <c r="AR13" s="128"/>
-      <c r="AS13" s="105"/>
-      <c r="AT13" s="126"/>
-      <c r="AU13" s="127"/>
-      <c r="AV13" s="128"/>
-      <c r="AW13" s="129"/>
-      <c r="AX13" s="126"/>
-      <c r="AY13" s="127"/>
-      <c r="AZ13" s="128"/>
-      <c r="BA13" s="105"/>
-      <c r="BB13" s="105"/>
-      <c r="BC13" s="106"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="151"/>
+      <c r="S13" s="151"/>
+      <c r="T13" s="151"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="155"/>
+      <c r="AH13" s="156"/>
+      <c r="AI13" s="156"/>
+      <c r="AJ13" s="157"/>
+      <c r="AK13" s="75"/>
+      <c r="AL13" s="130"/>
+      <c r="AM13" s="131"/>
+      <c r="AN13" s="132"/>
+      <c r="AO13" s="75"/>
+      <c r="AP13" s="130"/>
+      <c r="AQ13" s="131"/>
+      <c r="AR13" s="132"/>
+      <c r="AS13" s="75"/>
+      <c r="AT13" s="130"/>
+      <c r="AU13" s="131"/>
+      <c r="AV13" s="132"/>
+      <c r="AW13" s="78"/>
+      <c r="AX13" s="130"/>
+      <c r="AY13" s="131"/>
+      <c r="AZ13" s="132"/>
+      <c r="BA13" s="75"/>
+      <c r="BB13" s="75"/>
+      <c r="BC13" s="76"/>
     </row>
     <row r="14" spans="2:57">
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="115"/>
-      <c r="T14" s="115"/>
-      <c r="U14" s="115"/>
-      <c r="V14" s="105"/>
-      <c r="W14" s="105"/>
-      <c r="X14" s="105"/>
-      <c r="Y14" s="107"/>
-      <c r="Z14" s="105"/>
-      <c r="AA14" s="105"/>
-      <c r="AB14" s="105"/>
-      <c r="AC14" s="105"/>
-      <c r="AD14" s="105"/>
-      <c r="AE14" s="105"/>
-      <c r="AF14" s="105"/>
-      <c r="AG14" s="105"/>
-      <c r="AH14" s="105"/>
-      <c r="AI14" s="105"/>
-      <c r="AJ14" s="105"/>
-      <c r="AK14" s="105"/>
-      <c r="AL14" s="105"/>
-      <c r="AM14" s="105"/>
-      <c r="AN14" s="105"/>
-      <c r="AO14" s="105"/>
-      <c r="AP14" s="105"/>
-      <c r="AQ14" s="105"/>
-      <c r="AR14" s="105"/>
-      <c r="AS14" s="105"/>
-      <c r="AT14" s="105"/>
-      <c r="AU14" s="105"/>
-      <c r="AV14" s="105"/>
-      <c r="AW14" s="105"/>
-      <c r="AX14" s="105"/>
-      <c r="AY14" s="105"/>
-      <c r="AZ14" s="105"/>
-      <c r="BA14" s="105"/>
-      <c r="BB14" s="105"/>
-      <c r="BC14" s="106"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="151"/>
+      <c r="S14" s="151"/>
+      <c r="T14" s="151"/>
+      <c r="U14" s="151"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="75"/>
+      <c r="AH14" s="75"/>
+      <c r="AI14" s="75"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="75"/>
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="75"/>
+      <c r="AN14" s="75"/>
+      <c r="AO14" s="75"/>
+      <c r="AP14" s="75"/>
+      <c r="AQ14" s="75"/>
+      <c r="AR14" s="75"/>
+      <c r="AS14" s="75"/>
+      <c r="AT14" s="75"/>
+      <c r="AU14" s="75"/>
+      <c r="AV14" s="75"/>
+      <c r="AW14" s="75"/>
+      <c r="AX14" s="75"/>
+      <c r="AY14" s="75"/>
+      <c r="AZ14" s="75"/>
+      <c r="BA14" s="75"/>
+      <c r="BB14" s="75"/>
+      <c r="BC14" s="76"/>
     </row>
     <row r="15" spans="2:57">
-      <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="115"/>
-      <c r="S15" s="115"/>
-      <c r="T15" s="115"/>
-      <c r="U15" s="115"/>
-      <c r="V15" s="105"/>
-      <c r="W15" s="105"/>
-      <c r="X15" s="105"/>
-      <c r="Y15" s="105"/>
-      <c r="Z15" s="105"/>
-      <c r="AA15" s="105"/>
-      <c r="AB15" s="105"/>
-      <c r="AC15" s="105"/>
-      <c r="AD15" s="105"/>
-      <c r="AE15" s="105"/>
-      <c r="AF15" s="105"/>
-      <c r="AG15" s="105"/>
-      <c r="AH15" s="105"/>
-      <c r="AI15" s="105"/>
-      <c r="AJ15" s="105"/>
-      <c r="AK15" s="105"/>
-      <c r="AL15" s="105"/>
-      <c r="AM15" s="105"/>
-      <c r="AN15" s="105"/>
-      <c r="AO15" s="105"/>
-      <c r="AP15" s="105"/>
-      <c r="AQ15" s="105"/>
-      <c r="AR15" s="105"/>
-      <c r="AS15" s="105"/>
-      <c r="AT15" s="105"/>
-      <c r="AU15" s="105"/>
-      <c r="AV15" s="105"/>
-      <c r="AW15" s="105"/>
-      <c r="AX15" s="105"/>
-      <c r="AY15" s="105"/>
-      <c r="AZ15" s="105"/>
-      <c r="BA15" s="105"/>
-      <c r="BB15" s="105"/>
-      <c r="BC15" s="106"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="151"/>
+      <c r="S15" s="151"/>
+      <c r="T15" s="151"/>
+      <c r="U15" s="151"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="75"/>
+      <c r="Z15" s="75"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="75"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="75"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="75"/>
+      <c r="AK15" s="75"/>
+      <c r="AL15" s="75"/>
+      <c r="AM15" s="75"/>
+      <c r="AN15" s="75"/>
+      <c r="AO15" s="75"/>
+      <c r="AP15" s="75"/>
+      <c r="AQ15" s="75"/>
+      <c r="AR15" s="75"/>
+      <c r="AS15" s="75"/>
+      <c r="AT15" s="75"/>
+      <c r="AU15" s="75"/>
+      <c r="AV15" s="75"/>
+      <c r="AW15" s="75"/>
+      <c r="AX15" s="75"/>
+      <c r="AY15" s="75"/>
+      <c r="AZ15" s="75"/>
+      <c r="BA15" s="75"/>
+      <c r="BB15" s="75"/>
+      <c r="BC15" s="76"/>
     </row>
     <row r="16" spans="2:57">
-      <c r="D16" s="98"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="47"/>
@@ -7807,10 +7807,10 @@
       <c r="AZ16" s="47"/>
       <c r="BA16" s="47"/>
       <c r="BB16" s="47"/>
-      <c r="BC16" s="99"/>
+      <c r="BC16" s="69"/>
     </row>
     <row r="17" spans="4:55">
-      <c r="D17" s="98"/>
+      <c r="D17" s="68"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="47"/>
@@ -7861,11 +7861,11 @@
       <c r="AZ17" s="47"/>
       <c r="BA17" s="47"/>
       <c r="BB17" s="47"/>
-      <c r="BC17" s="99"/>
+      <c r="BC17" s="69"/>
     </row>
     <row r="18" spans="4:55">
-      <c r="D18" s="98"/>
-      <c r="E18" s="91"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="61"/>
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
@@ -7877,11 +7877,11 @@
       <c r="N18" s="57"/>
       <c r="O18" s="57"/>
       <c r="P18" s="57"/>
-      <c r="Q18" s="130"/>
-      <c r="R18" s="130"/>
-      <c r="S18" s="130"/>
-      <c r="T18" s="130"/>
-      <c r="U18" s="131"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="80"/>
       <c r="V18" s="57"/>
       <c r="W18" s="57"/>
       <c r="X18" s="57"/>
@@ -7914,12 +7914,12 @@
       <c r="AY18" s="57"/>
       <c r="AZ18" s="57"/>
       <c r="BA18" s="57"/>
-      <c r="BB18" s="92"/>
-      <c r="BC18" s="99"/>
+      <c r="BB18" s="62"/>
+      <c r="BC18" s="69"/>
     </row>
     <row r="19" spans="4:55">
-      <c r="D19" s="98"/>
-      <c r="E19" s="93"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="63"/>
       <c r="F19" s="47"/>
       <c r="G19" s="47"/>
       <c r="H19" s="47"/>
@@ -7968,29 +7968,29 @@
       <c r="AY19" s="47"/>
       <c r="AZ19" s="47"/>
       <c r="BA19" s="47"/>
-      <c r="BB19" s="94"/>
-      <c r="BC19" s="99"/>
+      <c r="BB19" s="64"/>
+      <c r="BC19" s="69"/>
     </row>
     <row r="20" spans="4:55">
-      <c r="D20" s="98"/>
-      <c r="E20" s="93"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="63"/>
       <c r="F20" s="47" t="s">
         <v>95</v>
       </c>
       <c r="G20" s="47"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="86"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="135"/>
       <c r="K20" s="47"/>
-      <c r="L20" s="84" t="s">
+      <c r="L20" s="133" t="s">
         <v>96</v>
       </c>
-      <c r="M20" s="86"/>
+      <c r="M20" s="135"/>
       <c r="N20" s="47"/>
-      <c r="O20" s="84" t="s">
+      <c r="O20" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="P20" s="86"/>
+      <c r="P20" s="135"/>
       <c r="Q20" s="47"/>
       <c r="R20" s="47"/>
       <c r="S20" s="47"/>
@@ -8014,34 +8014,34 @@
       <c r="AK20" s="47"/>
       <c r="AL20" s="47"/>
       <c r="AM20" s="47"/>
-      <c r="AN20" s="84" t="s">
+      <c r="AN20" s="133" t="s">
         <v>98</v>
       </c>
-      <c r="AO20" s="85"/>
-      <c r="AP20" s="85"/>
-      <c r="AQ20" s="85"/>
-      <c r="AR20" s="86"/>
-      <c r="AS20" s="133" t="s">
+      <c r="AO20" s="134"/>
+      <c r="AP20" s="134"/>
+      <c r="AQ20" s="134"/>
+      <c r="AR20" s="135"/>
+      <c r="AS20" s="81" t="s">
         <v>87</v>
       </c>
       <c r="AT20" s="47"/>
       <c r="AU20" s="47"/>
-      <c r="AV20" s="84" t="s">
+      <c r="AV20" s="133" t="s">
         <v>99</v>
       </c>
-      <c r="AW20" s="85"/>
-      <c r="AX20" s="85"/>
-      <c r="AY20" s="85"/>
-      <c r="AZ20" s="86"/>
-      <c r="BA20" s="133" t="s">
+      <c r="AW20" s="134"/>
+      <c r="AX20" s="134"/>
+      <c r="AY20" s="134"/>
+      <c r="AZ20" s="135"/>
+      <c r="BA20" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="BB20" s="94"/>
-      <c r="BC20" s="99"/>
+      <c r="BB20" s="64"/>
+      <c r="BC20" s="69"/>
     </row>
     <row r="21" spans="4:55">
-      <c r="D21" s="98"/>
-      <c r="E21" s="93"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="47"/>
       <c r="G21" s="47"/>
       <c r="H21" s="47"/>
@@ -8090,21 +8090,21 @@
       <c r="AY21" s="47"/>
       <c r="AZ21" s="47"/>
       <c r="BA21" s="47"/>
-      <c r="BB21" s="94"/>
-      <c r="BC21" s="99"/>
+      <c r="BB21" s="64"/>
+      <c r="BC21" s="69"/>
     </row>
     <row r="22" spans="4:55">
-      <c r="D22" s="98"/>
-      <c r="E22" s="93"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="63"/>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
-      <c r="H22" s="132" t="s">
+      <c r="H22" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="158"/>
       <c r="M22" s="47"/>
       <c r="N22" s="47"/>
       <c r="O22" s="47"/>
@@ -8146,167 +8146,167 @@
       <c r="AY22" s="47"/>
       <c r="AZ22" s="47"/>
       <c r="BA22" s="47"/>
-      <c r="BB22" s="94"/>
-      <c r="BC22" s="99"/>
+      <c r="BB22" s="64"/>
+      <c r="BC22" s="69"/>
     </row>
     <row r="23" spans="4:55">
-      <c r="D23" s="98"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="111" t="s">
+      <c r="D23" s="68"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="159" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="135"/>
-      <c r="H23" s="137" t="s">
+      <c r="G23" s="121"/>
+      <c r="H23" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="I23" s="138"/>
-      <c r="J23" s="141" t="s">
+      <c r="I23" s="162"/>
+      <c r="J23" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="136"/>
-      <c r="Q23" s="142" t="s">
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="124"/>
+      <c r="Q23" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="R23" s="112"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="112"/>
-      <c r="U23" s="112"/>
-      <c r="V23" s="112"/>
-      <c r="W23" s="135"/>
-      <c r="X23" s="142" t="s">
+      <c r="R23" s="120"/>
+      <c r="S23" s="120"/>
+      <c r="T23" s="120"/>
+      <c r="U23" s="120"/>
+      <c r="V23" s="120"/>
+      <c r="W23" s="121"/>
+      <c r="X23" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="Y23" s="112"/>
-      <c r="Z23" s="112"/>
-      <c r="AA23" s="135"/>
-      <c r="AB23" s="142" t="s">
+      <c r="Y23" s="120"/>
+      <c r="Z23" s="120"/>
+      <c r="AA23" s="121"/>
+      <c r="AB23" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="AC23" s="112"/>
-      <c r="AD23" s="112"/>
-      <c r="AE23" s="135"/>
-      <c r="AF23" s="142" t="s">
+      <c r="AC23" s="120"/>
+      <c r="AD23" s="120"/>
+      <c r="AE23" s="121"/>
+      <c r="AF23" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="AG23" s="112"/>
-      <c r="AH23" s="112"/>
-      <c r="AI23" s="112"/>
-      <c r="AJ23" s="112"/>
-      <c r="AK23" s="112"/>
-      <c r="AL23" s="112"/>
-      <c r="AM23" s="134"/>
-      <c r="AN23" s="142" t="s">
+      <c r="AG23" s="120"/>
+      <c r="AH23" s="120"/>
+      <c r="AI23" s="120"/>
+      <c r="AJ23" s="120"/>
+      <c r="AK23" s="120"/>
+      <c r="AL23" s="120"/>
+      <c r="AM23" s="82"/>
+      <c r="AN23" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="AO23" s="112"/>
-      <c r="AP23" s="112"/>
-      <c r="AQ23" s="112"/>
-      <c r="AR23" s="112"/>
-      <c r="AS23" s="112"/>
-      <c r="AT23" s="135"/>
-      <c r="AU23" s="142" t="s">
+      <c r="AO23" s="120"/>
+      <c r="AP23" s="120"/>
+      <c r="AQ23" s="120"/>
+      <c r="AR23" s="120"/>
+      <c r="AS23" s="120"/>
+      <c r="AT23" s="121"/>
+      <c r="AU23" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="AV23" s="112"/>
-      <c r="AW23" s="112"/>
-      <c r="AX23" s="112"/>
-      <c r="AY23" s="112"/>
-      <c r="AZ23" s="135"/>
-      <c r="BA23" s="143" t="s">
+      <c r="AV23" s="120"/>
+      <c r="AW23" s="120"/>
+      <c r="AX23" s="120"/>
+      <c r="AY23" s="120"/>
+      <c r="AZ23" s="121"/>
+      <c r="BA23" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="BB23" s="94"/>
-      <c r="BC23" s="99"/>
+      <c r="BB23" s="64"/>
+      <c r="BC23" s="69"/>
     </row>
     <row r="24" spans="4:55">
-      <c r="D24" s="98"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="136"/>
-      <c r="Q24" s="141"/>
-      <c r="R24" s="110"/>
-      <c r="S24" s="110"/>
-      <c r="T24" s="110"/>
-      <c r="U24" s="110"/>
-      <c r="V24" s="110"/>
-      <c r="W24" s="136"/>
-      <c r="X24" s="141"/>
-      <c r="Y24" s="110"/>
-      <c r="Z24" s="110"/>
-      <c r="AA24" s="136"/>
-      <c r="AB24" s="141"/>
-      <c r="AC24" s="110"/>
-      <c r="AD24" s="110"/>
-      <c r="AE24" s="136"/>
-      <c r="AF24" s="141"/>
-      <c r="AG24" s="110"/>
-      <c r="AH24" s="110"/>
-      <c r="AI24" s="110"/>
-      <c r="AJ24" s="110"/>
-      <c r="AK24" s="110"/>
-      <c r="AL24" s="110"/>
-      <c r="AM24" s="105"/>
-      <c r="AN24" s="141"/>
-      <c r="AO24" s="110"/>
-      <c r="AP24" s="110"/>
-      <c r="AQ24" s="110"/>
-      <c r="AR24" s="110"/>
-      <c r="AS24" s="110"/>
-      <c r="AT24" s="136"/>
-      <c r="AU24" s="141"/>
-      <c r="AV24" s="110"/>
-      <c r="AW24" s="110"/>
-      <c r="AX24" s="110"/>
-      <c r="AY24" s="110"/>
-      <c r="AZ24" s="136"/>
-      <c r="BA24" s="144"/>
-      <c r="BB24" s="94"/>
-      <c r="BC24" s="99"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="124"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="123"/>
+      <c r="T24" s="123"/>
+      <c r="U24" s="123"/>
+      <c r="V24" s="123"/>
+      <c r="W24" s="124"/>
+      <c r="X24" s="122"/>
+      <c r="Y24" s="123"/>
+      <c r="Z24" s="123"/>
+      <c r="AA24" s="124"/>
+      <c r="AB24" s="122"/>
+      <c r="AC24" s="123"/>
+      <c r="AD24" s="123"/>
+      <c r="AE24" s="124"/>
+      <c r="AF24" s="122"/>
+      <c r="AG24" s="123"/>
+      <c r="AH24" s="123"/>
+      <c r="AI24" s="123"/>
+      <c r="AJ24" s="123"/>
+      <c r="AK24" s="123"/>
+      <c r="AL24" s="123"/>
+      <c r="AM24" s="75"/>
+      <c r="AN24" s="122"/>
+      <c r="AO24" s="123"/>
+      <c r="AP24" s="123"/>
+      <c r="AQ24" s="123"/>
+      <c r="AR24" s="123"/>
+      <c r="AS24" s="123"/>
+      <c r="AT24" s="124"/>
+      <c r="AU24" s="122"/>
+      <c r="AV24" s="123"/>
+      <c r="AW24" s="123"/>
+      <c r="AX24" s="123"/>
+      <c r="AY24" s="123"/>
+      <c r="AZ24" s="124"/>
+      <c r="BA24" s="126"/>
+      <c r="BB24" s="64"/>
+      <c r="BC24" s="69"/>
     </row>
     <row r="25" spans="4:55">
-      <c r="D25" s="98"/>
-      <c r="E25" s="93"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="35"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="146"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="84"/>
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
       <c r="M25" s="36"/>
       <c r="N25" s="36"/>
       <c r="O25" s="36"/>
-      <c r="P25" s="145"/>
-      <c r="Q25" s="146"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="84"/>
       <c r="R25" s="36"/>
       <c r="S25" s="36"/>
       <c r="T25" s="36"/>
       <c r="U25" s="36"/>
       <c r="V25" s="36"/>
-      <c r="W25" s="145"/>
-      <c r="X25" s="146"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="84"/>
       <c r="Y25" s="36"/>
       <c r="Z25" s="36"/>
-      <c r="AA25" s="145"/>
-      <c r="AB25" s="146"/>
+      <c r="AA25" s="83"/>
+      <c r="AB25" s="84"/>
       <c r="AC25" s="36"/>
       <c r="AD25" s="36"/>
-      <c r="AE25" s="145"/>
-      <c r="AF25" s="146"/>
+      <c r="AE25" s="83"/>
+      <c r="AF25" s="84"/>
       <c r="AG25" s="36"/>
       <c r="AH25" s="36"/>
       <c r="AI25" s="36"/>
@@ -8314,53 +8314,53 @@
       <c r="AK25" s="36"/>
       <c r="AL25" s="36"/>
       <c r="AM25" s="36"/>
-      <c r="AN25" s="146"/>
+      <c r="AN25" s="84"/>
       <c r="AO25" s="36"/>
       <c r="AP25" s="36"/>
       <c r="AQ25" s="36"/>
       <c r="AR25" s="36"/>
       <c r="AS25" s="36"/>
-      <c r="AT25" s="145"/>
-      <c r="AU25" s="146"/>
+      <c r="AT25" s="83"/>
+      <c r="AU25" s="84"/>
       <c r="AV25" s="36"/>
       <c r="AW25" s="36"/>
       <c r="AX25" s="36"/>
       <c r="AY25" s="36"/>
-      <c r="AZ25" s="145"/>
+      <c r="AZ25" s="83"/>
       <c r="BA25" s="39"/>
-      <c r="BB25" s="94"/>
-      <c r="BC25" s="99"/>
+      <c r="BB25" s="64"/>
+      <c r="BC25" s="69"/>
     </row>
     <row r="26" spans="4:55">
-      <c r="D26" s="98"/>
-      <c r="E26" s="93"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="41"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="148"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="86"/>
       <c r="K26" s="40"/>
       <c r="L26" s="40"/>
       <c r="M26" s="40"/>
       <c r="N26" s="40"/>
       <c r="O26" s="40"/>
-      <c r="P26" s="147"/>
-      <c r="Q26" s="148"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="86"/>
       <c r="R26" s="40"/>
       <c r="S26" s="40"/>
       <c r="T26" s="40"/>
       <c r="U26" s="40"/>
       <c r="V26" s="40"/>
-      <c r="W26" s="147"/>
-      <c r="X26" s="148"/>
+      <c r="W26" s="85"/>
+      <c r="X26" s="86"/>
       <c r="Y26" s="40"/>
       <c r="Z26" s="40"/>
-      <c r="AA26" s="147"/>
-      <c r="AB26" s="148"/>
+      <c r="AA26" s="85"/>
+      <c r="AB26" s="86"/>
       <c r="AC26" s="40"/>
       <c r="AD26" s="40"/>
-      <c r="AE26" s="147"/>
-      <c r="AF26" s="148"/>
+      <c r="AE26" s="85"/>
+      <c r="AF26" s="86"/>
       <c r="AG26" s="40"/>
       <c r="AH26" s="40"/>
       <c r="AI26" s="40"/>
@@ -8368,53 +8368,53 @@
       <c r="AK26" s="40"/>
       <c r="AL26" s="40"/>
       <c r="AM26" s="40"/>
-      <c r="AN26" s="148"/>
+      <c r="AN26" s="86"/>
       <c r="AO26" s="40"/>
       <c r="AP26" s="40"/>
       <c r="AQ26" s="40"/>
       <c r="AR26" s="40"/>
       <c r="AS26" s="40"/>
-      <c r="AT26" s="147"/>
-      <c r="AU26" s="148"/>
+      <c r="AT26" s="85"/>
+      <c r="AU26" s="86"/>
       <c r="AV26" s="40"/>
       <c r="AW26" s="40"/>
       <c r="AX26" s="40"/>
       <c r="AY26" s="40"/>
-      <c r="AZ26" s="147"/>
+      <c r="AZ26" s="85"/>
       <c r="BA26" s="43"/>
-      <c r="BB26" s="94"/>
-      <c r="BC26" s="99"/>
+      <c r="BB26" s="64"/>
+      <c r="BC26" s="69"/>
     </row>
     <row r="27" spans="4:55">
-      <c r="D27" s="98"/>
-      <c r="E27" s="93"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="63"/>
       <c r="F27" s="41"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="148"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="86"/>
       <c r="K27" s="40"/>
       <c r="L27" s="40"/>
       <c r="M27" s="40"/>
       <c r="N27" s="40"/>
       <c r="O27" s="40"/>
-      <c r="P27" s="147"/>
-      <c r="Q27" s="148"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="86"/>
       <c r="R27" s="40"/>
       <c r="S27" s="40"/>
       <c r="T27" s="40"/>
       <c r="U27" s="40"/>
       <c r="V27" s="40"/>
-      <c r="W27" s="147"/>
-      <c r="X27" s="148"/>
+      <c r="W27" s="85"/>
+      <c r="X27" s="86"/>
       <c r="Y27" s="40"/>
       <c r="Z27" s="40"/>
-      <c r="AA27" s="147"/>
-      <c r="AB27" s="148"/>
+      <c r="AA27" s="85"/>
+      <c r="AB27" s="86"/>
       <c r="AC27" s="40"/>
       <c r="AD27" s="40"/>
-      <c r="AE27" s="147"/>
-      <c r="AF27" s="148"/>
+      <c r="AE27" s="85"/>
+      <c r="AF27" s="86"/>
       <c r="AG27" s="40"/>
       <c r="AH27" s="40"/>
       <c r="AI27" s="40"/>
@@ -8422,53 +8422,53 @@
       <c r="AK27" s="40"/>
       <c r="AL27" s="40"/>
       <c r="AM27" s="40"/>
-      <c r="AN27" s="148"/>
+      <c r="AN27" s="86"/>
       <c r="AO27" s="40"/>
       <c r="AP27" s="40"/>
       <c r="AQ27" s="40"/>
       <c r="AR27" s="40"/>
       <c r="AS27" s="40"/>
-      <c r="AT27" s="147"/>
-      <c r="AU27" s="148"/>
+      <c r="AT27" s="85"/>
+      <c r="AU27" s="86"/>
       <c r="AV27" s="40"/>
       <c r="AW27" s="40"/>
       <c r="AX27" s="40"/>
       <c r="AY27" s="40"/>
-      <c r="AZ27" s="147"/>
+      <c r="AZ27" s="85"/>
       <c r="BA27" s="43"/>
-      <c r="BB27" s="94"/>
-      <c r="BC27" s="99"/>
+      <c r="BB27" s="64"/>
+      <c r="BC27" s="69"/>
     </row>
     <row r="28" spans="4:55">
-      <c r="D28" s="98"/>
-      <c r="E28" s="93"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="63"/>
       <c r="F28" s="41"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="148"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="86"/>
       <c r="K28" s="40"/>
       <c r="L28" s="40"/>
       <c r="M28" s="40"/>
       <c r="N28" s="40"/>
       <c r="O28" s="40"/>
-      <c r="P28" s="147"/>
-      <c r="Q28" s="148"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="86"/>
       <c r="R28" s="40"/>
       <c r="S28" s="40"/>
       <c r="T28" s="40"/>
       <c r="U28" s="40"/>
       <c r="V28" s="40"/>
-      <c r="W28" s="147"/>
-      <c r="X28" s="148"/>
+      <c r="W28" s="85"/>
+      <c r="X28" s="86"/>
       <c r="Y28" s="40"/>
       <c r="Z28" s="40"/>
-      <c r="AA28" s="147"/>
-      <c r="AB28" s="148"/>
+      <c r="AA28" s="85"/>
+      <c r="AB28" s="86"/>
       <c r="AC28" s="40"/>
       <c r="AD28" s="40"/>
-      <c r="AE28" s="147"/>
-      <c r="AF28" s="148"/>
+      <c r="AE28" s="85"/>
+      <c r="AF28" s="86"/>
       <c r="AG28" s="40"/>
       <c r="AH28" s="40"/>
       <c r="AI28" s="40"/>
@@ -8476,53 +8476,53 @@
       <c r="AK28" s="40"/>
       <c r="AL28" s="40"/>
       <c r="AM28" s="40"/>
-      <c r="AN28" s="148"/>
+      <c r="AN28" s="86"/>
       <c r="AO28" s="40"/>
       <c r="AP28" s="40"/>
       <c r="AQ28" s="40"/>
       <c r="AR28" s="40"/>
       <c r="AS28" s="40"/>
-      <c r="AT28" s="147"/>
-      <c r="AU28" s="148"/>
+      <c r="AT28" s="85"/>
+      <c r="AU28" s="86"/>
       <c r="AV28" s="40"/>
       <c r="AW28" s="40"/>
       <c r="AX28" s="40"/>
       <c r="AY28" s="40"/>
-      <c r="AZ28" s="147"/>
+      <c r="AZ28" s="85"/>
       <c r="BA28" s="43"/>
-      <c r="BB28" s="94"/>
-      <c r="BC28" s="99"/>
+      <c r="BB28" s="64"/>
+      <c r="BC28" s="69"/>
     </row>
     <row r="29" spans="4:55">
-      <c r="D29" s="98"/>
-      <c r="E29" s="93"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="63"/>
       <c r="F29" s="41"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="148"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="86"/>
       <c r="K29" s="40"/>
       <c r="L29" s="40"/>
       <c r="M29" s="40"/>
       <c r="N29" s="40"/>
       <c r="O29" s="40"/>
-      <c r="P29" s="147"/>
-      <c r="Q29" s="148"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="86"/>
       <c r="R29" s="40"/>
       <c r="S29" s="40"/>
       <c r="T29" s="40"/>
       <c r="U29" s="40"/>
       <c r="V29" s="40"/>
-      <c r="W29" s="147"/>
-      <c r="X29" s="148"/>
+      <c r="W29" s="85"/>
+      <c r="X29" s="86"/>
       <c r="Y29" s="40"/>
       <c r="Z29" s="40"/>
-      <c r="AA29" s="147"/>
-      <c r="AB29" s="148"/>
+      <c r="AA29" s="85"/>
+      <c r="AB29" s="86"/>
       <c r="AC29" s="40"/>
       <c r="AD29" s="40"/>
-      <c r="AE29" s="147"/>
-      <c r="AF29" s="148"/>
+      <c r="AE29" s="85"/>
+      <c r="AF29" s="86"/>
       <c r="AG29" s="40"/>
       <c r="AH29" s="40"/>
       <c r="AI29" s="40"/>
@@ -8530,53 +8530,53 @@
       <c r="AK29" s="40"/>
       <c r="AL29" s="40"/>
       <c r="AM29" s="40"/>
-      <c r="AN29" s="148"/>
+      <c r="AN29" s="86"/>
       <c r="AO29" s="40"/>
       <c r="AP29" s="40"/>
       <c r="AQ29" s="40"/>
       <c r="AR29" s="40"/>
       <c r="AS29" s="40"/>
-      <c r="AT29" s="147"/>
-      <c r="AU29" s="148"/>
+      <c r="AT29" s="85"/>
+      <c r="AU29" s="86"/>
       <c r="AV29" s="40"/>
       <c r="AW29" s="40"/>
       <c r="AX29" s="40"/>
       <c r="AY29" s="40"/>
-      <c r="AZ29" s="147"/>
+      <c r="AZ29" s="85"/>
       <c r="BA29" s="43"/>
-      <c r="BB29" s="94"/>
-      <c r="BC29" s="99"/>
+      <c r="BB29" s="64"/>
+      <c r="BC29" s="69"/>
     </row>
     <row r="30" spans="4:55">
-      <c r="D30" s="98"/>
-      <c r="E30" s="93"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="63"/>
       <c r="F30" s="41"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="148"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="86"/>
       <c r="K30" s="40"/>
       <c r="L30" s="40"/>
       <c r="M30" s="40"/>
       <c r="N30" s="40"/>
       <c r="O30" s="40"/>
-      <c r="P30" s="147"/>
-      <c r="Q30" s="148"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="86"/>
       <c r="R30" s="40"/>
       <c r="S30" s="40"/>
       <c r="T30" s="40"/>
       <c r="U30" s="40"/>
       <c r="V30" s="40"/>
-      <c r="W30" s="147"/>
-      <c r="X30" s="148"/>
+      <c r="W30" s="85"/>
+      <c r="X30" s="86"/>
       <c r="Y30" s="40"/>
       <c r="Z30" s="40"/>
-      <c r="AA30" s="147"/>
-      <c r="AB30" s="148"/>
+      <c r="AA30" s="85"/>
+      <c r="AB30" s="86"/>
       <c r="AC30" s="40"/>
       <c r="AD30" s="40"/>
-      <c r="AE30" s="147"/>
-      <c r="AF30" s="148"/>
+      <c r="AE30" s="85"/>
+      <c r="AF30" s="86"/>
       <c r="AG30" s="40"/>
       <c r="AH30" s="40"/>
       <c r="AI30" s="40"/>
@@ -8584,53 +8584,53 @@
       <c r="AK30" s="40"/>
       <c r="AL30" s="40"/>
       <c r="AM30" s="40"/>
-      <c r="AN30" s="148"/>
+      <c r="AN30" s="86"/>
       <c r="AO30" s="40"/>
       <c r="AP30" s="40"/>
       <c r="AQ30" s="40"/>
       <c r="AR30" s="40"/>
       <c r="AS30" s="40"/>
-      <c r="AT30" s="147"/>
-      <c r="AU30" s="148"/>
+      <c r="AT30" s="85"/>
+      <c r="AU30" s="86"/>
       <c r="AV30" s="40"/>
       <c r="AW30" s="40"/>
       <c r="AX30" s="40"/>
       <c r="AY30" s="40"/>
-      <c r="AZ30" s="147"/>
+      <c r="AZ30" s="85"/>
       <c r="BA30" s="43"/>
-      <c r="BB30" s="94"/>
-      <c r="BC30" s="99"/>
+      <c r="BB30" s="64"/>
+      <c r="BC30" s="69"/>
     </row>
     <row r="31" spans="4:55">
-      <c r="D31" s="98"/>
-      <c r="E31" s="93"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="63"/>
       <c r="F31" s="44"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="150"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="88"/>
       <c r="K31" s="45"/>
       <c r="L31" s="45"/>
       <c r="M31" s="45"/>
       <c r="N31" s="45"/>
       <c r="O31" s="45"/>
-      <c r="P31" s="149"/>
-      <c r="Q31" s="150"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="88"/>
       <c r="R31" s="45"/>
       <c r="S31" s="45"/>
       <c r="T31" s="45"/>
       <c r="U31" s="45"/>
       <c r="V31" s="45"/>
-      <c r="W31" s="149"/>
-      <c r="X31" s="150"/>
+      <c r="W31" s="87"/>
+      <c r="X31" s="88"/>
       <c r="Y31" s="45"/>
       <c r="Z31" s="45"/>
-      <c r="AA31" s="149"/>
-      <c r="AB31" s="150"/>
+      <c r="AA31" s="87"/>
+      <c r="AB31" s="88"/>
       <c r="AC31" s="45"/>
       <c r="AD31" s="45"/>
-      <c r="AE31" s="149"/>
-      <c r="AF31" s="150"/>
+      <c r="AE31" s="87"/>
+      <c r="AF31" s="88"/>
       <c r="AG31" s="45"/>
       <c r="AH31" s="45"/>
       <c r="AI31" s="45"/>
@@ -8638,26 +8638,26 @@
       <c r="AK31" s="45"/>
       <c r="AL31" s="45"/>
       <c r="AM31" s="45"/>
-      <c r="AN31" s="150"/>
+      <c r="AN31" s="88"/>
       <c r="AO31" s="45"/>
       <c r="AP31" s="45"/>
       <c r="AQ31" s="45"/>
       <c r="AR31" s="45"/>
       <c r="AS31" s="45"/>
-      <c r="AT31" s="149"/>
-      <c r="AU31" s="150"/>
+      <c r="AT31" s="87"/>
+      <c r="AU31" s="88"/>
       <c r="AV31" s="45"/>
       <c r="AW31" s="45"/>
       <c r="AX31" s="45"/>
       <c r="AY31" s="45"/>
-      <c r="AZ31" s="149"/>
+      <c r="AZ31" s="87"/>
       <c r="BA31" s="46"/>
-      <c r="BB31" s="94"/>
-      <c r="BC31" s="99"/>
+      <c r="BB31" s="64"/>
+      <c r="BC31" s="69"/>
     </row>
     <row r="32" spans="4:55">
-      <c r="D32" s="98"/>
-      <c r="E32" s="93"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="47"/>
       <c r="G32" s="47"/>
       <c r="H32" s="47"/>
@@ -8706,12 +8706,12 @@
       <c r="AY32" s="47"/>
       <c r="AZ32" s="47"/>
       <c r="BA32" s="47"/>
-      <c r="BB32" s="94"/>
-      <c r="BC32" s="99"/>
+      <c r="BB32" s="64"/>
+      <c r="BC32" s="69"/>
     </row>
     <row r="33" spans="3:56">
-      <c r="D33" s="98"/>
-      <c r="E33" s="93"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="63"/>
       <c r="F33" s="47"/>
       <c r="G33" s="47"/>
       <c r="H33" s="47"/>
@@ -8737,8 +8737,8 @@
         <v>110</v>
       </c>
       <c r="AB33" s="47"/>
-      <c r="AC33" s="83"/>
-      <c r="AD33" s="133" t="s">
+      <c r="AC33" s="60"/>
+      <c r="AD33" s="81" t="s">
         <v>87</v>
       </c>
       <c r="AE33" s="47"/>
@@ -8764,12 +8764,12 @@
       <c r="AY33" s="47"/>
       <c r="AZ33" s="47"/>
       <c r="BA33" s="47"/>
-      <c r="BB33" s="94"/>
-      <c r="BC33" s="99"/>
+      <c r="BB33" s="64"/>
+      <c r="BC33" s="69"/>
     </row>
     <row r="34" spans="3:56">
-      <c r="D34" s="98"/>
-      <c r="E34" s="93"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="63"/>
       <c r="F34" s="47"/>
       <c r="G34" s="47"/>
       <c r="H34" s="47"/>
@@ -8818,12 +8818,12 @@
       <c r="AY34" s="47"/>
       <c r="AZ34" s="47"/>
       <c r="BA34" s="47"/>
-      <c r="BB34" s="94"/>
-      <c r="BC34" s="99"/>
+      <c r="BB34" s="64"/>
+      <c r="BC34" s="69"/>
     </row>
     <row r="35" spans="3:56">
-      <c r="D35" s="98"/>
-      <c r="E35" s="93"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="63"/>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
       <c r="H35" s="47"/>
@@ -8872,65 +8872,65 @@
       <c r="AY35" s="47"/>
       <c r="AZ35" s="47"/>
       <c r="BA35" s="47"/>
-      <c r="BB35" s="94"/>
-      <c r="BC35" s="99"/>
+      <c r="BB35" s="64"/>
+      <c r="BC35" s="69"/>
     </row>
     <row r="36" spans="3:56">
-      <c r="D36" s="98"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="96"/>
-      <c r="R36" s="96"/>
-      <c r="S36" s="96"/>
-      <c r="T36" s="96"/>
-      <c r="U36" s="96"/>
-      <c r="V36" s="96"/>
-      <c r="W36" s="96"/>
-      <c r="X36" s="96"/>
-      <c r="Y36" s="96"/>
-      <c r="Z36" s="96"/>
-      <c r="AA36" s="96"/>
-      <c r="AB36" s="96"/>
-      <c r="AC36" s="96"/>
-      <c r="AD36" s="96"/>
-      <c r="AE36" s="96"/>
-      <c r="AF36" s="96"/>
-      <c r="AG36" s="96"/>
-      <c r="AH36" s="96"/>
-      <c r="AI36" s="96"/>
-      <c r="AJ36" s="96"/>
-      <c r="AK36" s="96"/>
-      <c r="AL36" s="96"/>
-      <c r="AM36" s="96"/>
-      <c r="AN36" s="96"/>
-      <c r="AO36" s="96"/>
-      <c r="AP36" s="96"/>
-      <c r="AQ36" s="96"/>
-      <c r="AR36" s="96"/>
-      <c r="AS36" s="96"/>
-      <c r="AT36" s="96"/>
-      <c r="AU36" s="96"/>
-      <c r="AV36" s="96"/>
-      <c r="AW36" s="96"/>
-      <c r="AX36" s="96"/>
-      <c r="AY36" s="96"/>
-      <c r="AZ36" s="96"/>
-      <c r="BA36" s="96"/>
-      <c r="BB36" s="97"/>
-      <c r="BC36" s="99"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="66"/>
+      <c r="W36" s="66"/>
+      <c r="X36" s="66"/>
+      <c r="Y36" s="66"/>
+      <c r="Z36" s="66"/>
+      <c r="AA36" s="66"/>
+      <c r="AB36" s="66"/>
+      <c r="AC36" s="66"/>
+      <c r="AD36" s="66"/>
+      <c r="AE36" s="66"/>
+      <c r="AF36" s="66"/>
+      <c r="AG36" s="66"/>
+      <c r="AH36" s="66"/>
+      <c r="AI36" s="66"/>
+      <c r="AJ36" s="66"/>
+      <c r="AK36" s="66"/>
+      <c r="AL36" s="66"/>
+      <c r="AM36" s="66"/>
+      <c r="AN36" s="66"/>
+      <c r="AO36" s="66"/>
+      <c r="AP36" s="66"/>
+      <c r="AQ36" s="66"/>
+      <c r="AR36" s="66"/>
+      <c r="AS36" s="66"/>
+      <c r="AT36" s="66"/>
+      <c r="AU36" s="66"/>
+      <c r="AV36" s="66"/>
+      <c r="AW36" s="66"/>
+      <c r="AX36" s="66"/>
+      <c r="AY36" s="66"/>
+      <c r="AZ36" s="66"/>
+      <c r="BA36" s="66"/>
+      <c r="BB36" s="67"/>
+      <c r="BC36" s="69"/>
     </row>
     <row r="37" spans="3:56">
-      <c r="D37" s="98"/>
+      <c r="D37" s="68"/>
       <c r="E37" s="47"/>
       <c r="F37" s="47"/>
       <c r="G37" s="47"/>
@@ -8981,151 +8981,151 @@
       <c r="AZ37" s="47"/>
       <c r="BA37" s="47"/>
       <c r="BB37" s="47"/>
-      <c r="BC37" s="99"/>
+      <c r="BC37" s="69"/>
     </row>
     <row r="38" spans="3:56" ht="13.5" thickBot="1">
-      <c r="D38" s="100"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="101"/>
-      <c r="M38" s="101"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="101"/>
-      <c r="P38" s="101"/>
-      <c r="Q38" s="101"/>
-      <c r="R38" s="101"/>
-      <c r="S38" s="101"/>
-      <c r="T38" s="101"/>
-      <c r="U38" s="101"/>
-      <c r="V38" s="101"/>
-      <c r="W38" s="101"/>
-      <c r="X38" s="101"/>
-      <c r="Y38" s="101"/>
-      <c r="Z38" s="101"/>
-      <c r="AA38" s="101"/>
-      <c r="AB38" s="101"/>
-      <c r="AC38" s="101"/>
-      <c r="AD38" s="101"/>
-      <c r="AE38" s="101"/>
-      <c r="AF38" s="101"/>
-      <c r="AG38" s="101"/>
-      <c r="AH38" s="101"/>
-      <c r="AI38" s="101"/>
-      <c r="AJ38" s="101"/>
-      <c r="AK38" s="101"/>
-      <c r="AL38" s="101"/>
-      <c r="AM38" s="101"/>
-      <c r="AN38" s="101"/>
-      <c r="AO38" s="101"/>
-      <c r="AP38" s="101"/>
-      <c r="AQ38" s="101"/>
-      <c r="AR38" s="101"/>
-      <c r="AS38" s="101"/>
-      <c r="AT38" s="101"/>
-      <c r="AU38" s="101"/>
-      <c r="AV38" s="101"/>
-      <c r="AW38" s="101"/>
-      <c r="AX38" s="101"/>
-      <c r="AY38" s="101"/>
-      <c r="AZ38" s="101"/>
-      <c r="BA38" s="101"/>
-      <c r="BB38" s="101"/>
-      <c r="BC38" s="102"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="71"/>
+      <c r="S38" s="71"/>
+      <c r="T38" s="71"/>
+      <c r="U38" s="71"/>
+      <c r="V38" s="71"/>
+      <c r="W38" s="71"/>
+      <c r="X38" s="71"/>
+      <c r="Y38" s="71"/>
+      <c r="Z38" s="71"/>
+      <c r="AA38" s="71"/>
+      <c r="AB38" s="71"/>
+      <c r="AC38" s="71"/>
+      <c r="AD38" s="71"/>
+      <c r="AE38" s="71"/>
+      <c r="AF38" s="71"/>
+      <c r="AG38" s="71"/>
+      <c r="AH38" s="71"/>
+      <c r="AI38" s="71"/>
+      <c r="AJ38" s="71"/>
+      <c r="AK38" s="71"/>
+      <c r="AL38" s="71"/>
+      <c r="AM38" s="71"/>
+      <c r="AN38" s="71"/>
+      <c r="AO38" s="71"/>
+      <c r="AP38" s="71"/>
+      <c r="AQ38" s="71"/>
+      <c r="AR38" s="71"/>
+      <c r="AS38" s="71"/>
+      <c r="AT38" s="71"/>
+      <c r="AU38" s="71"/>
+      <c r="AV38" s="71"/>
+      <c r="AW38" s="71"/>
+      <c r="AX38" s="71"/>
+      <c r="AY38" s="71"/>
+      <c r="AZ38" s="71"/>
+      <c r="BA38" s="71"/>
+      <c r="BB38" s="71"/>
+      <c r="BC38" s="72"/>
     </row>
     <row r="41" spans="3:56">
-      <c r="C41" s="79" t="s">
+      <c r="C41" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="146"/>
     </row>
     <row r="42" spans="3:56">
       <c r="C42" s="33"/>
     </row>
     <row r="43" spans="3:56" ht="15">
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67" t="s">
+      <c r="D43" s="96"/>
+      <c r="E43" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="67"/>
-      <c r="N43" s="67" t="s">
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="O43" s="67"/>
-      <c r="P43" s="67"/>
-      <c r="Q43" s="67"/>
-      <c r="R43" s="67" t="s">
+      <c r="O43" s="96"/>
+      <c r="P43" s="96"/>
+      <c r="Q43" s="96"/>
+      <c r="R43" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="S43" s="67"/>
-      <c r="T43" s="67"/>
-      <c r="U43" s="67" t="s">
+      <c r="S43" s="96"/>
+      <c r="T43" s="96"/>
+      <c r="U43" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="V43" s="67"/>
-      <c r="W43" s="67"/>
-      <c r="X43" s="67" t="s">
+      <c r="V43" s="96"/>
+      <c r="W43" s="96"/>
+      <c r="X43" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="Y43" s="67"/>
-      <c r="Z43" s="67"/>
-      <c r="AA43" s="67"/>
-      <c r="AB43" s="67"/>
-      <c r="AC43" s="67"/>
-      <c r="AD43" s="67"/>
-      <c r="AE43" s="67" t="s">
+      <c r="Y43" s="96"/>
+      <c r="Z43" s="96"/>
+      <c r="AA43" s="96"/>
+      <c r="AB43" s="96"/>
+      <c r="AC43" s="96"/>
+      <c r="AD43" s="96"/>
+      <c r="AE43" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="AF43" s="67"/>
-      <c r="AG43" s="67"/>
-      <c r="AH43" s="67"/>
-      <c r="AI43" s="67"/>
-      <c r="AJ43" s="67" t="s">
+      <c r="AF43" s="96"/>
+      <c r="AG43" s="96"/>
+      <c r="AH43" s="96"/>
+      <c r="AI43" s="96"/>
+      <c r="AJ43" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="AK43" s="67"/>
-      <c r="AL43" s="67"/>
-      <c r="AM43" s="67"/>
-      <c r="AN43" s="67" t="s">
+      <c r="AK43" s="96"/>
+      <c r="AL43" s="96"/>
+      <c r="AM43" s="96"/>
+      <c r="AN43" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="AO43" s="67"/>
-      <c r="AP43" s="67"/>
-      <c r="AQ43" s="67" t="s">
+      <c r="AO43" s="96"/>
+      <c r="AP43" s="96"/>
+      <c r="AQ43" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="AR43" s="67"/>
-      <c r="AS43" s="67"/>
-      <c r="AT43" s="67"/>
-      <c r="AU43" s="67"/>
-      <c r="AV43" s="67"/>
-      <c r="AW43" s="67" t="s">
+      <c r="AR43" s="96"/>
+      <c r="AS43" s="96"/>
+      <c r="AT43" s="96"/>
+      <c r="AU43" s="96"/>
+      <c r="AV43" s="96"/>
+      <c r="AW43" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="AX43" s="67"/>
-      <c r="AY43" s="67"/>
-      <c r="AZ43" s="67"/>
-      <c r="BA43" s="67"/>
-      <c r="BB43" s="67"/>
-      <c r="BC43" s="67"/>
-      <c r="BD43" s="68"/>
+      <c r="AX43" s="96"/>
+      <c r="AY43" s="96"/>
+      <c r="AZ43" s="96"/>
+      <c r="BA43" s="96"/>
+      <c r="BB43" s="96"/>
+      <c r="BC43" s="96"/>
+      <c r="BD43" s="97"/>
     </row>
     <row r="44" spans="3:56">
       <c r="C44" s="35"/>
@@ -9336,14 +9336,14 @@
         <v>55</v>
       </c>
       <c r="AP46" s="40"/>
-      <c r="AQ46" s="88" t="s">
+      <c r="AQ46" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="AR46" s="89"/>
-      <c r="AS46" s="89"/>
-      <c r="AT46" s="89"/>
-      <c r="AU46" s="89"/>
-      <c r="AV46" s="90"/>
+      <c r="AR46" s="111"/>
+      <c r="AS46" s="111"/>
+      <c r="AT46" s="111"/>
+      <c r="AU46" s="111"/>
+      <c r="AV46" s="112"/>
       <c r="AW46" s="41" t="s">
         <v>60</v>
       </c>
@@ -10672,132 +10672,132 @@
       <c r="BD66" s="47"/>
     </row>
     <row r="67" spans="3:56">
-      <c r="C67" s="79" t="s">
+      <c r="C67" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="79"/>
-      <c r="I67" s="79"/>
-      <c r="J67" s="79"/>
+      <c r="D67" s="146"/>
+      <c r="E67" s="146"/>
+      <c r="F67" s="146"/>
+      <c r="G67" s="146"/>
+      <c r="H67" s="146"/>
+      <c r="I67" s="146"/>
+      <c r="J67" s="146"/>
     </row>
     <row r="68" spans="3:56">
       <c r="C68" s="33"/>
     </row>
     <row r="69" spans="3:56" ht="15">
-      <c r="C69" s="71" t="s">
+      <c r="C69" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="69"/>
-      <c r="E69" s="69" t="s">
+      <c r="D69" s="93"/>
+      <c r="E69" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="F69" s="69"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="69"/>
-      <c r="J69" s="69"/>
-      <c r="K69" s="69"/>
-      <c r="L69" s="69"/>
-      <c r="M69" s="69"/>
-      <c r="N69" s="69"/>
-      <c r="O69" s="69"/>
-      <c r="P69" s="69"/>
-      <c r="Q69" s="69"/>
-      <c r="R69" s="69" t="s">
+      <c r="F69" s="93"/>
+      <c r="G69" s="93"/>
+      <c r="H69" s="93"/>
+      <c r="I69" s="93"/>
+      <c r="J69" s="93"/>
+      <c r="K69" s="93"/>
+      <c r="L69" s="93"/>
+      <c r="M69" s="93"/>
+      <c r="N69" s="93"/>
+      <c r="O69" s="93"/>
+      <c r="P69" s="93"/>
+      <c r="Q69" s="93"/>
+      <c r="R69" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="S69" s="69"/>
-      <c r="T69" s="69"/>
-      <c r="U69" s="69"/>
-      <c r="V69" s="69"/>
-      <c r="W69" s="69"/>
-      <c r="X69" s="69" t="s">
+      <c r="S69" s="93"/>
+      <c r="T69" s="93"/>
+      <c r="U69" s="93"/>
+      <c r="V69" s="93"/>
+      <c r="W69" s="93"/>
+      <c r="X69" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="Y69" s="69"/>
-      <c r="Z69" s="69"/>
-      <c r="AA69" s="69"/>
-      <c r="AB69" s="69"/>
-      <c r="AC69" s="69"/>
-      <c r="AD69" s="69"/>
-      <c r="AE69" s="69" t="s">
+      <c r="Y69" s="93"/>
+      <c r="Z69" s="93"/>
+      <c r="AA69" s="93"/>
+      <c r="AB69" s="93"/>
+      <c r="AC69" s="93"/>
+      <c r="AD69" s="93"/>
+      <c r="AE69" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="AF69" s="69"/>
-      <c r="AG69" s="69"/>
-      <c r="AH69" s="69"/>
-      <c r="AI69" s="69"/>
-      <c r="AJ69" s="69"/>
-      <c r="AK69" s="69"/>
-      <c r="AL69" s="69" t="s">
+      <c r="AF69" s="93"/>
+      <c r="AG69" s="93"/>
+      <c r="AH69" s="93"/>
+      <c r="AI69" s="93"/>
+      <c r="AJ69" s="93"/>
+      <c r="AK69" s="93"/>
+      <c r="AL69" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="AM69" s="69"/>
-      <c r="AN69" s="69"/>
-      <c r="AO69" s="69"/>
-      <c r="AP69" s="69"/>
-      <c r="AQ69" s="69"/>
-      <c r="AR69" s="69"/>
-      <c r="AS69" s="69"/>
-      <c r="AT69" s="69"/>
-      <c r="AU69" s="69"/>
-      <c r="AV69" s="69"/>
-      <c r="AW69" s="69"/>
-      <c r="AX69" s="69"/>
-      <c r="AY69" s="69"/>
-      <c r="AZ69" s="69"/>
-      <c r="BA69" s="69"/>
-      <c r="BB69" s="69"/>
-      <c r="BC69" s="69"/>
-      <c r="BD69" s="70"/>
+      <c r="AM69" s="93"/>
+      <c r="AN69" s="93"/>
+      <c r="AO69" s="93"/>
+      <c r="AP69" s="93"/>
+      <c r="AQ69" s="93"/>
+      <c r="AR69" s="93"/>
+      <c r="AS69" s="93"/>
+      <c r="AT69" s="93"/>
+      <c r="AU69" s="93"/>
+      <c r="AV69" s="93"/>
+      <c r="AW69" s="93"/>
+      <c r="AX69" s="93"/>
+      <c r="AY69" s="93"/>
+      <c r="AZ69" s="93"/>
+      <c r="BA69" s="93"/>
+      <c r="BB69" s="93"/>
+      <c r="BC69" s="93"/>
+      <c r="BD69" s="94"/>
     </row>
     <row r="70" spans="3:56" ht="15" customHeight="1">
       <c r="C70" s="48"/>
       <c r="D70" s="39">
         <v>1</v>
       </c>
-      <c r="E70" s="153" t="s">
+      <c r="E70" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="F70" s="154"/>
-      <c r="G70" s="154"/>
-      <c r="H70" s="154"/>
-      <c r="I70" s="154"/>
-      <c r="J70" s="154"/>
-      <c r="K70" s="154"/>
-      <c r="L70" s="154"/>
-      <c r="M70" s="154"/>
-      <c r="N70" s="154"/>
-      <c r="O70" s="154"/>
-      <c r="P70" s="154"/>
-      <c r="Q70" s="155"/>
+      <c r="F70" s="114"/>
+      <c r="G70" s="114"/>
+      <c r="H70" s="114"/>
+      <c r="I70" s="114"/>
+      <c r="J70" s="114"/>
+      <c r="K70" s="114"/>
+      <c r="L70" s="114"/>
+      <c r="M70" s="114"/>
+      <c r="N70" s="114"/>
+      <c r="O70" s="114"/>
+      <c r="P70" s="114"/>
+      <c r="Q70" s="115"/>
       <c r="R70" s="36"/>
       <c r="S70" s="36"/>
       <c r="T70" s="36"/>
       <c r="U70" s="36"/>
       <c r="V70" s="36"/>
       <c r="W70" s="39"/>
-      <c r="X70" s="151" t="s">
+      <c r="X70" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="Y70" s="87"/>
-      <c r="Z70" s="87"/>
-      <c r="AA70" s="87"/>
-      <c r="AB70" s="87"/>
-      <c r="AC70" s="87"/>
-      <c r="AD70" s="152"/>
-      <c r="AE70" s="153" t="s">
+      <c r="Y70" s="117"/>
+      <c r="Z70" s="117"/>
+      <c r="AA70" s="117"/>
+      <c r="AB70" s="117"/>
+      <c r="AC70" s="117"/>
+      <c r="AD70" s="118"/>
+      <c r="AE70" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="AF70" s="154"/>
-      <c r="AG70" s="154"/>
-      <c r="AH70" s="154"/>
-      <c r="AI70" s="154"/>
-      <c r="AJ70" s="154"/>
-      <c r="AK70" s="155"/>
+      <c r="AF70" s="114"/>
+      <c r="AG70" s="114"/>
+      <c r="AH70" s="114"/>
+      <c r="AI70" s="114"/>
+      <c r="AJ70" s="114"/>
+      <c r="AK70" s="115"/>
       <c r="AL70" s="36"/>
       <c r="AM70" s="36"/>
       <c r="AN70" s="36"/>
@@ -10823,45 +10823,45 @@
       <c r="D71" s="43">
         <v>2</v>
       </c>
-      <c r="E71" s="156" t="s">
+      <c r="E71" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="F71" s="157"/>
-      <c r="G71" s="157"/>
-      <c r="H71" s="157"/>
-      <c r="I71" s="157"/>
-      <c r="J71" s="157"/>
-      <c r="K71" s="157"/>
-      <c r="L71" s="157"/>
-      <c r="M71" s="157"/>
-      <c r="N71" s="157"/>
-      <c r="O71" s="157"/>
-      <c r="P71" s="157"/>
-      <c r="Q71" s="158"/>
+      <c r="F71" s="108"/>
+      <c r="G71" s="108"/>
+      <c r="H71" s="108"/>
+      <c r="I71" s="108"/>
+      <c r="J71" s="108"/>
+      <c r="K71" s="108"/>
+      <c r="L71" s="108"/>
+      <c r="M71" s="108"/>
+      <c r="N71" s="108"/>
+      <c r="O71" s="108"/>
+      <c r="P71" s="108"/>
+      <c r="Q71" s="109"/>
       <c r="R71" s="40"/>
       <c r="S71" s="40"/>
       <c r="T71" s="40"/>
       <c r="U71" s="40"/>
       <c r="V71" s="40"/>
       <c r="W71" s="43"/>
-      <c r="X71" s="88" t="s">
+      <c r="X71" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="Y71" s="89"/>
-      <c r="Z71" s="89"/>
-      <c r="AA71" s="89"/>
-      <c r="AB71" s="89"/>
-      <c r="AC71" s="89"/>
-      <c r="AD71" s="90"/>
-      <c r="AE71" s="156" t="s">
+      <c r="Y71" s="111"/>
+      <c r="Z71" s="111"/>
+      <c r="AA71" s="111"/>
+      <c r="AB71" s="111"/>
+      <c r="AC71" s="111"/>
+      <c r="AD71" s="112"/>
+      <c r="AE71" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="AF71" s="157"/>
-      <c r="AG71" s="157"/>
-      <c r="AH71" s="157"/>
-      <c r="AI71" s="157"/>
-      <c r="AJ71" s="157"/>
-      <c r="AK71" s="158"/>
+      <c r="AF71" s="108"/>
+      <c r="AG71" s="108"/>
+      <c r="AH71" s="108"/>
+      <c r="AI71" s="108"/>
+      <c r="AJ71" s="108"/>
+      <c r="AK71" s="109"/>
       <c r="AL71" s="40"/>
       <c r="AM71" s="40"/>
       <c r="AN71" s="40"/>
@@ -10887,45 +10887,45 @@
       <c r="D72" s="43">
         <v>3</v>
       </c>
-      <c r="E72" s="156" t="s">
+      <c r="E72" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="F72" s="157"/>
-      <c r="G72" s="157"/>
-      <c r="H72" s="157"/>
-      <c r="I72" s="157"/>
-      <c r="J72" s="157"/>
-      <c r="K72" s="157"/>
-      <c r="L72" s="157"/>
-      <c r="M72" s="157"/>
-      <c r="N72" s="157"/>
-      <c r="O72" s="157"/>
-      <c r="P72" s="157"/>
-      <c r="Q72" s="158"/>
+      <c r="F72" s="108"/>
+      <c r="G72" s="108"/>
+      <c r="H72" s="108"/>
+      <c r="I72" s="108"/>
+      <c r="J72" s="108"/>
+      <c r="K72" s="108"/>
+      <c r="L72" s="108"/>
+      <c r="M72" s="108"/>
+      <c r="N72" s="108"/>
+      <c r="O72" s="108"/>
+      <c r="P72" s="108"/>
+      <c r="Q72" s="109"/>
       <c r="R72" s="40"/>
       <c r="S72" s="40"/>
       <c r="T72" s="40"/>
       <c r="U72" s="40"/>
       <c r="V72" s="40"/>
       <c r="W72" s="43"/>
-      <c r="X72" s="88" t="s">
+      <c r="X72" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="Y72" s="89"/>
-      <c r="Z72" s="89"/>
-      <c r="AA72" s="89"/>
-      <c r="AB72" s="89"/>
-      <c r="AC72" s="89"/>
-      <c r="AD72" s="90"/>
-      <c r="AE72" s="156" t="s">
+      <c r="Y72" s="111"/>
+      <c r="Z72" s="111"/>
+      <c r="AA72" s="111"/>
+      <c r="AB72" s="111"/>
+      <c r="AC72" s="111"/>
+      <c r="AD72" s="112"/>
+      <c r="AE72" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="AF72" s="157"/>
-      <c r="AG72" s="157"/>
-      <c r="AH72" s="157"/>
-      <c r="AI72" s="157"/>
-      <c r="AJ72" s="157"/>
-      <c r="AK72" s="158"/>
+      <c r="AF72" s="108"/>
+      <c r="AG72" s="108"/>
+      <c r="AH72" s="108"/>
+      <c r="AI72" s="108"/>
+      <c r="AJ72" s="108"/>
+      <c r="AK72" s="109"/>
       <c r="AL72" s="40"/>
       <c r="AM72" s="40"/>
       <c r="AN72" s="40"/>
@@ -10947,7 +10947,7 @@
       <c r="BD72" s="43"/>
     </row>
     <row r="73" spans="3:56">
-      <c r="C73" s="159"/>
+      <c r="C73" s="89"/>
       <c r="D73" s="56"/>
       <c r="E73" s="53"/>
       <c r="F73" s="53"/>
@@ -11003,7 +11003,7 @@
       <c r="BD73" s="56"/>
     </row>
     <row r="74" spans="3:56">
-      <c r="C74" s="160"/>
+      <c r="C74" s="90"/>
       <c r="D74" s="57"/>
       <c r="E74" s="57"/>
       <c r="F74" s="57"/>
@@ -11059,7 +11059,7 @@
       <c r="BD74" s="57"/>
     </row>
     <row r="75" spans="3:56">
-      <c r="C75" s="161"/>
+      <c r="C75" s="91"/>
       <c r="D75" s="47"/>
       <c r="E75" s="47"/>
       <c r="F75" s="47"/>
@@ -11115,7 +11115,7 @@
       <c r="BD75" s="47"/>
     </row>
     <row r="76" spans="3:56">
-      <c r="C76" s="161"/>
+      <c r="C76" s="91"/>
       <c r="D76" s="47"/>
       <c r="E76" s="47"/>
       <c r="F76" s="47"/>
@@ -11624,68 +11624,68 @@
       </c>
     </row>
     <row r="88" spans="3:56" ht="15">
-      <c r="C88" s="71" t="s">
+      <c r="C88" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="D88" s="69"/>
-      <c r="E88" s="69" t="s">
+      <c r="D88" s="93"/>
+      <c r="E88" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="F88" s="69"/>
-      <c r="G88" s="69"/>
-      <c r="H88" s="69"/>
-      <c r="I88" s="69"/>
-      <c r="J88" s="69"/>
-      <c r="K88" s="69"/>
-      <c r="L88" s="69"/>
-      <c r="M88" s="69"/>
-      <c r="N88" s="69"/>
-      <c r="O88" s="69"/>
-      <c r="P88" s="69"/>
-      <c r="Q88" s="69"/>
-      <c r="R88" s="69" t="s">
+      <c r="F88" s="93"/>
+      <c r="G88" s="93"/>
+      <c r="H88" s="93"/>
+      <c r="I88" s="93"/>
+      <c r="J88" s="93"/>
+      <c r="K88" s="93"/>
+      <c r="L88" s="93"/>
+      <c r="M88" s="93"/>
+      <c r="N88" s="93"/>
+      <c r="O88" s="93"/>
+      <c r="P88" s="93"/>
+      <c r="Q88" s="93"/>
+      <c r="R88" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="S88" s="69"/>
-      <c r="T88" s="69"/>
-      <c r="U88" s="69"/>
-      <c r="V88" s="69"/>
-      <c r="W88" s="69"/>
-      <c r="X88" s="69" t="s">
+      <c r="S88" s="93"/>
+      <c r="T88" s="93"/>
+      <c r="U88" s="93"/>
+      <c r="V88" s="93"/>
+      <c r="W88" s="93"/>
+      <c r="X88" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="Y88" s="69"/>
-      <c r="Z88" s="69"/>
-      <c r="AA88" s="69"/>
-      <c r="AB88" s="69"/>
-      <c r="AC88" s="69"/>
-      <c r="AD88" s="69"/>
-      <c r="AE88" s="69"/>
-      <c r="AF88" s="69"/>
-      <c r="AG88" s="69"/>
-      <c r="AH88" s="69"/>
-      <c r="AI88" s="69"/>
-      <c r="AJ88" s="69"/>
-      <c r="AK88" s="69"/>
-      <c r="AL88" s="69"/>
-      <c r="AM88" s="69"/>
-      <c r="AN88" s="69"/>
-      <c r="AO88" s="69"/>
-      <c r="AP88" s="69"/>
-      <c r="AQ88" s="69"/>
-      <c r="AR88" s="69"/>
-      <c r="AS88" s="69"/>
-      <c r="AT88" s="69"/>
-      <c r="AU88" s="69"/>
-      <c r="AV88" s="69"/>
-      <c r="AW88" s="69"/>
-      <c r="AX88" s="69"/>
-      <c r="AY88" s="69"/>
-      <c r="AZ88" s="69"/>
-      <c r="BA88" s="69"/>
-      <c r="BB88" s="69"/>
-      <c r="BC88" s="69"/>
-      <c r="BD88" s="70"/>
+      <c r="Y88" s="93"/>
+      <c r="Z88" s="93"/>
+      <c r="AA88" s="93"/>
+      <c r="AB88" s="93"/>
+      <c r="AC88" s="93"/>
+      <c r="AD88" s="93"/>
+      <c r="AE88" s="93"/>
+      <c r="AF88" s="93"/>
+      <c r="AG88" s="93"/>
+      <c r="AH88" s="93"/>
+      <c r="AI88" s="93"/>
+      <c r="AJ88" s="93"/>
+      <c r="AK88" s="93"/>
+      <c r="AL88" s="93"/>
+      <c r="AM88" s="93"/>
+      <c r="AN88" s="93"/>
+      <c r="AO88" s="93"/>
+      <c r="AP88" s="93"/>
+      <c r="AQ88" s="93"/>
+      <c r="AR88" s="93"/>
+      <c r="AS88" s="93"/>
+      <c r="AT88" s="93"/>
+      <c r="AU88" s="93"/>
+      <c r="AV88" s="93"/>
+      <c r="AW88" s="93"/>
+      <c r="AX88" s="93"/>
+      <c r="AY88" s="93"/>
+      <c r="AZ88" s="93"/>
+      <c r="BA88" s="93"/>
+      <c r="BB88" s="93"/>
+      <c r="BC88" s="93"/>
+      <c r="BD88" s="94"/>
     </row>
     <row r="89" spans="3:56" ht="15" customHeight="1">
       <c r="C89" s="35"/>
@@ -11715,41 +11715,41 @@
       <c r="U89" s="36"/>
       <c r="V89" s="36"/>
       <c r="W89" s="39"/>
-      <c r="X89" s="153" t="s">
+      <c r="X89" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="Y89" s="154"/>
-      <c r="Z89" s="154"/>
-      <c r="AA89" s="154"/>
-      <c r="AB89" s="154"/>
-      <c r="AC89" s="154"/>
-      <c r="AD89" s="154"/>
-      <c r="AE89" s="154"/>
-      <c r="AF89" s="154"/>
-      <c r="AG89" s="154"/>
-      <c r="AH89" s="154"/>
-      <c r="AI89" s="154"/>
-      <c r="AJ89" s="154"/>
-      <c r="AK89" s="154"/>
-      <c r="AL89" s="154"/>
-      <c r="AM89" s="154"/>
-      <c r="AN89" s="154"/>
-      <c r="AO89" s="154"/>
-      <c r="AP89" s="154"/>
-      <c r="AQ89" s="154"/>
-      <c r="AR89" s="154"/>
-      <c r="AS89" s="154"/>
-      <c r="AT89" s="154"/>
-      <c r="AU89" s="154"/>
-      <c r="AV89" s="154"/>
-      <c r="AW89" s="154"/>
-      <c r="AX89" s="154"/>
-      <c r="AY89" s="154"/>
-      <c r="AZ89" s="154"/>
-      <c r="BA89" s="154"/>
-      <c r="BB89" s="154"/>
-      <c r="BC89" s="154"/>
-      <c r="BD89" s="155"/>
+      <c r="Y89" s="114"/>
+      <c r="Z89" s="114"/>
+      <c r="AA89" s="114"/>
+      <c r="AB89" s="114"/>
+      <c r="AC89" s="114"/>
+      <c r="AD89" s="114"/>
+      <c r="AE89" s="114"/>
+      <c r="AF89" s="114"/>
+      <c r="AG89" s="114"/>
+      <c r="AH89" s="114"/>
+      <c r="AI89" s="114"/>
+      <c r="AJ89" s="114"/>
+      <c r="AK89" s="114"/>
+      <c r="AL89" s="114"/>
+      <c r="AM89" s="114"/>
+      <c r="AN89" s="114"/>
+      <c r="AO89" s="114"/>
+      <c r="AP89" s="114"/>
+      <c r="AQ89" s="114"/>
+      <c r="AR89" s="114"/>
+      <c r="AS89" s="114"/>
+      <c r="AT89" s="114"/>
+      <c r="AU89" s="114"/>
+      <c r="AV89" s="114"/>
+      <c r="AW89" s="114"/>
+      <c r="AX89" s="114"/>
+      <c r="AY89" s="114"/>
+      <c r="AZ89" s="114"/>
+      <c r="BA89" s="114"/>
+      <c r="BB89" s="114"/>
+      <c r="BC89" s="114"/>
+      <c r="BD89" s="115"/>
     </row>
     <row r="90" spans="3:56" ht="15" customHeight="1">
       <c r="C90" s="41"/>
@@ -11779,41 +11779,41 @@
       <c r="U90" s="40"/>
       <c r="V90" s="40"/>
       <c r="W90" s="43"/>
-      <c r="X90" s="156" t="s">
+      <c r="X90" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="Y90" s="157"/>
-      <c r="Z90" s="157"/>
-      <c r="AA90" s="157"/>
-      <c r="AB90" s="157"/>
-      <c r="AC90" s="157"/>
-      <c r="AD90" s="157"/>
-      <c r="AE90" s="157"/>
-      <c r="AF90" s="157"/>
-      <c r="AG90" s="157"/>
-      <c r="AH90" s="157"/>
-      <c r="AI90" s="157"/>
-      <c r="AJ90" s="157"/>
-      <c r="AK90" s="157"/>
-      <c r="AL90" s="157"/>
-      <c r="AM90" s="157"/>
-      <c r="AN90" s="157"/>
-      <c r="AO90" s="157"/>
-      <c r="AP90" s="157"/>
-      <c r="AQ90" s="157"/>
-      <c r="AR90" s="157"/>
-      <c r="AS90" s="157"/>
-      <c r="AT90" s="157"/>
-      <c r="AU90" s="157"/>
-      <c r="AV90" s="157"/>
-      <c r="AW90" s="157"/>
-      <c r="AX90" s="157"/>
-      <c r="AY90" s="157"/>
-      <c r="AZ90" s="157"/>
-      <c r="BA90" s="157"/>
-      <c r="BB90" s="157"/>
-      <c r="BC90" s="157"/>
-      <c r="BD90" s="158"/>
+      <c r="Y90" s="108"/>
+      <c r="Z90" s="108"/>
+      <c r="AA90" s="108"/>
+      <c r="AB90" s="108"/>
+      <c r="AC90" s="108"/>
+      <c r="AD90" s="108"/>
+      <c r="AE90" s="108"/>
+      <c r="AF90" s="108"/>
+      <c r="AG90" s="108"/>
+      <c r="AH90" s="108"/>
+      <c r="AI90" s="108"/>
+      <c r="AJ90" s="108"/>
+      <c r="AK90" s="108"/>
+      <c r="AL90" s="108"/>
+      <c r="AM90" s="108"/>
+      <c r="AN90" s="108"/>
+      <c r="AO90" s="108"/>
+      <c r="AP90" s="108"/>
+      <c r="AQ90" s="108"/>
+      <c r="AR90" s="108"/>
+      <c r="AS90" s="108"/>
+      <c r="AT90" s="108"/>
+      <c r="AU90" s="108"/>
+      <c r="AV90" s="108"/>
+      <c r="AW90" s="108"/>
+      <c r="AX90" s="108"/>
+      <c r="AY90" s="108"/>
+      <c r="AZ90" s="108"/>
+      <c r="BA90" s="108"/>
+      <c r="BB90" s="108"/>
+      <c r="BC90" s="108"/>
+      <c r="BD90" s="109"/>
     </row>
     <row r="91" spans="3:56" ht="15" customHeight="1">
       <c r="C91" s="41"/>
@@ -11843,41 +11843,41 @@
       <c r="U91" s="40"/>
       <c r="V91" s="40"/>
       <c r="W91" s="43"/>
-      <c r="X91" s="156" t="s">
+      <c r="X91" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="Y91" s="157"/>
-      <c r="Z91" s="157"/>
-      <c r="AA91" s="157"/>
-      <c r="AB91" s="157"/>
-      <c r="AC91" s="157"/>
-      <c r="AD91" s="157"/>
-      <c r="AE91" s="157"/>
-      <c r="AF91" s="157"/>
-      <c r="AG91" s="157"/>
-      <c r="AH91" s="157"/>
-      <c r="AI91" s="157"/>
-      <c r="AJ91" s="157"/>
-      <c r="AK91" s="157"/>
-      <c r="AL91" s="157"/>
-      <c r="AM91" s="157"/>
-      <c r="AN91" s="157"/>
-      <c r="AO91" s="157"/>
-      <c r="AP91" s="157"/>
-      <c r="AQ91" s="157"/>
-      <c r="AR91" s="157"/>
-      <c r="AS91" s="157"/>
-      <c r="AT91" s="157"/>
-      <c r="AU91" s="157"/>
-      <c r="AV91" s="157"/>
-      <c r="AW91" s="157"/>
-      <c r="AX91" s="157"/>
-      <c r="AY91" s="157"/>
-      <c r="AZ91" s="157"/>
-      <c r="BA91" s="157"/>
-      <c r="BB91" s="157"/>
-      <c r="BC91" s="157"/>
-      <c r="BD91" s="158"/>
+      <c r="Y91" s="108"/>
+      <c r="Z91" s="108"/>
+      <c r="AA91" s="108"/>
+      <c r="AB91" s="108"/>
+      <c r="AC91" s="108"/>
+      <c r="AD91" s="108"/>
+      <c r="AE91" s="108"/>
+      <c r="AF91" s="108"/>
+      <c r="AG91" s="108"/>
+      <c r="AH91" s="108"/>
+      <c r="AI91" s="108"/>
+      <c r="AJ91" s="108"/>
+      <c r="AK91" s="108"/>
+      <c r="AL91" s="108"/>
+      <c r="AM91" s="108"/>
+      <c r="AN91" s="108"/>
+      <c r="AO91" s="108"/>
+      <c r="AP91" s="108"/>
+      <c r="AQ91" s="108"/>
+      <c r="AR91" s="108"/>
+      <c r="AS91" s="108"/>
+      <c r="AT91" s="108"/>
+      <c r="AU91" s="108"/>
+      <c r="AV91" s="108"/>
+      <c r="AW91" s="108"/>
+      <c r="AX91" s="108"/>
+      <c r="AY91" s="108"/>
+      <c r="AZ91" s="108"/>
+      <c r="BA91" s="108"/>
+      <c r="BB91" s="108"/>
+      <c r="BC91" s="108"/>
+      <c r="BD91" s="109"/>
     </row>
     <row r="92" spans="3:56" ht="15" customHeight="1">
       <c r="C92" s="41"/>
@@ -11907,41 +11907,41 @@
       <c r="U92" s="40"/>
       <c r="V92" s="40"/>
       <c r="W92" s="43"/>
-      <c r="X92" s="156" t="s">
+      <c r="X92" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="Y92" s="157"/>
-      <c r="Z92" s="157"/>
-      <c r="AA92" s="157"/>
-      <c r="AB92" s="157"/>
-      <c r="AC92" s="157"/>
-      <c r="AD92" s="157"/>
-      <c r="AE92" s="157"/>
-      <c r="AF92" s="157"/>
-      <c r="AG92" s="157"/>
-      <c r="AH92" s="157"/>
-      <c r="AI92" s="157"/>
-      <c r="AJ92" s="157"/>
-      <c r="AK92" s="157"/>
-      <c r="AL92" s="157"/>
-      <c r="AM92" s="157"/>
-      <c r="AN92" s="157"/>
-      <c r="AO92" s="157"/>
-      <c r="AP92" s="157"/>
-      <c r="AQ92" s="157"/>
-      <c r="AR92" s="157"/>
-      <c r="AS92" s="157"/>
-      <c r="AT92" s="157"/>
-      <c r="AU92" s="157"/>
-      <c r="AV92" s="157"/>
-      <c r="AW92" s="157"/>
-      <c r="AX92" s="157"/>
-      <c r="AY92" s="157"/>
-      <c r="AZ92" s="157"/>
-      <c r="BA92" s="157"/>
-      <c r="BB92" s="157"/>
-      <c r="BC92" s="157"/>
-      <c r="BD92" s="158"/>
+      <c r="Y92" s="108"/>
+      <c r="Z92" s="108"/>
+      <c r="AA92" s="108"/>
+      <c r="AB92" s="108"/>
+      <c r="AC92" s="108"/>
+      <c r="AD92" s="108"/>
+      <c r="AE92" s="108"/>
+      <c r="AF92" s="108"/>
+      <c r="AG92" s="108"/>
+      <c r="AH92" s="108"/>
+      <c r="AI92" s="108"/>
+      <c r="AJ92" s="108"/>
+      <c r="AK92" s="108"/>
+      <c r="AL92" s="108"/>
+      <c r="AM92" s="108"/>
+      <c r="AN92" s="108"/>
+      <c r="AO92" s="108"/>
+      <c r="AP92" s="108"/>
+      <c r="AQ92" s="108"/>
+      <c r="AR92" s="108"/>
+      <c r="AS92" s="108"/>
+      <c r="AT92" s="108"/>
+      <c r="AU92" s="108"/>
+      <c r="AV92" s="108"/>
+      <c r="AW92" s="108"/>
+      <c r="AX92" s="108"/>
+      <c r="AY92" s="108"/>
+      <c r="AZ92" s="108"/>
+      <c r="BA92" s="108"/>
+      <c r="BB92" s="108"/>
+      <c r="BC92" s="108"/>
+      <c r="BD92" s="109"/>
     </row>
     <row r="93" spans="3:56" ht="15" customHeight="1">
       <c r="C93" s="41"/>
@@ -11971,41 +11971,41 @@
       <c r="U93" s="40"/>
       <c r="V93" s="40"/>
       <c r="W93" s="43"/>
-      <c r="X93" s="162" t="s">
+      <c r="X93" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="Y93" s="163"/>
-      <c r="Z93" s="163"/>
-      <c r="AA93" s="163"/>
-      <c r="AB93" s="163"/>
-      <c r="AC93" s="163"/>
-      <c r="AD93" s="163"/>
-      <c r="AE93" s="163"/>
-      <c r="AF93" s="163"/>
-      <c r="AG93" s="163"/>
-      <c r="AH93" s="163"/>
-      <c r="AI93" s="163"/>
-      <c r="AJ93" s="163"/>
-      <c r="AK93" s="163"/>
-      <c r="AL93" s="163"/>
-      <c r="AM93" s="163"/>
-      <c r="AN93" s="163"/>
-      <c r="AO93" s="163"/>
-      <c r="AP93" s="163"/>
-      <c r="AQ93" s="163"/>
-      <c r="AR93" s="163"/>
-      <c r="AS93" s="163"/>
-      <c r="AT93" s="163"/>
-      <c r="AU93" s="163"/>
-      <c r="AV93" s="163"/>
-      <c r="AW93" s="163"/>
-      <c r="AX93" s="163"/>
-      <c r="AY93" s="163"/>
-      <c r="AZ93" s="163"/>
-      <c r="BA93" s="163"/>
-      <c r="BB93" s="163"/>
-      <c r="BC93" s="163"/>
-      <c r="BD93" s="164"/>
+      <c r="Y93" s="105"/>
+      <c r="Z93" s="105"/>
+      <c r="AA93" s="105"/>
+      <c r="AB93" s="105"/>
+      <c r="AC93" s="105"/>
+      <c r="AD93" s="105"/>
+      <c r="AE93" s="105"/>
+      <c r="AF93" s="105"/>
+      <c r="AG93" s="105"/>
+      <c r="AH93" s="105"/>
+      <c r="AI93" s="105"/>
+      <c r="AJ93" s="105"/>
+      <c r="AK93" s="105"/>
+      <c r="AL93" s="105"/>
+      <c r="AM93" s="105"/>
+      <c r="AN93" s="105"/>
+      <c r="AO93" s="105"/>
+      <c r="AP93" s="105"/>
+      <c r="AQ93" s="105"/>
+      <c r="AR93" s="105"/>
+      <c r="AS93" s="105"/>
+      <c r="AT93" s="105"/>
+      <c r="AU93" s="105"/>
+      <c r="AV93" s="105"/>
+      <c r="AW93" s="105"/>
+      <c r="AX93" s="105"/>
+      <c r="AY93" s="105"/>
+      <c r="AZ93" s="105"/>
+      <c r="BA93" s="105"/>
+      <c r="BB93" s="105"/>
+      <c r="BC93" s="105"/>
+      <c r="BD93" s="106"/>
     </row>
     <row r="94" spans="3:56" ht="15" customHeight="1">
       <c r="C94" s="41"/>
@@ -12035,41 +12035,41 @@
       <c r="U94" s="40"/>
       <c r="V94" s="40"/>
       <c r="W94" s="43"/>
-      <c r="X94" s="162" t="s">
+      <c r="X94" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="Y94" s="163"/>
-      <c r="Z94" s="163"/>
-      <c r="AA94" s="163"/>
-      <c r="AB94" s="163"/>
-      <c r="AC94" s="163"/>
-      <c r="AD94" s="163"/>
-      <c r="AE94" s="163"/>
-      <c r="AF94" s="163"/>
-      <c r="AG94" s="163"/>
-      <c r="AH94" s="163"/>
-      <c r="AI94" s="163"/>
-      <c r="AJ94" s="163"/>
-      <c r="AK94" s="163"/>
-      <c r="AL94" s="163"/>
-      <c r="AM94" s="163"/>
-      <c r="AN94" s="163"/>
-      <c r="AO94" s="163"/>
-      <c r="AP94" s="163"/>
-      <c r="AQ94" s="163"/>
-      <c r="AR94" s="163"/>
-      <c r="AS94" s="163"/>
-      <c r="AT94" s="163"/>
-      <c r="AU94" s="163"/>
-      <c r="AV94" s="163"/>
-      <c r="AW94" s="163"/>
-      <c r="AX94" s="163"/>
-      <c r="AY94" s="163"/>
-      <c r="AZ94" s="163"/>
-      <c r="BA94" s="163"/>
-      <c r="BB94" s="163"/>
-      <c r="BC94" s="163"/>
-      <c r="BD94" s="164"/>
+      <c r="Y94" s="105"/>
+      <c r="Z94" s="105"/>
+      <c r="AA94" s="105"/>
+      <c r="AB94" s="105"/>
+      <c r="AC94" s="105"/>
+      <c r="AD94" s="105"/>
+      <c r="AE94" s="105"/>
+      <c r="AF94" s="105"/>
+      <c r="AG94" s="105"/>
+      <c r="AH94" s="105"/>
+      <c r="AI94" s="105"/>
+      <c r="AJ94" s="105"/>
+      <c r="AK94" s="105"/>
+      <c r="AL94" s="105"/>
+      <c r="AM94" s="105"/>
+      <c r="AN94" s="105"/>
+      <c r="AO94" s="105"/>
+      <c r="AP94" s="105"/>
+      <c r="AQ94" s="105"/>
+      <c r="AR94" s="105"/>
+      <c r="AS94" s="105"/>
+      <c r="AT94" s="105"/>
+      <c r="AU94" s="105"/>
+      <c r="AV94" s="105"/>
+      <c r="AW94" s="105"/>
+      <c r="AX94" s="105"/>
+      <c r="AY94" s="105"/>
+      <c r="AZ94" s="105"/>
+      <c r="BA94" s="105"/>
+      <c r="BB94" s="105"/>
+      <c r="BC94" s="105"/>
+      <c r="BD94" s="106"/>
     </row>
     <row r="95" spans="3:56" ht="15" customHeight="1">
       <c r="C95" s="41"/>
@@ -12099,41 +12099,41 @@
       <c r="U95" s="40"/>
       <c r="V95" s="40"/>
       <c r="W95" s="43"/>
-      <c r="X95" s="156" t="s">
+      <c r="X95" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="Y95" s="157"/>
-      <c r="Z95" s="157"/>
-      <c r="AA95" s="157"/>
-      <c r="AB95" s="157"/>
-      <c r="AC95" s="157"/>
-      <c r="AD95" s="157"/>
-      <c r="AE95" s="157"/>
-      <c r="AF95" s="157"/>
-      <c r="AG95" s="157"/>
-      <c r="AH95" s="157"/>
-      <c r="AI95" s="157"/>
-      <c r="AJ95" s="157"/>
-      <c r="AK95" s="157"/>
-      <c r="AL95" s="157"/>
-      <c r="AM95" s="157"/>
-      <c r="AN95" s="157"/>
-      <c r="AO95" s="157"/>
-      <c r="AP95" s="157"/>
-      <c r="AQ95" s="157"/>
-      <c r="AR95" s="157"/>
-      <c r="AS95" s="157"/>
-      <c r="AT95" s="157"/>
-      <c r="AU95" s="157"/>
-      <c r="AV95" s="157"/>
-      <c r="AW95" s="157"/>
-      <c r="AX95" s="157"/>
-      <c r="AY95" s="157"/>
-      <c r="AZ95" s="157"/>
-      <c r="BA95" s="157"/>
-      <c r="BB95" s="157"/>
-      <c r="BC95" s="157"/>
-      <c r="BD95" s="158"/>
+      <c r="Y95" s="108"/>
+      <c r="Z95" s="108"/>
+      <c r="AA95" s="108"/>
+      <c r="AB95" s="108"/>
+      <c r="AC95" s="108"/>
+      <c r="AD95" s="108"/>
+      <c r="AE95" s="108"/>
+      <c r="AF95" s="108"/>
+      <c r="AG95" s="108"/>
+      <c r="AH95" s="108"/>
+      <c r="AI95" s="108"/>
+      <c r="AJ95" s="108"/>
+      <c r="AK95" s="108"/>
+      <c r="AL95" s="108"/>
+      <c r="AM95" s="108"/>
+      <c r="AN95" s="108"/>
+      <c r="AO95" s="108"/>
+      <c r="AP95" s="108"/>
+      <c r="AQ95" s="108"/>
+      <c r="AR95" s="108"/>
+      <c r="AS95" s="108"/>
+      <c r="AT95" s="108"/>
+      <c r="AU95" s="108"/>
+      <c r="AV95" s="108"/>
+      <c r="AW95" s="108"/>
+      <c r="AX95" s="108"/>
+      <c r="AY95" s="108"/>
+      <c r="AZ95" s="108"/>
+      <c r="BA95" s="108"/>
+      <c r="BB95" s="108"/>
+      <c r="BC95" s="108"/>
+      <c r="BD95" s="109"/>
     </row>
     <row r="96" spans="3:56" ht="15" customHeight="1">
       <c r="C96" s="41"/>
@@ -12163,41 +12163,41 @@
       <c r="U96" s="40"/>
       <c r="V96" s="40"/>
       <c r="W96" s="43"/>
-      <c r="X96" s="162" t="s">
+      <c r="X96" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="Y96" s="163"/>
-      <c r="Z96" s="163"/>
-      <c r="AA96" s="163"/>
-      <c r="AB96" s="163"/>
-      <c r="AC96" s="163"/>
-      <c r="AD96" s="163"/>
-      <c r="AE96" s="163"/>
-      <c r="AF96" s="163"/>
-      <c r="AG96" s="163"/>
-      <c r="AH96" s="163"/>
-      <c r="AI96" s="163"/>
-      <c r="AJ96" s="163"/>
-      <c r="AK96" s="163"/>
-      <c r="AL96" s="163"/>
-      <c r="AM96" s="163"/>
-      <c r="AN96" s="163"/>
-      <c r="AO96" s="163"/>
-      <c r="AP96" s="163"/>
-      <c r="AQ96" s="163"/>
-      <c r="AR96" s="163"/>
-      <c r="AS96" s="163"/>
-      <c r="AT96" s="163"/>
-      <c r="AU96" s="163"/>
-      <c r="AV96" s="163"/>
-      <c r="AW96" s="163"/>
-      <c r="AX96" s="163"/>
-      <c r="AY96" s="163"/>
-      <c r="AZ96" s="163"/>
-      <c r="BA96" s="163"/>
-      <c r="BB96" s="163"/>
-      <c r="BC96" s="163"/>
-      <c r="BD96" s="164"/>
+      <c r="Y96" s="105"/>
+      <c r="Z96" s="105"/>
+      <c r="AA96" s="105"/>
+      <c r="AB96" s="105"/>
+      <c r="AC96" s="105"/>
+      <c r="AD96" s="105"/>
+      <c r="AE96" s="105"/>
+      <c r="AF96" s="105"/>
+      <c r="AG96" s="105"/>
+      <c r="AH96" s="105"/>
+      <c r="AI96" s="105"/>
+      <c r="AJ96" s="105"/>
+      <c r="AK96" s="105"/>
+      <c r="AL96" s="105"/>
+      <c r="AM96" s="105"/>
+      <c r="AN96" s="105"/>
+      <c r="AO96" s="105"/>
+      <c r="AP96" s="105"/>
+      <c r="AQ96" s="105"/>
+      <c r="AR96" s="105"/>
+      <c r="AS96" s="105"/>
+      <c r="AT96" s="105"/>
+      <c r="AU96" s="105"/>
+      <c r="AV96" s="105"/>
+      <c r="AW96" s="105"/>
+      <c r="AX96" s="105"/>
+      <c r="AY96" s="105"/>
+      <c r="AZ96" s="105"/>
+      <c r="BA96" s="105"/>
+      <c r="BB96" s="105"/>
+      <c r="BC96" s="105"/>
+      <c r="BD96" s="106"/>
     </row>
     <row r="97" spans="3:56" ht="15" customHeight="1">
       <c r="C97" s="41"/>
@@ -12227,41 +12227,41 @@
       <c r="U97" s="40"/>
       <c r="V97" s="40"/>
       <c r="W97" s="43"/>
-      <c r="X97" s="162" t="s">
+      <c r="X97" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="Y97" s="163"/>
-      <c r="Z97" s="163"/>
-      <c r="AA97" s="163"/>
-      <c r="AB97" s="163"/>
-      <c r="AC97" s="163"/>
-      <c r="AD97" s="163"/>
-      <c r="AE97" s="163"/>
-      <c r="AF97" s="163"/>
-      <c r="AG97" s="163"/>
-      <c r="AH97" s="163"/>
-      <c r="AI97" s="163"/>
-      <c r="AJ97" s="163"/>
-      <c r="AK97" s="163"/>
-      <c r="AL97" s="163"/>
-      <c r="AM97" s="163"/>
-      <c r="AN97" s="163"/>
-      <c r="AO97" s="163"/>
-      <c r="AP97" s="163"/>
-      <c r="AQ97" s="163"/>
-      <c r="AR97" s="163"/>
-      <c r="AS97" s="163"/>
-      <c r="AT97" s="163"/>
-      <c r="AU97" s="163"/>
-      <c r="AV97" s="163"/>
-      <c r="AW97" s="163"/>
-      <c r="AX97" s="163"/>
-      <c r="AY97" s="163"/>
-      <c r="AZ97" s="163"/>
-      <c r="BA97" s="163"/>
-      <c r="BB97" s="163"/>
-      <c r="BC97" s="163"/>
-      <c r="BD97" s="164"/>
+      <c r="Y97" s="105"/>
+      <c r="Z97" s="105"/>
+      <c r="AA97" s="105"/>
+      <c r="AB97" s="105"/>
+      <c r="AC97" s="105"/>
+      <c r="AD97" s="105"/>
+      <c r="AE97" s="105"/>
+      <c r="AF97" s="105"/>
+      <c r="AG97" s="105"/>
+      <c r="AH97" s="105"/>
+      <c r="AI97" s="105"/>
+      <c r="AJ97" s="105"/>
+      <c r="AK97" s="105"/>
+      <c r="AL97" s="105"/>
+      <c r="AM97" s="105"/>
+      <c r="AN97" s="105"/>
+      <c r="AO97" s="105"/>
+      <c r="AP97" s="105"/>
+      <c r="AQ97" s="105"/>
+      <c r="AR97" s="105"/>
+      <c r="AS97" s="105"/>
+      <c r="AT97" s="105"/>
+      <c r="AU97" s="105"/>
+      <c r="AV97" s="105"/>
+      <c r="AW97" s="105"/>
+      <c r="AX97" s="105"/>
+      <c r="AY97" s="105"/>
+      <c r="AZ97" s="105"/>
+      <c r="BA97" s="105"/>
+      <c r="BB97" s="105"/>
+      <c r="BC97" s="105"/>
+      <c r="BD97" s="106"/>
     </row>
     <row r="98" spans="3:56" ht="15" customHeight="1">
       <c r="C98" s="41"/>
@@ -12291,41 +12291,41 @@
       <c r="U98" s="40"/>
       <c r="V98" s="40"/>
       <c r="W98" s="43"/>
-      <c r="X98" s="162" t="s">
+      <c r="X98" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="Y98" s="163"/>
-      <c r="Z98" s="163"/>
-      <c r="AA98" s="163"/>
-      <c r="AB98" s="163"/>
-      <c r="AC98" s="163"/>
-      <c r="AD98" s="163"/>
-      <c r="AE98" s="163"/>
-      <c r="AF98" s="163"/>
-      <c r="AG98" s="163"/>
-      <c r="AH98" s="163"/>
-      <c r="AI98" s="163"/>
-      <c r="AJ98" s="163"/>
-      <c r="AK98" s="163"/>
-      <c r="AL98" s="163"/>
-      <c r="AM98" s="163"/>
-      <c r="AN98" s="163"/>
-      <c r="AO98" s="163"/>
-      <c r="AP98" s="163"/>
-      <c r="AQ98" s="163"/>
-      <c r="AR98" s="163"/>
-      <c r="AS98" s="163"/>
-      <c r="AT98" s="163"/>
-      <c r="AU98" s="163"/>
-      <c r="AV98" s="163"/>
-      <c r="AW98" s="163"/>
-      <c r="AX98" s="163"/>
-      <c r="AY98" s="163"/>
-      <c r="AZ98" s="163"/>
-      <c r="BA98" s="163"/>
-      <c r="BB98" s="163"/>
-      <c r="BC98" s="163"/>
-      <c r="BD98" s="164"/>
+      <c r="Y98" s="105"/>
+      <c r="Z98" s="105"/>
+      <c r="AA98" s="105"/>
+      <c r="AB98" s="105"/>
+      <c r="AC98" s="105"/>
+      <c r="AD98" s="105"/>
+      <c r="AE98" s="105"/>
+      <c r="AF98" s="105"/>
+      <c r="AG98" s="105"/>
+      <c r="AH98" s="105"/>
+      <c r="AI98" s="105"/>
+      <c r="AJ98" s="105"/>
+      <c r="AK98" s="105"/>
+      <c r="AL98" s="105"/>
+      <c r="AM98" s="105"/>
+      <c r="AN98" s="105"/>
+      <c r="AO98" s="105"/>
+      <c r="AP98" s="105"/>
+      <c r="AQ98" s="105"/>
+      <c r="AR98" s="105"/>
+      <c r="AS98" s="105"/>
+      <c r="AT98" s="105"/>
+      <c r="AU98" s="105"/>
+      <c r="AV98" s="105"/>
+      <c r="AW98" s="105"/>
+      <c r="AX98" s="105"/>
+      <c r="AY98" s="105"/>
+      <c r="AZ98" s="105"/>
+      <c r="BA98" s="105"/>
+      <c r="BB98" s="105"/>
+      <c r="BC98" s="105"/>
+      <c r="BD98" s="106"/>
     </row>
     <row r="99" spans="3:56" ht="15" customHeight="1">
       <c r="C99" s="41"/>
@@ -12355,41 +12355,41 @@
       <c r="U99" s="40"/>
       <c r="V99" s="40"/>
       <c r="W99" s="43"/>
-      <c r="X99" s="162" t="s">
+      <c r="X99" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="Y99" s="163"/>
-      <c r="Z99" s="163"/>
-      <c r="AA99" s="163"/>
-      <c r="AB99" s="163"/>
-      <c r="AC99" s="163"/>
-      <c r="AD99" s="163"/>
-      <c r="AE99" s="163"/>
-      <c r="AF99" s="163"/>
-      <c r="AG99" s="163"/>
-      <c r="AH99" s="163"/>
-      <c r="AI99" s="163"/>
-      <c r="AJ99" s="163"/>
-      <c r="AK99" s="163"/>
-      <c r="AL99" s="163"/>
-      <c r="AM99" s="163"/>
-      <c r="AN99" s="163"/>
-      <c r="AO99" s="163"/>
-      <c r="AP99" s="163"/>
-      <c r="AQ99" s="163"/>
-      <c r="AR99" s="163"/>
-      <c r="AS99" s="163"/>
-      <c r="AT99" s="163"/>
-      <c r="AU99" s="163"/>
-      <c r="AV99" s="163"/>
-      <c r="AW99" s="163"/>
-      <c r="AX99" s="163"/>
-      <c r="AY99" s="163"/>
-      <c r="AZ99" s="163"/>
-      <c r="BA99" s="163"/>
-      <c r="BB99" s="163"/>
-      <c r="BC99" s="163"/>
-      <c r="BD99" s="164"/>
+      <c r="Y99" s="105"/>
+      <c r="Z99" s="105"/>
+      <c r="AA99" s="105"/>
+      <c r="AB99" s="105"/>
+      <c r="AC99" s="105"/>
+      <c r="AD99" s="105"/>
+      <c r="AE99" s="105"/>
+      <c r="AF99" s="105"/>
+      <c r="AG99" s="105"/>
+      <c r="AH99" s="105"/>
+      <c r="AI99" s="105"/>
+      <c r="AJ99" s="105"/>
+      <c r="AK99" s="105"/>
+      <c r="AL99" s="105"/>
+      <c r="AM99" s="105"/>
+      <c r="AN99" s="105"/>
+      <c r="AO99" s="105"/>
+      <c r="AP99" s="105"/>
+      <c r="AQ99" s="105"/>
+      <c r="AR99" s="105"/>
+      <c r="AS99" s="105"/>
+      <c r="AT99" s="105"/>
+      <c r="AU99" s="105"/>
+      <c r="AV99" s="105"/>
+      <c r="AW99" s="105"/>
+      <c r="AX99" s="105"/>
+      <c r="AY99" s="105"/>
+      <c r="AZ99" s="105"/>
+      <c r="BA99" s="105"/>
+      <c r="BB99" s="105"/>
+      <c r="BC99" s="105"/>
+      <c r="BD99" s="106"/>
     </row>
     <row r="100" spans="3:56">
       <c r="C100" s="41"/>
@@ -12505,44 +12505,37 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="X96:BD96"/>
-    <mergeCell ref="X97:BD97"/>
-    <mergeCell ref="X98:BD98"/>
-    <mergeCell ref="X99:BD99"/>
-    <mergeCell ref="X91:BD91"/>
-    <mergeCell ref="X92:BD92"/>
-    <mergeCell ref="X93:BD93"/>
-    <mergeCell ref="X94:BD94"/>
-    <mergeCell ref="X95:BD95"/>
-    <mergeCell ref="E72:Q72"/>
-    <mergeCell ref="X72:AD72"/>
-    <mergeCell ref="AE72:AK72"/>
-    <mergeCell ref="X89:BD89"/>
-    <mergeCell ref="X90:BD90"/>
-    <mergeCell ref="E70:Q70"/>
-    <mergeCell ref="X70:AD70"/>
-    <mergeCell ref="AE70:AK70"/>
-    <mergeCell ref="E71:Q71"/>
-    <mergeCell ref="X71:AD71"/>
-    <mergeCell ref="AE71:AK71"/>
-    <mergeCell ref="AB23:AE24"/>
-    <mergeCell ref="AF23:AL24"/>
-    <mergeCell ref="AN23:AT24"/>
-    <mergeCell ref="AU23:AZ24"/>
-    <mergeCell ref="BA23:BA24"/>
-    <mergeCell ref="AT12:AV13"/>
-    <mergeCell ref="AX12:AZ13"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AV20:AZ20"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="AQ4:AS4"/>
-    <mergeCell ref="AQ5:AS5"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:AP3"/>
+    <mergeCell ref="AQ2:AW2"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="AQ3:AW3"/>
+    <mergeCell ref="AX3:BE3"/>
+    <mergeCell ref="X23:AA24"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BB4:BE4"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="U5:AP5"/>
+    <mergeCell ref="AT5:AW5"/>
+    <mergeCell ref="BB5:BE5"/>
+    <mergeCell ref="AX4:BA4"/>
+    <mergeCell ref="AX5:BA5"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="H23:I24"/>
+    <mergeCell ref="J23:P24"/>
+    <mergeCell ref="Q23:W24"/>
+    <mergeCell ref="AL69:BD69"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="X43:AD43"/>
+    <mergeCell ref="AN43:AP43"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="X69:AD69"/>
+    <mergeCell ref="AE69:AK69"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:M43"/>
     <mergeCell ref="C88:D88"/>
     <mergeCell ref="E88:Q88"/>
     <mergeCell ref="R88:W88"/>
@@ -12559,42 +12552,49 @@
     <mergeCell ref="AW43:BD43"/>
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="E69:Q69"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="X69:AD69"/>
-    <mergeCell ref="AE69:AK69"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="AL69:BD69"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="X43:AD43"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="AQ5:AS5"/>
     <mergeCell ref="F4:N4"/>
     <mergeCell ref="U4:AP4"/>
-    <mergeCell ref="AN43:AP43"/>
+    <mergeCell ref="AT12:AV13"/>
+    <mergeCell ref="AX12:AZ13"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AV20:AZ20"/>
     <mergeCell ref="AL12:AN13"/>
     <mergeCell ref="AP12:AR13"/>
     <mergeCell ref="AG12:AJ13"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="F23:G24"/>
-    <mergeCell ref="H23:I24"/>
-    <mergeCell ref="J23:P24"/>
-    <mergeCell ref="Q23:W24"/>
-    <mergeCell ref="X23:AA24"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BB4:BE4"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="U5:AP5"/>
-    <mergeCell ref="AT5:AW5"/>
-    <mergeCell ref="BB5:BE5"/>
-    <mergeCell ref="AX4:BA4"/>
-    <mergeCell ref="AX5:BA5"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:AP3"/>
-    <mergeCell ref="AQ2:AW2"/>
-    <mergeCell ref="AX2:BE2"/>
-    <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="AX3:BE3"/>
+    <mergeCell ref="AB23:AE24"/>
+    <mergeCell ref="AF23:AL24"/>
+    <mergeCell ref="AN23:AT24"/>
+    <mergeCell ref="AU23:AZ24"/>
+    <mergeCell ref="BA23:BA24"/>
+    <mergeCell ref="E70:Q70"/>
+    <mergeCell ref="X70:AD70"/>
+    <mergeCell ref="AE70:AK70"/>
+    <mergeCell ref="E71:Q71"/>
+    <mergeCell ref="X71:AD71"/>
+    <mergeCell ref="AE71:AK71"/>
+    <mergeCell ref="E72:Q72"/>
+    <mergeCell ref="X72:AD72"/>
+    <mergeCell ref="AE72:AK72"/>
+    <mergeCell ref="X89:BD89"/>
+    <mergeCell ref="X90:BD90"/>
+    <mergeCell ref="X96:BD96"/>
+    <mergeCell ref="X97:BD97"/>
+    <mergeCell ref="X98:BD98"/>
+    <mergeCell ref="X99:BD99"/>
+    <mergeCell ref="X91:BD91"/>
+    <mergeCell ref="X92:BD92"/>
+    <mergeCell ref="X93:BD93"/>
+    <mergeCell ref="X94:BD94"/>
+    <mergeCell ref="X95:BD95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" orientation="portrait" r:id="rId1"/>

--- a/trunk/Document/Design/SDD_UserManager.xlsx
+++ b/trunk/Document/Design/SDD_UserManager.xlsx
@@ -1074,7 +1074,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="132">
   <si>
     <t>&lt;Project Name&gt;</t>
   </si>
@@ -1466,7 +1466,10 @@
     <t>Tìm User cần thao tác theo Log Status</t>
   </si>
   <si>
-    <t>16/102011</t>
+    <t>14/10/2011</t>
+  </si>
+  <si>
+    <t>16/10/2011</t>
   </si>
 </sst>
 </file>
@@ -2596,6 +2599,30 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2605,29 +2632,179 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2637,180 +2814,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3659,128 +3662,128 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:57">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="100"/>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="100"/>
-      <c r="AK2" s="100"/>
-      <c r="AL2" s="100"/>
-      <c r="AM2" s="100"/>
-      <c r="AN2" s="100"/>
-      <c r="AO2" s="100"/>
-      <c r="AP2" s="100"/>
-      <c r="AQ2" s="102" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="102"/>
-      <c r="AS2" s="102"/>
-      <c r="AT2" s="102"/>
-      <c r="AU2" s="102"/>
-      <c r="AV2" s="102"/>
-      <c r="AW2" s="102"/>
-      <c r="AX2" s="102" t="s">
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
+      <c r="AW2" s="93"/>
+      <c r="AX2" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="AY2" s="102"/>
-      <c r="AZ2" s="102"/>
-      <c r="BA2" s="102"/>
-      <c r="BB2" s="102"/>
-      <c r="BC2" s="102"/>
-      <c r="BD2" s="102"/>
-      <c r="BE2" s="102"/>
+      <c r="AY2" s="93"/>
+      <c r="AZ2" s="93"/>
+      <c r="BA2" s="93"/>
+      <c r="BB2" s="93"/>
+      <c r="BC2" s="93"/>
+      <c r="BD2" s="93"/>
+      <c r="BE2" s="93"/>
     </row>
     <row r="3" spans="2:57">
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="100"/>
-      <c r="AE3" s="100"/>
-      <c r="AF3" s="100"/>
-      <c r="AG3" s="100"/>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="100"/>
-      <c r="AJ3" s="100"/>
-      <c r="AK3" s="100"/>
-      <c r="AL3" s="100"/>
-      <c r="AM3" s="100"/>
-      <c r="AN3" s="100"/>
-      <c r="AO3" s="100"/>
-      <c r="AP3" s="100"/>
-      <c r="AQ3" s="103"/>
-      <c r="AR3" s="103"/>
-      <c r="AS3" s="103"/>
-      <c r="AT3" s="103"/>
-      <c r="AU3" s="103"/>
-      <c r="AV3" s="103"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103"/>
-      <c r="AY3" s="103"/>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="103"/>
-      <c r="BB3" s="103"/>
-      <c r="BC3" s="103"/>
-      <c r="BD3" s="103"/>
-      <c r="BE3" s="103"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="97"/>
+      <c r="AO3" s="97"/>
+      <c r="AP3" s="97"/>
+      <c r="AQ3" s="95"/>
+      <c r="AR3" s="95"/>
+      <c r="AS3" s="95"/>
+      <c r="AT3" s="95"/>
+      <c r="AU3" s="95"/>
+      <c r="AV3" s="95"/>
+      <c r="AW3" s="95"/>
+      <c r="AX3" s="95"/>
+      <c r="AY3" s="95"/>
+      <c r="AZ3" s="95"/>
+      <c r="BA3" s="95"/>
+      <c r="BB3" s="95"/>
+      <c r="BC3" s="95"/>
+      <c r="BD3" s="95"/>
+      <c r="BE3" s="95"/>
     </row>
     <row r="4" spans="2:57">
       <c r="B4" s="31" t="s">
@@ -3789,15 +3792,15 @@
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
       <c r="O4" s="31" t="s">
         <v>28</v>
       </c>
@@ -3806,47 +3809,47 @@
       <c r="R4" s="31"/>
       <c r="S4" s="31"/>
       <c r="T4" s="31"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="101"/>
-      <c r="AL4" s="101"/>
-      <c r="AM4" s="101"/>
-      <c r="AN4" s="101"/>
-      <c r="AO4" s="101"/>
-      <c r="AP4" s="101"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
       <c r="AQ4" s="31" t="s">
         <v>24</v>
       </c>
       <c r="AR4" s="31"/>
       <c r="AS4" s="31"/>
-      <c r="AT4" s="101"/>
-      <c r="AU4" s="101"/>
-      <c r="AV4" s="101"/>
-      <c r="AW4" s="101"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
       <c r="AX4" s="31" t="s">
         <v>25</v>
       </c>
       <c r="AY4" s="31"/>
       <c r="AZ4" s="31"/>
       <c r="BA4" s="31"/>
-      <c r="BB4" s="101"/>
-      <c r="BC4" s="101"/>
-      <c r="BD4" s="101"/>
-      <c r="BE4" s="101"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="94"/>
     </row>
     <row r="5" spans="2:57">
       <c r="B5" s="31" t="s">
@@ -3855,15 +3858,15 @@
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
       <c r="O5" s="31" t="s">
         <v>29</v>
       </c>
@@ -3872,47 +3875,47 @@
       <c r="R5" s="31"/>
       <c r="S5" s="31"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="101"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
-      <c r="X5" s="101"/>
-      <c r="Y5" s="101"/>
-      <c r="Z5" s="101"/>
-      <c r="AA5" s="101"/>
-      <c r="AB5" s="101"/>
-      <c r="AC5" s="101"/>
-      <c r="AD5" s="101"/>
-      <c r="AE5" s="101"/>
-      <c r="AF5" s="101"/>
-      <c r="AG5" s="101"/>
-      <c r="AH5" s="101"/>
-      <c r="AI5" s="101"/>
-      <c r="AJ5" s="101"/>
-      <c r="AK5" s="101"/>
-      <c r="AL5" s="101"/>
-      <c r="AM5" s="101"/>
-      <c r="AN5" s="101"/>
-      <c r="AO5" s="101"/>
-      <c r="AP5" s="101"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="94"/>
+      <c r="AH5" s="94"/>
+      <c r="AI5" s="94"/>
+      <c r="AJ5" s="94"/>
+      <c r="AK5" s="94"/>
+      <c r="AL5" s="94"/>
+      <c r="AM5" s="94"/>
+      <c r="AN5" s="94"/>
+      <c r="AO5" s="94"/>
+      <c r="AP5" s="94"/>
       <c r="AQ5" s="31" t="s">
         <v>24</v>
       </c>
       <c r="AR5" s="31"/>
       <c r="AS5" s="31"/>
-      <c r="AT5" s="101"/>
-      <c r="AU5" s="101"/>
-      <c r="AV5" s="101"/>
-      <c r="AW5" s="101"/>
+      <c r="AT5" s="94"/>
+      <c r="AU5" s="94"/>
+      <c r="AV5" s="94"/>
+      <c r="AW5" s="94"/>
       <c r="AX5" s="31" t="s">
         <v>25</v>
       </c>
       <c r="AY5" s="31"/>
       <c r="AZ5" s="31"/>
       <c r="BA5" s="31"/>
-      <c r="BB5" s="101"/>
-      <c r="BC5" s="101"/>
-      <c r="BD5" s="101"/>
-      <c r="BE5" s="101"/>
+      <c r="BB5" s="94"/>
+      <c r="BC5" s="94"/>
+      <c r="BD5" s="94"/>
+      <c r="BE5" s="94"/>
     </row>
     <row r="7" spans="2:57">
       <c r="C7" s="33" t="s">
@@ -3936,79 +3939,79 @@
       <c r="C43" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96" t="s">
+      <c r="D43" s="99"/>
+      <c r="E43" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96" t="s">
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="99"/>
+      <c r="N43" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="O43" s="96"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="96" t="s">
+      <c r="O43" s="99"/>
+      <c r="P43" s="99"/>
+      <c r="Q43" s="99"/>
+      <c r="R43" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="S43" s="96"/>
-      <c r="T43" s="96"/>
-      <c r="U43" s="96" t="s">
+      <c r="S43" s="99"/>
+      <c r="T43" s="99"/>
+      <c r="U43" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="V43" s="96"/>
-      <c r="W43" s="96"/>
-      <c r="X43" s="96" t="s">
+      <c r="V43" s="99"/>
+      <c r="W43" s="99"/>
+      <c r="X43" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="Y43" s="96"/>
-      <c r="Z43" s="96"/>
-      <c r="AA43" s="96"/>
-      <c r="AB43" s="96"/>
-      <c r="AC43" s="96"/>
-      <c r="AD43" s="96"/>
-      <c r="AE43" s="96" t="s">
+      <c r="Y43" s="99"/>
+      <c r="Z43" s="99"/>
+      <c r="AA43" s="99"/>
+      <c r="AB43" s="99"/>
+      <c r="AC43" s="99"/>
+      <c r="AD43" s="99"/>
+      <c r="AE43" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="AF43" s="96"/>
-      <c r="AG43" s="96"/>
-      <c r="AH43" s="96"/>
-      <c r="AI43" s="96"/>
-      <c r="AJ43" s="96" t="s">
+      <c r="AF43" s="99"/>
+      <c r="AG43" s="99"/>
+      <c r="AH43" s="99"/>
+      <c r="AI43" s="99"/>
+      <c r="AJ43" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="AK43" s="96"/>
-      <c r="AL43" s="96"/>
-      <c r="AM43" s="96"/>
-      <c r="AN43" s="96" t="s">
+      <c r="AK43" s="99"/>
+      <c r="AL43" s="99"/>
+      <c r="AM43" s="99"/>
+      <c r="AN43" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="AO43" s="96"/>
-      <c r="AP43" s="96"/>
-      <c r="AQ43" s="96" t="s">
+      <c r="AO43" s="99"/>
+      <c r="AP43" s="99"/>
+      <c r="AQ43" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="AR43" s="96"/>
-      <c r="AS43" s="96"/>
-      <c r="AT43" s="96"/>
-      <c r="AU43" s="96"/>
-      <c r="AV43" s="96"/>
-      <c r="AW43" s="96" t="s">
+      <c r="AR43" s="99"/>
+      <c r="AS43" s="99"/>
+      <c r="AT43" s="99"/>
+      <c r="AU43" s="99"/>
+      <c r="AV43" s="99"/>
+      <c r="AW43" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AX43" s="96"/>
-      <c r="AY43" s="96"/>
-      <c r="AZ43" s="96"/>
-      <c r="BA43" s="96"/>
-      <c r="BB43" s="96"/>
-      <c r="BC43" s="96"/>
-      <c r="BD43" s="97"/>
+      <c r="AX43" s="99"/>
+      <c r="AY43" s="99"/>
+      <c r="AZ43" s="99"/>
+      <c r="BA43" s="99"/>
+      <c r="BB43" s="99"/>
+      <c r="BC43" s="99"/>
+      <c r="BD43" s="100"/>
     </row>
     <row r="44" spans="3:56">
       <c r="C44" s="35"/>
@@ -5307,72 +5310,72 @@
       <c r="C68" s="33"/>
     </row>
     <row r="69" spans="3:56" ht="15">
-      <c r="C69" s="95" t="s">
+      <c r="C69" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="93"/>
-      <c r="E69" s="93" t="s">
+      <c r="D69" s="101"/>
+      <c r="E69" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="F69" s="93"/>
-      <c r="G69" s="93"/>
-      <c r="H69" s="93"/>
-      <c r="I69" s="93"/>
-      <c r="J69" s="93"/>
-      <c r="K69" s="93"/>
-      <c r="L69" s="93"/>
-      <c r="M69" s="93"/>
-      <c r="N69" s="93"/>
-      <c r="O69" s="93"/>
-      <c r="P69" s="93"/>
-      <c r="Q69" s="93"/>
-      <c r="R69" s="93" t="s">
+      <c r="F69" s="101"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="101"/>
+      <c r="I69" s="101"/>
+      <c r="J69" s="101"/>
+      <c r="K69" s="101"/>
+      <c r="L69" s="101"/>
+      <c r="M69" s="101"/>
+      <c r="N69" s="101"/>
+      <c r="O69" s="101"/>
+      <c r="P69" s="101"/>
+      <c r="Q69" s="101"/>
+      <c r="R69" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="S69" s="93"/>
-      <c r="T69" s="93"/>
-      <c r="U69" s="93"/>
-      <c r="V69" s="93"/>
-      <c r="W69" s="93"/>
-      <c r="X69" s="93" t="s">
+      <c r="S69" s="101"/>
+      <c r="T69" s="101"/>
+      <c r="U69" s="101"/>
+      <c r="V69" s="101"/>
+      <c r="W69" s="101"/>
+      <c r="X69" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="Y69" s="93"/>
-      <c r="Z69" s="93"/>
-      <c r="AA69" s="93"/>
-      <c r="AB69" s="93"/>
-      <c r="AC69" s="93"/>
-      <c r="AD69" s="93"/>
-      <c r="AE69" s="93" t="s">
+      <c r="Y69" s="101"/>
+      <c r="Z69" s="101"/>
+      <c r="AA69" s="101"/>
+      <c r="AB69" s="101"/>
+      <c r="AC69" s="101"/>
+      <c r="AD69" s="101"/>
+      <c r="AE69" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="AF69" s="93"/>
-      <c r="AG69" s="93"/>
-      <c r="AH69" s="93"/>
-      <c r="AI69" s="93"/>
-      <c r="AJ69" s="93"/>
-      <c r="AK69" s="93"/>
-      <c r="AL69" s="93" t="s">
+      <c r="AF69" s="101"/>
+      <c r="AG69" s="101"/>
+      <c r="AH69" s="101"/>
+      <c r="AI69" s="101"/>
+      <c r="AJ69" s="101"/>
+      <c r="AK69" s="101"/>
+      <c r="AL69" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="AM69" s="93"/>
-      <c r="AN69" s="93"/>
-      <c r="AO69" s="93"/>
-      <c r="AP69" s="93"/>
-      <c r="AQ69" s="93"/>
-      <c r="AR69" s="93"/>
-      <c r="AS69" s="93"/>
-      <c r="AT69" s="93"/>
-      <c r="AU69" s="93"/>
-      <c r="AV69" s="93"/>
-      <c r="AW69" s="93"/>
-      <c r="AX69" s="93"/>
-      <c r="AY69" s="93"/>
-      <c r="AZ69" s="93"/>
-      <c r="BA69" s="93"/>
-      <c r="BB69" s="93"/>
-      <c r="BC69" s="93"/>
-      <c r="BD69" s="94"/>
+      <c r="AM69" s="101"/>
+      <c r="AN69" s="101"/>
+      <c r="AO69" s="101"/>
+      <c r="AP69" s="101"/>
+      <c r="AQ69" s="101"/>
+      <c r="AR69" s="101"/>
+      <c r="AS69" s="101"/>
+      <c r="AT69" s="101"/>
+      <c r="AU69" s="101"/>
+      <c r="AV69" s="101"/>
+      <c r="AW69" s="101"/>
+      <c r="AX69" s="101"/>
+      <c r="AY69" s="101"/>
+      <c r="AZ69" s="101"/>
+      <c r="BA69" s="101"/>
+      <c r="BB69" s="101"/>
+      <c r="BC69" s="101"/>
+      <c r="BD69" s="102"/>
     </row>
     <row r="70" spans="3:56">
       <c r="C70" s="48"/>
@@ -6220,68 +6223,68 @@
       </c>
     </row>
     <row r="88" spans="3:56" ht="15">
-      <c r="C88" s="95" t="s">
+      <c r="C88" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="D88" s="93"/>
-      <c r="E88" s="93" t="s">
+      <c r="D88" s="101"/>
+      <c r="E88" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="F88" s="93"/>
-      <c r="G88" s="93"/>
-      <c r="H88" s="93"/>
-      <c r="I88" s="93"/>
-      <c r="J88" s="93"/>
-      <c r="K88" s="93"/>
-      <c r="L88" s="93"/>
-      <c r="M88" s="93"/>
-      <c r="N88" s="93"/>
-      <c r="O88" s="93"/>
-      <c r="P88" s="93"/>
-      <c r="Q88" s="93"/>
-      <c r="R88" s="93" t="s">
+      <c r="F88" s="101"/>
+      <c r="G88" s="101"/>
+      <c r="H88" s="101"/>
+      <c r="I88" s="101"/>
+      <c r="J88" s="101"/>
+      <c r="K88" s="101"/>
+      <c r="L88" s="101"/>
+      <c r="M88" s="101"/>
+      <c r="N88" s="101"/>
+      <c r="O88" s="101"/>
+      <c r="P88" s="101"/>
+      <c r="Q88" s="101"/>
+      <c r="R88" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="S88" s="93"/>
-      <c r="T88" s="93"/>
-      <c r="U88" s="93"/>
-      <c r="V88" s="93"/>
-      <c r="W88" s="93"/>
-      <c r="X88" s="93" t="s">
+      <c r="S88" s="101"/>
+      <c r="T88" s="101"/>
+      <c r="U88" s="101"/>
+      <c r="V88" s="101"/>
+      <c r="W88" s="101"/>
+      <c r="X88" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="Y88" s="93"/>
-      <c r="Z88" s="93"/>
-      <c r="AA88" s="93"/>
-      <c r="AB88" s="93"/>
-      <c r="AC88" s="93"/>
-      <c r="AD88" s="93"/>
-      <c r="AE88" s="93"/>
-      <c r="AF88" s="93"/>
-      <c r="AG88" s="93"/>
-      <c r="AH88" s="93"/>
-      <c r="AI88" s="93"/>
-      <c r="AJ88" s="93"/>
-      <c r="AK88" s="93"/>
-      <c r="AL88" s="93"/>
-      <c r="AM88" s="93"/>
-      <c r="AN88" s="93"/>
-      <c r="AO88" s="93"/>
-      <c r="AP88" s="93"/>
-      <c r="AQ88" s="93"/>
-      <c r="AR88" s="93"/>
-      <c r="AS88" s="93"/>
-      <c r="AT88" s="93"/>
-      <c r="AU88" s="93"/>
-      <c r="AV88" s="93"/>
-      <c r="AW88" s="93"/>
-      <c r="AX88" s="93"/>
-      <c r="AY88" s="93"/>
-      <c r="AZ88" s="93"/>
-      <c r="BA88" s="93"/>
-      <c r="BB88" s="93"/>
-      <c r="BC88" s="93"/>
-      <c r="BD88" s="94"/>
+      <c r="Y88" s="101"/>
+      <c r="Z88" s="101"/>
+      <c r="AA88" s="101"/>
+      <c r="AB88" s="101"/>
+      <c r="AC88" s="101"/>
+      <c r="AD88" s="101"/>
+      <c r="AE88" s="101"/>
+      <c r="AF88" s="101"/>
+      <c r="AG88" s="101"/>
+      <c r="AH88" s="101"/>
+      <c r="AI88" s="101"/>
+      <c r="AJ88" s="101"/>
+      <c r="AK88" s="101"/>
+      <c r="AL88" s="101"/>
+      <c r="AM88" s="101"/>
+      <c r="AN88" s="101"/>
+      <c r="AO88" s="101"/>
+      <c r="AP88" s="101"/>
+      <c r="AQ88" s="101"/>
+      <c r="AR88" s="101"/>
+      <c r="AS88" s="101"/>
+      <c r="AT88" s="101"/>
+      <c r="AU88" s="101"/>
+      <c r="AV88" s="101"/>
+      <c r="AW88" s="101"/>
+      <c r="AX88" s="101"/>
+      <c r="AY88" s="101"/>
+      <c r="AZ88" s="101"/>
+      <c r="BA88" s="101"/>
+      <c r="BB88" s="101"/>
+      <c r="BC88" s="101"/>
+      <c r="BD88" s="102"/>
     </row>
     <row r="89" spans="3:56">
       <c r="C89" s="35"/>
@@ -7069,25 +7072,12 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AX2:BE2"/>
-    <mergeCell ref="BB4:BE4"/>
-    <mergeCell ref="BB5:BE5"/>
-    <mergeCell ref="U4:AP4"/>
-    <mergeCell ref="U5:AP5"/>
-    <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="AX3:BE3"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:AP3"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="AT5:AW5"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="AQ2:AW2"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="X88:BD88"/>
+    <mergeCell ref="E69:Q69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:Q88"/>
+    <mergeCell ref="R88:W88"/>
     <mergeCell ref="AW43:BD43"/>
     <mergeCell ref="AL69:BD69"/>
     <mergeCell ref="AE69:AK69"/>
@@ -7098,12 +7088,25 @@
     <mergeCell ref="AJ43:AM43"/>
     <mergeCell ref="AN43:AP43"/>
     <mergeCell ref="AQ43:AV43"/>
-    <mergeCell ref="X88:BD88"/>
-    <mergeCell ref="E69:Q69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:Q88"/>
-    <mergeCell ref="R88:W88"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:AP3"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="AT5:AW5"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="AQ2:AW2"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="BB4:BE4"/>
+    <mergeCell ref="BB5:BE5"/>
+    <mergeCell ref="U4:AP4"/>
+    <mergeCell ref="U5:AP5"/>
+    <mergeCell ref="AQ3:AW3"/>
+    <mergeCell ref="AX3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="98" orientation="portrait" r:id="rId1"/>
@@ -7119,7 +7122,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U4" sqref="U4:AP4"/>
+      <selection pane="bottomLeft" activeCell="BB4" sqref="BB4:BE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="12.75"/>
@@ -7143,132 +7146,132 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:57">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="100"/>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="100"/>
-      <c r="AK2" s="100"/>
-      <c r="AL2" s="100"/>
-      <c r="AM2" s="100"/>
-      <c r="AN2" s="100"/>
-      <c r="AO2" s="100"/>
-      <c r="AP2" s="100"/>
-      <c r="AQ2" s="102" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="102"/>
-      <c r="AS2" s="102"/>
-      <c r="AT2" s="102"/>
-      <c r="AU2" s="102"/>
-      <c r="AV2" s="102"/>
-      <c r="AW2" s="102"/>
-      <c r="AX2" s="102" t="s">
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
+      <c r="AW2" s="93"/>
+      <c r="AX2" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="AY2" s="102"/>
-      <c r="AZ2" s="102"/>
-      <c r="BA2" s="102"/>
-      <c r="BB2" s="102"/>
-      <c r="BC2" s="102"/>
-      <c r="BD2" s="102"/>
-      <c r="BE2" s="102"/>
+      <c r="AY2" s="93"/>
+      <c r="AZ2" s="93"/>
+      <c r="BA2" s="93"/>
+      <c r="BB2" s="93"/>
+      <c r="BC2" s="93"/>
+      <c r="BD2" s="93"/>
+      <c r="BE2" s="93"/>
     </row>
     <row r="3" spans="2:57">
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="100"/>
-      <c r="AE3" s="100"/>
-      <c r="AF3" s="100"/>
-      <c r="AG3" s="100"/>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="100"/>
-      <c r="AJ3" s="100"/>
-      <c r="AK3" s="100"/>
-      <c r="AL3" s="100"/>
-      <c r="AM3" s="100"/>
-      <c r="AN3" s="100"/>
-      <c r="AO3" s="100"/>
-      <c r="AP3" s="100"/>
-      <c r="AQ3" s="103" t="s">
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="97"/>
+      <c r="AO3" s="97"/>
+      <c r="AP3" s="97"/>
+      <c r="AQ3" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="AR3" s="103"/>
-      <c r="AS3" s="103"/>
-      <c r="AT3" s="103"/>
-      <c r="AU3" s="103"/>
-      <c r="AV3" s="103"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103" t="s">
+      <c r="AR3" s="95"/>
+      <c r="AS3" s="95"/>
+      <c r="AT3" s="95"/>
+      <c r="AU3" s="95"/>
+      <c r="AV3" s="95"/>
+      <c r="AW3" s="95"/>
+      <c r="AX3" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="AY3" s="103"/>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="103"/>
-      <c r="BB3" s="103"/>
-      <c r="BC3" s="103"/>
-      <c r="BD3" s="103"/>
-      <c r="BE3" s="103"/>
+      <c r="AY3" s="95"/>
+      <c r="AZ3" s="95"/>
+      <c r="BA3" s="95"/>
+      <c r="BB3" s="95"/>
+      <c r="BC3" s="95"/>
+      <c r="BD3" s="95"/>
+      <c r="BE3" s="95"/>
     </row>
     <row r="4" spans="2:57">
       <c r="B4" s="136" t="s">
@@ -7277,169 +7280,173 @@
       <c r="C4" s="136"/>
       <c r="D4" s="136"/>
       <c r="E4" s="137"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="140" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="138"/>
-      <c r="Q4" s="138"/>
-      <c r="R4" s="138"/>
-      <c r="S4" s="138"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="101" t="s">
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="115"/>
+      <c r="U4" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="101"/>
-      <c r="AL4" s="101"/>
-      <c r="AM4" s="101"/>
-      <c r="AN4" s="101"/>
-      <c r="AO4" s="101"/>
-      <c r="AP4" s="101"/>
-      <c r="AQ4" s="141" t="s">
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="AR4" s="142"/>
-      <c r="AS4" s="143"/>
-      <c r="AT4" s="101"/>
-      <c r="AU4" s="101"/>
-      <c r="AV4" s="101"/>
-      <c r="AW4" s="101"/>
-      <c r="AX4" s="141" t="s">
+      <c r="AR4" s="111"/>
+      <c r="AS4" s="112"/>
+      <c r="AT4" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="AY4" s="142"/>
-      <c r="AZ4" s="142"/>
-      <c r="BA4" s="143"/>
-      <c r="BB4" s="101"/>
-      <c r="BC4" s="101"/>
-      <c r="BD4" s="101"/>
-      <c r="BE4" s="101"/>
+      <c r="AY4" s="111"/>
+      <c r="AZ4" s="111"/>
+      <c r="BA4" s="112"/>
+      <c r="BB4" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="94"/>
     </row>
     <row r="5" spans="2:57">
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="140" t="s">
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="138"/>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="138"/>
-      <c r="T5" s="139"/>
-      <c r="U5" s="101"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
-      <c r="X5" s="101"/>
-      <c r="Y5" s="101"/>
-      <c r="Z5" s="101"/>
-      <c r="AA5" s="101"/>
-      <c r="AB5" s="101"/>
-      <c r="AC5" s="101"/>
-      <c r="AD5" s="101"/>
-      <c r="AE5" s="101"/>
-      <c r="AF5" s="101"/>
-      <c r="AG5" s="101"/>
-      <c r="AH5" s="101"/>
-      <c r="AI5" s="101"/>
-      <c r="AJ5" s="101"/>
-      <c r="AK5" s="101"/>
-      <c r="AL5" s="101"/>
-      <c r="AM5" s="101"/>
-      <c r="AN5" s="101"/>
-      <c r="AO5" s="101"/>
-      <c r="AP5" s="101"/>
-      <c r="AQ5" s="140" t="s">
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="114"/>
+      <c r="S5" s="114"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="94"/>
+      <c r="AH5" s="94"/>
+      <c r="AI5" s="94"/>
+      <c r="AJ5" s="94"/>
+      <c r="AK5" s="94"/>
+      <c r="AL5" s="94"/>
+      <c r="AM5" s="94"/>
+      <c r="AN5" s="94"/>
+      <c r="AO5" s="94"/>
+      <c r="AP5" s="94"/>
+      <c r="AQ5" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="AR5" s="144"/>
-      <c r="AS5" s="139"/>
-      <c r="AT5" s="101"/>
-      <c r="AU5" s="101"/>
-      <c r="AV5" s="101"/>
-      <c r="AW5" s="101"/>
-      <c r="AX5" s="140" t="s">
+      <c r="AR5" s="138"/>
+      <c r="AS5" s="115"/>
+      <c r="AT5" s="94"/>
+      <c r="AU5" s="94"/>
+      <c r="AV5" s="94"/>
+      <c r="AW5" s="94"/>
+      <c r="AX5" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="AY5" s="138"/>
-      <c r="AZ5" s="138"/>
-      <c r="BA5" s="139"/>
-      <c r="BB5" s="101"/>
-      <c r="BC5" s="101"/>
-      <c r="BD5" s="101"/>
-      <c r="BE5" s="101"/>
+      <c r="AY5" s="114"/>
+      <c r="AZ5" s="114"/>
+      <c r="BA5" s="115"/>
+      <c r="BB5" s="94"/>
+      <c r="BC5" s="94"/>
+      <c r="BD5" s="94"/>
+      <c r="BE5" s="94"/>
     </row>
     <row r="7" spans="2:57">
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
     </row>
     <row r="9" spans="2:57" ht="13.5" thickBot="1">
       <c r="C9" s="34"/>
     </row>
     <row r="10" spans="2:57" ht="15" customHeight="1">
-      <c r="D10" s="127" t="s">
+      <c r="D10" s="128" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="150" t="s">
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="150"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="150"/>
-      <c r="M10" s="150"/>
-      <c r="N10" s="150"/>
-      <c r="O10" s="150"/>
-      <c r="P10" s="150"/>
-      <c r="Q10" s="150"/>
-      <c r="R10" s="150"/>
-      <c r="S10" s="150"/>
-      <c r="T10" s="150"/>
-      <c r="U10" s="150"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="134"/>
+      <c r="Q10" s="134"/>
+      <c r="R10" s="134"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="134"/>
+      <c r="U10" s="134"/>
       <c r="V10" s="73"/>
       <c r="W10" s="73"/>
       <c r="X10" s="73"/>
@@ -7476,24 +7483,24 @@
       <c r="BC10" s="74"/>
     </row>
     <row r="11" spans="2:57" ht="13.5" thickBot="1">
-      <c r="D11" s="147"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="151"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="151"/>
-      <c r="Q11" s="151"/>
-      <c r="R11" s="151"/>
-      <c r="S11" s="151"/>
-      <c r="T11" s="151"/>
-      <c r="U11" s="151"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="135"/>
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
       <c r="V11" s="75"/>
       <c r="W11" s="75"/>
       <c r="X11" s="75"/>
@@ -7530,24 +7537,24 @@
       <c r="BC11" s="76"/>
     </row>
     <row r="12" spans="2:57" ht="15" customHeight="1">
-      <c r="D12" s="147"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="151"/>
-      <c r="R12" s="151"/>
-      <c r="S12" s="151"/>
-      <c r="T12" s="151"/>
-      <c r="U12" s="151"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="135"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="135"/>
       <c r="V12" s="75"/>
       <c r="W12" s="75"/>
       <c r="X12" s="75"/>
@@ -7559,59 +7566,59 @@
       <c r="AD12" s="75"/>
       <c r="AE12" s="75"/>
       <c r="AF12" s="75"/>
-      <c r="AG12" s="152" t="s">
+      <c r="AG12" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="AH12" s="153"/>
-      <c r="AI12" s="153"/>
-      <c r="AJ12" s="154"/>
+      <c r="AH12" s="146"/>
+      <c r="AI12" s="146"/>
+      <c r="AJ12" s="147"/>
       <c r="AK12" s="75"/>
-      <c r="AL12" s="127" t="s">
+      <c r="AL12" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="AM12" s="128"/>
-      <c r="AN12" s="129"/>
+      <c r="AM12" s="129"/>
+      <c r="AN12" s="130"/>
       <c r="AO12" s="75"/>
-      <c r="AP12" s="127" t="s">
+      <c r="AP12" s="128" t="s">
         <v>92</v>
       </c>
-      <c r="AQ12" s="128"/>
-      <c r="AR12" s="129"/>
+      <c r="AQ12" s="129"/>
+      <c r="AR12" s="130"/>
       <c r="AS12" s="75"/>
-      <c r="AT12" s="127" t="s">
+      <c r="AT12" s="128" t="s">
         <v>93</v>
       </c>
-      <c r="AU12" s="128"/>
-      <c r="AV12" s="129"/>
+      <c r="AU12" s="129"/>
+      <c r="AV12" s="130"/>
       <c r="AW12" s="78"/>
-      <c r="AX12" s="127" t="s">
+      <c r="AX12" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="AY12" s="128"/>
-      <c r="AZ12" s="129"/>
+      <c r="AY12" s="129"/>
+      <c r="AZ12" s="130"/>
       <c r="BA12" s="75"/>
       <c r="BB12" s="75"/>
       <c r="BC12" s="76"/>
     </row>
     <row r="13" spans="2:57" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D13" s="147"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="151"/>
-      <c r="S13" s="151"/>
-      <c r="T13" s="151"/>
-      <c r="U13" s="151"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="135"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
       <c r="V13" s="75"/>
       <c r="W13" s="75"/>
       <c r="X13" s="75"/>
@@ -7623,49 +7630,49 @@
       <c r="AD13" s="75"/>
       <c r="AE13" s="75"/>
       <c r="AF13" s="75"/>
-      <c r="AG13" s="155"/>
-      <c r="AH13" s="156"/>
-      <c r="AI13" s="156"/>
-      <c r="AJ13" s="157"/>
+      <c r="AG13" s="148"/>
+      <c r="AH13" s="149"/>
+      <c r="AI13" s="149"/>
+      <c r="AJ13" s="150"/>
       <c r="AK13" s="75"/>
-      <c r="AL13" s="130"/>
-      <c r="AM13" s="131"/>
-      <c r="AN13" s="132"/>
+      <c r="AL13" s="139"/>
+      <c r="AM13" s="140"/>
+      <c r="AN13" s="141"/>
       <c r="AO13" s="75"/>
-      <c r="AP13" s="130"/>
-      <c r="AQ13" s="131"/>
-      <c r="AR13" s="132"/>
+      <c r="AP13" s="139"/>
+      <c r="AQ13" s="140"/>
+      <c r="AR13" s="141"/>
       <c r="AS13" s="75"/>
-      <c r="AT13" s="130"/>
-      <c r="AU13" s="131"/>
-      <c r="AV13" s="132"/>
+      <c r="AT13" s="139"/>
+      <c r="AU13" s="140"/>
+      <c r="AV13" s="141"/>
       <c r="AW13" s="78"/>
-      <c r="AX13" s="130"/>
-      <c r="AY13" s="131"/>
-      <c r="AZ13" s="132"/>
+      <c r="AX13" s="139"/>
+      <c r="AY13" s="140"/>
+      <c r="AZ13" s="141"/>
       <c r="BA13" s="75"/>
       <c r="BB13" s="75"/>
       <c r="BC13" s="76"/>
     </row>
     <row r="14" spans="2:57">
-      <c r="D14" s="147"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="151"/>
-      <c r="S14" s="151"/>
-      <c r="T14" s="151"/>
-      <c r="U14" s="151"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="135"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
       <c r="V14" s="75"/>
       <c r="W14" s="75"/>
       <c r="X14" s="75"/>
@@ -7702,24 +7709,24 @@
       <c r="BC14" s="76"/>
     </row>
     <row r="15" spans="2:57">
-      <c r="D15" s="147"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="151"/>
-      <c r="Q15" s="151"/>
-      <c r="R15" s="151"/>
-      <c r="S15" s="151"/>
-      <c r="T15" s="151"/>
-      <c r="U15" s="151"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="135"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="135"/>
+      <c r="R15" s="135"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
       <c r="V15" s="75"/>
       <c r="W15" s="75"/>
       <c r="X15" s="75"/>
@@ -7978,19 +7985,19 @@
         <v>95</v>
       </c>
       <c r="G20" s="47"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="135"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="144"/>
       <c r="K20" s="47"/>
-      <c r="L20" s="133" t="s">
+      <c r="L20" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="M20" s="135"/>
+      <c r="M20" s="144"/>
       <c r="N20" s="47"/>
-      <c r="O20" s="133" t="s">
+      <c r="O20" s="142" t="s">
         <v>97</v>
       </c>
-      <c r="P20" s="135"/>
+      <c r="P20" s="144"/>
       <c r="Q20" s="47"/>
       <c r="R20" s="47"/>
       <c r="S20" s="47"/>
@@ -8014,25 +8021,25 @@
       <c r="AK20" s="47"/>
       <c r="AL20" s="47"/>
       <c r="AM20" s="47"/>
-      <c r="AN20" s="133" t="s">
+      <c r="AN20" s="142" t="s">
         <v>98</v>
       </c>
-      <c r="AO20" s="134"/>
-      <c r="AP20" s="134"/>
-      <c r="AQ20" s="134"/>
-      <c r="AR20" s="135"/>
+      <c r="AO20" s="143"/>
+      <c r="AP20" s="143"/>
+      <c r="AQ20" s="143"/>
+      <c r="AR20" s="144"/>
       <c r="AS20" s="81" t="s">
         <v>87</v>
       </c>
       <c r="AT20" s="47"/>
       <c r="AU20" s="47"/>
-      <c r="AV20" s="133" t="s">
+      <c r="AV20" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="AW20" s="134"/>
-      <c r="AX20" s="134"/>
-      <c r="AY20" s="134"/>
-      <c r="AZ20" s="135"/>
+      <c r="AW20" s="143"/>
+      <c r="AX20" s="143"/>
+      <c r="AY20" s="143"/>
+      <c r="AZ20" s="144"/>
       <c r="BA20" s="81" t="s">
         <v>87</v>
       </c>
@@ -8098,13 +8105,13 @@
       <c r="E22" s="63"/>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
-      <c r="H22" s="158" t="s">
+      <c r="H22" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
       <c r="M22" s="47"/>
       <c r="N22" s="47"/>
       <c r="O22" s="47"/>
@@ -8152,72 +8159,72 @@
     <row r="23" spans="4:55">
       <c r="D23" s="68"/>
       <c r="E23" s="63"/>
-      <c r="F23" s="159" t="s">
+      <c r="F23" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="121"/>
-      <c r="H23" s="161" t="s">
+      <c r="G23" s="106"/>
+      <c r="H23" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="I23" s="162"/>
-      <c r="J23" s="122" t="s">
+      <c r="I23" s="120"/>
+      <c r="J23" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="123"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="124"/>
-      <c r="Q23" s="119" t="s">
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="109"/>
+      <c r="Q23" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="R23" s="120"/>
-      <c r="S23" s="120"/>
-      <c r="T23" s="120"/>
-      <c r="U23" s="120"/>
-      <c r="V23" s="120"/>
-      <c r="W23" s="121"/>
-      <c r="X23" s="119" t="s">
+      <c r="R23" s="105"/>
+      <c r="S23" s="105"/>
+      <c r="T23" s="105"/>
+      <c r="U23" s="105"/>
+      <c r="V23" s="105"/>
+      <c r="W23" s="106"/>
+      <c r="X23" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="Y23" s="120"/>
-      <c r="Z23" s="120"/>
-      <c r="AA23" s="121"/>
-      <c r="AB23" s="119" t="s">
+      <c r="Y23" s="105"/>
+      <c r="Z23" s="105"/>
+      <c r="AA23" s="106"/>
+      <c r="AB23" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="AC23" s="120"/>
-      <c r="AD23" s="120"/>
-      <c r="AE23" s="121"/>
-      <c r="AF23" s="119" t="s">
+      <c r="AC23" s="105"/>
+      <c r="AD23" s="105"/>
+      <c r="AE23" s="106"/>
+      <c r="AF23" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="AG23" s="120"/>
-      <c r="AH23" s="120"/>
-      <c r="AI23" s="120"/>
-      <c r="AJ23" s="120"/>
-      <c r="AK23" s="120"/>
-      <c r="AL23" s="120"/>
+      <c r="AG23" s="105"/>
+      <c r="AH23" s="105"/>
+      <c r="AI23" s="105"/>
+      <c r="AJ23" s="105"/>
+      <c r="AK23" s="105"/>
+      <c r="AL23" s="105"/>
       <c r="AM23" s="82"/>
-      <c r="AN23" s="119" t="s">
+      <c r="AN23" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="AO23" s="120"/>
-      <c r="AP23" s="120"/>
-      <c r="AQ23" s="120"/>
-      <c r="AR23" s="120"/>
-      <c r="AS23" s="120"/>
-      <c r="AT23" s="121"/>
-      <c r="AU23" s="119" t="s">
+      <c r="AO23" s="105"/>
+      <c r="AP23" s="105"/>
+      <c r="AQ23" s="105"/>
+      <c r="AR23" s="105"/>
+      <c r="AS23" s="105"/>
+      <c r="AT23" s="106"/>
+      <c r="AU23" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="AV23" s="120"/>
-      <c r="AW23" s="120"/>
-      <c r="AX23" s="120"/>
-      <c r="AY23" s="120"/>
-      <c r="AZ23" s="121"/>
-      <c r="BA23" s="125" t="s">
+      <c r="AV23" s="105"/>
+      <c r="AW23" s="105"/>
+      <c r="AX23" s="105"/>
+      <c r="AY23" s="105"/>
+      <c r="AZ23" s="106"/>
+      <c r="BA23" s="151" t="s">
         <v>108</v>
       </c>
       <c r="BB23" s="64"/>
@@ -8226,54 +8233,54 @@
     <row r="24" spans="4:55">
       <c r="D24" s="68"/>
       <c r="E24" s="63"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="123"/>
-      <c r="M24" s="123"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="124"/>
-      <c r="Q24" s="122"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="123"/>
-      <c r="T24" s="123"/>
-      <c r="U24" s="123"/>
-      <c r="V24" s="123"/>
-      <c r="W24" s="124"/>
-      <c r="X24" s="122"/>
-      <c r="Y24" s="123"/>
-      <c r="Z24" s="123"/>
-      <c r="AA24" s="124"/>
-      <c r="AB24" s="122"/>
-      <c r="AC24" s="123"/>
-      <c r="AD24" s="123"/>
-      <c r="AE24" s="124"/>
-      <c r="AF24" s="122"/>
-      <c r="AG24" s="123"/>
-      <c r="AH24" s="123"/>
-      <c r="AI24" s="123"/>
-      <c r="AJ24" s="123"/>
-      <c r="AK24" s="123"/>
-      <c r="AL24" s="123"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="109"/>
+      <c r="Q24" s="107"/>
+      <c r="R24" s="108"/>
+      <c r="S24" s="108"/>
+      <c r="T24" s="108"/>
+      <c r="U24" s="108"/>
+      <c r="V24" s="108"/>
+      <c r="W24" s="109"/>
+      <c r="X24" s="107"/>
+      <c r="Y24" s="108"/>
+      <c r="Z24" s="108"/>
+      <c r="AA24" s="109"/>
+      <c r="AB24" s="107"/>
+      <c r="AC24" s="108"/>
+      <c r="AD24" s="108"/>
+      <c r="AE24" s="109"/>
+      <c r="AF24" s="107"/>
+      <c r="AG24" s="108"/>
+      <c r="AH24" s="108"/>
+      <c r="AI24" s="108"/>
+      <c r="AJ24" s="108"/>
+      <c r="AK24" s="108"/>
+      <c r="AL24" s="108"/>
       <c r="AM24" s="75"/>
-      <c r="AN24" s="122"/>
-      <c r="AO24" s="123"/>
-      <c r="AP24" s="123"/>
-      <c r="AQ24" s="123"/>
-      <c r="AR24" s="123"/>
-      <c r="AS24" s="123"/>
-      <c r="AT24" s="124"/>
-      <c r="AU24" s="122"/>
-      <c r="AV24" s="123"/>
-      <c r="AW24" s="123"/>
-      <c r="AX24" s="123"/>
-      <c r="AY24" s="123"/>
-      <c r="AZ24" s="124"/>
-      <c r="BA24" s="126"/>
+      <c r="AN24" s="107"/>
+      <c r="AO24" s="108"/>
+      <c r="AP24" s="108"/>
+      <c r="AQ24" s="108"/>
+      <c r="AR24" s="108"/>
+      <c r="AS24" s="108"/>
+      <c r="AT24" s="109"/>
+      <c r="AU24" s="107"/>
+      <c r="AV24" s="108"/>
+      <c r="AW24" s="108"/>
+      <c r="AX24" s="108"/>
+      <c r="AY24" s="108"/>
+      <c r="AZ24" s="109"/>
+      <c r="BA24" s="152"/>
       <c r="BB24" s="64"/>
       <c r="BC24" s="69"/>
     </row>
@@ -9038,13 +9045,13 @@
       <c r="BC38" s="72"/>
     </row>
     <row r="41" spans="3:56">
-      <c r="C41" s="146" t="s">
+      <c r="C41" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="146"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="146"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
+      <c r="G41" s="124"/>
     </row>
     <row r="42" spans="3:56">
       <c r="C42" s="33"/>
@@ -9053,79 +9060,79 @@
       <c r="C43" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96" t="s">
+      <c r="D43" s="99"/>
+      <c r="E43" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96" t="s">
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="99"/>
+      <c r="N43" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="O43" s="96"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="96" t="s">
+      <c r="O43" s="99"/>
+      <c r="P43" s="99"/>
+      <c r="Q43" s="99"/>
+      <c r="R43" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="S43" s="96"/>
-      <c r="T43" s="96"/>
-      <c r="U43" s="96" t="s">
+      <c r="S43" s="99"/>
+      <c r="T43" s="99"/>
+      <c r="U43" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="V43" s="96"/>
-      <c r="W43" s="96"/>
-      <c r="X43" s="96" t="s">
+      <c r="V43" s="99"/>
+      <c r="W43" s="99"/>
+      <c r="X43" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="Y43" s="96"/>
-      <c r="Z43" s="96"/>
-      <c r="AA43" s="96"/>
-      <c r="AB43" s="96"/>
-      <c r="AC43" s="96"/>
-      <c r="AD43" s="96"/>
-      <c r="AE43" s="96" t="s">
+      <c r="Y43" s="99"/>
+      <c r="Z43" s="99"/>
+      <c r="AA43" s="99"/>
+      <c r="AB43" s="99"/>
+      <c r="AC43" s="99"/>
+      <c r="AD43" s="99"/>
+      <c r="AE43" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="AF43" s="96"/>
-      <c r="AG43" s="96"/>
-      <c r="AH43" s="96"/>
-      <c r="AI43" s="96"/>
-      <c r="AJ43" s="96" t="s">
+      <c r="AF43" s="99"/>
+      <c r="AG43" s="99"/>
+      <c r="AH43" s="99"/>
+      <c r="AI43" s="99"/>
+      <c r="AJ43" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="AK43" s="96"/>
-      <c r="AL43" s="96"/>
-      <c r="AM43" s="96"/>
-      <c r="AN43" s="96" t="s">
+      <c r="AK43" s="99"/>
+      <c r="AL43" s="99"/>
+      <c r="AM43" s="99"/>
+      <c r="AN43" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="AO43" s="96"/>
-      <c r="AP43" s="96"/>
-      <c r="AQ43" s="96" t="s">
+      <c r="AO43" s="99"/>
+      <c r="AP43" s="99"/>
+      <c r="AQ43" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="AR43" s="96"/>
-      <c r="AS43" s="96"/>
-      <c r="AT43" s="96"/>
-      <c r="AU43" s="96"/>
-      <c r="AV43" s="96"/>
-      <c r="AW43" s="96" t="s">
+      <c r="AR43" s="99"/>
+      <c r="AS43" s="99"/>
+      <c r="AT43" s="99"/>
+      <c r="AU43" s="99"/>
+      <c r="AV43" s="99"/>
+      <c r="AW43" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AX43" s="96"/>
-      <c r="AY43" s="96"/>
-      <c r="AZ43" s="96"/>
-      <c r="BA43" s="96"/>
-      <c r="BB43" s="96"/>
-      <c r="BC43" s="96"/>
-      <c r="BD43" s="97"/>
+      <c r="AX43" s="99"/>
+      <c r="AY43" s="99"/>
+      <c r="AZ43" s="99"/>
+      <c r="BA43" s="99"/>
+      <c r="BB43" s="99"/>
+      <c r="BC43" s="99"/>
+      <c r="BD43" s="100"/>
     </row>
     <row r="44" spans="3:56">
       <c r="C44" s="35"/>
@@ -9336,14 +9343,14 @@
         <v>55</v>
       </c>
       <c r="AP46" s="40"/>
-      <c r="AQ46" s="110" t="s">
+      <c r="AQ46" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="AR46" s="111"/>
-      <c r="AS46" s="111"/>
-      <c r="AT46" s="111"/>
-      <c r="AU46" s="111"/>
-      <c r="AV46" s="112"/>
+      <c r="AR46" s="126"/>
+      <c r="AS46" s="126"/>
+      <c r="AT46" s="126"/>
+      <c r="AU46" s="126"/>
+      <c r="AV46" s="127"/>
       <c r="AW46" s="41" t="s">
         <v>60</v>
       </c>
@@ -10672,132 +10679,132 @@
       <c r="BD66" s="47"/>
     </row>
     <row r="67" spans="3:56">
-      <c r="C67" s="146" t="s">
+      <c r="C67" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="146"/>
-      <c r="E67" s="146"/>
-      <c r="F67" s="146"/>
-      <c r="G67" s="146"/>
-      <c r="H67" s="146"/>
-      <c r="I67" s="146"/>
-      <c r="J67" s="146"/>
+      <c r="D67" s="124"/>
+      <c r="E67" s="124"/>
+      <c r="F67" s="124"/>
+      <c r="G67" s="124"/>
+      <c r="H67" s="124"/>
+      <c r="I67" s="124"/>
+      <c r="J67" s="124"/>
     </row>
     <row r="68" spans="3:56">
       <c r="C68" s="33"/>
     </row>
     <row r="69" spans="3:56" ht="15">
-      <c r="C69" s="95" t="s">
+      <c r="C69" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="93"/>
-      <c r="E69" s="93" t="s">
+      <c r="D69" s="101"/>
+      <c r="E69" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="F69" s="93"/>
-      <c r="G69" s="93"/>
-      <c r="H69" s="93"/>
-      <c r="I69" s="93"/>
-      <c r="J69" s="93"/>
-      <c r="K69" s="93"/>
-      <c r="L69" s="93"/>
-      <c r="M69" s="93"/>
-      <c r="N69" s="93"/>
-      <c r="O69" s="93"/>
-      <c r="P69" s="93"/>
-      <c r="Q69" s="93"/>
-      <c r="R69" s="93" t="s">
+      <c r="F69" s="101"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="101"/>
+      <c r="I69" s="101"/>
+      <c r="J69" s="101"/>
+      <c r="K69" s="101"/>
+      <c r="L69" s="101"/>
+      <c r="M69" s="101"/>
+      <c r="N69" s="101"/>
+      <c r="O69" s="101"/>
+      <c r="P69" s="101"/>
+      <c r="Q69" s="101"/>
+      <c r="R69" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="S69" s="93"/>
-      <c r="T69" s="93"/>
-      <c r="U69" s="93"/>
-      <c r="V69" s="93"/>
-      <c r="W69" s="93"/>
-      <c r="X69" s="93" t="s">
+      <c r="S69" s="101"/>
+      <c r="T69" s="101"/>
+      <c r="U69" s="101"/>
+      <c r="V69" s="101"/>
+      <c r="W69" s="101"/>
+      <c r="X69" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="Y69" s="93"/>
-      <c r="Z69" s="93"/>
-      <c r="AA69" s="93"/>
-      <c r="AB69" s="93"/>
-      <c r="AC69" s="93"/>
-      <c r="AD69" s="93"/>
-      <c r="AE69" s="93" t="s">
+      <c r="Y69" s="101"/>
+      <c r="Z69" s="101"/>
+      <c r="AA69" s="101"/>
+      <c r="AB69" s="101"/>
+      <c r="AC69" s="101"/>
+      <c r="AD69" s="101"/>
+      <c r="AE69" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="AF69" s="93"/>
-      <c r="AG69" s="93"/>
-      <c r="AH69" s="93"/>
-      <c r="AI69" s="93"/>
-      <c r="AJ69" s="93"/>
-      <c r="AK69" s="93"/>
-      <c r="AL69" s="93" t="s">
+      <c r="AF69" s="101"/>
+      <c r="AG69" s="101"/>
+      <c r="AH69" s="101"/>
+      <c r="AI69" s="101"/>
+      <c r="AJ69" s="101"/>
+      <c r="AK69" s="101"/>
+      <c r="AL69" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="AM69" s="93"/>
-      <c r="AN69" s="93"/>
-      <c r="AO69" s="93"/>
-      <c r="AP69" s="93"/>
-      <c r="AQ69" s="93"/>
-      <c r="AR69" s="93"/>
-      <c r="AS69" s="93"/>
-      <c r="AT69" s="93"/>
-      <c r="AU69" s="93"/>
-      <c r="AV69" s="93"/>
-      <c r="AW69" s="93"/>
-      <c r="AX69" s="93"/>
-      <c r="AY69" s="93"/>
-      <c r="AZ69" s="93"/>
-      <c r="BA69" s="93"/>
-      <c r="BB69" s="93"/>
-      <c r="BC69" s="93"/>
-      <c r="BD69" s="94"/>
+      <c r="AM69" s="101"/>
+      <c r="AN69" s="101"/>
+      <c r="AO69" s="101"/>
+      <c r="AP69" s="101"/>
+      <c r="AQ69" s="101"/>
+      <c r="AR69" s="101"/>
+      <c r="AS69" s="101"/>
+      <c r="AT69" s="101"/>
+      <c r="AU69" s="101"/>
+      <c r="AV69" s="101"/>
+      <c r="AW69" s="101"/>
+      <c r="AX69" s="101"/>
+      <c r="AY69" s="101"/>
+      <c r="AZ69" s="101"/>
+      <c r="BA69" s="101"/>
+      <c r="BB69" s="101"/>
+      <c r="BC69" s="101"/>
+      <c r="BD69" s="102"/>
     </row>
     <row r="70" spans="3:56" ht="15" customHeight="1">
       <c r="C70" s="48"/>
       <c r="D70" s="39">
         <v>1</v>
       </c>
-      <c r="E70" s="113" t="s">
+      <c r="E70" s="153" t="s">
         <v>111</v>
       </c>
-      <c r="F70" s="114"/>
-      <c r="G70" s="114"/>
-      <c r="H70" s="114"/>
-      <c r="I70" s="114"/>
-      <c r="J70" s="114"/>
-      <c r="K70" s="114"/>
-      <c r="L70" s="114"/>
-      <c r="M70" s="114"/>
-      <c r="N70" s="114"/>
-      <c r="O70" s="114"/>
-      <c r="P70" s="114"/>
-      <c r="Q70" s="115"/>
+      <c r="F70" s="154"/>
+      <c r="G70" s="154"/>
+      <c r="H70" s="154"/>
+      <c r="I70" s="154"/>
+      <c r="J70" s="154"/>
+      <c r="K70" s="154"/>
+      <c r="L70" s="154"/>
+      <c r="M70" s="154"/>
+      <c r="N70" s="154"/>
+      <c r="O70" s="154"/>
+      <c r="P70" s="154"/>
+      <c r="Q70" s="155"/>
       <c r="R70" s="36"/>
       <c r="S70" s="36"/>
       <c r="T70" s="36"/>
       <c r="U70" s="36"/>
       <c r="V70" s="36"/>
       <c r="W70" s="39"/>
-      <c r="X70" s="116" t="s">
+      <c r="X70" s="156" t="s">
         <v>112</v>
       </c>
-      <c r="Y70" s="117"/>
-      <c r="Z70" s="117"/>
-      <c r="AA70" s="117"/>
-      <c r="AB70" s="117"/>
-      <c r="AC70" s="117"/>
-      <c r="AD70" s="118"/>
-      <c r="AE70" s="113" t="s">
+      <c r="Y70" s="157"/>
+      <c r="Z70" s="157"/>
+      <c r="AA70" s="157"/>
+      <c r="AB70" s="157"/>
+      <c r="AC70" s="157"/>
+      <c r="AD70" s="158"/>
+      <c r="AE70" s="153" t="s">
         <v>113</v>
       </c>
-      <c r="AF70" s="114"/>
-      <c r="AG70" s="114"/>
-      <c r="AH70" s="114"/>
-      <c r="AI70" s="114"/>
-      <c r="AJ70" s="114"/>
-      <c r="AK70" s="115"/>
+      <c r="AF70" s="154"/>
+      <c r="AG70" s="154"/>
+      <c r="AH70" s="154"/>
+      <c r="AI70" s="154"/>
+      <c r="AJ70" s="154"/>
+      <c r="AK70" s="155"/>
       <c r="AL70" s="36"/>
       <c r="AM70" s="36"/>
       <c r="AN70" s="36"/>
@@ -10823,45 +10830,45 @@
       <c r="D71" s="43">
         <v>2</v>
       </c>
-      <c r="E71" s="107" t="s">
+      <c r="E71" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="F71" s="108"/>
-      <c r="G71" s="108"/>
-      <c r="H71" s="108"/>
-      <c r="I71" s="108"/>
-      <c r="J71" s="108"/>
-      <c r="K71" s="108"/>
-      <c r="L71" s="108"/>
-      <c r="M71" s="108"/>
-      <c r="N71" s="108"/>
-      <c r="O71" s="108"/>
-      <c r="P71" s="108"/>
-      <c r="Q71" s="109"/>
+      <c r="F71" s="160"/>
+      <c r="G71" s="160"/>
+      <c r="H71" s="160"/>
+      <c r="I71" s="160"/>
+      <c r="J71" s="160"/>
+      <c r="K71" s="160"/>
+      <c r="L71" s="160"/>
+      <c r="M71" s="160"/>
+      <c r="N71" s="160"/>
+      <c r="O71" s="160"/>
+      <c r="P71" s="160"/>
+      <c r="Q71" s="161"/>
       <c r="R71" s="40"/>
       <c r="S71" s="40"/>
       <c r="T71" s="40"/>
       <c r="U71" s="40"/>
       <c r="V71" s="40"/>
       <c r="W71" s="43"/>
-      <c r="X71" s="110" t="s">
+      <c r="X71" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="Y71" s="111"/>
-      <c r="Z71" s="111"/>
-      <c r="AA71" s="111"/>
-      <c r="AB71" s="111"/>
-      <c r="AC71" s="111"/>
-      <c r="AD71" s="112"/>
-      <c r="AE71" s="107" t="s">
+      <c r="Y71" s="126"/>
+      <c r="Z71" s="126"/>
+      <c r="AA71" s="126"/>
+      <c r="AB71" s="126"/>
+      <c r="AC71" s="126"/>
+      <c r="AD71" s="127"/>
+      <c r="AE71" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="AF71" s="108"/>
-      <c r="AG71" s="108"/>
-      <c r="AH71" s="108"/>
-      <c r="AI71" s="108"/>
-      <c r="AJ71" s="108"/>
-      <c r="AK71" s="109"/>
+      <c r="AF71" s="160"/>
+      <c r="AG71" s="160"/>
+      <c r="AH71" s="160"/>
+      <c r="AI71" s="160"/>
+      <c r="AJ71" s="160"/>
+      <c r="AK71" s="161"/>
       <c r="AL71" s="40"/>
       <c r="AM71" s="40"/>
       <c r="AN71" s="40"/>
@@ -10887,45 +10894,45 @@
       <c r="D72" s="43">
         <v>3</v>
       </c>
-      <c r="E72" s="107" t="s">
+      <c r="E72" s="159" t="s">
         <v>115</v>
       </c>
-      <c r="F72" s="108"/>
-      <c r="G72" s="108"/>
-      <c r="H72" s="108"/>
-      <c r="I72" s="108"/>
-      <c r="J72" s="108"/>
-      <c r="K72" s="108"/>
-      <c r="L72" s="108"/>
-      <c r="M72" s="108"/>
-      <c r="N72" s="108"/>
-      <c r="O72" s="108"/>
-      <c r="P72" s="108"/>
-      <c r="Q72" s="109"/>
+      <c r="F72" s="160"/>
+      <c r="G72" s="160"/>
+      <c r="H72" s="160"/>
+      <c r="I72" s="160"/>
+      <c r="J72" s="160"/>
+      <c r="K72" s="160"/>
+      <c r="L72" s="160"/>
+      <c r="M72" s="160"/>
+      <c r="N72" s="160"/>
+      <c r="O72" s="160"/>
+      <c r="P72" s="160"/>
+      <c r="Q72" s="161"/>
       <c r="R72" s="40"/>
       <c r="S72" s="40"/>
       <c r="T72" s="40"/>
       <c r="U72" s="40"/>
       <c r="V72" s="40"/>
       <c r="W72" s="43"/>
-      <c r="X72" s="110" t="s">
+      <c r="X72" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="Y72" s="111"/>
-      <c r="Z72" s="111"/>
-      <c r="AA72" s="111"/>
-      <c r="AB72" s="111"/>
-      <c r="AC72" s="111"/>
-      <c r="AD72" s="112"/>
-      <c r="AE72" s="107" t="s">
+      <c r="Y72" s="126"/>
+      <c r="Z72" s="126"/>
+      <c r="AA72" s="126"/>
+      <c r="AB72" s="126"/>
+      <c r="AC72" s="126"/>
+      <c r="AD72" s="127"/>
+      <c r="AE72" s="159" t="s">
         <v>116</v>
       </c>
-      <c r="AF72" s="108"/>
-      <c r="AG72" s="108"/>
-      <c r="AH72" s="108"/>
-      <c r="AI72" s="108"/>
-      <c r="AJ72" s="108"/>
-      <c r="AK72" s="109"/>
+      <c r="AF72" s="160"/>
+      <c r="AG72" s="160"/>
+      <c r="AH72" s="160"/>
+      <c r="AI72" s="160"/>
+      <c r="AJ72" s="160"/>
+      <c r="AK72" s="161"/>
       <c r="AL72" s="40"/>
       <c r="AM72" s="40"/>
       <c r="AN72" s="40"/>
@@ -11624,68 +11631,68 @@
       </c>
     </row>
     <row r="88" spans="3:56" ht="15">
-      <c r="C88" s="95" t="s">
+      <c r="C88" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="D88" s="93"/>
-      <c r="E88" s="93" t="s">
+      <c r="D88" s="101"/>
+      <c r="E88" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="F88" s="93"/>
-      <c r="G88" s="93"/>
-      <c r="H88" s="93"/>
-      <c r="I88" s="93"/>
-      <c r="J88" s="93"/>
-      <c r="K88" s="93"/>
-      <c r="L88" s="93"/>
-      <c r="M88" s="93"/>
-      <c r="N88" s="93"/>
-      <c r="O88" s="93"/>
-      <c r="P88" s="93"/>
-      <c r="Q88" s="93"/>
-      <c r="R88" s="93" t="s">
+      <c r="F88" s="101"/>
+      <c r="G88" s="101"/>
+      <c r="H88" s="101"/>
+      <c r="I88" s="101"/>
+      <c r="J88" s="101"/>
+      <c r="K88" s="101"/>
+      <c r="L88" s="101"/>
+      <c r="M88" s="101"/>
+      <c r="N88" s="101"/>
+      <c r="O88" s="101"/>
+      <c r="P88" s="101"/>
+      <c r="Q88" s="101"/>
+      <c r="R88" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="S88" s="93"/>
-      <c r="T88" s="93"/>
-      <c r="U88" s="93"/>
-      <c r="V88" s="93"/>
-      <c r="W88" s="93"/>
-      <c r="X88" s="93" t="s">
+      <c r="S88" s="101"/>
+      <c r="T88" s="101"/>
+      <c r="U88" s="101"/>
+      <c r="V88" s="101"/>
+      <c r="W88" s="101"/>
+      <c r="X88" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="Y88" s="93"/>
-      <c r="Z88" s="93"/>
-      <c r="AA88" s="93"/>
-      <c r="AB88" s="93"/>
-      <c r="AC88" s="93"/>
-      <c r="AD88" s="93"/>
-      <c r="AE88" s="93"/>
-      <c r="AF88" s="93"/>
-      <c r="AG88" s="93"/>
-      <c r="AH88" s="93"/>
-      <c r="AI88" s="93"/>
-      <c r="AJ88" s="93"/>
-      <c r="AK88" s="93"/>
-      <c r="AL88" s="93"/>
-      <c r="AM88" s="93"/>
-      <c r="AN88" s="93"/>
-      <c r="AO88" s="93"/>
-      <c r="AP88" s="93"/>
-      <c r="AQ88" s="93"/>
-      <c r="AR88" s="93"/>
-      <c r="AS88" s="93"/>
-      <c r="AT88" s="93"/>
-      <c r="AU88" s="93"/>
-      <c r="AV88" s="93"/>
-      <c r="AW88" s="93"/>
-      <c r="AX88" s="93"/>
-      <c r="AY88" s="93"/>
-      <c r="AZ88" s="93"/>
-      <c r="BA88" s="93"/>
-      <c r="BB88" s="93"/>
-      <c r="BC88" s="93"/>
-      <c r="BD88" s="94"/>
+      <c r="Y88" s="101"/>
+      <c r="Z88" s="101"/>
+      <c r="AA88" s="101"/>
+      <c r="AB88" s="101"/>
+      <c r="AC88" s="101"/>
+      <c r="AD88" s="101"/>
+      <c r="AE88" s="101"/>
+      <c r="AF88" s="101"/>
+      <c r="AG88" s="101"/>
+      <c r="AH88" s="101"/>
+      <c r="AI88" s="101"/>
+      <c r="AJ88" s="101"/>
+      <c r="AK88" s="101"/>
+      <c r="AL88" s="101"/>
+      <c r="AM88" s="101"/>
+      <c r="AN88" s="101"/>
+      <c r="AO88" s="101"/>
+      <c r="AP88" s="101"/>
+      <c r="AQ88" s="101"/>
+      <c r="AR88" s="101"/>
+      <c r="AS88" s="101"/>
+      <c r="AT88" s="101"/>
+      <c r="AU88" s="101"/>
+      <c r="AV88" s="101"/>
+      <c r="AW88" s="101"/>
+      <c r="AX88" s="101"/>
+      <c r="AY88" s="101"/>
+      <c r="AZ88" s="101"/>
+      <c r="BA88" s="101"/>
+      <c r="BB88" s="101"/>
+      <c r="BC88" s="101"/>
+      <c r="BD88" s="102"/>
     </row>
     <row r="89" spans="3:56" ht="15" customHeight="1">
       <c r="C89" s="35"/>
@@ -11715,41 +11722,41 @@
       <c r="U89" s="36"/>
       <c r="V89" s="36"/>
       <c r="W89" s="39"/>
-      <c r="X89" s="113" t="s">
+      <c r="X89" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="Y89" s="114"/>
-      <c r="Z89" s="114"/>
-      <c r="AA89" s="114"/>
-      <c r="AB89" s="114"/>
-      <c r="AC89" s="114"/>
-      <c r="AD89" s="114"/>
-      <c r="AE89" s="114"/>
-      <c r="AF89" s="114"/>
-      <c r="AG89" s="114"/>
-      <c r="AH89" s="114"/>
-      <c r="AI89" s="114"/>
-      <c r="AJ89" s="114"/>
-      <c r="AK89" s="114"/>
-      <c r="AL89" s="114"/>
-      <c r="AM89" s="114"/>
-      <c r="AN89" s="114"/>
-      <c r="AO89" s="114"/>
-      <c r="AP89" s="114"/>
-      <c r="AQ89" s="114"/>
-      <c r="AR89" s="114"/>
-      <c r="AS89" s="114"/>
-      <c r="AT89" s="114"/>
-      <c r="AU89" s="114"/>
-      <c r="AV89" s="114"/>
-      <c r="AW89" s="114"/>
-      <c r="AX89" s="114"/>
-      <c r="AY89" s="114"/>
-      <c r="AZ89" s="114"/>
-      <c r="BA89" s="114"/>
-      <c r="BB89" s="114"/>
-      <c r="BC89" s="114"/>
-      <c r="BD89" s="115"/>
+      <c r="Y89" s="154"/>
+      <c r="Z89" s="154"/>
+      <c r="AA89" s="154"/>
+      <c r="AB89" s="154"/>
+      <c r="AC89" s="154"/>
+      <c r="AD89" s="154"/>
+      <c r="AE89" s="154"/>
+      <c r="AF89" s="154"/>
+      <c r="AG89" s="154"/>
+      <c r="AH89" s="154"/>
+      <c r="AI89" s="154"/>
+      <c r="AJ89" s="154"/>
+      <c r="AK89" s="154"/>
+      <c r="AL89" s="154"/>
+      <c r="AM89" s="154"/>
+      <c r="AN89" s="154"/>
+      <c r="AO89" s="154"/>
+      <c r="AP89" s="154"/>
+      <c r="AQ89" s="154"/>
+      <c r="AR89" s="154"/>
+      <c r="AS89" s="154"/>
+      <c r="AT89" s="154"/>
+      <c r="AU89" s="154"/>
+      <c r="AV89" s="154"/>
+      <c r="AW89" s="154"/>
+      <c r="AX89" s="154"/>
+      <c r="AY89" s="154"/>
+      <c r="AZ89" s="154"/>
+      <c r="BA89" s="154"/>
+      <c r="BB89" s="154"/>
+      <c r="BC89" s="154"/>
+      <c r="BD89" s="155"/>
     </row>
     <row r="90" spans="3:56" ht="15" customHeight="1">
       <c r="C90" s="41"/>
@@ -11779,41 +11786,41 @@
       <c r="U90" s="40"/>
       <c r="V90" s="40"/>
       <c r="W90" s="43"/>
-      <c r="X90" s="107" t="s">
+      <c r="X90" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="Y90" s="108"/>
-      <c r="Z90" s="108"/>
-      <c r="AA90" s="108"/>
-      <c r="AB90" s="108"/>
-      <c r="AC90" s="108"/>
-      <c r="AD90" s="108"/>
-      <c r="AE90" s="108"/>
-      <c r="AF90" s="108"/>
-      <c r="AG90" s="108"/>
-      <c r="AH90" s="108"/>
-      <c r="AI90" s="108"/>
-      <c r="AJ90" s="108"/>
-      <c r="AK90" s="108"/>
-      <c r="AL90" s="108"/>
-      <c r="AM90" s="108"/>
-      <c r="AN90" s="108"/>
-      <c r="AO90" s="108"/>
-      <c r="AP90" s="108"/>
-      <c r="AQ90" s="108"/>
-      <c r="AR90" s="108"/>
-      <c r="AS90" s="108"/>
-      <c r="AT90" s="108"/>
-      <c r="AU90" s="108"/>
-      <c r="AV90" s="108"/>
-      <c r="AW90" s="108"/>
-      <c r="AX90" s="108"/>
-      <c r="AY90" s="108"/>
-      <c r="AZ90" s="108"/>
-      <c r="BA90" s="108"/>
-      <c r="BB90" s="108"/>
-      <c r="BC90" s="108"/>
-      <c r="BD90" s="109"/>
+      <c r="Y90" s="160"/>
+      <c r="Z90" s="160"/>
+      <c r="AA90" s="160"/>
+      <c r="AB90" s="160"/>
+      <c r="AC90" s="160"/>
+      <c r="AD90" s="160"/>
+      <c r="AE90" s="160"/>
+      <c r="AF90" s="160"/>
+      <c r="AG90" s="160"/>
+      <c r="AH90" s="160"/>
+      <c r="AI90" s="160"/>
+      <c r="AJ90" s="160"/>
+      <c r="AK90" s="160"/>
+      <c r="AL90" s="160"/>
+      <c r="AM90" s="160"/>
+      <c r="AN90" s="160"/>
+      <c r="AO90" s="160"/>
+      <c r="AP90" s="160"/>
+      <c r="AQ90" s="160"/>
+      <c r="AR90" s="160"/>
+      <c r="AS90" s="160"/>
+      <c r="AT90" s="160"/>
+      <c r="AU90" s="160"/>
+      <c r="AV90" s="160"/>
+      <c r="AW90" s="160"/>
+      <c r="AX90" s="160"/>
+      <c r="AY90" s="160"/>
+      <c r="AZ90" s="160"/>
+      <c r="BA90" s="160"/>
+      <c r="BB90" s="160"/>
+      <c r="BC90" s="160"/>
+      <c r="BD90" s="161"/>
     </row>
     <row r="91" spans="3:56" ht="15" customHeight="1">
       <c r="C91" s="41"/>
@@ -11843,41 +11850,41 @@
       <c r="U91" s="40"/>
       <c r="V91" s="40"/>
       <c r="W91" s="43"/>
-      <c r="X91" s="107" t="s">
+      <c r="X91" s="159" t="s">
         <v>122</v>
       </c>
-      <c r="Y91" s="108"/>
-      <c r="Z91" s="108"/>
-      <c r="AA91" s="108"/>
-      <c r="AB91" s="108"/>
-      <c r="AC91" s="108"/>
-      <c r="AD91" s="108"/>
-      <c r="AE91" s="108"/>
-      <c r="AF91" s="108"/>
-      <c r="AG91" s="108"/>
-      <c r="AH91" s="108"/>
-      <c r="AI91" s="108"/>
-      <c r="AJ91" s="108"/>
-      <c r="AK91" s="108"/>
-      <c r="AL91" s="108"/>
-      <c r="AM91" s="108"/>
-      <c r="AN91" s="108"/>
-      <c r="AO91" s="108"/>
-      <c r="AP91" s="108"/>
-      <c r="AQ91" s="108"/>
-      <c r="AR91" s="108"/>
-      <c r="AS91" s="108"/>
-      <c r="AT91" s="108"/>
-      <c r="AU91" s="108"/>
-      <c r="AV91" s="108"/>
-      <c r="AW91" s="108"/>
-      <c r="AX91" s="108"/>
-      <c r="AY91" s="108"/>
-      <c r="AZ91" s="108"/>
-      <c r="BA91" s="108"/>
-      <c r="BB91" s="108"/>
-      <c r="BC91" s="108"/>
-      <c r="BD91" s="109"/>
+      <c r="Y91" s="160"/>
+      <c r="Z91" s="160"/>
+      <c r="AA91" s="160"/>
+      <c r="AB91" s="160"/>
+      <c r="AC91" s="160"/>
+      <c r="AD91" s="160"/>
+      <c r="AE91" s="160"/>
+      <c r="AF91" s="160"/>
+      <c r="AG91" s="160"/>
+      <c r="AH91" s="160"/>
+      <c r="AI91" s="160"/>
+      <c r="AJ91" s="160"/>
+      <c r="AK91" s="160"/>
+      <c r="AL91" s="160"/>
+      <c r="AM91" s="160"/>
+      <c r="AN91" s="160"/>
+      <c r="AO91" s="160"/>
+      <c r="AP91" s="160"/>
+      <c r="AQ91" s="160"/>
+      <c r="AR91" s="160"/>
+      <c r="AS91" s="160"/>
+      <c r="AT91" s="160"/>
+      <c r="AU91" s="160"/>
+      <c r="AV91" s="160"/>
+      <c r="AW91" s="160"/>
+      <c r="AX91" s="160"/>
+      <c r="AY91" s="160"/>
+      <c r="AZ91" s="160"/>
+      <c r="BA91" s="160"/>
+      <c r="BB91" s="160"/>
+      <c r="BC91" s="160"/>
+      <c r="BD91" s="161"/>
     </row>
     <row r="92" spans="3:56" ht="15" customHeight="1">
       <c r="C92" s="41"/>
@@ -11907,41 +11914,41 @@
       <c r="U92" s="40"/>
       <c r="V92" s="40"/>
       <c r="W92" s="43"/>
-      <c r="X92" s="107" t="s">
+      <c r="X92" s="159" t="s">
         <v>123</v>
       </c>
-      <c r="Y92" s="108"/>
-      <c r="Z92" s="108"/>
-      <c r="AA92" s="108"/>
-      <c r="AB92" s="108"/>
-      <c r="AC92" s="108"/>
-      <c r="AD92" s="108"/>
-      <c r="AE92" s="108"/>
-      <c r="AF92" s="108"/>
-      <c r="AG92" s="108"/>
-      <c r="AH92" s="108"/>
-      <c r="AI92" s="108"/>
-      <c r="AJ92" s="108"/>
-      <c r="AK92" s="108"/>
-      <c r="AL92" s="108"/>
-      <c r="AM92" s="108"/>
-      <c r="AN92" s="108"/>
-      <c r="AO92" s="108"/>
-      <c r="AP92" s="108"/>
-      <c r="AQ92" s="108"/>
-      <c r="AR92" s="108"/>
-      <c r="AS92" s="108"/>
-      <c r="AT92" s="108"/>
-      <c r="AU92" s="108"/>
-      <c r="AV92" s="108"/>
-      <c r="AW92" s="108"/>
-      <c r="AX92" s="108"/>
-      <c r="AY92" s="108"/>
-      <c r="AZ92" s="108"/>
-      <c r="BA92" s="108"/>
-      <c r="BB92" s="108"/>
-      <c r="BC92" s="108"/>
-      <c r="BD92" s="109"/>
+      <c r="Y92" s="160"/>
+      <c r="Z92" s="160"/>
+      <c r="AA92" s="160"/>
+      <c r="AB92" s="160"/>
+      <c r="AC92" s="160"/>
+      <c r="AD92" s="160"/>
+      <c r="AE92" s="160"/>
+      <c r="AF92" s="160"/>
+      <c r="AG92" s="160"/>
+      <c r="AH92" s="160"/>
+      <c r="AI92" s="160"/>
+      <c r="AJ92" s="160"/>
+      <c r="AK92" s="160"/>
+      <c r="AL92" s="160"/>
+      <c r="AM92" s="160"/>
+      <c r="AN92" s="160"/>
+      <c r="AO92" s="160"/>
+      <c r="AP92" s="160"/>
+      <c r="AQ92" s="160"/>
+      <c r="AR92" s="160"/>
+      <c r="AS92" s="160"/>
+      <c r="AT92" s="160"/>
+      <c r="AU92" s="160"/>
+      <c r="AV92" s="160"/>
+      <c r="AW92" s="160"/>
+      <c r="AX92" s="160"/>
+      <c r="AY92" s="160"/>
+      <c r="AZ92" s="160"/>
+      <c r="BA92" s="160"/>
+      <c r="BB92" s="160"/>
+      <c r="BC92" s="160"/>
+      <c r="BD92" s="161"/>
     </row>
     <row r="93" spans="3:56" ht="15" customHeight="1">
       <c r="C93" s="41"/>
@@ -11971,41 +11978,41 @@
       <c r="U93" s="40"/>
       <c r="V93" s="40"/>
       <c r="W93" s="43"/>
-      <c r="X93" s="104" t="s">
+      <c r="X93" s="162" t="s">
         <v>124</v>
       </c>
-      <c r="Y93" s="105"/>
-      <c r="Z93" s="105"/>
-      <c r="AA93" s="105"/>
-      <c r="AB93" s="105"/>
-      <c r="AC93" s="105"/>
-      <c r="AD93" s="105"/>
-      <c r="AE93" s="105"/>
-      <c r="AF93" s="105"/>
-      <c r="AG93" s="105"/>
-      <c r="AH93" s="105"/>
-      <c r="AI93" s="105"/>
-      <c r="AJ93" s="105"/>
-      <c r="AK93" s="105"/>
-      <c r="AL93" s="105"/>
-      <c r="AM93" s="105"/>
-      <c r="AN93" s="105"/>
-      <c r="AO93" s="105"/>
-      <c r="AP93" s="105"/>
-      <c r="AQ93" s="105"/>
-      <c r="AR93" s="105"/>
-      <c r="AS93" s="105"/>
-      <c r="AT93" s="105"/>
-      <c r="AU93" s="105"/>
-      <c r="AV93" s="105"/>
-      <c r="AW93" s="105"/>
-      <c r="AX93" s="105"/>
-      <c r="AY93" s="105"/>
-      <c r="AZ93" s="105"/>
-      <c r="BA93" s="105"/>
-      <c r="BB93" s="105"/>
-      <c r="BC93" s="105"/>
-      <c r="BD93" s="106"/>
+      <c r="Y93" s="163"/>
+      <c r="Z93" s="163"/>
+      <c r="AA93" s="163"/>
+      <c r="AB93" s="163"/>
+      <c r="AC93" s="163"/>
+      <c r="AD93" s="163"/>
+      <c r="AE93" s="163"/>
+      <c r="AF93" s="163"/>
+      <c r="AG93" s="163"/>
+      <c r="AH93" s="163"/>
+      <c r="AI93" s="163"/>
+      <c r="AJ93" s="163"/>
+      <c r="AK93" s="163"/>
+      <c r="AL93" s="163"/>
+      <c r="AM93" s="163"/>
+      <c r="AN93" s="163"/>
+      <c r="AO93" s="163"/>
+      <c r="AP93" s="163"/>
+      <c r="AQ93" s="163"/>
+      <c r="AR93" s="163"/>
+      <c r="AS93" s="163"/>
+      <c r="AT93" s="163"/>
+      <c r="AU93" s="163"/>
+      <c r="AV93" s="163"/>
+      <c r="AW93" s="163"/>
+      <c r="AX93" s="163"/>
+      <c r="AY93" s="163"/>
+      <c r="AZ93" s="163"/>
+      <c r="BA93" s="163"/>
+      <c r="BB93" s="163"/>
+      <c r="BC93" s="163"/>
+      <c r="BD93" s="164"/>
     </row>
     <row r="94" spans="3:56" ht="15" customHeight="1">
       <c r="C94" s="41"/>
@@ -12035,41 +12042,41 @@
       <c r="U94" s="40"/>
       <c r="V94" s="40"/>
       <c r="W94" s="43"/>
-      <c r="X94" s="104" t="s">
+      <c r="X94" s="162" t="s">
         <v>125</v>
       </c>
-      <c r="Y94" s="105"/>
-      <c r="Z94" s="105"/>
-      <c r="AA94" s="105"/>
-      <c r="AB94" s="105"/>
-      <c r="AC94" s="105"/>
-      <c r="AD94" s="105"/>
-      <c r="AE94" s="105"/>
-      <c r="AF94" s="105"/>
-      <c r="AG94" s="105"/>
-      <c r="AH94" s="105"/>
-      <c r="AI94" s="105"/>
-      <c r="AJ94" s="105"/>
-      <c r="AK94" s="105"/>
-      <c r="AL94" s="105"/>
-      <c r="AM94" s="105"/>
-      <c r="AN94" s="105"/>
-      <c r="AO94" s="105"/>
-      <c r="AP94" s="105"/>
-      <c r="AQ94" s="105"/>
-      <c r="AR94" s="105"/>
-      <c r="AS94" s="105"/>
-      <c r="AT94" s="105"/>
-      <c r="AU94" s="105"/>
-      <c r="AV94" s="105"/>
-      <c r="AW94" s="105"/>
-      <c r="AX94" s="105"/>
-      <c r="AY94" s="105"/>
-      <c r="AZ94" s="105"/>
-      <c r="BA94" s="105"/>
-      <c r="BB94" s="105"/>
-      <c r="BC94" s="105"/>
-      <c r="BD94" s="106"/>
+      <c r="Y94" s="163"/>
+      <c r="Z94" s="163"/>
+      <c r="AA94" s="163"/>
+      <c r="AB94" s="163"/>
+      <c r="AC94" s="163"/>
+      <c r="AD94" s="163"/>
+      <c r="AE94" s="163"/>
+      <c r="AF94" s="163"/>
+      <c r="AG94" s="163"/>
+      <c r="AH94" s="163"/>
+      <c r="AI94" s="163"/>
+      <c r="AJ94" s="163"/>
+      <c r="AK94" s="163"/>
+      <c r="AL94" s="163"/>
+      <c r="AM94" s="163"/>
+      <c r="AN94" s="163"/>
+      <c r="AO94" s="163"/>
+      <c r="AP94" s="163"/>
+      <c r="AQ94" s="163"/>
+      <c r="AR94" s="163"/>
+      <c r="AS94" s="163"/>
+      <c r="AT94" s="163"/>
+      <c r="AU94" s="163"/>
+      <c r="AV94" s="163"/>
+      <c r="AW94" s="163"/>
+      <c r="AX94" s="163"/>
+      <c r="AY94" s="163"/>
+      <c r="AZ94" s="163"/>
+      <c r="BA94" s="163"/>
+      <c r="BB94" s="163"/>
+      <c r="BC94" s="163"/>
+      <c r="BD94" s="164"/>
     </row>
     <row r="95" spans="3:56" ht="15" customHeight="1">
       <c r="C95" s="41"/>
@@ -12099,41 +12106,41 @@
       <c r="U95" s="40"/>
       <c r="V95" s="40"/>
       <c r="W95" s="43"/>
-      <c r="X95" s="107" t="s">
+      <c r="X95" s="159" t="s">
         <v>126</v>
       </c>
-      <c r="Y95" s="108"/>
-      <c r="Z95" s="108"/>
-      <c r="AA95" s="108"/>
-      <c r="AB95" s="108"/>
-      <c r="AC95" s="108"/>
-      <c r="AD95" s="108"/>
-      <c r="AE95" s="108"/>
-      <c r="AF95" s="108"/>
-      <c r="AG95" s="108"/>
-      <c r="AH95" s="108"/>
-      <c r="AI95" s="108"/>
-      <c r="AJ95" s="108"/>
-      <c r="AK95" s="108"/>
-      <c r="AL95" s="108"/>
-      <c r="AM95" s="108"/>
-      <c r="AN95" s="108"/>
-      <c r="AO95" s="108"/>
-      <c r="AP95" s="108"/>
-      <c r="AQ95" s="108"/>
-      <c r="AR95" s="108"/>
-      <c r="AS95" s="108"/>
-      <c r="AT95" s="108"/>
-      <c r="AU95" s="108"/>
-      <c r="AV95" s="108"/>
-      <c r="AW95" s="108"/>
-      <c r="AX95" s="108"/>
-      <c r="AY95" s="108"/>
-      <c r="AZ95" s="108"/>
-      <c r="BA95" s="108"/>
-      <c r="BB95" s="108"/>
-      <c r="BC95" s="108"/>
-      <c r="BD95" s="109"/>
+      <c r="Y95" s="160"/>
+      <c r="Z95" s="160"/>
+      <c r="AA95" s="160"/>
+      <c r="AB95" s="160"/>
+      <c r="AC95" s="160"/>
+      <c r="AD95" s="160"/>
+      <c r="AE95" s="160"/>
+      <c r="AF95" s="160"/>
+      <c r="AG95" s="160"/>
+      <c r="AH95" s="160"/>
+      <c r="AI95" s="160"/>
+      <c r="AJ95" s="160"/>
+      <c r="AK95" s="160"/>
+      <c r="AL95" s="160"/>
+      <c r="AM95" s="160"/>
+      <c r="AN95" s="160"/>
+      <c r="AO95" s="160"/>
+      <c r="AP95" s="160"/>
+      <c r="AQ95" s="160"/>
+      <c r="AR95" s="160"/>
+      <c r="AS95" s="160"/>
+      <c r="AT95" s="160"/>
+      <c r="AU95" s="160"/>
+      <c r="AV95" s="160"/>
+      <c r="AW95" s="160"/>
+      <c r="AX95" s="160"/>
+      <c r="AY95" s="160"/>
+      <c r="AZ95" s="160"/>
+      <c r="BA95" s="160"/>
+      <c r="BB95" s="160"/>
+      <c r="BC95" s="160"/>
+      <c r="BD95" s="161"/>
     </row>
     <row r="96" spans="3:56" ht="15" customHeight="1">
       <c r="C96" s="41"/>
@@ -12163,41 +12170,41 @@
       <c r="U96" s="40"/>
       <c r="V96" s="40"/>
       <c r="W96" s="43"/>
-      <c r="X96" s="104" t="s">
+      <c r="X96" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="Y96" s="105"/>
-      <c r="Z96" s="105"/>
-      <c r="AA96" s="105"/>
-      <c r="AB96" s="105"/>
-      <c r="AC96" s="105"/>
-      <c r="AD96" s="105"/>
-      <c r="AE96" s="105"/>
-      <c r="AF96" s="105"/>
-      <c r="AG96" s="105"/>
-      <c r="AH96" s="105"/>
-      <c r="AI96" s="105"/>
-      <c r="AJ96" s="105"/>
-      <c r="AK96" s="105"/>
-      <c r="AL96" s="105"/>
-      <c r="AM96" s="105"/>
-      <c r="AN96" s="105"/>
-      <c r="AO96" s="105"/>
-      <c r="AP96" s="105"/>
-      <c r="AQ96" s="105"/>
-      <c r="AR96" s="105"/>
-      <c r="AS96" s="105"/>
-      <c r="AT96" s="105"/>
-      <c r="AU96" s="105"/>
-      <c r="AV96" s="105"/>
-      <c r="AW96" s="105"/>
-      <c r="AX96" s="105"/>
-      <c r="AY96" s="105"/>
-      <c r="AZ96" s="105"/>
-      <c r="BA96" s="105"/>
-      <c r="BB96" s="105"/>
-      <c r="BC96" s="105"/>
-      <c r="BD96" s="106"/>
+      <c r="Y96" s="163"/>
+      <c r="Z96" s="163"/>
+      <c r="AA96" s="163"/>
+      <c r="AB96" s="163"/>
+      <c r="AC96" s="163"/>
+      <c r="AD96" s="163"/>
+      <c r="AE96" s="163"/>
+      <c r="AF96" s="163"/>
+      <c r="AG96" s="163"/>
+      <c r="AH96" s="163"/>
+      <c r="AI96" s="163"/>
+      <c r="AJ96" s="163"/>
+      <c r="AK96" s="163"/>
+      <c r="AL96" s="163"/>
+      <c r="AM96" s="163"/>
+      <c r="AN96" s="163"/>
+      <c r="AO96" s="163"/>
+      <c r="AP96" s="163"/>
+      <c r="AQ96" s="163"/>
+      <c r="AR96" s="163"/>
+      <c r="AS96" s="163"/>
+      <c r="AT96" s="163"/>
+      <c r="AU96" s="163"/>
+      <c r="AV96" s="163"/>
+      <c r="AW96" s="163"/>
+      <c r="AX96" s="163"/>
+      <c r="AY96" s="163"/>
+      <c r="AZ96" s="163"/>
+      <c r="BA96" s="163"/>
+      <c r="BB96" s="163"/>
+      <c r="BC96" s="163"/>
+      <c r="BD96" s="164"/>
     </row>
     <row r="97" spans="3:56" ht="15" customHeight="1">
       <c r="C97" s="41"/>
@@ -12227,41 +12234,41 @@
       <c r="U97" s="40"/>
       <c r="V97" s="40"/>
       <c r="W97" s="43"/>
-      <c r="X97" s="104" t="s">
+      <c r="X97" s="162" t="s">
         <v>129</v>
       </c>
-      <c r="Y97" s="105"/>
-      <c r="Z97" s="105"/>
-      <c r="AA97" s="105"/>
-      <c r="AB97" s="105"/>
-      <c r="AC97" s="105"/>
-      <c r="AD97" s="105"/>
-      <c r="AE97" s="105"/>
-      <c r="AF97" s="105"/>
-      <c r="AG97" s="105"/>
-      <c r="AH97" s="105"/>
-      <c r="AI97" s="105"/>
-      <c r="AJ97" s="105"/>
-      <c r="AK97" s="105"/>
-      <c r="AL97" s="105"/>
-      <c r="AM97" s="105"/>
-      <c r="AN97" s="105"/>
-      <c r="AO97" s="105"/>
-      <c r="AP97" s="105"/>
-      <c r="AQ97" s="105"/>
-      <c r="AR97" s="105"/>
-      <c r="AS97" s="105"/>
-      <c r="AT97" s="105"/>
-      <c r="AU97" s="105"/>
-      <c r="AV97" s="105"/>
-      <c r="AW97" s="105"/>
-      <c r="AX97" s="105"/>
-      <c r="AY97" s="105"/>
-      <c r="AZ97" s="105"/>
-      <c r="BA97" s="105"/>
-      <c r="BB97" s="105"/>
-      <c r="BC97" s="105"/>
-      <c r="BD97" s="106"/>
+      <c r="Y97" s="163"/>
+      <c r="Z97" s="163"/>
+      <c r="AA97" s="163"/>
+      <c r="AB97" s="163"/>
+      <c r="AC97" s="163"/>
+      <c r="AD97" s="163"/>
+      <c r="AE97" s="163"/>
+      <c r="AF97" s="163"/>
+      <c r="AG97" s="163"/>
+      <c r="AH97" s="163"/>
+      <c r="AI97" s="163"/>
+      <c r="AJ97" s="163"/>
+      <c r="AK97" s="163"/>
+      <c r="AL97" s="163"/>
+      <c r="AM97" s="163"/>
+      <c r="AN97" s="163"/>
+      <c r="AO97" s="163"/>
+      <c r="AP97" s="163"/>
+      <c r="AQ97" s="163"/>
+      <c r="AR97" s="163"/>
+      <c r="AS97" s="163"/>
+      <c r="AT97" s="163"/>
+      <c r="AU97" s="163"/>
+      <c r="AV97" s="163"/>
+      <c r="AW97" s="163"/>
+      <c r="AX97" s="163"/>
+      <c r="AY97" s="163"/>
+      <c r="AZ97" s="163"/>
+      <c r="BA97" s="163"/>
+      <c r="BB97" s="163"/>
+      <c r="BC97" s="163"/>
+      <c r="BD97" s="164"/>
     </row>
     <row r="98" spans="3:56" ht="15" customHeight="1">
       <c r="C98" s="41"/>
@@ -12291,41 +12298,41 @@
       <c r="U98" s="40"/>
       <c r="V98" s="40"/>
       <c r="W98" s="43"/>
-      <c r="X98" s="104" t="s">
+      <c r="X98" s="162" t="s">
         <v>127</v>
       </c>
-      <c r="Y98" s="105"/>
-      <c r="Z98" s="105"/>
-      <c r="AA98" s="105"/>
-      <c r="AB98" s="105"/>
-      <c r="AC98" s="105"/>
-      <c r="AD98" s="105"/>
-      <c r="AE98" s="105"/>
-      <c r="AF98" s="105"/>
-      <c r="AG98" s="105"/>
-      <c r="AH98" s="105"/>
-      <c r="AI98" s="105"/>
-      <c r="AJ98" s="105"/>
-      <c r="AK98" s="105"/>
-      <c r="AL98" s="105"/>
-      <c r="AM98" s="105"/>
-      <c r="AN98" s="105"/>
-      <c r="AO98" s="105"/>
-      <c r="AP98" s="105"/>
-      <c r="AQ98" s="105"/>
-      <c r="AR98" s="105"/>
-      <c r="AS98" s="105"/>
-      <c r="AT98" s="105"/>
-      <c r="AU98" s="105"/>
-      <c r="AV98" s="105"/>
-      <c r="AW98" s="105"/>
-      <c r="AX98" s="105"/>
-      <c r="AY98" s="105"/>
-      <c r="AZ98" s="105"/>
-      <c r="BA98" s="105"/>
-      <c r="BB98" s="105"/>
-      <c r="BC98" s="105"/>
-      <c r="BD98" s="106"/>
+      <c r="Y98" s="163"/>
+      <c r="Z98" s="163"/>
+      <c r="AA98" s="163"/>
+      <c r="AB98" s="163"/>
+      <c r="AC98" s="163"/>
+      <c r="AD98" s="163"/>
+      <c r="AE98" s="163"/>
+      <c r="AF98" s="163"/>
+      <c r="AG98" s="163"/>
+      <c r="AH98" s="163"/>
+      <c r="AI98" s="163"/>
+      <c r="AJ98" s="163"/>
+      <c r="AK98" s="163"/>
+      <c r="AL98" s="163"/>
+      <c r="AM98" s="163"/>
+      <c r="AN98" s="163"/>
+      <c r="AO98" s="163"/>
+      <c r="AP98" s="163"/>
+      <c r="AQ98" s="163"/>
+      <c r="AR98" s="163"/>
+      <c r="AS98" s="163"/>
+      <c r="AT98" s="163"/>
+      <c r="AU98" s="163"/>
+      <c r="AV98" s="163"/>
+      <c r="AW98" s="163"/>
+      <c r="AX98" s="163"/>
+      <c r="AY98" s="163"/>
+      <c r="AZ98" s="163"/>
+      <c r="BA98" s="163"/>
+      <c r="BB98" s="163"/>
+      <c r="BC98" s="163"/>
+      <c r="BD98" s="164"/>
     </row>
     <row r="99" spans="3:56" ht="15" customHeight="1">
       <c r="C99" s="41"/>
@@ -12355,41 +12362,41 @@
       <c r="U99" s="40"/>
       <c r="V99" s="40"/>
       <c r="W99" s="43"/>
-      <c r="X99" s="104" t="s">
+      <c r="X99" s="162" t="s">
         <v>80</v>
       </c>
-      <c r="Y99" s="105"/>
-      <c r="Z99" s="105"/>
-      <c r="AA99" s="105"/>
-      <c r="AB99" s="105"/>
-      <c r="AC99" s="105"/>
-      <c r="AD99" s="105"/>
-      <c r="AE99" s="105"/>
-      <c r="AF99" s="105"/>
-      <c r="AG99" s="105"/>
-      <c r="AH99" s="105"/>
-      <c r="AI99" s="105"/>
-      <c r="AJ99" s="105"/>
-      <c r="AK99" s="105"/>
-      <c r="AL99" s="105"/>
-      <c r="AM99" s="105"/>
-      <c r="AN99" s="105"/>
-      <c r="AO99" s="105"/>
-      <c r="AP99" s="105"/>
-      <c r="AQ99" s="105"/>
-      <c r="AR99" s="105"/>
-      <c r="AS99" s="105"/>
-      <c r="AT99" s="105"/>
-      <c r="AU99" s="105"/>
-      <c r="AV99" s="105"/>
-      <c r="AW99" s="105"/>
-      <c r="AX99" s="105"/>
-      <c r="AY99" s="105"/>
-      <c r="AZ99" s="105"/>
-      <c r="BA99" s="105"/>
-      <c r="BB99" s="105"/>
-      <c r="BC99" s="105"/>
-      <c r="BD99" s="106"/>
+      <c r="Y99" s="163"/>
+      <c r="Z99" s="163"/>
+      <c r="AA99" s="163"/>
+      <c r="AB99" s="163"/>
+      <c r="AC99" s="163"/>
+      <c r="AD99" s="163"/>
+      <c r="AE99" s="163"/>
+      <c r="AF99" s="163"/>
+      <c r="AG99" s="163"/>
+      <c r="AH99" s="163"/>
+      <c r="AI99" s="163"/>
+      <c r="AJ99" s="163"/>
+      <c r="AK99" s="163"/>
+      <c r="AL99" s="163"/>
+      <c r="AM99" s="163"/>
+      <c r="AN99" s="163"/>
+      <c r="AO99" s="163"/>
+      <c r="AP99" s="163"/>
+      <c r="AQ99" s="163"/>
+      <c r="AR99" s="163"/>
+      <c r="AS99" s="163"/>
+      <c r="AT99" s="163"/>
+      <c r="AU99" s="163"/>
+      <c r="AV99" s="163"/>
+      <c r="AW99" s="163"/>
+      <c r="AX99" s="163"/>
+      <c r="AY99" s="163"/>
+      <c r="AZ99" s="163"/>
+      <c r="BA99" s="163"/>
+      <c r="BB99" s="163"/>
+      <c r="BC99" s="163"/>
+      <c r="BD99" s="164"/>
     </row>
     <row r="100" spans="3:56">
       <c r="C100" s="41"/>
@@ -12505,12 +12512,74 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:AP3"/>
-    <mergeCell ref="AQ2:AW2"/>
-    <mergeCell ref="AX2:BE2"/>
-    <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="AX3:BE3"/>
+    <mergeCell ref="X97:BD97"/>
+    <mergeCell ref="X98:BD98"/>
+    <mergeCell ref="X99:BD99"/>
+    <mergeCell ref="X91:BD91"/>
+    <mergeCell ref="X92:BD92"/>
+    <mergeCell ref="X93:BD93"/>
+    <mergeCell ref="X94:BD94"/>
+    <mergeCell ref="X95:BD95"/>
+    <mergeCell ref="X72:AD72"/>
+    <mergeCell ref="AE72:AK72"/>
+    <mergeCell ref="X89:BD89"/>
+    <mergeCell ref="X90:BD90"/>
+    <mergeCell ref="X96:BD96"/>
+    <mergeCell ref="X70:AD70"/>
+    <mergeCell ref="AE70:AK70"/>
+    <mergeCell ref="E71:Q71"/>
+    <mergeCell ref="X71:AD71"/>
+    <mergeCell ref="AE71:AK71"/>
+    <mergeCell ref="AB23:AE24"/>
+    <mergeCell ref="AF23:AL24"/>
+    <mergeCell ref="AN23:AT24"/>
+    <mergeCell ref="AU23:AZ24"/>
+    <mergeCell ref="BA23:BA24"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AV20:AZ20"/>
+    <mergeCell ref="AL12:AN13"/>
+    <mergeCell ref="AP12:AR13"/>
+    <mergeCell ref="AG12:AJ13"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="AQ5:AS5"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="U4:AP4"/>
+    <mergeCell ref="X88:BD88"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="AE43:AI43"/>
+    <mergeCell ref="AJ43:AM43"/>
+    <mergeCell ref="AQ46:AV46"/>
+    <mergeCell ref="D10:G15"/>
+    <mergeCell ref="H10:U15"/>
+    <mergeCell ref="AQ43:AV43"/>
+    <mergeCell ref="AW43:BD43"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:Q69"/>
+    <mergeCell ref="AT12:AV13"/>
+    <mergeCell ref="AX12:AZ13"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:Q88"/>
+    <mergeCell ref="R88:W88"/>
+    <mergeCell ref="E70:Q70"/>
+    <mergeCell ref="E72:Q72"/>
+    <mergeCell ref="AL69:BD69"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="X43:AD43"/>
+    <mergeCell ref="AN43:AP43"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="X69:AD69"/>
+    <mergeCell ref="AE69:AK69"/>
     <mergeCell ref="X23:AA24"/>
     <mergeCell ref="AT4:AW4"/>
     <mergeCell ref="BB4:BE4"/>
@@ -12525,76 +12594,14 @@
     <mergeCell ref="H23:I24"/>
     <mergeCell ref="J23:P24"/>
     <mergeCell ref="Q23:W24"/>
-    <mergeCell ref="AL69:BD69"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="X43:AD43"/>
-    <mergeCell ref="AN43:AP43"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="X69:AD69"/>
-    <mergeCell ref="AE69:AK69"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:Q88"/>
-    <mergeCell ref="R88:W88"/>
-    <mergeCell ref="X88:BD88"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="AE43:AI43"/>
-    <mergeCell ref="AJ43:AM43"/>
-    <mergeCell ref="AQ46:AV46"/>
-    <mergeCell ref="D10:G15"/>
-    <mergeCell ref="H10:U15"/>
-    <mergeCell ref="AQ43:AV43"/>
-    <mergeCell ref="AW43:BD43"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:Q69"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="AQ4:AS4"/>
-    <mergeCell ref="AQ5:AS5"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="U4:AP4"/>
-    <mergeCell ref="AT12:AV13"/>
-    <mergeCell ref="AX12:AZ13"/>
-    <mergeCell ref="H20:J20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="O20:P20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AV20:AZ20"/>
-    <mergeCell ref="AL12:AN13"/>
-    <mergeCell ref="AP12:AR13"/>
-    <mergeCell ref="AG12:AJ13"/>
-    <mergeCell ref="AB23:AE24"/>
-    <mergeCell ref="AF23:AL24"/>
-    <mergeCell ref="AN23:AT24"/>
-    <mergeCell ref="AU23:AZ24"/>
-    <mergeCell ref="BA23:BA24"/>
-    <mergeCell ref="E70:Q70"/>
-    <mergeCell ref="X70:AD70"/>
-    <mergeCell ref="AE70:AK70"/>
-    <mergeCell ref="E71:Q71"/>
-    <mergeCell ref="X71:AD71"/>
-    <mergeCell ref="AE71:AK71"/>
-    <mergeCell ref="E72:Q72"/>
-    <mergeCell ref="X72:AD72"/>
-    <mergeCell ref="AE72:AK72"/>
-    <mergeCell ref="X89:BD89"/>
-    <mergeCell ref="X90:BD90"/>
-    <mergeCell ref="X96:BD96"/>
-    <mergeCell ref="X97:BD97"/>
-    <mergeCell ref="X98:BD98"/>
-    <mergeCell ref="X99:BD99"/>
-    <mergeCell ref="X91:BD91"/>
-    <mergeCell ref="X92:BD92"/>
-    <mergeCell ref="X93:BD93"/>
-    <mergeCell ref="X94:BD94"/>
-    <mergeCell ref="X95:BD95"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:AP3"/>
+    <mergeCell ref="AQ2:AW2"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="AQ3:AW3"/>
+    <mergeCell ref="AX3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" orientation="portrait" r:id="rId1"/>

--- a/trunk/Document/Design/SDD_UserManager.xlsx
+++ b/trunk/Document/Design/SDD_UserManager.xlsx
@@ -1072,7 +1072,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="130">
   <si>
     <t>&lt;Project Name&gt;</t>
   </si>
@@ -1401,15 +1401,9 @@
     <t>Display</t>
   </si>
   <si>
-    <t>checkbox ( tick chọn User trong bảng danh sách User)</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
-    <t>All(Tất cả column)</t>
-  </si>
-  <si>
     <t>cboSelectGroup(chọn user theo group)</t>
   </si>
   <si>
@@ -1465,6 +1459,9 @@
   </si>
   <si>
     <t>UserManager</t>
+  </si>
+  <si>
+    <t>21/10/2011</t>
   </si>
 </sst>
 </file>
@@ -2595,40 +2592,215 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2640,181 +2812,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3182,14 +3179,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="33">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
@@ -3409,12 +3406,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="33">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
     </row>
     <row r="5" spans="2:5" ht="15.75">
       <c r="B5" s="21" t="s">
@@ -3476,16 +3473,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="33">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
     </row>
     <row r="4" spans="2:4" ht="15">
       <c r="B4" s="22"/>
-      <c r="C4" s="162" t="s">
-        <v>130</v>
+      <c r="C4" s="89" t="s">
+        <v>128</v>
       </c>
       <c r="D4" s="23"/>
     </row>
@@ -3657,7 +3654,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="BB5" sqref="BB5:BE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="12.75"/>
@@ -3681,307 +3678,311 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:57">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97" t="s">
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="97"/>
-      <c r="AO2" s="97"/>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="99" t="s">
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="92"/>
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="92"/>
+      <c r="AP2" s="92"/>
+      <c r="AQ2" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="99"/>
-      <c r="AS2" s="99"/>
-      <c r="AT2" s="99"/>
-      <c r="AU2" s="99"/>
-      <c r="AV2" s="99"/>
-      <c r="AW2" s="99"/>
-      <c r="AX2" s="99" t="s">
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
+      <c r="AW2" s="93"/>
+      <c r="AX2" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="AY2" s="99"/>
-      <c r="AZ2" s="99"/>
-      <c r="BA2" s="99"/>
-      <c r="BB2" s="99"/>
-      <c r="BC2" s="99"/>
-      <c r="BD2" s="99"/>
-      <c r="BE2" s="99"/>
+      <c r="AY2" s="93"/>
+      <c r="AZ2" s="93"/>
+      <c r="BA2" s="93"/>
+      <c r="BB2" s="93"/>
+      <c r="BC2" s="93"/>
+      <c r="BD2" s="93"/>
+      <c r="BE2" s="93"/>
     </row>
     <row r="3" spans="2:57">
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="97"/>
-      <c r="AF3" s="97"/>
-      <c r="AG3" s="97"/>
-      <c r="AH3" s="97"/>
-      <c r="AI3" s="97"/>
-      <c r="AJ3" s="97"/>
-      <c r="AK3" s="97"/>
-      <c r="AL3" s="97"/>
-      <c r="AM3" s="97"/>
-      <c r="AN3" s="97"/>
-      <c r="AO3" s="97"/>
-      <c r="AP3" s="97"/>
-      <c r="AQ3" s="100" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="92"/>
+      <c r="AG3" s="92"/>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="92"/>
+      <c r="AK3" s="92"/>
+      <c r="AL3" s="92"/>
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="92"/>
+      <c r="AO3" s="92"/>
+      <c r="AP3" s="92"/>
+      <c r="AQ3" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="100"/>
-      <c r="AS3" s="100"/>
-      <c r="AT3" s="100"/>
-      <c r="AU3" s="100"/>
-      <c r="AV3" s="100"/>
-      <c r="AW3" s="100"/>
-      <c r="AX3" s="100" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY3" s="100"/>
-      <c r="AZ3" s="100"/>
-      <c r="BA3" s="100"/>
-      <c r="BB3" s="100"/>
-      <c r="BC3" s="100"/>
-      <c r="BD3" s="100"/>
-      <c r="BE3" s="100"/>
+      <c r="AR3" s="94"/>
+      <c r="AS3" s="94"/>
+      <c r="AT3" s="94"/>
+      <c r="AU3" s="94"/>
+      <c r="AV3" s="94"/>
+      <c r="AW3" s="94"/>
+      <c r="AX3" s="94" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY3" s="94"/>
+      <c r="AZ3" s="94"/>
+      <c r="BA3" s="94"/>
+      <c r="BB3" s="94"/>
+      <c r="BC3" s="94"/>
+      <c r="BD3" s="94"/>
+      <c r="BE3" s="94"/>
     </row>
     <row r="4" spans="2:57">
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="143" t="s">
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="141"/>
-      <c r="R4" s="141"/>
-      <c r="S4" s="141"/>
-      <c r="T4" s="142"/>
-      <c r="U4" s="98" t="s">
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="98"/>
-      <c r="AF4" s="98"/>
-      <c r="AG4" s="98"/>
-      <c r="AH4" s="98"/>
-      <c r="AI4" s="98"/>
-      <c r="AJ4" s="98"/>
-      <c r="AK4" s="98"/>
-      <c r="AL4" s="98"/>
-      <c r="AM4" s="98"/>
-      <c r="AN4" s="98"/>
-      <c r="AO4" s="98"/>
-      <c r="AP4" s="98"/>
-      <c r="AQ4" s="144" t="s">
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="95"/>
+      <c r="AQ4" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="AR4" s="145"/>
-      <c r="AS4" s="146"/>
-      <c r="AT4" s="98" t="s">
+      <c r="AR4" s="97"/>
+      <c r="AS4" s="98"/>
+      <c r="AT4" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="AU4" s="98"/>
-      <c r="AV4" s="98"/>
-      <c r="AW4" s="98"/>
-      <c r="AX4" s="144" t="s">
+      <c r="AU4" s="95"/>
+      <c r="AV4" s="95"/>
+      <c r="AW4" s="95"/>
+      <c r="AX4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="AY4" s="145"/>
-      <c r="AZ4" s="145"/>
-      <c r="BA4" s="146"/>
-      <c r="BB4" s="98" t="s">
+      <c r="AY4" s="97"/>
+      <c r="AZ4" s="97"/>
+      <c r="BA4" s="98"/>
+      <c r="BB4" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC4" s="95"/>
+      <c r="BD4" s="95"/>
+      <c r="BE4" s="95"/>
+    </row>
+    <row r="5" spans="2:57">
+      <c r="B5" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="99" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="101"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
+      <c r="AF5" s="95"/>
+      <c r="AG5" s="95"/>
+      <c r="AH5" s="95"/>
+      <c r="AI5" s="95"/>
+      <c r="AJ5" s="95"/>
+      <c r="AK5" s="95"/>
+      <c r="AL5" s="95"/>
+      <c r="AM5" s="95"/>
+      <c r="AN5" s="95"/>
+      <c r="AO5" s="95"/>
+      <c r="AP5" s="95"/>
+      <c r="AQ5" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR5" s="148"/>
+      <c r="AS5" s="101"/>
+      <c r="AT5" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU5" s="95"/>
+      <c r="AV5" s="95"/>
+      <c r="AW5" s="95"/>
+      <c r="AX5" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY5" s="100"/>
+      <c r="AZ5" s="100"/>
+      <c r="BA5" s="101"/>
+      <c r="BB5" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="BC4" s="98"/>
-      <c r="BD4" s="98"/>
-      <c r="BE4" s="98"/>
-    </row>
-    <row r="5" spans="2:57">
-      <c r="B5" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="143" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="141"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="141"/>
-      <c r="T5" s="142"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="98"/>
-      <c r="Z5" s="98"/>
-      <c r="AA5" s="98"/>
-      <c r="AB5" s="98"/>
-      <c r="AC5" s="98"/>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="98"/>
-      <c r="AF5" s="98"/>
-      <c r="AG5" s="98"/>
-      <c r="AH5" s="98"/>
-      <c r="AI5" s="98"/>
-      <c r="AJ5" s="98"/>
-      <c r="AK5" s="98"/>
-      <c r="AL5" s="98"/>
-      <c r="AM5" s="98"/>
-      <c r="AN5" s="98"/>
-      <c r="AO5" s="98"/>
-      <c r="AP5" s="98"/>
-      <c r="AQ5" s="143" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR5" s="147"/>
-      <c r="AS5" s="142"/>
-      <c r="AT5" s="98"/>
-      <c r="AU5" s="98"/>
-      <c r="AV5" s="98"/>
-      <c r="AW5" s="98"/>
-      <c r="AX5" s="143" t="s">
-        <v>24</v>
-      </c>
-      <c r="AY5" s="141"/>
-      <c r="AZ5" s="141"/>
-      <c r="BA5" s="142"/>
-      <c r="BB5" s="98"/>
-      <c r="BC5" s="98"/>
-      <c r="BD5" s="98"/>
-      <c r="BE5" s="98"/>
+      <c r="BC5" s="95"/>
+      <c r="BD5" s="95"/>
+      <c r="BE5" s="95"/>
     </row>
     <row r="7" spans="2:57">
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
     </row>
     <row r="9" spans="2:57" ht="13.5" thickBot="1">
       <c r="C9" s="32"/>
     </row>
     <row r="10" spans="2:57" ht="15" customHeight="1">
-      <c r="D10" s="127" t="s">
+      <c r="D10" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="153" t="s">
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="153"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
       <c r="V10" s="70"/>
       <c r="W10" s="70"/>
       <c r="X10" s="70"/>
@@ -4018,24 +4019,24 @@
       <c r="BC10" s="71"/>
     </row>
     <row r="11" spans="2:57" ht="13.5" thickBot="1">
-      <c r="D11" s="150"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="154"/>
-      <c r="O11" s="154"/>
-      <c r="P11" s="154"/>
-      <c r="Q11" s="154"/>
-      <c r="R11" s="154"/>
-      <c r="S11" s="154"/>
-      <c r="T11" s="154"/>
-      <c r="U11" s="154"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="129"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="129"/>
+      <c r="R11" s="129"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="129"/>
+      <c r="U11" s="129"/>
       <c r="V11" s="72"/>
       <c r="W11" s="72"/>
       <c r="X11" s="72"/>
@@ -4072,24 +4073,24 @@
       <c r="BC11" s="73"/>
     </row>
     <row r="12" spans="2:57" ht="15" customHeight="1">
-      <c r="D12" s="150"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="154"/>
-      <c r="P12" s="154"/>
-      <c r="Q12" s="154"/>
-      <c r="R12" s="154"/>
-      <c r="S12" s="154"/>
-      <c r="T12" s="154"/>
-      <c r="U12" s="154"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="129"/>
+      <c r="R12" s="129"/>
+      <c r="S12" s="129"/>
+      <c r="T12" s="129"/>
+      <c r="U12" s="129"/>
       <c r="V12" s="72"/>
       <c r="W12" s="72"/>
       <c r="X12" s="72"/>
@@ -4101,59 +4102,59 @@
       <c r="AD12" s="72"/>
       <c r="AE12" s="72"/>
       <c r="AF12" s="72"/>
-      <c r="AG12" s="133" t="s">
+      <c r="AG12" s="149" t="s">
         <v>88</v>
       </c>
-      <c r="AH12" s="134"/>
-      <c r="AI12" s="134"/>
-      <c r="AJ12" s="135"/>
+      <c r="AH12" s="150"/>
+      <c r="AI12" s="150"/>
+      <c r="AJ12" s="151"/>
       <c r="AK12" s="72"/>
-      <c r="AL12" s="127" t="s">
+      <c r="AL12" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="AM12" s="128"/>
-      <c r="AN12" s="129"/>
+      <c r="AM12" s="111"/>
+      <c r="AN12" s="112"/>
       <c r="AO12" s="72"/>
-      <c r="AP12" s="127" t="s">
+      <c r="AP12" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="AQ12" s="128"/>
-      <c r="AR12" s="129"/>
+      <c r="AQ12" s="111"/>
+      <c r="AR12" s="112"/>
       <c r="AS12" s="72"/>
-      <c r="AT12" s="127" t="s">
+      <c r="AT12" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="AU12" s="128"/>
-      <c r="AV12" s="129"/>
+      <c r="AU12" s="111"/>
+      <c r="AV12" s="112"/>
       <c r="AW12" s="75"/>
-      <c r="AX12" s="127" t="s">
+      <c r="AX12" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="AY12" s="128"/>
-      <c r="AZ12" s="129"/>
+      <c r="AY12" s="111"/>
+      <c r="AZ12" s="112"/>
       <c r="BA12" s="72"/>
       <c r="BB12" s="72"/>
       <c r="BC12" s="73"/>
     </row>
     <row r="13" spans="2:57" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D13" s="150"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="154"/>
-      <c r="N13" s="154"/>
-      <c r="O13" s="154"/>
-      <c r="P13" s="154"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="154"/>
-      <c r="S13" s="154"/>
-      <c r="T13" s="154"/>
-      <c r="U13" s="154"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="129"/>
+      <c r="T13" s="129"/>
+      <c r="U13" s="129"/>
       <c r="V13" s="72"/>
       <c r="W13" s="72"/>
       <c r="X13" s="72"/>
@@ -4165,49 +4166,49 @@
       <c r="AD13" s="72"/>
       <c r="AE13" s="72"/>
       <c r="AF13" s="72"/>
-      <c r="AG13" s="136"/>
-      <c r="AH13" s="137"/>
-      <c r="AI13" s="137"/>
-      <c r="AJ13" s="138"/>
+      <c r="AG13" s="152"/>
+      <c r="AH13" s="153"/>
+      <c r="AI13" s="153"/>
+      <c r="AJ13" s="154"/>
       <c r="AK13" s="72"/>
-      <c r="AL13" s="130"/>
-      <c r="AM13" s="131"/>
-      <c r="AN13" s="132"/>
+      <c r="AL13" s="113"/>
+      <c r="AM13" s="114"/>
+      <c r="AN13" s="115"/>
       <c r="AO13" s="72"/>
-      <c r="AP13" s="130"/>
-      <c r="AQ13" s="131"/>
-      <c r="AR13" s="132"/>
+      <c r="AP13" s="113"/>
+      <c r="AQ13" s="114"/>
+      <c r="AR13" s="115"/>
       <c r="AS13" s="72"/>
-      <c r="AT13" s="130"/>
-      <c r="AU13" s="131"/>
-      <c r="AV13" s="132"/>
+      <c r="AT13" s="113"/>
+      <c r="AU13" s="114"/>
+      <c r="AV13" s="115"/>
       <c r="AW13" s="75"/>
-      <c r="AX13" s="130"/>
-      <c r="AY13" s="131"/>
-      <c r="AZ13" s="132"/>
+      <c r="AX13" s="113"/>
+      <c r="AY13" s="114"/>
+      <c r="AZ13" s="115"/>
       <c r="BA13" s="72"/>
       <c r="BB13" s="72"/>
       <c r="BC13" s="73"/>
     </row>
     <row r="14" spans="2:57">
-      <c r="D14" s="150"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="154"/>
-      <c r="N14" s="154"/>
-      <c r="O14" s="154"/>
-      <c r="P14" s="154"/>
-      <c r="Q14" s="154"/>
-      <c r="R14" s="154"/>
-      <c r="S14" s="154"/>
-      <c r="T14" s="154"/>
-      <c r="U14" s="154"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="129"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="129"/>
+      <c r="T14" s="129"/>
+      <c r="U14" s="129"/>
       <c r="V14" s="72"/>
       <c r="W14" s="72"/>
       <c r="X14" s="72"/>
@@ -4244,24 +4245,24 @@
       <c r="BC14" s="73"/>
     </row>
     <row r="15" spans="2:57">
-      <c r="D15" s="150"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="154"/>
-      <c r="N15" s="154"/>
-      <c r="O15" s="154"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="154"/>
-      <c r="S15" s="154"/>
-      <c r="T15" s="154"/>
-      <c r="U15" s="154"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
       <c r="V15" s="72"/>
       <c r="W15" s="72"/>
       <c r="X15" s="72"/>
@@ -4520,19 +4521,19 @@
         <v>93</v>
       </c>
       <c r="G20" s="44"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="126"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
       <c r="K20" s="44"/>
-      <c r="L20" s="124" t="s">
+      <c r="L20" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="M20" s="126"/>
+      <c r="M20" s="118"/>
       <c r="N20" s="44"/>
-      <c r="O20" s="124" t="s">
+      <c r="O20" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="P20" s="126"/>
+      <c r="P20" s="118"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="44"/>
       <c r="S20" s="44"/>
@@ -4556,25 +4557,25 @@
       <c r="AK20" s="44"/>
       <c r="AL20" s="44"/>
       <c r="AM20" s="44"/>
-      <c r="AN20" s="124" t="s">
+      <c r="AN20" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="AO20" s="125"/>
-      <c r="AP20" s="125"/>
-      <c r="AQ20" s="125"/>
-      <c r="AR20" s="126"/>
+      <c r="AO20" s="117"/>
+      <c r="AP20" s="117"/>
+      <c r="AQ20" s="117"/>
+      <c r="AR20" s="118"/>
       <c r="AS20" s="78" t="s">
         <v>85</v>
       </c>
       <c r="AT20" s="44"/>
       <c r="AU20" s="44"/>
-      <c r="AV20" s="124" t="s">
+      <c r="AV20" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="AW20" s="125"/>
-      <c r="AX20" s="125"/>
-      <c r="AY20" s="125"/>
-      <c r="AZ20" s="126"/>
+      <c r="AW20" s="117"/>
+      <c r="AX20" s="117"/>
+      <c r="AY20" s="117"/>
+      <c r="AZ20" s="118"/>
       <c r="BA20" s="78" t="s">
         <v>85</v>
       </c>
@@ -4640,13 +4641,13 @@
       <c r="E22" s="60"/>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
-      <c r="H22" s="155" t="s">
+      <c r="H22" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="155"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
       <c r="M22" s="44"/>
       <c r="N22" s="44"/>
       <c r="O22" s="44"/>
@@ -4694,72 +4695,72 @@
     <row r="23" spans="4:55">
       <c r="D23" s="65"/>
       <c r="E23" s="60"/>
-      <c r="F23" s="156" t="s">
+      <c r="F23" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="118"/>
-      <c r="H23" s="158" t="s">
+      <c r="G23" s="133"/>
+      <c r="H23" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="I23" s="159"/>
-      <c r="J23" s="119" t="s">
+      <c r="I23" s="141"/>
+      <c r="J23" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="K23" s="120"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="120"/>
-      <c r="N23" s="120"/>
-      <c r="O23" s="120"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="116" t="s">
+      <c r="K23" s="135"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="135"/>
+      <c r="O23" s="135"/>
+      <c r="P23" s="136"/>
+      <c r="Q23" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="R23" s="117"/>
-      <c r="S23" s="117"/>
-      <c r="T23" s="117"/>
-      <c r="U23" s="117"/>
-      <c r="V23" s="117"/>
-      <c r="W23" s="118"/>
-      <c r="X23" s="116" t="s">
+      <c r="R23" s="132"/>
+      <c r="S23" s="132"/>
+      <c r="T23" s="132"/>
+      <c r="U23" s="132"/>
+      <c r="V23" s="132"/>
+      <c r="W23" s="133"/>
+      <c r="X23" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="Y23" s="117"/>
-      <c r="Z23" s="117"/>
-      <c r="AA23" s="118"/>
-      <c r="AB23" s="116" t="s">
+      <c r="Y23" s="132"/>
+      <c r="Z23" s="132"/>
+      <c r="AA23" s="133"/>
+      <c r="AB23" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="AC23" s="117"/>
-      <c r="AD23" s="117"/>
-      <c r="AE23" s="118"/>
-      <c r="AF23" s="116" t="s">
+      <c r="AC23" s="132"/>
+      <c r="AD23" s="132"/>
+      <c r="AE23" s="133"/>
+      <c r="AF23" s="131" t="s">
         <v>104</v>
       </c>
-      <c r="AG23" s="117"/>
-      <c r="AH23" s="117"/>
-      <c r="AI23" s="117"/>
-      <c r="AJ23" s="117"/>
-      <c r="AK23" s="117"/>
-      <c r="AL23" s="117"/>
+      <c r="AG23" s="132"/>
+      <c r="AH23" s="132"/>
+      <c r="AI23" s="132"/>
+      <c r="AJ23" s="132"/>
+      <c r="AK23" s="132"/>
+      <c r="AL23" s="132"/>
       <c r="AM23" s="79"/>
-      <c r="AN23" s="116" t="s">
+      <c r="AN23" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="AO23" s="117"/>
-      <c r="AP23" s="117"/>
-      <c r="AQ23" s="117"/>
-      <c r="AR23" s="117"/>
-      <c r="AS23" s="117"/>
-      <c r="AT23" s="118"/>
-      <c r="AU23" s="116" t="s">
+      <c r="AO23" s="132"/>
+      <c r="AP23" s="132"/>
+      <c r="AQ23" s="132"/>
+      <c r="AR23" s="132"/>
+      <c r="AS23" s="132"/>
+      <c r="AT23" s="133"/>
+      <c r="AU23" s="131" t="s">
         <v>107</v>
       </c>
-      <c r="AV23" s="117"/>
-      <c r="AW23" s="117"/>
-      <c r="AX23" s="117"/>
-      <c r="AY23" s="117"/>
-      <c r="AZ23" s="118"/>
-      <c r="BA23" s="122" t="s">
+      <c r="AV23" s="132"/>
+      <c r="AW23" s="132"/>
+      <c r="AX23" s="132"/>
+      <c r="AY23" s="132"/>
+      <c r="AZ23" s="133"/>
+      <c r="BA23" s="155" t="s">
         <v>106</v>
       </c>
       <c r="BB23" s="61"/>
@@ -4768,54 +4769,54 @@
     <row r="24" spans="4:55">
       <c r="D24" s="65"/>
       <c r="E24" s="60"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="120"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="120"/>
-      <c r="N24" s="120"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="120"/>
-      <c r="S24" s="120"/>
-      <c r="T24" s="120"/>
-      <c r="U24" s="120"/>
-      <c r="V24" s="120"/>
-      <c r="W24" s="121"/>
-      <c r="X24" s="119"/>
-      <c r="Y24" s="120"/>
-      <c r="Z24" s="120"/>
-      <c r="AA24" s="121"/>
-      <c r="AB24" s="119"/>
-      <c r="AC24" s="120"/>
-      <c r="AD24" s="120"/>
-      <c r="AE24" s="121"/>
-      <c r="AF24" s="119"/>
-      <c r="AG24" s="120"/>
-      <c r="AH24" s="120"/>
-      <c r="AI24" s="120"/>
-      <c r="AJ24" s="120"/>
-      <c r="AK24" s="120"/>
-      <c r="AL24" s="120"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="134"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="135"/>
+      <c r="O24" s="135"/>
+      <c r="P24" s="136"/>
+      <c r="Q24" s="134"/>
+      <c r="R24" s="135"/>
+      <c r="S24" s="135"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="135"/>
+      <c r="W24" s="136"/>
+      <c r="X24" s="134"/>
+      <c r="Y24" s="135"/>
+      <c r="Z24" s="135"/>
+      <c r="AA24" s="136"/>
+      <c r="AB24" s="134"/>
+      <c r="AC24" s="135"/>
+      <c r="AD24" s="135"/>
+      <c r="AE24" s="136"/>
+      <c r="AF24" s="134"/>
+      <c r="AG24" s="135"/>
+      <c r="AH24" s="135"/>
+      <c r="AI24" s="135"/>
+      <c r="AJ24" s="135"/>
+      <c r="AK24" s="135"/>
+      <c r="AL24" s="135"/>
       <c r="AM24" s="72"/>
-      <c r="AN24" s="119"/>
-      <c r="AO24" s="120"/>
-      <c r="AP24" s="120"/>
-      <c r="AQ24" s="120"/>
-      <c r="AR24" s="120"/>
-      <c r="AS24" s="120"/>
-      <c r="AT24" s="121"/>
-      <c r="AU24" s="119"/>
-      <c r="AV24" s="120"/>
-      <c r="AW24" s="120"/>
-      <c r="AX24" s="120"/>
-      <c r="AY24" s="120"/>
-      <c r="AZ24" s="121"/>
-      <c r="BA24" s="123"/>
+      <c r="AN24" s="134"/>
+      <c r="AO24" s="135"/>
+      <c r="AP24" s="135"/>
+      <c r="AQ24" s="135"/>
+      <c r="AR24" s="135"/>
+      <c r="AS24" s="135"/>
+      <c r="AT24" s="136"/>
+      <c r="AU24" s="134"/>
+      <c r="AV24" s="135"/>
+      <c r="AW24" s="135"/>
+      <c r="AX24" s="135"/>
+      <c r="AY24" s="135"/>
+      <c r="AZ24" s="136"/>
+      <c r="BA24" s="156"/>
       <c r="BB24" s="61"/>
       <c r="BC24" s="66"/>
     </row>
@@ -5580,94 +5581,94 @@
       <c r="BC38" s="69"/>
     </row>
     <row r="41" spans="3:56">
-      <c r="C41" s="149" t="s">
+      <c r="C41" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="145"/>
     </row>
     <row r="42" spans="3:56">
       <c r="C42" s="31"/>
     </row>
     <row r="43" spans="3:56" ht="15">
-      <c r="C43" s="95" t="s">
+      <c r="C43" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93" t="s">
+      <c r="D43" s="120"/>
+      <c r="E43" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="93"/>
-      <c r="M43" s="93"/>
-      <c r="N43" s="93" t="s">
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="120"/>
+      <c r="K43" s="120"/>
+      <c r="L43" s="120"/>
+      <c r="M43" s="120"/>
+      <c r="N43" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="O43" s="93"/>
-      <c r="P43" s="93"/>
-      <c r="Q43" s="93"/>
-      <c r="R43" s="93" t="s">
+      <c r="O43" s="120"/>
+      <c r="P43" s="120"/>
+      <c r="Q43" s="120"/>
+      <c r="R43" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="S43" s="93"/>
-      <c r="T43" s="93"/>
-      <c r="U43" s="93" t="s">
+      <c r="S43" s="120"/>
+      <c r="T43" s="120"/>
+      <c r="U43" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="V43" s="93"/>
-      <c r="W43" s="93"/>
-      <c r="X43" s="93" t="s">
+      <c r="V43" s="120"/>
+      <c r="W43" s="120"/>
+      <c r="X43" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="Y43" s="93"/>
-      <c r="Z43" s="93"/>
-      <c r="AA43" s="93"/>
-      <c r="AB43" s="93"/>
-      <c r="AC43" s="93"/>
-      <c r="AD43" s="93"/>
-      <c r="AE43" s="93" t="s">
+      <c r="Y43" s="120"/>
+      <c r="Z43" s="120"/>
+      <c r="AA43" s="120"/>
+      <c r="AB43" s="120"/>
+      <c r="AC43" s="120"/>
+      <c r="AD43" s="120"/>
+      <c r="AE43" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="AF43" s="93"/>
-      <c r="AG43" s="93"/>
-      <c r="AH43" s="93"/>
-      <c r="AI43" s="93"/>
-      <c r="AJ43" s="93" t="s">
+      <c r="AF43" s="120"/>
+      <c r="AG43" s="120"/>
+      <c r="AH43" s="120"/>
+      <c r="AI43" s="120"/>
+      <c r="AJ43" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="AK43" s="93"/>
-      <c r="AL43" s="93"/>
-      <c r="AM43" s="93"/>
-      <c r="AN43" s="93" t="s">
+      <c r="AK43" s="120"/>
+      <c r="AL43" s="120"/>
+      <c r="AM43" s="120"/>
+      <c r="AN43" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="AO43" s="93"/>
-      <c r="AP43" s="93"/>
-      <c r="AQ43" s="93" t="s">
+      <c r="AO43" s="120"/>
+      <c r="AP43" s="120"/>
+      <c r="AQ43" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="AR43" s="93"/>
-      <c r="AS43" s="93"/>
-      <c r="AT43" s="93"/>
-      <c r="AU43" s="93"/>
-      <c r="AV43" s="93"/>
-      <c r="AW43" s="93" t="s">
+      <c r="AR43" s="120"/>
+      <c r="AS43" s="120"/>
+      <c r="AT43" s="120"/>
+      <c r="AU43" s="120"/>
+      <c r="AV43" s="120"/>
+      <c r="AW43" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="AX43" s="93"/>
-      <c r="AY43" s="93"/>
-      <c r="AZ43" s="93"/>
-      <c r="BA43" s="93"/>
-      <c r="BB43" s="93"/>
-      <c r="BC43" s="93"/>
-      <c r="BD43" s="94"/>
+      <c r="AX43" s="120"/>
+      <c r="AY43" s="120"/>
+      <c r="AZ43" s="120"/>
+      <c r="BA43" s="120"/>
+      <c r="BB43" s="120"/>
+      <c r="BC43" s="120"/>
+      <c r="BD43" s="130"/>
     </row>
     <row r="44" spans="3:56">
       <c r="C44" s="33"/>
@@ -5878,14 +5879,14 @@
         <v>53</v>
       </c>
       <c r="AP46" s="38"/>
-      <c r="AQ46" s="107" t="s">
+      <c r="AQ46" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="AR46" s="108"/>
-      <c r="AS46" s="108"/>
-      <c r="AT46" s="108"/>
-      <c r="AU46" s="108"/>
-      <c r="AV46" s="109"/>
+      <c r="AR46" s="123"/>
+      <c r="AS46" s="123"/>
+      <c r="AT46" s="123"/>
+      <c r="AU46" s="123"/>
+      <c r="AV46" s="124"/>
       <c r="AW46" s="39" t="s">
         <v>58</v>
       </c>
@@ -6100,8 +6101,8 @@
       </c>
       <c r="AM49" s="38"/>
       <c r="AN49" s="39"/>
-      <c r="AO49" s="35" t="s">
-        <v>53</v>
+      <c r="AO49" s="35">
+        <v>20</v>
       </c>
       <c r="AP49" s="38"/>
       <c r="AQ49" s="39"/>
@@ -7214,132 +7215,124 @@
       <c r="BD66" s="44"/>
     </row>
     <row r="67" spans="3:56">
-      <c r="C67" s="149" t="s">
+      <c r="C67" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="D67" s="149"/>
-      <c r="E67" s="149"/>
-      <c r="F67" s="149"/>
-      <c r="G67" s="149"/>
-      <c r="H67" s="149"/>
-      <c r="I67" s="149"/>
-      <c r="J67" s="149"/>
+      <c r="D67" s="145"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="145"/>
+      <c r="G67" s="145"/>
+      <c r="H67" s="145"/>
+      <c r="I67" s="145"/>
+      <c r="J67" s="145"/>
     </row>
     <row r="68" spans="3:56">
       <c r="C68" s="31"/>
     </row>
     <row r="69" spans="3:56" ht="15">
-      <c r="C69" s="92" t="s">
+      <c r="C69" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="90"/>
-      <c r="E69" s="90" t="s">
+      <c r="D69" s="103"/>
+      <c r="E69" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="F69" s="90"/>
-      <c r="G69" s="90"/>
-      <c r="H69" s="90"/>
-      <c r="I69" s="90"/>
-      <c r="J69" s="90"/>
-      <c r="K69" s="90"/>
-      <c r="L69" s="90"/>
-      <c r="M69" s="90"/>
-      <c r="N69" s="90"/>
-      <c r="O69" s="90"/>
-      <c r="P69" s="90"/>
-      <c r="Q69" s="90"/>
-      <c r="R69" s="90" t="s">
+      <c r="F69" s="103"/>
+      <c r="G69" s="103"/>
+      <c r="H69" s="103"/>
+      <c r="I69" s="103"/>
+      <c r="J69" s="103"/>
+      <c r="K69" s="103"/>
+      <c r="L69" s="103"/>
+      <c r="M69" s="103"/>
+      <c r="N69" s="103"/>
+      <c r="O69" s="103"/>
+      <c r="P69" s="103"/>
+      <c r="Q69" s="103"/>
+      <c r="R69" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="S69" s="90"/>
-      <c r="T69" s="90"/>
-      <c r="U69" s="90"/>
-      <c r="V69" s="90"/>
-      <c r="W69" s="90"/>
-      <c r="X69" s="90" t="s">
+      <c r="S69" s="103"/>
+      <c r="T69" s="103"/>
+      <c r="U69" s="103"/>
+      <c r="V69" s="103"/>
+      <c r="W69" s="103"/>
+      <c r="X69" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="Y69" s="90"/>
-      <c r="Z69" s="90"/>
-      <c r="AA69" s="90"/>
-      <c r="AB69" s="90"/>
-      <c r="AC69" s="90"/>
-      <c r="AD69" s="90"/>
-      <c r="AE69" s="90" t="s">
+      <c r="Y69" s="103"/>
+      <c r="Z69" s="103"/>
+      <c r="AA69" s="103"/>
+      <c r="AB69" s="103"/>
+      <c r="AC69" s="103"/>
+      <c r="AD69" s="103"/>
+      <c r="AE69" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="AF69" s="90"/>
-      <c r="AG69" s="90"/>
-      <c r="AH69" s="90"/>
-      <c r="AI69" s="90"/>
-      <c r="AJ69" s="90"/>
-      <c r="AK69" s="90"/>
-      <c r="AL69" s="90" t="s">
+      <c r="AF69" s="103"/>
+      <c r="AG69" s="103"/>
+      <c r="AH69" s="103"/>
+      <c r="AI69" s="103"/>
+      <c r="AJ69" s="103"/>
+      <c r="AK69" s="103"/>
+      <c r="AL69" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="AM69" s="90"/>
-      <c r="AN69" s="90"/>
-      <c r="AO69" s="90"/>
-      <c r="AP69" s="90"/>
-      <c r="AQ69" s="90"/>
-      <c r="AR69" s="90"/>
-      <c r="AS69" s="90"/>
-      <c r="AT69" s="90"/>
-      <c r="AU69" s="90"/>
-      <c r="AV69" s="90"/>
-      <c r="AW69" s="90"/>
-      <c r="AX69" s="90"/>
-      <c r="AY69" s="90"/>
-      <c r="AZ69" s="90"/>
-      <c r="BA69" s="90"/>
-      <c r="BB69" s="90"/>
-      <c r="BC69" s="90"/>
-      <c r="BD69" s="91"/>
+      <c r="AM69" s="103"/>
+      <c r="AN69" s="103"/>
+      <c r="AO69" s="103"/>
+      <c r="AP69" s="103"/>
+      <c r="AQ69" s="103"/>
+      <c r="AR69" s="103"/>
+      <c r="AS69" s="103"/>
+      <c r="AT69" s="103"/>
+      <c r="AU69" s="103"/>
+      <c r="AV69" s="103"/>
+      <c r="AW69" s="103"/>
+      <c r="AX69" s="103"/>
+      <c r="AY69" s="103"/>
+      <c r="AZ69" s="103"/>
+      <c r="BA69" s="103"/>
+      <c r="BB69" s="103"/>
+      <c r="BC69" s="103"/>
+      <c r="BD69" s="121"/>
     </row>
     <row r="70" spans="3:56" ht="15" customHeight="1">
       <c r="C70" s="45"/>
-      <c r="D70" s="37">
-        <v>1</v>
-      </c>
-      <c r="E70" s="110" t="s">
-        <v>109</v>
-      </c>
-      <c r="F70" s="111"/>
-      <c r="G70" s="111"/>
-      <c r="H70" s="111"/>
-      <c r="I70" s="111"/>
-      <c r="J70" s="111"/>
-      <c r="K70" s="111"/>
-      <c r="L70" s="111"/>
-      <c r="M70" s="111"/>
-      <c r="N70" s="111"/>
-      <c r="O70" s="111"/>
-      <c r="P70" s="111"/>
-      <c r="Q70" s="112"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="104"/>
+      <c r="F70" s="105"/>
+      <c r="G70" s="105"/>
+      <c r="H70" s="105"/>
+      <c r="I70" s="105"/>
+      <c r="J70" s="105"/>
+      <c r="K70" s="105"/>
+      <c r="L70" s="105"/>
+      <c r="M70" s="105"/>
+      <c r="N70" s="105"/>
+      <c r="O70" s="105"/>
+      <c r="P70" s="105"/>
+      <c r="Q70" s="106"/>
       <c r="R70" s="34"/>
       <c r="S70" s="34"/>
       <c r="T70" s="34"/>
       <c r="U70" s="34"/>
       <c r="V70" s="34"/>
       <c r="W70" s="37"/>
-      <c r="X70" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y70" s="114"/>
-      <c r="Z70" s="114"/>
-      <c r="AA70" s="114"/>
-      <c r="AB70" s="114"/>
-      <c r="AC70" s="114"/>
-      <c r="AD70" s="115"/>
-      <c r="AE70" s="110" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF70" s="111"/>
-      <c r="AG70" s="111"/>
-      <c r="AH70" s="111"/>
-      <c r="AI70" s="111"/>
-      <c r="AJ70" s="111"/>
-      <c r="AK70" s="112"/>
+      <c r="X70" s="157"/>
+      <c r="Y70" s="158"/>
+      <c r="Z70" s="158"/>
+      <c r="AA70" s="158"/>
+      <c r="AB70" s="158"/>
+      <c r="AC70" s="158"/>
+      <c r="AD70" s="159"/>
+      <c r="AE70" s="104"/>
+      <c r="AF70" s="105"/>
+      <c r="AG70" s="105"/>
+      <c r="AH70" s="105"/>
+      <c r="AI70" s="105"/>
+      <c r="AJ70" s="105"/>
+      <c r="AK70" s="106"/>
       <c r="AL70" s="34"/>
       <c r="AM70" s="34"/>
       <c r="AN70" s="34"/>
@@ -7363,47 +7356,47 @@
     <row r="71" spans="3:56" ht="15" customHeight="1">
       <c r="C71" s="46"/>
       <c r="D71" s="40">
-        <v>2</v>
-      </c>
-      <c r="E71" s="104" t="s">
-        <v>112</v>
-      </c>
-      <c r="F71" s="105"/>
-      <c r="G71" s="105"/>
-      <c r="H71" s="105"/>
-      <c r="I71" s="105"/>
-      <c r="J71" s="105"/>
-      <c r="K71" s="105"/>
-      <c r="L71" s="105"/>
-      <c r="M71" s="105"/>
-      <c r="N71" s="105"/>
-      <c r="O71" s="105"/>
-      <c r="P71" s="105"/>
-      <c r="Q71" s="106"/>
+        <v>1</v>
+      </c>
+      <c r="E71" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="F71" s="108"/>
+      <c r="G71" s="108"/>
+      <c r="H71" s="108"/>
+      <c r="I71" s="108"/>
+      <c r="J71" s="108"/>
+      <c r="K71" s="108"/>
+      <c r="L71" s="108"/>
+      <c r="M71" s="108"/>
+      <c r="N71" s="108"/>
+      <c r="O71" s="108"/>
+      <c r="P71" s="108"/>
+      <c r="Q71" s="109"/>
       <c r="R71" s="38"/>
       <c r="S71" s="38"/>
       <c r="T71" s="38"/>
       <c r="U71" s="38"/>
       <c r="V71" s="38"/>
       <c r="W71" s="40"/>
-      <c r="X71" s="107" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y71" s="108"/>
-      <c r="Z71" s="108"/>
-      <c r="AA71" s="108"/>
-      <c r="AB71" s="108"/>
-      <c r="AC71" s="108"/>
-      <c r="AD71" s="109"/>
-      <c r="AE71" s="104" t="s">
+      <c r="X71" s="122" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y71" s="123"/>
+      <c r="Z71" s="123"/>
+      <c r="AA71" s="123"/>
+      <c r="AB71" s="123"/>
+      <c r="AC71" s="123"/>
+      <c r="AD71" s="124"/>
+      <c r="AE71" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="AF71" s="105"/>
-      <c r="AG71" s="105"/>
-      <c r="AH71" s="105"/>
-      <c r="AI71" s="105"/>
-      <c r="AJ71" s="105"/>
-      <c r="AK71" s="106"/>
+      <c r="AF71" s="108"/>
+      <c r="AG71" s="108"/>
+      <c r="AH71" s="108"/>
+      <c r="AI71" s="108"/>
+      <c r="AJ71" s="108"/>
+      <c r="AK71" s="109"/>
       <c r="AL71" s="38"/>
       <c r="AM71" s="38"/>
       <c r="AN71" s="38"/>
@@ -7427,47 +7420,47 @@
     <row r="72" spans="3:56" ht="15" customHeight="1">
       <c r="C72" s="46"/>
       <c r="D72" s="40">
-        <v>3</v>
-      </c>
-      <c r="E72" s="104" t="s">
-        <v>113</v>
-      </c>
-      <c r="F72" s="105"/>
-      <c r="G72" s="105"/>
-      <c r="H72" s="105"/>
-      <c r="I72" s="105"/>
-      <c r="J72" s="105"/>
-      <c r="K72" s="105"/>
-      <c r="L72" s="105"/>
-      <c r="M72" s="105"/>
-      <c r="N72" s="105"/>
-      <c r="O72" s="105"/>
-      <c r="P72" s="105"/>
-      <c r="Q72" s="106"/>
+        <v>2</v>
+      </c>
+      <c r="E72" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="F72" s="108"/>
+      <c r="G72" s="108"/>
+      <c r="H72" s="108"/>
+      <c r="I72" s="108"/>
+      <c r="J72" s="108"/>
+      <c r="K72" s="108"/>
+      <c r="L72" s="108"/>
+      <c r="M72" s="108"/>
+      <c r="N72" s="108"/>
+      <c r="O72" s="108"/>
+      <c r="P72" s="108"/>
+      <c r="Q72" s="109"/>
       <c r="R72" s="38"/>
       <c r="S72" s="38"/>
       <c r="T72" s="38"/>
       <c r="U72" s="38"/>
       <c r="V72" s="38"/>
       <c r="W72" s="40"/>
-      <c r="X72" s="107" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y72" s="108"/>
-      <c r="Z72" s="108"/>
-      <c r="AA72" s="108"/>
-      <c r="AB72" s="108"/>
-      <c r="AC72" s="108"/>
-      <c r="AD72" s="109"/>
-      <c r="AE72" s="104" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF72" s="105"/>
-      <c r="AG72" s="105"/>
-      <c r="AH72" s="105"/>
-      <c r="AI72" s="105"/>
-      <c r="AJ72" s="105"/>
-      <c r="AK72" s="106"/>
+      <c r="X72" s="122" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y72" s="123"/>
+      <c r="Z72" s="123"/>
+      <c r="AA72" s="123"/>
+      <c r="AB72" s="123"/>
+      <c r="AC72" s="123"/>
+      <c r="AD72" s="124"/>
+      <c r="AE72" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF72" s="108"/>
+      <c r="AG72" s="108"/>
+      <c r="AH72" s="108"/>
+      <c r="AI72" s="108"/>
+      <c r="AJ72" s="108"/>
+      <c r="AK72" s="109"/>
       <c r="AL72" s="38"/>
       <c r="AM72" s="38"/>
       <c r="AN72" s="38"/>
@@ -8166,68 +8159,68 @@
       </c>
     </row>
     <row r="88" spans="3:56" ht="15">
-      <c r="C88" s="92" t="s">
+      <c r="C88" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="90"/>
-      <c r="E88" s="90" t="s">
+      <c r="D88" s="103"/>
+      <c r="E88" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="F88" s="90"/>
-      <c r="G88" s="90"/>
-      <c r="H88" s="90"/>
-      <c r="I88" s="90"/>
-      <c r="J88" s="90"/>
-      <c r="K88" s="90"/>
-      <c r="L88" s="90"/>
-      <c r="M88" s="90"/>
-      <c r="N88" s="90"/>
-      <c r="O88" s="90"/>
-      <c r="P88" s="90"/>
-      <c r="Q88" s="90"/>
-      <c r="R88" s="90" t="s">
+      <c r="F88" s="103"/>
+      <c r="G88" s="103"/>
+      <c r="H88" s="103"/>
+      <c r="I88" s="103"/>
+      <c r="J88" s="103"/>
+      <c r="K88" s="103"/>
+      <c r="L88" s="103"/>
+      <c r="M88" s="103"/>
+      <c r="N88" s="103"/>
+      <c r="O88" s="103"/>
+      <c r="P88" s="103"/>
+      <c r="Q88" s="103"/>
+      <c r="R88" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="S88" s="90"/>
-      <c r="T88" s="90"/>
-      <c r="U88" s="90"/>
-      <c r="V88" s="90"/>
-      <c r="W88" s="90"/>
-      <c r="X88" s="90" t="s">
+      <c r="S88" s="103"/>
+      <c r="T88" s="103"/>
+      <c r="U88" s="103"/>
+      <c r="V88" s="103"/>
+      <c r="W88" s="103"/>
+      <c r="X88" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="Y88" s="90"/>
-      <c r="Z88" s="90"/>
-      <c r="AA88" s="90"/>
-      <c r="AB88" s="90"/>
-      <c r="AC88" s="90"/>
-      <c r="AD88" s="90"/>
-      <c r="AE88" s="90"/>
-      <c r="AF88" s="90"/>
-      <c r="AG88" s="90"/>
-      <c r="AH88" s="90"/>
-      <c r="AI88" s="90"/>
-      <c r="AJ88" s="90"/>
-      <c r="AK88" s="90"/>
-      <c r="AL88" s="90"/>
-      <c r="AM88" s="90"/>
-      <c r="AN88" s="90"/>
-      <c r="AO88" s="90"/>
-      <c r="AP88" s="90"/>
-      <c r="AQ88" s="90"/>
-      <c r="AR88" s="90"/>
-      <c r="AS88" s="90"/>
-      <c r="AT88" s="90"/>
-      <c r="AU88" s="90"/>
-      <c r="AV88" s="90"/>
-      <c r="AW88" s="90"/>
-      <c r="AX88" s="90"/>
-      <c r="AY88" s="90"/>
-      <c r="AZ88" s="90"/>
-      <c r="BA88" s="90"/>
-      <c r="BB88" s="90"/>
-      <c r="BC88" s="90"/>
-      <c r="BD88" s="91"/>
+      <c r="Y88" s="103"/>
+      <c r="Z88" s="103"/>
+      <c r="AA88" s="103"/>
+      <c r="AB88" s="103"/>
+      <c r="AC88" s="103"/>
+      <c r="AD88" s="103"/>
+      <c r="AE88" s="103"/>
+      <c r="AF88" s="103"/>
+      <c r="AG88" s="103"/>
+      <c r="AH88" s="103"/>
+      <c r="AI88" s="103"/>
+      <c r="AJ88" s="103"/>
+      <c r="AK88" s="103"/>
+      <c r="AL88" s="103"/>
+      <c r="AM88" s="103"/>
+      <c r="AN88" s="103"/>
+      <c r="AO88" s="103"/>
+      <c r="AP88" s="103"/>
+      <c r="AQ88" s="103"/>
+      <c r="AR88" s="103"/>
+      <c r="AS88" s="103"/>
+      <c r="AT88" s="103"/>
+      <c r="AU88" s="103"/>
+      <c r="AV88" s="103"/>
+      <c r="AW88" s="103"/>
+      <c r="AX88" s="103"/>
+      <c r="AY88" s="103"/>
+      <c r="AZ88" s="103"/>
+      <c r="BA88" s="103"/>
+      <c r="BB88" s="103"/>
+      <c r="BC88" s="103"/>
+      <c r="BD88" s="121"/>
     </row>
     <row r="89" spans="3:56" ht="15" customHeight="1">
       <c r="C89" s="33"/>
@@ -8252,46 +8245,46 @@
       <c r="R89" s="34"/>
       <c r="S89" s="34"/>
       <c r="T89" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="U89" s="34"/>
       <c r="V89" s="34"/>
       <c r="W89" s="37"/>
-      <c r="X89" s="110" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y89" s="111"/>
-      <c r="Z89" s="111"/>
-      <c r="AA89" s="111"/>
-      <c r="AB89" s="111"/>
-      <c r="AC89" s="111"/>
-      <c r="AD89" s="111"/>
-      <c r="AE89" s="111"/>
-      <c r="AF89" s="111"/>
-      <c r="AG89" s="111"/>
-      <c r="AH89" s="111"/>
-      <c r="AI89" s="111"/>
-      <c r="AJ89" s="111"/>
-      <c r="AK89" s="111"/>
-      <c r="AL89" s="111"/>
-      <c r="AM89" s="111"/>
-      <c r="AN89" s="111"/>
-      <c r="AO89" s="111"/>
-      <c r="AP89" s="111"/>
-      <c r="AQ89" s="111"/>
-      <c r="AR89" s="111"/>
-      <c r="AS89" s="111"/>
-      <c r="AT89" s="111"/>
-      <c r="AU89" s="111"/>
-      <c r="AV89" s="111"/>
-      <c r="AW89" s="111"/>
-      <c r="AX89" s="111"/>
-      <c r="AY89" s="111"/>
-      <c r="AZ89" s="111"/>
-      <c r="BA89" s="111"/>
-      <c r="BB89" s="111"/>
-      <c r="BC89" s="111"/>
-      <c r="BD89" s="112"/>
+      <c r="X89" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y89" s="105"/>
+      <c r="Z89" s="105"/>
+      <c r="AA89" s="105"/>
+      <c r="AB89" s="105"/>
+      <c r="AC89" s="105"/>
+      <c r="AD89" s="105"/>
+      <c r="AE89" s="105"/>
+      <c r="AF89" s="105"/>
+      <c r="AG89" s="105"/>
+      <c r="AH89" s="105"/>
+      <c r="AI89" s="105"/>
+      <c r="AJ89" s="105"/>
+      <c r="AK89" s="105"/>
+      <c r="AL89" s="105"/>
+      <c r="AM89" s="105"/>
+      <c r="AN89" s="105"/>
+      <c r="AO89" s="105"/>
+      <c r="AP89" s="105"/>
+      <c r="AQ89" s="105"/>
+      <c r="AR89" s="105"/>
+      <c r="AS89" s="105"/>
+      <c r="AT89" s="105"/>
+      <c r="AU89" s="105"/>
+      <c r="AV89" s="105"/>
+      <c r="AW89" s="105"/>
+      <c r="AX89" s="105"/>
+      <c r="AY89" s="105"/>
+      <c r="AZ89" s="105"/>
+      <c r="BA89" s="105"/>
+      <c r="BB89" s="105"/>
+      <c r="BC89" s="105"/>
+      <c r="BD89" s="106"/>
     </row>
     <row r="90" spans="3:56" ht="15" customHeight="1">
       <c r="C90" s="39"/>
@@ -8316,46 +8309,46 @@
       <c r="R90" s="38"/>
       <c r="S90" s="38"/>
       <c r="T90" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="U90" s="38"/>
       <c r="V90" s="38"/>
       <c r="W90" s="40"/>
-      <c r="X90" s="104" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y90" s="105"/>
-      <c r="Z90" s="105"/>
-      <c r="AA90" s="105"/>
-      <c r="AB90" s="105"/>
-      <c r="AC90" s="105"/>
-      <c r="AD90" s="105"/>
-      <c r="AE90" s="105"/>
-      <c r="AF90" s="105"/>
-      <c r="AG90" s="105"/>
-      <c r="AH90" s="105"/>
-      <c r="AI90" s="105"/>
-      <c r="AJ90" s="105"/>
-      <c r="AK90" s="105"/>
-      <c r="AL90" s="105"/>
-      <c r="AM90" s="105"/>
-      <c r="AN90" s="105"/>
-      <c r="AO90" s="105"/>
-      <c r="AP90" s="105"/>
-      <c r="AQ90" s="105"/>
-      <c r="AR90" s="105"/>
-      <c r="AS90" s="105"/>
-      <c r="AT90" s="105"/>
-      <c r="AU90" s="105"/>
-      <c r="AV90" s="105"/>
-      <c r="AW90" s="105"/>
-      <c r="AX90" s="105"/>
-      <c r="AY90" s="105"/>
-      <c r="AZ90" s="105"/>
-      <c r="BA90" s="105"/>
-      <c r="BB90" s="105"/>
-      <c r="BC90" s="105"/>
-      <c r="BD90" s="106"/>
+      <c r="X90" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y90" s="108"/>
+      <c r="Z90" s="108"/>
+      <c r="AA90" s="108"/>
+      <c r="AB90" s="108"/>
+      <c r="AC90" s="108"/>
+      <c r="AD90" s="108"/>
+      <c r="AE90" s="108"/>
+      <c r="AF90" s="108"/>
+      <c r="AG90" s="108"/>
+      <c r="AH90" s="108"/>
+      <c r="AI90" s="108"/>
+      <c r="AJ90" s="108"/>
+      <c r="AK90" s="108"/>
+      <c r="AL90" s="108"/>
+      <c r="AM90" s="108"/>
+      <c r="AN90" s="108"/>
+      <c r="AO90" s="108"/>
+      <c r="AP90" s="108"/>
+      <c r="AQ90" s="108"/>
+      <c r="AR90" s="108"/>
+      <c r="AS90" s="108"/>
+      <c r="AT90" s="108"/>
+      <c r="AU90" s="108"/>
+      <c r="AV90" s="108"/>
+      <c r="AW90" s="108"/>
+      <c r="AX90" s="108"/>
+      <c r="AY90" s="108"/>
+      <c r="AZ90" s="108"/>
+      <c r="BA90" s="108"/>
+      <c r="BB90" s="108"/>
+      <c r="BC90" s="108"/>
+      <c r="BD90" s="109"/>
     </row>
     <row r="91" spans="3:56" ht="15" customHeight="1">
       <c r="C91" s="39"/>
@@ -8380,46 +8373,46 @@
       <c r="R91" s="38"/>
       <c r="S91" s="38"/>
       <c r="T91" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="U91" s="38"/>
       <c r="V91" s="38"/>
       <c r="W91" s="40"/>
-      <c r="X91" s="104" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y91" s="105"/>
-      <c r="Z91" s="105"/>
-      <c r="AA91" s="105"/>
-      <c r="AB91" s="105"/>
-      <c r="AC91" s="105"/>
-      <c r="AD91" s="105"/>
-      <c r="AE91" s="105"/>
-      <c r="AF91" s="105"/>
-      <c r="AG91" s="105"/>
-      <c r="AH91" s="105"/>
-      <c r="AI91" s="105"/>
-      <c r="AJ91" s="105"/>
-      <c r="AK91" s="105"/>
-      <c r="AL91" s="105"/>
-      <c r="AM91" s="105"/>
-      <c r="AN91" s="105"/>
-      <c r="AO91" s="105"/>
-      <c r="AP91" s="105"/>
-      <c r="AQ91" s="105"/>
-      <c r="AR91" s="105"/>
-      <c r="AS91" s="105"/>
-      <c r="AT91" s="105"/>
-      <c r="AU91" s="105"/>
-      <c r="AV91" s="105"/>
-      <c r="AW91" s="105"/>
-      <c r="AX91" s="105"/>
-      <c r="AY91" s="105"/>
-      <c r="AZ91" s="105"/>
-      <c r="BA91" s="105"/>
-      <c r="BB91" s="105"/>
-      <c r="BC91" s="105"/>
-      <c r="BD91" s="106"/>
+      <c r="X91" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y91" s="108"/>
+      <c r="Z91" s="108"/>
+      <c r="AA91" s="108"/>
+      <c r="AB91" s="108"/>
+      <c r="AC91" s="108"/>
+      <c r="AD91" s="108"/>
+      <c r="AE91" s="108"/>
+      <c r="AF91" s="108"/>
+      <c r="AG91" s="108"/>
+      <c r="AH91" s="108"/>
+      <c r="AI91" s="108"/>
+      <c r="AJ91" s="108"/>
+      <c r="AK91" s="108"/>
+      <c r="AL91" s="108"/>
+      <c r="AM91" s="108"/>
+      <c r="AN91" s="108"/>
+      <c r="AO91" s="108"/>
+      <c r="AP91" s="108"/>
+      <c r="AQ91" s="108"/>
+      <c r="AR91" s="108"/>
+      <c r="AS91" s="108"/>
+      <c r="AT91" s="108"/>
+      <c r="AU91" s="108"/>
+      <c r="AV91" s="108"/>
+      <c r="AW91" s="108"/>
+      <c r="AX91" s="108"/>
+      <c r="AY91" s="108"/>
+      <c r="AZ91" s="108"/>
+      <c r="BA91" s="108"/>
+      <c r="BB91" s="108"/>
+      <c r="BC91" s="108"/>
+      <c r="BD91" s="109"/>
     </row>
     <row r="92" spans="3:56" ht="15" customHeight="1">
       <c r="C92" s="39"/>
@@ -8444,46 +8437,46 @@
       <c r="R92" s="38"/>
       <c r="S92" s="38"/>
       <c r="T92" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="U92" s="38"/>
       <c r="V92" s="38"/>
       <c r="W92" s="40"/>
-      <c r="X92" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y92" s="105"/>
-      <c r="Z92" s="105"/>
-      <c r="AA92" s="105"/>
-      <c r="AB92" s="105"/>
-      <c r="AC92" s="105"/>
-      <c r="AD92" s="105"/>
-      <c r="AE92" s="105"/>
-      <c r="AF92" s="105"/>
-      <c r="AG92" s="105"/>
-      <c r="AH92" s="105"/>
-      <c r="AI92" s="105"/>
-      <c r="AJ92" s="105"/>
-      <c r="AK92" s="105"/>
-      <c r="AL92" s="105"/>
-      <c r="AM92" s="105"/>
-      <c r="AN92" s="105"/>
-      <c r="AO92" s="105"/>
-      <c r="AP92" s="105"/>
-      <c r="AQ92" s="105"/>
-      <c r="AR92" s="105"/>
-      <c r="AS92" s="105"/>
-      <c r="AT92" s="105"/>
-      <c r="AU92" s="105"/>
-      <c r="AV92" s="105"/>
-      <c r="AW92" s="105"/>
-      <c r="AX92" s="105"/>
-      <c r="AY92" s="105"/>
-      <c r="AZ92" s="105"/>
-      <c r="BA92" s="105"/>
-      <c r="BB92" s="105"/>
-      <c r="BC92" s="105"/>
-      <c r="BD92" s="106"/>
+      <c r="X92" s="107" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y92" s="108"/>
+      <c r="Z92" s="108"/>
+      <c r="AA92" s="108"/>
+      <c r="AB92" s="108"/>
+      <c r="AC92" s="108"/>
+      <c r="AD92" s="108"/>
+      <c r="AE92" s="108"/>
+      <c r="AF92" s="108"/>
+      <c r="AG92" s="108"/>
+      <c r="AH92" s="108"/>
+      <c r="AI92" s="108"/>
+      <c r="AJ92" s="108"/>
+      <c r="AK92" s="108"/>
+      <c r="AL92" s="108"/>
+      <c r="AM92" s="108"/>
+      <c r="AN92" s="108"/>
+      <c r="AO92" s="108"/>
+      <c r="AP92" s="108"/>
+      <c r="AQ92" s="108"/>
+      <c r="AR92" s="108"/>
+      <c r="AS92" s="108"/>
+      <c r="AT92" s="108"/>
+      <c r="AU92" s="108"/>
+      <c r="AV92" s="108"/>
+      <c r="AW92" s="108"/>
+      <c r="AX92" s="108"/>
+      <c r="AY92" s="108"/>
+      <c r="AZ92" s="108"/>
+      <c r="BA92" s="108"/>
+      <c r="BB92" s="108"/>
+      <c r="BC92" s="108"/>
+      <c r="BD92" s="109"/>
     </row>
     <row r="93" spans="3:56" ht="15" customHeight="1">
       <c r="C93" s="39"/>
@@ -8508,46 +8501,46 @@
       <c r="R93" s="38"/>
       <c r="S93" s="38"/>
       <c r="T93" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="U93" s="38"/>
       <c r="V93" s="38"/>
       <c r="W93" s="40"/>
-      <c r="X93" s="101" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y93" s="102"/>
-      <c r="Z93" s="102"/>
-      <c r="AA93" s="102"/>
-      <c r="AB93" s="102"/>
-      <c r="AC93" s="102"/>
-      <c r="AD93" s="102"/>
-      <c r="AE93" s="102"/>
-      <c r="AF93" s="102"/>
-      <c r="AG93" s="102"/>
-      <c r="AH93" s="102"/>
-      <c r="AI93" s="102"/>
-      <c r="AJ93" s="102"/>
-      <c r="AK93" s="102"/>
-      <c r="AL93" s="102"/>
-      <c r="AM93" s="102"/>
-      <c r="AN93" s="102"/>
-      <c r="AO93" s="102"/>
-      <c r="AP93" s="102"/>
-      <c r="AQ93" s="102"/>
-      <c r="AR93" s="102"/>
-      <c r="AS93" s="102"/>
-      <c r="AT93" s="102"/>
-      <c r="AU93" s="102"/>
-      <c r="AV93" s="102"/>
-      <c r="AW93" s="102"/>
-      <c r="AX93" s="102"/>
-      <c r="AY93" s="102"/>
-      <c r="AZ93" s="102"/>
-      <c r="BA93" s="102"/>
-      <c r="BB93" s="102"/>
-      <c r="BC93" s="102"/>
-      <c r="BD93" s="103"/>
+      <c r="X93" s="160" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y93" s="161"/>
+      <c r="Z93" s="161"/>
+      <c r="AA93" s="161"/>
+      <c r="AB93" s="161"/>
+      <c r="AC93" s="161"/>
+      <c r="AD93" s="161"/>
+      <c r="AE93" s="161"/>
+      <c r="AF93" s="161"/>
+      <c r="AG93" s="161"/>
+      <c r="AH93" s="161"/>
+      <c r="AI93" s="161"/>
+      <c r="AJ93" s="161"/>
+      <c r="AK93" s="161"/>
+      <c r="AL93" s="161"/>
+      <c r="AM93" s="161"/>
+      <c r="AN93" s="161"/>
+      <c r="AO93" s="161"/>
+      <c r="AP93" s="161"/>
+      <c r="AQ93" s="161"/>
+      <c r="AR93" s="161"/>
+      <c r="AS93" s="161"/>
+      <c r="AT93" s="161"/>
+      <c r="AU93" s="161"/>
+      <c r="AV93" s="161"/>
+      <c r="AW93" s="161"/>
+      <c r="AX93" s="161"/>
+      <c r="AY93" s="161"/>
+      <c r="AZ93" s="161"/>
+      <c r="BA93" s="161"/>
+      <c r="BB93" s="161"/>
+      <c r="BC93" s="161"/>
+      <c r="BD93" s="162"/>
     </row>
     <row r="94" spans="3:56" ht="15" customHeight="1">
       <c r="C94" s="39"/>
@@ -8572,46 +8565,46 @@
       <c r="R94" s="38"/>
       <c r="S94" s="38"/>
       <c r="T94" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="U94" s="38"/>
       <c r="V94" s="38"/>
       <c r="W94" s="40"/>
-      <c r="X94" s="101" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y94" s="102"/>
-      <c r="Z94" s="102"/>
-      <c r="AA94" s="102"/>
-      <c r="AB94" s="102"/>
-      <c r="AC94" s="102"/>
-      <c r="AD94" s="102"/>
-      <c r="AE94" s="102"/>
-      <c r="AF94" s="102"/>
-      <c r="AG94" s="102"/>
-      <c r="AH94" s="102"/>
-      <c r="AI94" s="102"/>
-      <c r="AJ94" s="102"/>
-      <c r="AK94" s="102"/>
-      <c r="AL94" s="102"/>
-      <c r="AM94" s="102"/>
-      <c r="AN94" s="102"/>
-      <c r="AO94" s="102"/>
-      <c r="AP94" s="102"/>
-      <c r="AQ94" s="102"/>
-      <c r="AR94" s="102"/>
-      <c r="AS94" s="102"/>
-      <c r="AT94" s="102"/>
-      <c r="AU94" s="102"/>
-      <c r="AV94" s="102"/>
-      <c r="AW94" s="102"/>
-      <c r="AX94" s="102"/>
-      <c r="AY94" s="102"/>
-      <c r="AZ94" s="102"/>
-      <c r="BA94" s="102"/>
-      <c r="BB94" s="102"/>
-      <c r="BC94" s="102"/>
-      <c r="BD94" s="103"/>
+      <c r="X94" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y94" s="161"/>
+      <c r="Z94" s="161"/>
+      <c r="AA94" s="161"/>
+      <c r="AB94" s="161"/>
+      <c r="AC94" s="161"/>
+      <c r="AD94" s="161"/>
+      <c r="AE94" s="161"/>
+      <c r="AF94" s="161"/>
+      <c r="AG94" s="161"/>
+      <c r="AH94" s="161"/>
+      <c r="AI94" s="161"/>
+      <c r="AJ94" s="161"/>
+      <c r="AK94" s="161"/>
+      <c r="AL94" s="161"/>
+      <c r="AM94" s="161"/>
+      <c r="AN94" s="161"/>
+      <c r="AO94" s="161"/>
+      <c r="AP94" s="161"/>
+      <c r="AQ94" s="161"/>
+      <c r="AR94" s="161"/>
+      <c r="AS94" s="161"/>
+      <c r="AT94" s="161"/>
+      <c r="AU94" s="161"/>
+      <c r="AV94" s="161"/>
+      <c r="AW94" s="161"/>
+      <c r="AX94" s="161"/>
+      <c r="AY94" s="161"/>
+      <c r="AZ94" s="161"/>
+      <c r="BA94" s="161"/>
+      <c r="BB94" s="161"/>
+      <c r="BC94" s="161"/>
+      <c r="BD94" s="162"/>
     </row>
     <row r="95" spans="3:56" ht="15" customHeight="1">
       <c r="C95" s="39"/>
@@ -8636,46 +8629,46 @@
       <c r="R95" s="38"/>
       <c r="S95" s="38"/>
       <c r="T95" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="U95" s="38"/>
       <c r="V95" s="38"/>
       <c r="W95" s="40"/>
-      <c r="X95" s="104" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y95" s="105"/>
-      <c r="Z95" s="105"/>
-      <c r="AA95" s="105"/>
-      <c r="AB95" s="105"/>
-      <c r="AC95" s="105"/>
-      <c r="AD95" s="105"/>
-      <c r="AE95" s="105"/>
-      <c r="AF95" s="105"/>
-      <c r="AG95" s="105"/>
-      <c r="AH95" s="105"/>
-      <c r="AI95" s="105"/>
-      <c r="AJ95" s="105"/>
-      <c r="AK95" s="105"/>
-      <c r="AL95" s="105"/>
-      <c r="AM95" s="105"/>
-      <c r="AN95" s="105"/>
-      <c r="AO95" s="105"/>
-      <c r="AP95" s="105"/>
-      <c r="AQ95" s="105"/>
-      <c r="AR95" s="105"/>
-      <c r="AS95" s="105"/>
-      <c r="AT95" s="105"/>
-      <c r="AU95" s="105"/>
-      <c r="AV95" s="105"/>
-      <c r="AW95" s="105"/>
-      <c r="AX95" s="105"/>
-      <c r="AY95" s="105"/>
-      <c r="AZ95" s="105"/>
-      <c r="BA95" s="105"/>
-      <c r="BB95" s="105"/>
-      <c r="BC95" s="105"/>
-      <c r="BD95" s="106"/>
+      <c r="X95" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y95" s="108"/>
+      <c r="Z95" s="108"/>
+      <c r="AA95" s="108"/>
+      <c r="AB95" s="108"/>
+      <c r="AC95" s="108"/>
+      <c r="AD95" s="108"/>
+      <c r="AE95" s="108"/>
+      <c r="AF95" s="108"/>
+      <c r="AG95" s="108"/>
+      <c r="AH95" s="108"/>
+      <c r="AI95" s="108"/>
+      <c r="AJ95" s="108"/>
+      <c r="AK95" s="108"/>
+      <c r="AL95" s="108"/>
+      <c r="AM95" s="108"/>
+      <c r="AN95" s="108"/>
+      <c r="AO95" s="108"/>
+      <c r="AP95" s="108"/>
+      <c r="AQ95" s="108"/>
+      <c r="AR95" s="108"/>
+      <c r="AS95" s="108"/>
+      <c r="AT95" s="108"/>
+      <c r="AU95" s="108"/>
+      <c r="AV95" s="108"/>
+      <c r="AW95" s="108"/>
+      <c r="AX95" s="108"/>
+      <c r="AY95" s="108"/>
+      <c r="AZ95" s="108"/>
+      <c r="BA95" s="108"/>
+      <c r="BB95" s="108"/>
+      <c r="BC95" s="108"/>
+      <c r="BD95" s="109"/>
     </row>
     <row r="96" spans="3:56" ht="15" customHeight="1">
       <c r="C96" s="39"/>
@@ -8700,46 +8693,46 @@
       <c r="R96" s="38"/>
       <c r="S96" s="38"/>
       <c r="T96" s="38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="U96" s="38"/>
       <c r="V96" s="38"/>
       <c r="W96" s="40"/>
-      <c r="X96" s="101" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y96" s="102"/>
-      <c r="Z96" s="102"/>
-      <c r="AA96" s="102"/>
-      <c r="AB96" s="102"/>
-      <c r="AC96" s="102"/>
-      <c r="AD96" s="102"/>
-      <c r="AE96" s="102"/>
-      <c r="AF96" s="102"/>
-      <c r="AG96" s="102"/>
-      <c r="AH96" s="102"/>
-      <c r="AI96" s="102"/>
-      <c r="AJ96" s="102"/>
-      <c r="AK96" s="102"/>
-      <c r="AL96" s="102"/>
-      <c r="AM96" s="102"/>
-      <c r="AN96" s="102"/>
-      <c r="AO96" s="102"/>
-      <c r="AP96" s="102"/>
-      <c r="AQ96" s="102"/>
-      <c r="AR96" s="102"/>
-      <c r="AS96" s="102"/>
-      <c r="AT96" s="102"/>
-      <c r="AU96" s="102"/>
-      <c r="AV96" s="102"/>
-      <c r="AW96" s="102"/>
-      <c r="AX96" s="102"/>
-      <c r="AY96" s="102"/>
-      <c r="AZ96" s="102"/>
-      <c r="BA96" s="102"/>
-      <c r="BB96" s="102"/>
-      <c r="BC96" s="102"/>
-      <c r="BD96" s="103"/>
+      <c r="X96" s="160" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y96" s="161"/>
+      <c r="Z96" s="161"/>
+      <c r="AA96" s="161"/>
+      <c r="AB96" s="161"/>
+      <c r="AC96" s="161"/>
+      <c r="AD96" s="161"/>
+      <c r="AE96" s="161"/>
+      <c r="AF96" s="161"/>
+      <c r="AG96" s="161"/>
+      <c r="AH96" s="161"/>
+      <c r="AI96" s="161"/>
+      <c r="AJ96" s="161"/>
+      <c r="AK96" s="161"/>
+      <c r="AL96" s="161"/>
+      <c r="AM96" s="161"/>
+      <c r="AN96" s="161"/>
+      <c r="AO96" s="161"/>
+      <c r="AP96" s="161"/>
+      <c r="AQ96" s="161"/>
+      <c r="AR96" s="161"/>
+      <c r="AS96" s="161"/>
+      <c r="AT96" s="161"/>
+      <c r="AU96" s="161"/>
+      <c r="AV96" s="161"/>
+      <c r="AW96" s="161"/>
+      <c r="AX96" s="161"/>
+      <c r="AY96" s="161"/>
+      <c r="AZ96" s="161"/>
+      <c r="BA96" s="161"/>
+      <c r="BB96" s="161"/>
+      <c r="BC96" s="161"/>
+      <c r="BD96" s="162"/>
     </row>
     <row r="97" spans="3:56" ht="15" customHeight="1">
       <c r="C97" s="39"/>
@@ -8764,46 +8757,46 @@
       <c r="R97" s="38"/>
       <c r="S97" s="38"/>
       <c r="T97" s="38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="U97" s="38"/>
       <c r="V97" s="38"/>
       <c r="W97" s="40"/>
-      <c r="X97" s="101" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y97" s="102"/>
-      <c r="Z97" s="102"/>
-      <c r="AA97" s="102"/>
-      <c r="AB97" s="102"/>
-      <c r="AC97" s="102"/>
-      <c r="AD97" s="102"/>
-      <c r="AE97" s="102"/>
-      <c r="AF97" s="102"/>
-      <c r="AG97" s="102"/>
-      <c r="AH97" s="102"/>
-      <c r="AI97" s="102"/>
-      <c r="AJ97" s="102"/>
-      <c r="AK97" s="102"/>
-      <c r="AL97" s="102"/>
-      <c r="AM97" s="102"/>
-      <c r="AN97" s="102"/>
-      <c r="AO97" s="102"/>
-      <c r="AP97" s="102"/>
-      <c r="AQ97" s="102"/>
-      <c r="AR97" s="102"/>
-      <c r="AS97" s="102"/>
-      <c r="AT97" s="102"/>
-      <c r="AU97" s="102"/>
-      <c r="AV97" s="102"/>
-      <c r="AW97" s="102"/>
-      <c r="AX97" s="102"/>
-      <c r="AY97" s="102"/>
-      <c r="AZ97" s="102"/>
-      <c r="BA97" s="102"/>
-      <c r="BB97" s="102"/>
-      <c r="BC97" s="102"/>
-      <c r="BD97" s="103"/>
+      <c r="X97" s="160" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y97" s="161"/>
+      <c r="Z97" s="161"/>
+      <c r="AA97" s="161"/>
+      <c r="AB97" s="161"/>
+      <c r="AC97" s="161"/>
+      <c r="AD97" s="161"/>
+      <c r="AE97" s="161"/>
+      <c r="AF97" s="161"/>
+      <c r="AG97" s="161"/>
+      <c r="AH97" s="161"/>
+      <c r="AI97" s="161"/>
+      <c r="AJ97" s="161"/>
+      <c r="AK97" s="161"/>
+      <c r="AL97" s="161"/>
+      <c r="AM97" s="161"/>
+      <c r="AN97" s="161"/>
+      <c r="AO97" s="161"/>
+      <c r="AP97" s="161"/>
+      <c r="AQ97" s="161"/>
+      <c r="AR97" s="161"/>
+      <c r="AS97" s="161"/>
+      <c r="AT97" s="161"/>
+      <c r="AU97" s="161"/>
+      <c r="AV97" s="161"/>
+      <c r="AW97" s="161"/>
+      <c r="AX97" s="161"/>
+      <c r="AY97" s="161"/>
+      <c r="AZ97" s="161"/>
+      <c r="BA97" s="161"/>
+      <c r="BB97" s="161"/>
+      <c r="BC97" s="161"/>
+      <c r="BD97" s="162"/>
     </row>
     <row r="98" spans="3:56" ht="15" customHeight="1">
       <c r="C98" s="39"/>
@@ -8828,46 +8821,46 @@
       <c r="R98" s="38"/>
       <c r="S98" s="38"/>
       <c r="T98" s="38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="U98" s="38"/>
       <c r="V98" s="38"/>
       <c r="W98" s="40"/>
-      <c r="X98" s="101" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y98" s="102"/>
-      <c r="Z98" s="102"/>
-      <c r="AA98" s="102"/>
-      <c r="AB98" s="102"/>
-      <c r="AC98" s="102"/>
-      <c r="AD98" s="102"/>
-      <c r="AE98" s="102"/>
-      <c r="AF98" s="102"/>
-      <c r="AG98" s="102"/>
-      <c r="AH98" s="102"/>
-      <c r="AI98" s="102"/>
-      <c r="AJ98" s="102"/>
-      <c r="AK98" s="102"/>
-      <c r="AL98" s="102"/>
-      <c r="AM98" s="102"/>
-      <c r="AN98" s="102"/>
-      <c r="AO98" s="102"/>
-      <c r="AP98" s="102"/>
-      <c r="AQ98" s="102"/>
-      <c r="AR98" s="102"/>
-      <c r="AS98" s="102"/>
-      <c r="AT98" s="102"/>
-      <c r="AU98" s="102"/>
-      <c r="AV98" s="102"/>
-      <c r="AW98" s="102"/>
-      <c r="AX98" s="102"/>
-      <c r="AY98" s="102"/>
-      <c r="AZ98" s="102"/>
-      <c r="BA98" s="102"/>
-      <c r="BB98" s="102"/>
-      <c r="BC98" s="102"/>
-      <c r="BD98" s="103"/>
+      <c r="X98" s="160" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y98" s="161"/>
+      <c r="Z98" s="161"/>
+      <c r="AA98" s="161"/>
+      <c r="AB98" s="161"/>
+      <c r="AC98" s="161"/>
+      <c r="AD98" s="161"/>
+      <c r="AE98" s="161"/>
+      <c r="AF98" s="161"/>
+      <c r="AG98" s="161"/>
+      <c r="AH98" s="161"/>
+      <c r="AI98" s="161"/>
+      <c r="AJ98" s="161"/>
+      <c r="AK98" s="161"/>
+      <c r="AL98" s="161"/>
+      <c r="AM98" s="161"/>
+      <c r="AN98" s="161"/>
+      <c r="AO98" s="161"/>
+      <c r="AP98" s="161"/>
+      <c r="AQ98" s="161"/>
+      <c r="AR98" s="161"/>
+      <c r="AS98" s="161"/>
+      <c r="AT98" s="161"/>
+      <c r="AU98" s="161"/>
+      <c r="AV98" s="161"/>
+      <c r="AW98" s="161"/>
+      <c r="AX98" s="161"/>
+      <c r="AY98" s="161"/>
+      <c r="AZ98" s="161"/>
+      <c r="BA98" s="161"/>
+      <c r="BB98" s="161"/>
+      <c r="BC98" s="161"/>
+      <c r="BD98" s="162"/>
     </row>
     <row r="99" spans="3:56" ht="15" customHeight="1">
       <c r="C99" s="39"/>
@@ -8892,46 +8885,46 @@
       <c r="R99" s="38"/>
       <c r="S99" s="38"/>
       <c r="T99" s="38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="U99" s="38"/>
       <c r="V99" s="38"/>
       <c r="W99" s="40"/>
-      <c r="X99" s="101" t="s">
+      <c r="X99" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="Y99" s="102"/>
-      <c r="Z99" s="102"/>
-      <c r="AA99" s="102"/>
-      <c r="AB99" s="102"/>
-      <c r="AC99" s="102"/>
-      <c r="AD99" s="102"/>
-      <c r="AE99" s="102"/>
-      <c r="AF99" s="102"/>
-      <c r="AG99" s="102"/>
-      <c r="AH99" s="102"/>
-      <c r="AI99" s="102"/>
-      <c r="AJ99" s="102"/>
-      <c r="AK99" s="102"/>
-      <c r="AL99" s="102"/>
-      <c r="AM99" s="102"/>
-      <c r="AN99" s="102"/>
-      <c r="AO99" s="102"/>
-      <c r="AP99" s="102"/>
-      <c r="AQ99" s="102"/>
-      <c r="AR99" s="102"/>
-      <c r="AS99" s="102"/>
-      <c r="AT99" s="102"/>
-      <c r="AU99" s="102"/>
-      <c r="AV99" s="102"/>
-      <c r="AW99" s="102"/>
-      <c r="AX99" s="102"/>
-      <c r="AY99" s="102"/>
-      <c r="AZ99" s="102"/>
-      <c r="BA99" s="102"/>
-      <c r="BB99" s="102"/>
-      <c r="BC99" s="102"/>
-      <c r="BD99" s="103"/>
+      <c r="Y99" s="161"/>
+      <c r="Z99" s="161"/>
+      <c r="AA99" s="161"/>
+      <c r="AB99" s="161"/>
+      <c r="AC99" s="161"/>
+      <c r="AD99" s="161"/>
+      <c r="AE99" s="161"/>
+      <c r="AF99" s="161"/>
+      <c r="AG99" s="161"/>
+      <c r="AH99" s="161"/>
+      <c r="AI99" s="161"/>
+      <c r="AJ99" s="161"/>
+      <c r="AK99" s="161"/>
+      <c r="AL99" s="161"/>
+      <c r="AM99" s="161"/>
+      <c r="AN99" s="161"/>
+      <c r="AO99" s="161"/>
+      <c r="AP99" s="161"/>
+      <c r="AQ99" s="161"/>
+      <c r="AR99" s="161"/>
+      <c r="AS99" s="161"/>
+      <c r="AT99" s="161"/>
+      <c r="AU99" s="161"/>
+      <c r="AV99" s="161"/>
+      <c r="AW99" s="161"/>
+      <c r="AX99" s="161"/>
+      <c r="AY99" s="161"/>
+      <c r="AZ99" s="161"/>
+      <c r="BA99" s="161"/>
+      <c r="BB99" s="161"/>
+      <c r="BC99" s="161"/>
+      <c r="BD99" s="162"/>
     </row>
     <row r="100" spans="3:56">
       <c r="C100" s="39"/>
@@ -9047,25 +9040,61 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:AP3"/>
-    <mergeCell ref="AQ2:AW2"/>
-    <mergeCell ref="AX2:BE2"/>
-    <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="AX3:BE3"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BB4:BE4"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="U5:AP5"/>
-    <mergeCell ref="AT5:AW5"/>
-    <mergeCell ref="BB5:BE5"/>
-    <mergeCell ref="AX4:BA4"/>
-    <mergeCell ref="AX5:BA5"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:Q88"/>
-    <mergeCell ref="R88:W88"/>
-    <mergeCell ref="E70:Q70"/>
-    <mergeCell ref="E72:Q72"/>
+    <mergeCell ref="X97:BD97"/>
+    <mergeCell ref="X98:BD98"/>
+    <mergeCell ref="X99:BD99"/>
+    <mergeCell ref="X91:BD91"/>
+    <mergeCell ref="X92:BD92"/>
+    <mergeCell ref="X93:BD93"/>
+    <mergeCell ref="X94:BD94"/>
+    <mergeCell ref="X95:BD95"/>
+    <mergeCell ref="X72:AD72"/>
+    <mergeCell ref="AE72:AK72"/>
+    <mergeCell ref="X89:BD89"/>
+    <mergeCell ref="X90:BD90"/>
+    <mergeCell ref="X96:BD96"/>
+    <mergeCell ref="X88:BD88"/>
+    <mergeCell ref="AU23:AZ24"/>
+    <mergeCell ref="BA23:BA24"/>
+    <mergeCell ref="X70:AD70"/>
+    <mergeCell ref="AE70:AK70"/>
+    <mergeCell ref="E71:Q71"/>
+    <mergeCell ref="X71:AD71"/>
+    <mergeCell ref="AE71:AK71"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="AQ5:AS5"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="U4:AP4"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="AE43:AI43"/>
+    <mergeCell ref="AJ43:AM43"/>
+    <mergeCell ref="AL12:AN13"/>
+    <mergeCell ref="AG12:AJ13"/>
+    <mergeCell ref="AB23:AE24"/>
+    <mergeCell ref="AF23:AL24"/>
+    <mergeCell ref="AN23:AT24"/>
+    <mergeCell ref="AQ46:AV46"/>
+    <mergeCell ref="D10:G15"/>
+    <mergeCell ref="H10:U15"/>
+    <mergeCell ref="AQ43:AV43"/>
+    <mergeCell ref="AW43:BD43"/>
+    <mergeCell ref="X23:AA24"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="H23:I24"/>
+    <mergeCell ref="J23:P24"/>
+    <mergeCell ref="Q23:W24"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AV20:AZ20"/>
+    <mergeCell ref="AP12:AR13"/>
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="E69:Q69"/>
     <mergeCell ref="AT12:AV13"/>
@@ -9082,61 +9111,25 @@
     <mergeCell ref="R69:W69"/>
     <mergeCell ref="X69:AD69"/>
     <mergeCell ref="AE69:AK69"/>
-    <mergeCell ref="AQ46:AV46"/>
-    <mergeCell ref="D10:G15"/>
-    <mergeCell ref="H10:U15"/>
-    <mergeCell ref="AQ43:AV43"/>
-    <mergeCell ref="AW43:BD43"/>
-    <mergeCell ref="X23:AA24"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="F23:G24"/>
-    <mergeCell ref="H23:I24"/>
-    <mergeCell ref="J23:P24"/>
-    <mergeCell ref="Q23:W24"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="AE43:AI43"/>
-    <mergeCell ref="AJ43:AM43"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="AQ4:AS4"/>
-    <mergeCell ref="AQ5:AS5"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="U4:AP4"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AV20:AZ20"/>
-    <mergeCell ref="AL12:AN13"/>
-    <mergeCell ref="AP12:AR13"/>
-    <mergeCell ref="AG12:AJ13"/>
-    <mergeCell ref="AB23:AE24"/>
-    <mergeCell ref="AF23:AL24"/>
-    <mergeCell ref="AN23:AT24"/>
-    <mergeCell ref="AU23:AZ24"/>
-    <mergeCell ref="BA23:BA24"/>
-    <mergeCell ref="X70:AD70"/>
-    <mergeCell ref="AE70:AK70"/>
-    <mergeCell ref="E71:Q71"/>
-    <mergeCell ref="X71:AD71"/>
-    <mergeCell ref="AE71:AK71"/>
-    <mergeCell ref="X72:AD72"/>
-    <mergeCell ref="AE72:AK72"/>
-    <mergeCell ref="X89:BD89"/>
-    <mergeCell ref="X90:BD90"/>
-    <mergeCell ref="X96:BD96"/>
-    <mergeCell ref="X88:BD88"/>
-    <mergeCell ref="X97:BD97"/>
-    <mergeCell ref="X98:BD98"/>
-    <mergeCell ref="X99:BD99"/>
-    <mergeCell ref="X91:BD91"/>
-    <mergeCell ref="X92:BD92"/>
-    <mergeCell ref="X93:BD93"/>
-    <mergeCell ref="X94:BD94"/>
-    <mergeCell ref="X95:BD95"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:Q88"/>
+    <mergeCell ref="R88:W88"/>
+    <mergeCell ref="E70:Q70"/>
+    <mergeCell ref="E72:Q72"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BB4:BE4"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="U5:AP5"/>
+    <mergeCell ref="AT5:AW5"/>
+    <mergeCell ref="BB5:BE5"/>
+    <mergeCell ref="AX4:BA4"/>
+    <mergeCell ref="AX5:BA5"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:AP3"/>
+    <mergeCell ref="AQ2:AW2"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="AQ3:AW3"/>
+    <mergeCell ref="AX3:BE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" orientation="portrait" r:id="rId1"/>

--- a/trunk/Document/Design/SDD_UserManager.xlsx
+++ b/trunk/Document/Design/SDD_UserManager.xlsx
@@ -1072,7 +1072,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="133">
   <si>
     <t>&lt;Project Name&gt;</t>
   </si>
@@ -1410,9 +1410,6 @@
     <t>cboSelectLogStatus(chọn user theo trạng thái login)</t>
   </si>
   <si>
-    <t>LogStatus</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
@@ -1462,6 +1459,18 @@
   </si>
   <si>
     <t>21/10/2011</t>
+  </si>
+  <si>
+    <t>btnDelete(xóa user)</t>
+  </si>
+  <si>
+    <t>All column</t>
+  </si>
+  <si>
+    <t>btnLogout(đăng xuất user)</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -2368,7 +2377,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2586,9 +2595,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2653,6 +2659,39 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2689,13 +2728,46 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2713,30 +2785,36 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2755,54 +2833,6 @@
     <xf numFmtId="0" fontId="18" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2811,6 +2841,21 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3179,14 +3224,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="33">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
@@ -3406,12 +3451,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="33">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
     </row>
     <row r="5" spans="2:5" ht="15.75">
       <c r="B5" s="21" t="s">
@@ -3473,16 +3518,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="33">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
     </row>
     <row r="4" spans="2:4" ht="15">
       <c r="B4" s="22"/>
-      <c r="C4" s="89" t="s">
-        <v>128</v>
+      <c r="C4" s="88" t="s">
+        <v>127</v>
       </c>
       <c r="D4" s="23"/>
     </row>
@@ -3653,8 +3698,8 @@
   <dimension ref="B2:BE101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BB5" sqref="BB5:BE5"/>
+      <pane ySplit="5" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R79" sqref="R79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="12.75"/>
@@ -3678,311 +3723,311 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:57">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="92"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="92"/>
-      <c r="AP2" s="92"/>
-      <c r="AQ2" s="93" t="s">
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="91"/>
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="91"/>
+      <c r="AK2" s="91"/>
+      <c r="AL2" s="91"/>
+      <c r="AM2" s="91"/>
+      <c r="AN2" s="91"/>
+      <c r="AO2" s="91"/>
+      <c r="AP2" s="91"/>
+      <c r="AQ2" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
-      <c r="AW2" s="93"/>
-      <c r="AX2" s="93" t="s">
+      <c r="AR2" s="92"/>
+      <c r="AS2" s="92"/>
+      <c r="AT2" s="92"/>
+      <c r="AU2" s="92"/>
+      <c r="AV2" s="92"/>
+      <c r="AW2" s="92"/>
+      <c r="AX2" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="AY2" s="93"/>
-      <c r="AZ2" s="93"/>
-      <c r="BA2" s="93"/>
-      <c r="BB2" s="93"/>
-      <c r="BC2" s="93"/>
-      <c r="BD2" s="93"/>
-      <c r="BE2" s="93"/>
+      <c r="AY2" s="92"/>
+      <c r="AZ2" s="92"/>
+      <c r="BA2" s="92"/>
+      <c r="BB2" s="92"/>
+      <c r="BC2" s="92"/>
+      <c r="BD2" s="92"/>
+      <c r="BE2" s="92"/>
     </row>
     <row r="3" spans="2:57">
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="92"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="92"/>
-      <c r="Z3" s="92"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="92"/>
-      <c r="AD3" s="92"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="92"/>
-      <c r="AG3" s="92"/>
-      <c r="AH3" s="92"/>
-      <c r="AI3" s="92"/>
-      <c r="AJ3" s="92"/>
-      <c r="AK3" s="92"/>
-      <c r="AL3" s="92"/>
-      <c r="AM3" s="92"/>
-      <c r="AN3" s="92"/>
-      <c r="AO3" s="92"/>
-      <c r="AP3" s="92"/>
-      <c r="AQ3" s="94" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="94"/>
-      <c r="AS3" s="94"/>
-      <c r="AT3" s="94"/>
-      <c r="AU3" s="94"/>
-      <c r="AV3" s="94"/>
-      <c r="AW3" s="94"/>
-      <c r="AX3" s="94" t="s">
+      <c r="AR3" s="93"/>
+      <c r="AS3" s="93"/>
+      <c r="AT3" s="93"/>
+      <c r="AU3" s="93"/>
+      <c r="AV3" s="93"/>
+      <c r="AW3" s="93"/>
+      <c r="AX3" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY3" s="93"/>
+      <c r="AZ3" s="93"/>
+      <c r="BA3" s="93"/>
+      <c r="BB3" s="93"/>
+      <c r="BC3" s="93"/>
+      <c r="BD3" s="93"/>
+      <c r="BE3" s="93"/>
+    </row>
+    <row r="4" spans="2:57">
+      <c r="B4" s="152" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR4" s="96"/>
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY4" s="96"/>
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="97"/>
+      <c r="BB4" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="AY3" s="94"/>
-      <c r="AZ3" s="94"/>
-      <c r="BA3" s="94"/>
-      <c r="BB3" s="94"/>
-      <c r="BC3" s="94"/>
-      <c r="BD3" s="94"/>
-      <c r="BE3" s="94"/>
-    </row>
-    <row r="4" spans="2:57">
-      <c r="B4" s="146" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="95"/>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95"/>
-      <c r="AQ4" s="96" t="s">
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="94"/>
+    </row>
+    <row r="5" spans="2:57">
+      <c r="B5" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="94"/>
+      <c r="AH5" s="94"/>
+      <c r="AI5" s="94"/>
+      <c r="AJ5" s="94"/>
+      <c r="AK5" s="94"/>
+      <c r="AL5" s="94"/>
+      <c r="AM5" s="94"/>
+      <c r="AN5" s="94"/>
+      <c r="AO5" s="94"/>
+      <c r="AP5" s="94"/>
+      <c r="AQ5" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="AR4" s="97"/>
-      <c r="AS4" s="98"/>
-      <c r="AT4" s="95" t="s">
+      <c r="AR5" s="154"/>
+      <c r="AS5" s="100"/>
+      <c r="AT5" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="AU4" s="95"/>
-      <c r="AV4" s="95"/>
-      <c r="AW4" s="95"/>
-      <c r="AX4" s="96" t="s">
+      <c r="AU5" s="94"/>
+      <c r="AV5" s="94"/>
+      <c r="AW5" s="94"/>
+      <c r="AX5" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="AY4" s="97"/>
-      <c r="AZ4" s="97"/>
-      <c r="BA4" s="98"/>
-      <c r="BB4" s="95" t="s">
-        <v>127</v>
-      </c>
-      <c r="BC4" s="95"/>
-      <c r="BD4" s="95"/>
-      <c r="BE4" s="95"/>
-    </row>
-    <row r="5" spans="2:57">
-      <c r="B5" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="99" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="101"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="95"/>
-      <c r="AF5" s="95"/>
-      <c r="AG5" s="95"/>
-      <c r="AH5" s="95"/>
-      <c r="AI5" s="95"/>
-      <c r="AJ5" s="95"/>
-      <c r="AK5" s="95"/>
-      <c r="AL5" s="95"/>
-      <c r="AM5" s="95"/>
-      <c r="AN5" s="95"/>
-      <c r="AO5" s="95"/>
-      <c r="AP5" s="95"/>
-      <c r="AQ5" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR5" s="148"/>
-      <c r="AS5" s="101"/>
-      <c r="AT5" s="95" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU5" s="95"/>
-      <c r="AV5" s="95"/>
-      <c r="AW5" s="95"/>
-      <c r="AX5" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AY5" s="100"/>
-      <c r="AZ5" s="100"/>
-      <c r="BA5" s="101"/>
-      <c r="BB5" s="95" t="s">
-        <v>129</v>
-      </c>
-      <c r="BC5" s="95"/>
-      <c r="BD5" s="95"/>
-      <c r="BE5" s="95"/>
+      <c r="AY5" s="99"/>
+      <c r="AZ5" s="99"/>
+      <c r="BA5" s="100"/>
+      <c r="BB5" s="94" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC5" s="94"/>
+      <c r="BD5" s="94"/>
+      <c r="BE5" s="94"/>
     </row>
     <row r="7" spans="2:57">
-      <c r="C7" s="144" t="s">
+      <c r="C7" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
     </row>
     <row r="9" spans="2:57" ht="13.5" thickBot="1">
       <c r="C9" s="32"/>
     </row>
     <row r="10" spans="2:57" ht="15" customHeight="1">
-      <c r="D10" s="110" t="s">
+      <c r="D10" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="128" t="s">
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="149" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="149"/>
+      <c r="M10" s="149"/>
+      <c r="N10" s="149"/>
+      <c r="O10" s="149"/>
+      <c r="P10" s="149"/>
+      <c r="Q10" s="149"/>
+      <c r="R10" s="149"/>
+      <c r="S10" s="149"/>
+      <c r="T10" s="149"/>
+      <c r="U10" s="149"/>
       <c r="V10" s="70"/>
       <c r="W10" s="70"/>
       <c r="X10" s="70"/>
@@ -4019,24 +4064,24 @@
       <c r="BC10" s="71"/>
     </row>
     <row r="11" spans="2:57" ht="13.5" thickBot="1">
-      <c r="D11" s="125"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
-      <c r="N11" s="129"/>
-      <c r="O11" s="129"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="129"/>
-      <c r="R11" s="129"/>
-      <c r="S11" s="129"/>
-      <c r="T11" s="129"/>
-      <c r="U11" s="129"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="150"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="150"/>
+      <c r="Q11" s="150"/>
+      <c r="R11" s="150"/>
+      <c r="S11" s="150"/>
+      <c r="T11" s="150"/>
+      <c r="U11" s="150"/>
       <c r="V11" s="72"/>
       <c r="W11" s="72"/>
       <c r="X11" s="72"/>
@@ -4073,24 +4118,24 @@
       <c r="BC11" s="73"/>
     </row>
     <row r="12" spans="2:57" ht="15" customHeight="1">
-      <c r="D12" s="125"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="129"/>
-      <c r="P12" s="129"/>
-      <c r="Q12" s="129"/>
-      <c r="R12" s="129"/>
-      <c r="S12" s="129"/>
-      <c r="T12" s="129"/>
-      <c r="U12" s="129"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="150"/>
+      <c r="Q12" s="150"/>
+      <c r="R12" s="150"/>
+      <c r="S12" s="150"/>
+      <c r="T12" s="150"/>
+      <c r="U12" s="150"/>
       <c r="V12" s="72"/>
       <c r="W12" s="72"/>
       <c r="X12" s="72"/>
@@ -4102,59 +4147,59 @@
       <c r="AD12" s="72"/>
       <c r="AE12" s="72"/>
       <c r="AF12" s="72"/>
-      <c r="AG12" s="149" t="s">
+      <c r="AG12" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="AH12" s="150"/>
-      <c r="AI12" s="150"/>
-      <c r="AJ12" s="151"/>
+      <c r="AH12" s="135"/>
+      <c r="AI12" s="135"/>
+      <c r="AJ12" s="136"/>
       <c r="AK12" s="72"/>
-      <c r="AL12" s="110" t="s">
+      <c r="AL12" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="AM12" s="111"/>
-      <c r="AN12" s="112"/>
+      <c r="AM12" s="121"/>
+      <c r="AN12" s="122"/>
       <c r="AO12" s="72"/>
-      <c r="AP12" s="110" t="s">
+      <c r="AP12" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="AQ12" s="111"/>
-      <c r="AR12" s="112"/>
+      <c r="AQ12" s="121"/>
+      <c r="AR12" s="122"/>
       <c r="AS12" s="72"/>
-      <c r="AT12" s="110" t="s">
+      <c r="AT12" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="AU12" s="111"/>
-      <c r="AV12" s="112"/>
+      <c r="AU12" s="121"/>
+      <c r="AV12" s="122"/>
       <c r="AW12" s="75"/>
-      <c r="AX12" s="110" t="s">
+      <c r="AX12" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="AY12" s="111"/>
-      <c r="AZ12" s="112"/>
+      <c r="AY12" s="121"/>
+      <c r="AZ12" s="122"/>
       <c r="BA12" s="72"/>
       <c r="BB12" s="72"/>
       <c r="BC12" s="73"/>
     </row>
     <row r="13" spans="2:57" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D13" s="125"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="129"/>
-      <c r="R13" s="129"/>
-      <c r="S13" s="129"/>
-      <c r="T13" s="129"/>
-      <c r="U13" s="129"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="150"/>
+      <c r="L13" s="150"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="150"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="150"/>
+      <c r="R13" s="150"/>
+      <c r="S13" s="150"/>
+      <c r="T13" s="150"/>
+      <c r="U13" s="150"/>
       <c r="V13" s="72"/>
       <c r="W13" s="72"/>
       <c r="X13" s="72"/>
@@ -4166,49 +4211,49 @@
       <c r="AD13" s="72"/>
       <c r="AE13" s="72"/>
       <c r="AF13" s="72"/>
-      <c r="AG13" s="152"/>
-      <c r="AH13" s="153"/>
-      <c r="AI13" s="153"/>
-      <c r="AJ13" s="154"/>
+      <c r="AG13" s="137"/>
+      <c r="AH13" s="138"/>
+      <c r="AI13" s="138"/>
+      <c r="AJ13" s="139"/>
       <c r="AK13" s="72"/>
-      <c r="AL13" s="113"/>
-      <c r="AM13" s="114"/>
-      <c r="AN13" s="115"/>
+      <c r="AL13" s="123"/>
+      <c r="AM13" s="124"/>
+      <c r="AN13" s="125"/>
       <c r="AO13" s="72"/>
-      <c r="AP13" s="113"/>
-      <c r="AQ13" s="114"/>
-      <c r="AR13" s="115"/>
+      <c r="AP13" s="123"/>
+      <c r="AQ13" s="124"/>
+      <c r="AR13" s="125"/>
       <c r="AS13" s="72"/>
-      <c r="AT13" s="113"/>
-      <c r="AU13" s="114"/>
-      <c r="AV13" s="115"/>
+      <c r="AT13" s="123"/>
+      <c r="AU13" s="124"/>
+      <c r="AV13" s="125"/>
       <c r="AW13" s="75"/>
-      <c r="AX13" s="113"/>
-      <c r="AY13" s="114"/>
-      <c r="AZ13" s="115"/>
+      <c r="AX13" s="123"/>
+      <c r="AY13" s="124"/>
+      <c r="AZ13" s="125"/>
       <c r="BA13" s="72"/>
       <c r="BB13" s="72"/>
       <c r="BC13" s="73"/>
     </row>
     <row r="14" spans="2:57">
-      <c r="D14" s="125"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
-      <c r="N14" s="129"/>
-      <c r="O14" s="129"/>
-      <c r="P14" s="129"/>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="129"/>
-      <c r="S14" s="129"/>
-      <c r="T14" s="129"/>
-      <c r="U14" s="129"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="150"/>
+      <c r="L14" s="150"/>
+      <c r="M14" s="150"/>
+      <c r="N14" s="150"/>
+      <c r="O14" s="150"/>
+      <c r="P14" s="150"/>
+      <c r="Q14" s="150"/>
+      <c r="R14" s="150"/>
+      <c r="S14" s="150"/>
+      <c r="T14" s="150"/>
+      <c r="U14" s="150"/>
       <c r="V14" s="72"/>
       <c r="W14" s="72"/>
       <c r="X14" s="72"/>
@@ -4245,24 +4290,24 @@
       <c r="BC14" s="73"/>
     </row>
     <row r="15" spans="2:57">
-      <c r="D15" s="125"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="129"/>
-      <c r="T15" s="129"/>
-      <c r="U15" s="129"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="150"/>
+      <c r="L15" s="150"/>
+      <c r="M15" s="150"/>
+      <c r="N15" s="150"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="150"/>
+      <c r="Q15" s="150"/>
+      <c r="R15" s="150"/>
+      <c r="S15" s="150"/>
+      <c r="T15" s="150"/>
+      <c r="U15" s="150"/>
       <c r="V15" s="72"/>
       <c r="W15" s="72"/>
       <c r="X15" s="72"/>
@@ -4521,19 +4566,19 @@
         <v>93</v>
       </c>
       <c r="G20" s="44"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="128"/>
       <c r="K20" s="44"/>
-      <c r="L20" s="116" t="s">
+      <c r="L20" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="M20" s="118"/>
+      <c r="M20" s="128"/>
       <c r="N20" s="44"/>
-      <c r="O20" s="116" t="s">
+      <c r="O20" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="P20" s="118"/>
+      <c r="P20" s="128"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="44"/>
       <c r="S20" s="44"/>
@@ -4557,25 +4602,25 @@
       <c r="AK20" s="44"/>
       <c r="AL20" s="44"/>
       <c r="AM20" s="44"/>
-      <c r="AN20" s="116" t="s">
+      <c r="AN20" s="126" t="s">
         <v>96</v>
       </c>
-      <c r="AO20" s="117"/>
-      <c r="AP20" s="117"/>
-      <c r="AQ20" s="117"/>
-      <c r="AR20" s="118"/>
+      <c r="AO20" s="127"/>
+      <c r="AP20" s="127"/>
+      <c r="AQ20" s="127"/>
+      <c r="AR20" s="128"/>
       <c r="AS20" s="78" t="s">
         <v>85</v>
       </c>
       <c r="AT20" s="44"/>
       <c r="AU20" s="44"/>
-      <c r="AV20" s="116" t="s">
+      <c r="AV20" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="AW20" s="117"/>
-      <c r="AX20" s="117"/>
-      <c r="AY20" s="117"/>
-      <c r="AZ20" s="118"/>
+      <c r="AW20" s="127"/>
+      <c r="AX20" s="127"/>
+      <c r="AY20" s="127"/>
+      <c r="AZ20" s="128"/>
       <c r="BA20" s="78" t="s">
         <v>85</v>
       </c>
@@ -4641,13 +4686,13 @@
       <c r="E22" s="60"/>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
-      <c r="H22" s="137" t="s">
+      <c r="H22" s="151" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="137"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="137"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
       <c r="M22" s="44"/>
       <c r="N22" s="44"/>
       <c r="O22" s="44"/>
@@ -4695,71 +4740,71 @@
     <row r="23" spans="4:55">
       <c r="D23" s="65"/>
       <c r="E23" s="60"/>
-      <c r="F23" s="138" t="s">
+      <c r="F23" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="133"/>
-      <c r="H23" s="140" t="s">
+      <c r="G23" s="142"/>
+      <c r="H23" s="163" t="s">
         <v>99</v>
       </c>
-      <c r="I23" s="141"/>
-      <c r="J23" s="134" t="s">
+      <c r="I23" s="164"/>
+      <c r="J23" s="143" t="s">
         <v>100</v>
       </c>
-      <c r="K23" s="135"/>
-      <c r="L23" s="135"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="135"/>
-      <c r="O23" s="135"/>
-      <c r="P23" s="136"/>
-      <c r="Q23" s="131" t="s">
+      <c r="K23" s="144"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="144"/>
+      <c r="N23" s="144"/>
+      <c r="O23" s="144"/>
+      <c r="P23" s="145"/>
+      <c r="Q23" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="R23" s="132"/>
-      <c r="S23" s="132"/>
-      <c r="T23" s="132"/>
-      <c r="U23" s="132"/>
-      <c r="V23" s="132"/>
-      <c r="W23" s="133"/>
-      <c r="X23" s="131" t="s">
+      <c r="R23" s="141"/>
+      <c r="S23" s="141"/>
+      <c r="T23" s="141"/>
+      <c r="U23" s="141"/>
+      <c r="V23" s="141"/>
+      <c r="W23" s="142"/>
+      <c r="X23" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="Y23" s="132"/>
-      <c r="Z23" s="132"/>
-      <c r="AA23" s="133"/>
-      <c r="AB23" s="131" t="s">
+      <c r="Y23" s="141"/>
+      <c r="Z23" s="141"/>
+      <c r="AA23" s="142"/>
+      <c r="AB23" s="140" t="s">
         <v>103</v>
       </c>
-      <c r="AC23" s="132"/>
-      <c r="AD23" s="132"/>
-      <c r="AE23" s="133"/>
-      <c r="AF23" s="131" t="s">
+      <c r="AC23" s="141"/>
+      <c r="AD23" s="141"/>
+      <c r="AE23" s="142"/>
+      <c r="AF23" s="140" t="s">
         <v>104</v>
       </c>
-      <c r="AG23" s="132"/>
-      <c r="AH23" s="132"/>
-      <c r="AI23" s="132"/>
-      <c r="AJ23" s="132"/>
-      <c r="AK23" s="132"/>
-      <c r="AL23" s="132"/>
+      <c r="AG23" s="141"/>
+      <c r="AH23" s="141"/>
+      <c r="AI23" s="141"/>
+      <c r="AJ23" s="141"/>
+      <c r="AK23" s="141"/>
+      <c r="AL23" s="141"/>
       <c r="AM23" s="79"/>
-      <c r="AN23" s="131" t="s">
+      <c r="AN23" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="AO23" s="132"/>
-      <c r="AP23" s="132"/>
-      <c r="AQ23" s="132"/>
-      <c r="AR23" s="132"/>
-      <c r="AS23" s="132"/>
-      <c r="AT23" s="133"/>
-      <c r="AU23" s="131" t="s">
+      <c r="AO23" s="141"/>
+      <c r="AP23" s="141"/>
+      <c r="AQ23" s="141"/>
+      <c r="AR23" s="141"/>
+      <c r="AS23" s="141"/>
+      <c r="AT23" s="142"/>
+      <c r="AU23" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="AV23" s="132"/>
-      <c r="AW23" s="132"/>
-      <c r="AX23" s="132"/>
-      <c r="AY23" s="132"/>
-      <c r="AZ23" s="133"/>
+      <c r="AV23" s="141"/>
+      <c r="AW23" s="141"/>
+      <c r="AX23" s="141"/>
+      <c r="AY23" s="141"/>
+      <c r="AZ23" s="142"/>
       <c r="BA23" s="155" t="s">
         <v>106</v>
       </c>
@@ -4769,53 +4814,53 @@
     <row r="24" spans="4:55">
       <c r="D24" s="65"/>
       <c r="E24" s="60"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="135"/>
-      <c r="L24" s="135"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="135"/>
-      <c r="O24" s="135"/>
-      <c r="P24" s="136"/>
-      <c r="Q24" s="134"/>
-      <c r="R24" s="135"/>
-      <c r="S24" s="135"/>
-      <c r="T24" s="135"/>
-      <c r="U24" s="135"/>
-      <c r="V24" s="135"/>
-      <c r="W24" s="136"/>
-      <c r="X24" s="134"/>
-      <c r="Y24" s="135"/>
-      <c r="Z24" s="135"/>
-      <c r="AA24" s="136"/>
-      <c r="AB24" s="134"/>
-      <c r="AC24" s="135"/>
-      <c r="AD24" s="135"/>
-      <c r="AE24" s="136"/>
-      <c r="AF24" s="134"/>
-      <c r="AG24" s="135"/>
-      <c r="AH24" s="135"/>
-      <c r="AI24" s="135"/>
-      <c r="AJ24" s="135"/>
-      <c r="AK24" s="135"/>
-      <c r="AL24" s="135"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="144"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="144"/>
+      <c r="N24" s="144"/>
+      <c r="O24" s="144"/>
+      <c r="P24" s="145"/>
+      <c r="Q24" s="143"/>
+      <c r="R24" s="144"/>
+      <c r="S24" s="144"/>
+      <c r="T24" s="144"/>
+      <c r="U24" s="144"/>
+      <c r="V24" s="144"/>
+      <c r="W24" s="145"/>
+      <c r="X24" s="143"/>
+      <c r="Y24" s="144"/>
+      <c r="Z24" s="144"/>
+      <c r="AA24" s="145"/>
+      <c r="AB24" s="143"/>
+      <c r="AC24" s="144"/>
+      <c r="AD24" s="144"/>
+      <c r="AE24" s="145"/>
+      <c r="AF24" s="143"/>
+      <c r="AG24" s="144"/>
+      <c r="AH24" s="144"/>
+      <c r="AI24" s="144"/>
+      <c r="AJ24" s="144"/>
+      <c r="AK24" s="144"/>
+      <c r="AL24" s="144"/>
       <c r="AM24" s="72"/>
-      <c r="AN24" s="134"/>
-      <c r="AO24" s="135"/>
-      <c r="AP24" s="135"/>
-      <c r="AQ24" s="135"/>
-      <c r="AR24" s="135"/>
-      <c r="AS24" s="135"/>
-      <c r="AT24" s="136"/>
-      <c r="AU24" s="134"/>
-      <c r="AV24" s="135"/>
-      <c r="AW24" s="135"/>
-      <c r="AX24" s="135"/>
-      <c r="AY24" s="135"/>
-      <c r="AZ24" s="136"/>
+      <c r="AN24" s="143"/>
+      <c r="AO24" s="144"/>
+      <c r="AP24" s="144"/>
+      <c r="AQ24" s="144"/>
+      <c r="AR24" s="144"/>
+      <c r="AS24" s="144"/>
+      <c r="AT24" s="145"/>
+      <c r="AU24" s="143"/>
+      <c r="AV24" s="144"/>
+      <c r="AW24" s="144"/>
+      <c r="AX24" s="144"/>
+      <c r="AY24" s="144"/>
+      <c r="AZ24" s="145"/>
       <c r="BA24" s="156"/>
       <c r="BB24" s="61"/>
       <c r="BC24" s="66"/>
@@ -5581,94 +5626,94 @@
       <c r="BC38" s="69"/>
     </row>
     <row r="41" spans="3:56">
-      <c r="C41" s="145" t="s">
+      <c r="C41" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="145"/>
-      <c r="E41" s="145"/>
-      <c r="F41" s="145"/>
-      <c r="G41" s="145"/>
+      <c r="D41" s="133"/>
+      <c r="E41" s="133"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="133"/>
     </row>
     <row r="42" spans="3:56">
       <c r="C42" s="31"/>
     </row>
     <row r="43" spans="3:56" ht="15">
-      <c r="C43" s="119" t="s">
+      <c r="C43" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120" t="s">
+      <c r="D43" s="130"/>
+      <c r="E43" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="120"/>
-      <c r="K43" s="120"/>
-      <c r="L43" s="120"/>
-      <c r="M43" s="120"/>
-      <c r="N43" s="120" t="s">
+      <c r="F43" s="130"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="130"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="130"/>
+      <c r="K43" s="130"/>
+      <c r="L43" s="130"/>
+      <c r="M43" s="130"/>
+      <c r="N43" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="O43" s="120"/>
-      <c r="P43" s="120"/>
-      <c r="Q43" s="120"/>
-      <c r="R43" s="120" t="s">
+      <c r="O43" s="130"/>
+      <c r="P43" s="130"/>
+      <c r="Q43" s="130"/>
+      <c r="R43" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="S43" s="120"/>
-      <c r="T43" s="120"/>
-      <c r="U43" s="120" t="s">
+      <c r="S43" s="130"/>
+      <c r="T43" s="130"/>
+      <c r="U43" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="V43" s="120"/>
-      <c r="W43" s="120"/>
-      <c r="X43" s="120" t="s">
+      <c r="V43" s="130"/>
+      <c r="W43" s="130"/>
+      <c r="X43" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="Y43" s="120"/>
-      <c r="Z43" s="120"/>
-      <c r="AA43" s="120"/>
-      <c r="AB43" s="120"/>
-      <c r="AC43" s="120"/>
-      <c r="AD43" s="120"/>
-      <c r="AE43" s="120" t="s">
+      <c r="Y43" s="130"/>
+      <c r="Z43" s="130"/>
+      <c r="AA43" s="130"/>
+      <c r="AB43" s="130"/>
+      <c r="AC43" s="130"/>
+      <c r="AD43" s="130"/>
+      <c r="AE43" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="AF43" s="120"/>
-      <c r="AG43" s="120"/>
-      <c r="AH43" s="120"/>
-      <c r="AI43" s="120"/>
-      <c r="AJ43" s="120" t="s">
+      <c r="AF43" s="130"/>
+      <c r="AG43" s="130"/>
+      <c r="AH43" s="130"/>
+      <c r="AI43" s="130"/>
+      <c r="AJ43" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="AK43" s="120"/>
-      <c r="AL43" s="120"/>
-      <c r="AM43" s="120"/>
-      <c r="AN43" s="120" t="s">
+      <c r="AK43" s="130"/>
+      <c r="AL43" s="130"/>
+      <c r="AM43" s="130"/>
+      <c r="AN43" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="AO43" s="120"/>
-      <c r="AP43" s="120"/>
-      <c r="AQ43" s="120" t="s">
+      <c r="AO43" s="130"/>
+      <c r="AP43" s="130"/>
+      <c r="AQ43" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="AR43" s="120"/>
-      <c r="AS43" s="120"/>
-      <c r="AT43" s="120"/>
-      <c r="AU43" s="120"/>
-      <c r="AV43" s="120"/>
-      <c r="AW43" s="120" t="s">
+      <c r="AR43" s="130"/>
+      <c r="AS43" s="130"/>
+      <c r="AT43" s="130"/>
+      <c r="AU43" s="130"/>
+      <c r="AV43" s="130"/>
+      <c r="AW43" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="AX43" s="120"/>
-      <c r="AY43" s="120"/>
-      <c r="AZ43" s="120"/>
-      <c r="BA43" s="120"/>
-      <c r="BB43" s="120"/>
-      <c r="BC43" s="120"/>
-      <c r="BD43" s="130"/>
+      <c r="AX43" s="130"/>
+      <c r="AY43" s="130"/>
+      <c r="AZ43" s="130"/>
+      <c r="BA43" s="130"/>
+      <c r="BB43" s="130"/>
+      <c r="BC43" s="130"/>
+      <c r="BD43" s="160"/>
     </row>
     <row r="44" spans="3:56">
       <c r="C44" s="33"/>
@@ -5879,14 +5924,14 @@
         <v>53</v>
       </c>
       <c r="AP46" s="38"/>
-      <c r="AQ46" s="122" t="s">
+      <c r="AQ46" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="AR46" s="123"/>
-      <c r="AS46" s="123"/>
-      <c r="AT46" s="123"/>
-      <c r="AU46" s="123"/>
-      <c r="AV46" s="124"/>
+      <c r="AR46" s="115"/>
+      <c r="AS46" s="115"/>
+      <c r="AT46" s="115"/>
+      <c r="AU46" s="115"/>
+      <c r="AV46" s="116"/>
       <c r="AW46" s="39" t="s">
         <v>58</v>
       </c>
@@ -7215,104 +7260,104 @@
       <c r="BD66" s="44"/>
     </row>
     <row r="67" spans="3:56">
-      <c r="C67" s="145" t="s">
+      <c r="C67" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="D67" s="145"/>
-      <c r="E67" s="145"/>
-      <c r="F67" s="145"/>
-      <c r="G67" s="145"/>
-      <c r="H67" s="145"/>
-      <c r="I67" s="145"/>
-      <c r="J67" s="145"/>
+      <c r="D67" s="133"/>
+      <c r="E67" s="133"/>
+      <c r="F67" s="133"/>
+      <c r="G67" s="133"/>
+      <c r="H67" s="133"/>
+      <c r="I67" s="133"/>
+      <c r="J67" s="133"/>
     </row>
     <row r="68" spans="3:56">
       <c r="C68" s="31"/>
     </row>
     <row r="69" spans="3:56" ht="15">
-      <c r="C69" s="102" t="s">
+      <c r="C69" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="103"/>
-      <c r="E69" s="103" t="s">
+      <c r="D69" s="102"/>
+      <c r="E69" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="F69" s="103"/>
-      <c r="G69" s="103"/>
-      <c r="H69" s="103"/>
-      <c r="I69" s="103"/>
-      <c r="J69" s="103"/>
-      <c r="K69" s="103"/>
-      <c r="L69" s="103"/>
-      <c r="M69" s="103"/>
-      <c r="N69" s="103"/>
-      <c r="O69" s="103"/>
-      <c r="P69" s="103"/>
-      <c r="Q69" s="103"/>
-      <c r="R69" s="103" t="s">
+      <c r="F69" s="102"/>
+      <c r="G69" s="102"/>
+      <c r="H69" s="102"/>
+      <c r="I69" s="102"/>
+      <c r="J69" s="102"/>
+      <c r="K69" s="102"/>
+      <c r="L69" s="102"/>
+      <c r="M69" s="102"/>
+      <c r="N69" s="102"/>
+      <c r="O69" s="102"/>
+      <c r="P69" s="102"/>
+      <c r="Q69" s="102"/>
+      <c r="R69" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="S69" s="103"/>
-      <c r="T69" s="103"/>
-      <c r="U69" s="103"/>
-      <c r="V69" s="103"/>
-      <c r="W69" s="103"/>
-      <c r="X69" s="103" t="s">
+      <c r="S69" s="102"/>
+      <c r="T69" s="102"/>
+      <c r="U69" s="102"/>
+      <c r="V69" s="102"/>
+      <c r="W69" s="102"/>
+      <c r="X69" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="Y69" s="103"/>
-      <c r="Z69" s="103"/>
-      <c r="AA69" s="103"/>
-      <c r="AB69" s="103"/>
-      <c r="AC69" s="103"/>
-      <c r="AD69" s="103"/>
-      <c r="AE69" s="103" t="s">
+      <c r="Y69" s="102"/>
+      <c r="Z69" s="102"/>
+      <c r="AA69" s="102"/>
+      <c r="AB69" s="102"/>
+      <c r="AC69" s="102"/>
+      <c r="AD69" s="102"/>
+      <c r="AE69" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="AF69" s="103"/>
-      <c r="AG69" s="103"/>
-      <c r="AH69" s="103"/>
-      <c r="AI69" s="103"/>
-      <c r="AJ69" s="103"/>
-      <c r="AK69" s="103"/>
-      <c r="AL69" s="103" t="s">
+      <c r="AF69" s="102"/>
+      <c r="AG69" s="102"/>
+      <c r="AH69" s="102"/>
+      <c r="AI69" s="102"/>
+      <c r="AJ69" s="102"/>
+      <c r="AK69" s="102"/>
+      <c r="AL69" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="AM69" s="103"/>
-      <c r="AN69" s="103"/>
-      <c r="AO69" s="103"/>
-      <c r="AP69" s="103"/>
-      <c r="AQ69" s="103"/>
-      <c r="AR69" s="103"/>
-      <c r="AS69" s="103"/>
-      <c r="AT69" s="103"/>
-      <c r="AU69" s="103"/>
-      <c r="AV69" s="103"/>
-      <c r="AW69" s="103"/>
-      <c r="AX69" s="103"/>
-      <c r="AY69" s="103"/>
-      <c r="AZ69" s="103"/>
-      <c r="BA69" s="103"/>
-      <c r="BB69" s="103"/>
-      <c r="BC69" s="103"/>
-      <c r="BD69" s="121"/>
+      <c r="AM69" s="102"/>
+      <c r="AN69" s="102"/>
+      <c r="AO69" s="102"/>
+      <c r="AP69" s="102"/>
+      <c r="AQ69" s="102"/>
+      <c r="AR69" s="102"/>
+      <c r="AS69" s="102"/>
+      <c r="AT69" s="102"/>
+      <c r="AU69" s="102"/>
+      <c r="AV69" s="102"/>
+      <c r="AW69" s="102"/>
+      <c r="AX69" s="102"/>
+      <c r="AY69" s="102"/>
+      <c r="AZ69" s="102"/>
+      <c r="BA69" s="102"/>
+      <c r="BB69" s="102"/>
+      <c r="BC69" s="102"/>
+      <c r="BD69" s="131"/>
     </row>
     <row r="70" spans="3:56" ht="15" customHeight="1">
       <c r="C70" s="45"/>
       <c r="D70" s="37"/>
-      <c r="E70" s="104"/>
-      <c r="F70" s="105"/>
-      <c r="G70" s="105"/>
-      <c r="H70" s="105"/>
-      <c r="I70" s="105"/>
-      <c r="J70" s="105"/>
-      <c r="K70" s="105"/>
-      <c r="L70" s="105"/>
-      <c r="M70" s="105"/>
-      <c r="N70" s="105"/>
-      <c r="O70" s="105"/>
-      <c r="P70" s="105"/>
-      <c r="Q70" s="106"/>
+      <c r="E70" s="103"/>
+      <c r="F70" s="104"/>
+      <c r="G70" s="104"/>
+      <c r="H70" s="104"/>
+      <c r="I70" s="104"/>
+      <c r="J70" s="104"/>
+      <c r="K70" s="104"/>
+      <c r="L70" s="104"/>
+      <c r="M70" s="104"/>
+      <c r="N70" s="104"/>
+      <c r="O70" s="104"/>
+      <c r="P70" s="104"/>
+      <c r="Q70" s="105"/>
       <c r="R70" s="34"/>
       <c r="S70" s="34"/>
       <c r="T70" s="34"/>
@@ -7326,13 +7371,13 @@
       <c r="AB70" s="158"/>
       <c r="AC70" s="158"/>
       <c r="AD70" s="159"/>
-      <c r="AE70" s="104"/>
-      <c r="AF70" s="105"/>
-      <c r="AG70" s="105"/>
-      <c r="AH70" s="105"/>
-      <c r="AI70" s="105"/>
-      <c r="AJ70" s="105"/>
-      <c r="AK70" s="106"/>
+      <c r="AE70" s="103"/>
+      <c r="AF70" s="104"/>
+      <c r="AG70" s="104"/>
+      <c r="AH70" s="104"/>
+      <c r="AI70" s="104"/>
+      <c r="AJ70" s="104"/>
+      <c r="AK70" s="105"/>
       <c r="AL70" s="34"/>
       <c r="AM70" s="34"/>
       <c r="AN70" s="34"/>
@@ -7358,45 +7403,45 @@
       <c r="D71" s="40">
         <v>1</v>
       </c>
-      <c r="E71" s="107" t="s">
+      <c r="E71" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="F71" s="108"/>
-      <c r="G71" s="108"/>
-      <c r="H71" s="108"/>
-      <c r="I71" s="108"/>
-      <c r="J71" s="108"/>
-      <c r="K71" s="108"/>
-      <c r="L71" s="108"/>
-      <c r="M71" s="108"/>
-      <c r="N71" s="108"/>
-      <c r="O71" s="108"/>
-      <c r="P71" s="108"/>
-      <c r="Q71" s="109"/>
+      <c r="F71" s="107"/>
+      <c r="G71" s="107"/>
+      <c r="H71" s="107"/>
+      <c r="I71" s="107"/>
+      <c r="J71" s="107"/>
+      <c r="K71" s="107"/>
+      <c r="L71" s="107"/>
+      <c r="M71" s="107"/>
+      <c r="N71" s="107"/>
+      <c r="O71" s="107"/>
+      <c r="P71" s="107"/>
+      <c r="Q71" s="108"/>
       <c r="R71" s="38"/>
       <c r="S71" s="38"/>
       <c r="T71" s="38"/>
       <c r="U71" s="38"/>
       <c r="V71" s="38"/>
       <c r="W71" s="40"/>
-      <c r="X71" s="122" t="s">
+      <c r="X71" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="Y71" s="123"/>
-      <c r="Z71" s="123"/>
-      <c r="AA71" s="123"/>
-      <c r="AB71" s="123"/>
-      <c r="AC71" s="123"/>
-      <c r="AD71" s="124"/>
-      <c r="AE71" s="107" t="s">
+      <c r="Y71" s="115"/>
+      <c r="Z71" s="115"/>
+      <c r="AA71" s="115"/>
+      <c r="AB71" s="115"/>
+      <c r="AC71" s="115"/>
+      <c r="AD71" s="116"/>
+      <c r="AE71" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="AF71" s="108"/>
-      <c r="AG71" s="108"/>
-      <c r="AH71" s="108"/>
-      <c r="AI71" s="108"/>
-      <c r="AJ71" s="108"/>
-      <c r="AK71" s="109"/>
+      <c r="AF71" s="107"/>
+      <c r="AG71" s="107"/>
+      <c r="AH71" s="107"/>
+      <c r="AI71" s="107"/>
+      <c r="AJ71" s="107"/>
+      <c r="AK71" s="108"/>
       <c r="AL71" s="38"/>
       <c r="AM71" s="38"/>
       <c r="AN71" s="38"/>
@@ -7422,45 +7467,45 @@
       <c r="D72" s="40">
         <v>2</v>
       </c>
-      <c r="E72" s="107" t="s">
+      <c r="E72" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="F72" s="108"/>
-      <c r="G72" s="108"/>
-      <c r="H72" s="108"/>
-      <c r="I72" s="108"/>
-      <c r="J72" s="108"/>
-      <c r="K72" s="108"/>
-      <c r="L72" s="108"/>
-      <c r="M72" s="108"/>
-      <c r="N72" s="108"/>
-      <c r="O72" s="108"/>
-      <c r="P72" s="108"/>
-      <c r="Q72" s="109"/>
+      <c r="F72" s="107"/>
+      <c r="G72" s="107"/>
+      <c r="H72" s="107"/>
+      <c r="I72" s="107"/>
+      <c r="J72" s="107"/>
+      <c r="K72" s="107"/>
+      <c r="L72" s="107"/>
+      <c r="M72" s="107"/>
+      <c r="N72" s="107"/>
+      <c r="O72" s="107"/>
+      <c r="P72" s="107"/>
+      <c r="Q72" s="108"/>
       <c r="R72" s="38"/>
       <c r="S72" s="38"/>
       <c r="T72" s="38"/>
       <c r="U72" s="38"/>
       <c r="V72" s="38"/>
       <c r="W72" s="40"/>
-      <c r="X72" s="122" t="s">
+      <c r="X72" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="Y72" s="123"/>
-      <c r="Z72" s="123"/>
-      <c r="AA72" s="123"/>
-      <c r="AB72" s="123"/>
-      <c r="AC72" s="123"/>
-      <c r="AD72" s="124"/>
-      <c r="AE72" s="107" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF72" s="108"/>
-      <c r="AG72" s="108"/>
-      <c r="AH72" s="108"/>
-      <c r="AI72" s="108"/>
-      <c r="AJ72" s="108"/>
-      <c r="AK72" s="109"/>
+      <c r="Y72" s="115"/>
+      <c r="Z72" s="115"/>
+      <c r="AA72" s="115"/>
+      <c r="AB72" s="115"/>
+      <c r="AC72" s="115"/>
+      <c r="AD72" s="116"/>
+      <c r="AE72" s="106" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF72" s="107"/>
+      <c r="AG72" s="107"/>
+      <c r="AH72" s="107"/>
+      <c r="AI72" s="107"/>
+      <c r="AJ72" s="107"/>
+      <c r="AK72" s="108"/>
       <c r="AL72" s="38"/>
       <c r="AM72" s="38"/>
       <c r="AN72" s="38"/>
@@ -7481,42 +7526,50 @@
       <c r="BC72" s="38"/>
       <c r="BD72" s="40"/>
     </row>
-    <row r="73" spans="3:56">
+    <row r="73" spans="3:56" ht="15" customHeight="1">
       <c r="C73" s="86"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="50"/>
-      <c r="N73" s="50"/>
-      <c r="O73" s="50"/>
-      <c r="P73" s="50"/>
-      <c r="Q73" s="53"/>
+      <c r="D73" s="53">
+        <v>3</v>
+      </c>
+      <c r="E73" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="F73" s="110"/>
+      <c r="G73" s="110"/>
+      <c r="H73" s="110"/>
+      <c r="I73" s="110"/>
+      <c r="J73" s="110"/>
+      <c r="K73" s="110"/>
+      <c r="L73" s="110"/>
+      <c r="M73" s="110"/>
+      <c r="N73" s="110"/>
+      <c r="O73" s="110"/>
+      <c r="P73" s="110"/>
+      <c r="Q73" s="111"/>
       <c r="R73" s="50"/>
       <c r="S73" s="50"/>
       <c r="T73" s="50"/>
       <c r="U73" s="50"/>
       <c r="V73" s="50"/>
       <c r="W73" s="53"/>
-      <c r="X73" s="50"/>
-      <c r="Y73" s="50"/>
-      <c r="Z73" s="50"/>
-      <c r="AA73" s="50"/>
-      <c r="AB73" s="50"/>
-      <c r="AC73" s="50"/>
-      <c r="AD73" s="53"/>
-      <c r="AE73" s="50"/>
-      <c r="AF73" s="50"/>
-      <c r="AG73" s="50"/>
-      <c r="AH73" s="50"/>
-      <c r="AI73" s="50"/>
-      <c r="AJ73" s="50"/>
-      <c r="AK73" s="53"/>
+      <c r="X73" s="170" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y73" s="171"/>
+      <c r="Z73" s="171"/>
+      <c r="AA73" s="171"/>
+      <c r="AB73" s="171"/>
+      <c r="AC73" s="171"/>
+      <c r="AD73" s="172"/>
+      <c r="AE73" s="109" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF73" s="110"/>
+      <c r="AG73" s="110"/>
+      <c r="AH73" s="110"/>
+      <c r="AI73" s="110"/>
+      <c r="AJ73" s="110"/>
+      <c r="AK73" s="111"/>
       <c r="AL73" s="50"/>
       <c r="AM73" s="50"/>
       <c r="AN73" s="50"/>
@@ -7537,120 +7590,128 @@
       <c r="BC73" s="50"/>
       <c r="BD73" s="53"/>
     </row>
-    <row r="74" spans="3:56">
-      <c r="C74" s="87"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="54"/>
-      <c r="L74" s="54"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="54"/>
-      <c r="P74" s="54"/>
-      <c r="Q74" s="54"/>
-      <c r="R74" s="54"/>
-      <c r="S74" s="54"/>
-      <c r="T74" s="54"/>
-      <c r="U74" s="54"/>
-      <c r="V74" s="54"/>
-      <c r="W74" s="54"/>
-      <c r="X74" s="54"/>
-      <c r="Y74" s="54"/>
-      <c r="Z74" s="54"/>
-      <c r="AA74" s="54"/>
-      <c r="AB74" s="54"/>
-      <c r="AC74" s="54"/>
-      <c r="AD74" s="54"/>
-      <c r="AE74" s="54"/>
-      <c r="AF74" s="54"/>
-      <c r="AG74" s="54"/>
-      <c r="AH74" s="54"/>
-      <c r="AI74" s="54"/>
-      <c r="AJ74" s="54"/>
-      <c r="AK74" s="54"/>
-      <c r="AL74" s="54"/>
-      <c r="AM74" s="54"/>
-      <c r="AN74" s="54"/>
-      <c r="AO74" s="54"/>
-      <c r="AP74" s="54"/>
-      <c r="AQ74" s="54"/>
-      <c r="AR74" s="54"/>
-      <c r="AS74" s="54"/>
-      <c r="AT74" s="54"/>
-      <c r="AU74" s="54"/>
-      <c r="AV74" s="54"/>
-      <c r="AW74" s="54"/>
-      <c r="AX74" s="54"/>
-      <c r="AY74" s="54"/>
-      <c r="AZ74" s="54"/>
-      <c r="BA74" s="54"/>
-      <c r="BB74" s="54"/>
-      <c r="BC74" s="54"/>
-      <c r="BD74" s="54"/>
-    </row>
-    <row r="75" spans="3:56">
-      <c r="C75" s="88"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="44"/>
-      <c r="I75" s="44"/>
-      <c r="J75" s="44"/>
-      <c r="K75" s="44"/>
-      <c r="L75" s="44"/>
-      <c r="M75" s="44"/>
-      <c r="N75" s="44"/>
-      <c r="O75" s="44"/>
-      <c r="P75" s="44"/>
-      <c r="Q75" s="44"/>
-      <c r="R75" s="44"/>
-      <c r="S75" s="44"/>
-      <c r="T75" s="44"/>
-      <c r="U75" s="44"/>
-      <c r="V75" s="44"/>
-      <c r="W75" s="44"/>
-      <c r="X75" s="44"/>
-      <c r="Y75" s="44"/>
-      <c r="Z75" s="44"/>
-      <c r="AA75" s="44"/>
-      <c r="AB75" s="44"/>
-      <c r="AC75" s="44"/>
-      <c r="AD75" s="44"/>
-      <c r="AE75" s="44"/>
-      <c r="AF75" s="44"/>
-      <c r="AG75" s="44"/>
-      <c r="AH75" s="44"/>
-      <c r="AI75" s="44"/>
-      <c r="AJ75" s="44"/>
-      <c r="AK75" s="44"/>
-      <c r="AL75" s="44"/>
-      <c r="AM75" s="44"/>
-      <c r="AN75" s="44"/>
-      <c r="AO75" s="44"/>
-      <c r="AP75" s="44"/>
-      <c r="AQ75" s="44"/>
-      <c r="AR75" s="44"/>
-      <c r="AS75" s="44"/>
-      <c r="AT75" s="44"/>
-      <c r="AU75" s="44"/>
-      <c r="AV75" s="44"/>
-      <c r="AW75" s="44"/>
-      <c r="AX75" s="44"/>
-      <c r="AY75" s="44"/>
-      <c r="AZ75" s="44"/>
-      <c r="BA75" s="44"/>
-      <c r="BB75" s="44"/>
-      <c r="BC75" s="44"/>
-      <c r="BD75" s="44"/>
+    <row r="74" spans="3:56" ht="15" customHeight="1">
+      <c r="C74" s="173">
+        <v>4</v>
+      </c>
+      <c r="D74" s="174"/>
+      <c r="E74" s="106" t="s">
+        <v>131</v>
+      </c>
+      <c r="F74" s="107"/>
+      <c r="G74" s="107"/>
+      <c r="H74" s="107"/>
+      <c r="I74" s="107"/>
+      <c r="J74" s="107"/>
+      <c r="K74" s="107"/>
+      <c r="L74" s="107"/>
+      <c r="M74" s="107"/>
+      <c r="N74" s="107"/>
+      <c r="O74" s="107"/>
+      <c r="P74" s="107"/>
+      <c r="Q74" s="108"/>
+      <c r="R74" s="114"/>
+      <c r="S74" s="115"/>
+      <c r="T74" s="115"/>
+      <c r="U74" s="115"/>
+      <c r="V74" s="115"/>
+      <c r="W74" s="116"/>
+      <c r="X74" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y74" s="115"/>
+      <c r="Z74" s="115"/>
+      <c r="AA74" s="115"/>
+      <c r="AB74" s="115"/>
+      <c r="AC74" s="115"/>
+      <c r="AD74" s="116"/>
+      <c r="AE74" s="167" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF74" s="168"/>
+      <c r="AG74" s="168"/>
+      <c r="AH74" s="168"/>
+      <c r="AI74" s="168"/>
+      <c r="AJ74" s="168"/>
+      <c r="AK74" s="169"/>
+      <c r="AL74" s="114"/>
+      <c r="AM74" s="115"/>
+      <c r="AN74" s="115"/>
+      <c r="AO74" s="115"/>
+      <c r="AP74" s="115"/>
+      <c r="AQ74" s="115"/>
+      <c r="AR74" s="115"/>
+      <c r="AS74" s="115"/>
+      <c r="AT74" s="115"/>
+      <c r="AU74" s="115"/>
+      <c r="AV74" s="115"/>
+      <c r="AW74" s="115"/>
+      <c r="AX74" s="115"/>
+      <c r="AY74" s="115"/>
+      <c r="AZ74" s="115"/>
+      <c r="BA74" s="115"/>
+      <c r="BB74" s="115"/>
+      <c r="BC74" s="115"/>
+      <c r="BD74" s="116"/>
+    </row>
+    <row r="75" spans="3:56" ht="15" customHeight="1">
+      <c r="C75" s="112"/>
+      <c r="D75" s="113"/>
+      <c r="E75" s="117"/>
+      <c r="F75" s="118"/>
+      <c r="G75" s="118"/>
+      <c r="H75" s="118"/>
+      <c r="I75" s="118"/>
+      <c r="J75" s="118"/>
+      <c r="K75" s="118"/>
+      <c r="L75" s="118"/>
+      <c r="M75" s="118"/>
+      <c r="N75" s="118"/>
+      <c r="O75" s="118"/>
+      <c r="P75" s="118"/>
+      <c r="Q75" s="119"/>
+      <c r="R75" s="117"/>
+      <c r="S75" s="118"/>
+      <c r="T75" s="118"/>
+      <c r="U75" s="118"/>
+      <c r="V75" s="118"/>
+      <c r="W75" s="119"/>
+      <c r="X75" s="117"/>
+      <c r="Y75" s="118"/>
+      <c r="Z75" s="118"/>
+      <c r="AA75" s="118"/>
+      <c r="AB75" s="118"/>
+      <c r="AC75" s="118"/>
+      <c r="AD75" s="119"/>
+      <c r="AE75" s="117"/>
+      <c r="AF75" s="118"/>
+      <c r="AG75" s="118"/>
+      <c r="AH75" s="118"/>
+      <c r="AI75" s="118"/>
+      <c r="AJ75" s="118"/>
+      <c r="AK75" s="119"/>
+      <c r="AL75" s="117"/>
+      <c r="AM75" s="118"/>
+      <c r="AN75" s="118"/>
+      <c r="AO75" s="118"/>
+      <c r="AP75" s="118"/>
+      <c r="AQ75" s="118"/>
+      <c r="AR75" s="118"/>
+      <c r="AS75" s="118"/>
+      <c r="AT75" s="118"/>
+      <c r="AU75" s="118"/>
+      <c r="AV75" s="118"/>
+      <c r="AW75" s="118"/>
+      <c r="AX75" s="118"/>
+      <c r="AY75" s="118"/>
+      <c r="AZ75" s="118"/>
+      <c r="BA75" s="118"/>
+      <c r="BB75" s="118"/>
+      <c r="BC75" s="118"/>
+      <c r="BD75" s="119"/>
     </row>
     <row r="76" spans="3:56">
-      <c r="C76" s="88"/>
+      <c r="C76" s="87"/>
       <c r="D76" s="44"/>
       <c r="E76" s="44"/>
       <c r="F76" s="44"/>
@@ -8159,68 +8220,68 @@
       </c>
     </row>
     <row r="88" spans="3:56" ht="15">
-      <c r="C88" s="102" t="s">
+      <c r="C88" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="103"/>
-      <c r="E88" s="103" t="s">
+      <c r="D88" s="102"/>
+      <c r="E88" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="F88" s="103"/>
-      <c r="G88" s="103"/>
-      <c r="H88" s="103"/>
-      <c r="I88" s="103"/>
-      <c r="J88" s="103"/>
-      <c r="K88" s="103"/>
-      <c r="L88" s="103"/>
-      <c r="M88" s="103"/>
-      <c r="N88" s="103"/>
-      <c r="O88" s="103"/>
-      <c r="P88" s="103"/>
-      <c r="Q88" s="103"/>
-      <c r="R88" s="103" t="s">
+      <c r="F88" s="102"/>
+      <c r="G88" s="102"/>
+      <c r="H88" s="102"/>
+      <c r="I88" s="102"/>
+      <c r="J88" s="102"/>
+      <c r="K88" s="102"/>
+      <c r="L88" s="102"/>
+      <c r="M88" s="102"/>
+      <c r="N88" s="102"/>
+      <c r="O88" s="102"/>
+      <c r="P88" s="102"/>
+      <c r="Q88" s="102"/>
+      <c r="R88" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="S88" s="103"/>
-      <c r="T88" s="103"/>
-      <c r="U88" s="103"/>
-      <c r="V88" s="103"/>
-      <c r="W88" s="103"/>
-      <c r="X88" s="103" t="s">
+      <c r="S88" s="102"/>
+      <c r="T88" s="102"/>
+      <c r="U88" s="102"/>
+      <c r="V88" s="102"/>
+      <c r="W88" s="102"/>
+      <c r="X88" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="Y88" s="103"/>
-      <c r="Z88" s="103"/>
-      <c r="AA88" s="103"/>
-      <c r="AB88" s="103"/>
-      <c r="AC88" s="103"/>
-      <c r="AD88" s="103"/>
-      <c r="AE88" s="103"/>
-      <c r="AF88" s="103"/>
-      <c r="AG88" s="103"/>
-      <c r="AH88" s="103"/>
-      <c r="AI88" s="103"/>
-      <c r="AJ88" s="103"/>
-      <c r="AK88" s="103"/>
-      <c r="AL88" s="103"/>
-      <c r="AM88" s="103"/>
-      <c r="AN88" s="103"/>
-      <c r="AO88" s="103"/>
-      <c r="AP88" s="103"/>
-      <c r="AQ88" s="103"/>
-      <c r="AR88" s="103"/>
-      <c r="AS88" s="103"/>
-      <c r="AT88" s="103"/>
-      <c r="AU88" s="103"/>
-      <c r="AV88" s="103"/>
-      <c r="AW88" s="103"/>
-      <c r="AX88" s="103"/>
-      <c r="AY88" s="103"/>
-      <c r="AZ88" s="103"/>
-      <c r="BA88" s="103"/>
-      <c r="BB88" s="103"/>
-      <c r="BC88" s="103"/>
-      <c r="BD88" s="121"/>
+      <c r="Y88" s="102"/>
+      <c r="Z88" s="102"/>
+      <c r="AA88" s="102"/>
+      <c r="AB88" s="102"/>
+      <c r="AC88" s="102"/>
+      <c r="AD88" s="102"/>
+      <c r="AE88" s="102"/>
+      <c r="AF88" s="102"/>
+      <c r="AG88" s="102"/>
+      <c r="AH88" s="102"/>
+      <c r="AI88" s="102"/>
+      <c r="AJ88" s="102"/>
+      <c r="AK88" s="102"/>
+      <c r="AL88" s="102"/>
+      <c r="AM88" s="102"/>
+      <c r="AN88" s="102"/>
+      <c r="AO88" s="102"/>
+      <c r="AP88" s="102"/>
+      <c r="AQ88" s="102"/>
+      <c r="AR88" s="102"/>
+      <c r="AS88" s="102"/>
+      <c r="AT88" s="102"/>
+      <c r="AU88" s="102"/>
+      <c r="AV88" s="102"/>
+      <c r="AW88" s="102"/>
+      <c r="AX88" s="102"/>
+      <c r="AY88" s="102"/>
+      <c r="AZ88" s="102"/>
+      <c r="BA88" s="102"/>
+      <c r="BB88" s="102"/>
+      <c r="BC88" s="102"/>
+      <c r="BD88" s="131"/>
     </row>
     <row r="89" spans="3:56" ht="15" customHeight="1">
       <c r="C89" s="33"/>
@@ -8245,46 +8306,46 @@
       <c r="R89" s="34"/>
       <c r="S89" s="34"/>
       <c r="T89" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U89" s="34"/>
       <c r="V89" s="34"/>
       <c r="W89" s="37"/>
-      <c r="X89" s="104" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y89" s="105"/>
-      <c r="Z89" s="105"/>
-      <c r="AA89" s="105"/>
-      <c r="AB89" s="105"/>
-      <c r="AC89" s="105"/>
-      <c r="AD89" s="105"/>
-      <c r="AE89" s="105"/>
-      <c r="AF89" s="105"/>
-      <c r="AG89" s="105"/>
-      <c r="AH89" s="105"/>
-      <c r="AI89" s="105"/>
-      <c r="AJ89" s="105"/>
-      <c r="AK89" s="105"/>
-      <c r="AL89" s="105"/>
-      <c r="AM89" s="105"/>
-      <c r="AN89" s="105"/>
-      <c r="AO89" s="105"/>
-      <c r="AP89" s="105"/>
-      <c r="AQ89" s="105"/>
-      <c r="AR89" s="105"/>
-      <c r="AS89" s="105"/>
-      <c r="AT89" s="105"/>
-      <c r="AU89" s="105"/>
-      <c r="AV89" s="105"/>
-      <c r="AW89" s="105"/>
-      <c r="AX89" s="105"/>
-      <c r="AY89" s="105"/>
-      <c r="AZ89" s="105"/>
-      <c r="BA89" s="105"/>
-      <c r="BB89" s="105"/>
-      <c r="BC89" s="105"/>
-      <c r="BD89" s="106"/>
+      <c r="X89" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y89" s="104"/>
+      <c r="Z89" s="104"/>
+      <c r="AA89" s="104"/>
+      <c r="AB89" s="104"/>
+      <c r="AC89" s="104"/>
+      <c r="AD89" s="104"/>
+      <c r="AE89" s="104"/>
+      <c r="AF89" s="104"/>
+      <c r="AG89" s="104"/>
+      <c r="AH89" s="104"/>
+      <c r="AI89" s="104"/>
+      <c r="AJ89" s="104"/>
+      <c r="AK89" s="104"/>
+      <c r="AL89" s="104"/>
+      <c r="AM89" s="104"/>
+      <c r="AN89" s="104"/>
+      <c r="AO89" s="104"/>
+      <c r="AP89" s="104"/>
+      <c r="AQ89" s="104"/>
+      <c r="AR89" s="104"/>
+      <c r="AS89" s="104"/>
+      <c r="AT89" s="104"/>
+      <c r="AU89" s="104"/>
+      <c r="AV89" s="104"/>
+      <c r="AW89" s="104"/>
+      <c r="AX89" s="104"/>
+      <c r="AY89" s="104"/>
+      <c r="AZ89" s="104"/>
+      <c r="BA89" s="104"/>
+      <c r="BB89" s="104"/>
+      <c r="BC89" s="104"/>
+      <c r="BD89" s="105"/>
     </row>
     <row r="90" spans="3:56" ht="15" customHeight="1">
       <c r="C90" s="39"/>
@@ -8309,46 +8370,46 @@
       <c r="R90" s="38"/>
       <c r="S90" s="38"/>
       <c r="T90" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U90" s="38"/>
       <c r="V90" s="38"/>
       <c r="W90" s="40"/>
-      <c r="X90" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y90" s="108"/>
-      <c r="Z90" s="108"/>
-      <c r="AA90" s="108"/>
-      <c r="AB90" s="108"/>
-      <c r="AC90" s="108"/>
-      <c r="AD90" s="108"/>
-      <c r="AE90" s="108"/>
-      <c r="AF90" s="108"/>
-      <c r="AG90" s="108"/>
-      <c r="AH90" s="108"/>
-      <c r="AI90" s="108"/>
-      <c r="AJ90" s="108"/>
-      <c r="AK90" s="108"/>
-      <c r="AL90" s="108"/>
-      <c r="AM90" s="108"/>
-      <c r="AN90" s="108"/>
-      <c r="AO90" s="108"/>
-      <c r="AP90" s="108"/>
-      <c r="AQ90" s="108"/>
-      <c r="AR90" s="108"/>
-      <c r="AS90" s="108"/>
-      <c r="AT90" s="108"/>
-      <c r="AU90" s="108"/>
-      <c r="AV90" s="108"/>
-      <c r="AW90" s="108"/>
-      <c r="AX90" s="108"/>
-      <c r="AY90" s="108"/>
-      <c r="AZ90" s="108"/>
-      <c r="BA90" s="108"/>
-      <c r="BB90" s="108"/>
-      <c r="BC90" s="108"/>
-      <c r="BD90" s="109"/>
+      <c r="X90" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y90" s="107"/>
+      <c r="Z90" s="107"/>
+      <c r="AA90" s="107"/>
+      <c r="AB90" s="107"/>
+      <c r="AC90" s="107"/>
+      <c r="AD90" s="107"/>
+      <c r="AE90" s="107"/>
+      <c r="AF90" s="107"/>
+      <c r="AG90" s="107"/>
+      <c r="AH90" s="107"/>
+      <c r="AI90" s="107"/>
+      <c r="AJ90" s="107"/>
+      <c r="AK90" s="107"/>
+      <c r="AL90" s="107"/>
+      <c r="AM90" s="107"/>
+      <c r="AN90" s="107"/>
+      <c r="AO90" s="107"/>
+      <c r="AP90" s="107"/>
+      <c r="AQ90" s="107"/>
+      <c r="AR90" s="107"/>
+      <c r="AS90" s="107"/>
+      <c r="AT90" s="107"/>
+      <c r="AU90" s="107"/>
+      <c r="AV90" s="107"/>
+      <c r="AW90" s="107"/>
+      <c r="AX90" s="107"/>
+      <c r="AY90" s="107"/>
+      <c r="AZ90" s="107"/>
+      <c r="BA90" s="107"/>
+      <c r="BB90" s="107"/>
+      <c r="BC90" s="107"/>
+      <c r="BD90" s="108"/>
     </row>
     <row r="91" spans="3:56" ht="15" customHeight="1">
       <c r="C91" s="39"/>
@@ -8373,46 +8434,46 @@
       <c r="R91" s="38"/>
       <c r="S91" s="38"/>
       <c r="T91" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U91" s="38"/>
       <c r="V91" s="38"/>
       <c r="W91" s="40"/>
-      <c r="X91" s="107" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y91" s="108"/>
-      <c r="Z91" s="108"/>
-      <c r="AA91" s="108"/>
-      <c r="AB91" s="108"/>
-      <c r="AC91" s="108"/>
-      <c r="AD91" s="108"/>
-      <c r="AE91" s="108"/>
-      <c r="AF91" s="108"/>
-      <c r="AG91" s="108"/>
-      <c r="AH91" s="108"/>
-      <c r="AI91" s="108"/>
-      <c r="AJ91" s="108"/>
-      <c r="AK91" s="108"/>
-      <c r="AL91" s="108"/>
-      <c r="AM91" s="108"/>
-      <c r="AN91" s="108"/>
-      <c r="AO91" s="108"/>
-      <c r="AP91" s="108"/>
-      <c r="AQ91" s="108"/>
-      <c r="AR91" s="108"/>
-      <c r="AS91" s="108"/>
-      <c r="AT91" s="108"/>
-      <c r="AU91" s="108"/>
-      <c r="AV91" s="108"/>
-      <c r="AW91" s="108"/>
-      <c r="AX91" s="108"/>
-      <c r="AY91" s="108"/>
-      <c r="AZ91" s="108"/>
-      <c r="BA91" s="108"/>
-      <c r="BB91" s="108"/>
-      <c r="BC91" s="108"/>
-      <c r="BD91" s="109"/>
+      <c r="X91" s="106" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y91" s="107"/>
+      <c r="Z91" s="107"/>
+      <c r="AA91" s="107"/>
+      <c r="AB91" s="107"/>
+      <c r="AC91" s="107"/>
+      <c r="AD91" s="107"/>
+      <c r="AE91" s="107"/>
+      <c r="AF91" s="107"/>
+      <c r="AG91" s="107"/>
+      <c r="AH91" s="107"/>
+      <c r="AI91" s="107"/>
+      <c r="AJ91" s="107"/>
+      <c r="AK91" s="107"/>
+      <c r="AL91" s="107"/>
+      <c r="AM91" s="107"/>
+      <c r="AN91" s="107"/>
+      <c r="AO91" s="107"/>
+      <c r="AP91" s="107"/>
+      <c r="AQ91" s="107"/>
+      <c r="AR91" s="107"/>
+      <c r="AS91" s="107"/>
+      <c r="AT91" s="107"/>
+      <c r="AU91" s="107"/>
+      <c r="AV91" s="107"/>
+      <c r="AW91" s="107"/>
+      <c r="AX91" s="107"/>
+      <c r="AY91" s="107"/>
+      <c r="AZ91" s="107"/>
+      <c r="BA91" s="107"/>
+      <c r="BB91" s="107"/>
+      <c r="BC91" s="107"/>
+      <c r="BD91" s="108"/>
     </row>
     <row r="92" spans="3:56" ht="15" customHeight="1">
       <c r="C92" s="39"/>
@@ -8437,46 +8498,46 @@
       <c r="R92" s="38"/>
       <c r="S92" s="38"/>
       <c r="T92" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U92" s="38"/>
       <c r="V92" s="38"/>
       <c r="W92" s="40"/>
-      <c r="X92" s="107" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y92" s="108"/>
-      <c r="Z92" s="108"/>
-      <c r="AA92" s="108"/>
-      <c r="AB92" s="108"/>
-      <c r="AC92" s="108"/>
-      <c r="AD92" s="108"/>
-      <c r="AE92" s="108"/>
-      <c r="AF92" s="108"/>
-      <c r="AG92" s="108"/>
-      <c r="AH92" s="108"/>
-      <c r="AI92" s="108"/>
-      <c r="AJ92" s="108"/>
-      <c r="AK92" s="108"/>
-      <c r="AL92" s="108"/>
-      <c r="AM92" s="108"/>
-      <c r="AN92" s="108"/>
-      <c r="AO92" s="108"/>
-      <c r="AP92" s="108"/>
-      <c r="AQ92" s="108"/>
-      <c r="AR92" s="108"/>
-      <c r="AS92" s="108"/>
-      <c r="AT92" s="108"/>
-      <c r="AU92" s="108"/>
-      <c r="AV92" s="108"/>
-      <c r="AW92" s="108"/>
-      <c r="AX92" s="108"/>
-      <c r="AY92" s="108"/>
-      <c r="AZ92" s="108"/>
-      <c r="BA92" s="108"/>
-      <c r="BB92" s="108"/>
-      <c r="BC92" s="108"/>
-      <c r="BD92" s="109"/>
+      <c r="X92" s="106" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y92" s="107"/>
+      <c r="Z92" s="107"/>
+      <c r="AA92" s="107"/>
+      <c r="AB92" s="107"/>
+      <c r="AC92" s="107"/>
+      <c r="AD92" s="107"/>
+      <c r="AE92" s="107"/>
+      <c r="AF92" s="107"/>
+      <c r="AG92" s="107"/>
+      <c r="AH92" s="107"/>
+      <c r="AI92" s="107"/>
+      <c r="AJ92" s="107"/>
+      <c r="AK92" s="107"/>
+      <c r="AL92" s="107"/>
+      <c r="AM92" s="107"/>
+      <c r="AN92" s="107"/>
+      <c r="AO92" s="107"/>
+      <c r="AP92" s="107"/>
+      <c r="AQ92" s="107"/>
+      <c r="AR92" s="107"/>
+      <c r="AS92" s="107"/>
+      <c r="AT92" s="107"/>
+      <c r="AU92" s="107"/>
+      <c r="AV92" s="107"/>
+      <c r="AW92" s="107"/>
+      <c r="AX92" s="107"/>
+      <c r="AY92" s="107"/>
+      <c r="AZ92" s="107"/>
+      <c r="BA92" s="107"/>
+      <c r="BB92" s="107"/>
+      <c r="BC92" s="107"/>
+      <c r="BD92" s="108"/>
     </row>
     <row r="93" spans="3:56" ht="15" customHeight="1">
       <c r="C93" s="39"/>
@@ -8501,46 +8562,46 @@
       <c r="R93" s="38"/>
       <c r="S93" s="38"/>
       <c r="T93" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U93" s="38"/>
       <c r="V93" s="38"/>
       <c r="W93" s="40"/>
-      <c r="X93" s="160" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y93" s="161"/>
-      <c r="Z93" s="161"/>
-      <c r="AA93" s="161"/>
-      <c r="AB93" s="161"/>
-      <c r="AC93" s="161"/>
-      <c r="AD93" s="161"/>
-      <c r="AE93" s="161"/>
-      <c r="AF93" s="161"/>
-      <c r="AG93" s="161"/>
-      <c r="AH93" s="161"/>
-      <c r="AI93" s="161"/>
-      <c r="AJ93" s="161"/>
-      <c r="AK93" s="161"/>
-      <c r="AL93" s="161"/>
-      <c r="AM93" s="161"/>
-      <c r="AN93" s="161"/>
-      <c r="AO93" s="161"/>
-      <c r="AP93" s="161"/>
-      <c r="AQ93" s="161"/>
-      <c r="AR93" s="161"/>
-      <c r="AS93" s="161"/>
-      <c r="AT93" s="161"/>
-      <c r="AU93" s="161"/>
-      <c r="AV93" s="161"/>
-      <c r="AW93" s="161"/>
-      <c r="AX93" s="161"/>
-      <c r="AY93" s="161"/>
-      <c r="AZ93" s="161"/>
-      <c r="BA93" s="161"/>
-      <c r="BB93" s="161"/>
-      <c r="BC93" s="161"/>
-      <c r="BD93" s="162"/>
+      <c r="X93" s="167" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y93" s="168"/>
+      <c r="Z93" s="168"/>
+      <c r="AA93" s="168"/>
+      <c r="AB93" s="168"/>
+      <c r="AC93" s="168"/>
+      <c r="AD93" s="168"/>
+      <c r="AE93" s="168"/>
+      <c r="AF93" s="168"/>
+      <c r="AG93" s="168"/>
+      <c r="AH93" s="168"/>
+      <c r="AI93" s="168"/>
+      <c r="AJ93" s="168"/>
+      <c r="AK93" s="168"/>
+      <c r="AL93" s="168"/>
+      <c r="AM93" s="168"/>
+      <c r="AN93" s="168"/>
+      <c r="AO93" s="168"/>
+      <c r="AP93" s="168"/>
+      <c r="AQ93" s="168"/>
+      <c r="AR93" s="168"/>
+      <c r="AS93" s="168"/>
+      <c r="AT93" s="168"/>
+      <c r="AU93" s="168"/>
+      <c r="AV93" s="168"/>
+      <c r="AW93" s="168"/>
+      <c r="AX93" s="168"/>
+      <c r="AY93" s="168"/>
+      <c r="AZ93" s="168"/>
+      <c r="BA93" s="168"/>
+      <c r="BB93" s="168"/>
+      <c r="BC93" s="168"/>
+      <c r="BD93" s="169"/>
     </row>
     <row r="94" spans="3:56" ht="15" customHeight="1">
       <c r="C94" s="39"/>
@@ -8565,46 +8626,46 @@
       <c r="R94" s="38"/>
       <c r="S94" s="38"/>
       <c r="T94" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U94" s="38"/>
       <c r="V94" s="38"/>
       <c r="W94" s="40"/>
-      <c r="X94" s="160" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y94" s="161"/>
-      <c r="Z94" s="161"/>
-      <c r="AA94" s="161"/>
-      <c r="AB94" s="161"/>
-      <c r="AC94" s="161"/>
-      <c r="AD94" s="161"/>
-      <c r="AE94" s="161"/>
-      <c r="AF94" s="161"/>
-      <c r="AG94" s="161"/>
-      <c r="AH94" s="161"/>
-      <c r="AI94" s="161"/>
-      <c r="AJ94" s="161"/>
-      <c r="AK94" s="161"/>
-      <c r="AL94" s="161"/>
-      <c r="AM94" s="161"/>
-      <c r="AN94" s="161"/>
-      <c r="AO94" s="161"/>
-      <c r="AP94" s="161"/>
-      <c r="AQ94" s="161"/>
-      <c r="AR94" s="161"/>
-      <c r="AS94" s="161"/>
-      <c r="AT94" s="161"/>
-      <c r="AU94" s="161"/>
-      <c r="AV94" s="161"/>
-      <c r="AW94" s="161"/>
-      <c r="AX94" s="161"/>
-      <c r="AY94" s="161"/>
-      <c r="AZ94" s="161"/>
-      <c r="BA94" s="161"/>
-      <c r="BB94" s="161"/>
-      <c r="BC94" s="161"/>
-      <c r="BD94" s="162"/>
+      <c r="X94" s="167" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y94" s="168"/>
+      <c r="Z94" s="168"/>
+      <c r="AA94" s="168"/>
+      <c r="AB94" s="168"/>
+      <c r="AC94" s="168"/>
+      <c r="AD94" s="168"/>
+      <c r="AE94" s="168"/>
+      <c r="AF94" s="168"/>
+      <c r="AG94" s="168"/>
+      <c r="AH94" s="168"/>
+      <c r="AI94" s="168"/>
+      <c r="AJ94" s="168"/>
+      <c r="AK94" s="168"/>
+      <c r="AL94" s="168"/>
+      <c r="AM94" s="168"/>
+      <c r="AN94" s="168"/>
+      <c r="AO94" s="168"/>
+      <c r="AP94" s="168"/>
+      <c r="AQ94" s="168"/>
+      <c r="AR94" s="168"/>
+      <c r="AS94" s="168"/>
+      <c r="AT94" s="168"/>
+      <c r="AU94" s="168"/>
+      <c r="AV94" s="168"/>
+      <c r="AW94" s="168"/>
+      <c r="AX94" s="168"/>
+      <c r="AY94" s="168"/>
+      <c r="AZ94" s="168"/>
+      <c r="BA94" s="168"/>
+      <c r="BB94" s="168"/>
+      <c r="BC94" s="168"/>
+      <c r="BD94" s="169"/>
     </row>
     <row r="95" spans="3:56" ht="15" customHeight="1">
       <c r="C95" s="39"/>
@@ -8629,46 +8690,46 @@
       <c r="R95" s="38"/>
       <c r="S95" s="38"/>
       <c r="T95" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U95" s="38"/>
       <c r="V95" s="38"/>
       <c r="W95" s="40"/>
-      <c r="X95" s="107" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y95" s="108"/>
-      <c r="Z95" s="108"/>
-      <c r="AA95" s="108"/>
-      <c r="AB95" s="108"/>
-      <c r="AC95" s="108"/>
-      <c r="AD95" s="108"/>
-      <c r="AE95" s="108"/>
-      <c r="AF95" s="108"/>
-      <c r="AG95" s="108"/>
-      <c r="AH95" s="108"/>
-      <c r="AI95" s="108"/>
-      <c r="AJ95" s="108"/>
-      <c r="AK95" s="108"/>
-      <c r="AL95" s="108"/>
-      <c r="AM95" s="108"/>
-      <c r="AN95" s="108"/>
-      <c r="AO95" s="108"/>
-      <c r="AP95" s="108"/>
-      <c r="AQ95" s="108"/>
-      <c r="AR95" s="108"/>
-      <c r="AS95" s="108"/>
-      <c r="AT95" s="108"/>
-      <c r="AU95" s="108"/>
-      <c r="AV95" s="108"/>
-      <c r="AW95" s="108"/>
-      <c r="AX95" s="108"/>
-      <c r="AY95" s="108"/>
-      <c r="AZ95" s="108"/>
-      <c r="BA95" s="108"/>
-      <c r="BB95" s="108"/>
-      <c r="BC95" s="108"/>
-      <c r="BD95" s="109"/>
+      <c r="X95" s="106" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y95" s="107"/>
+      <c r="Z95" s="107"/>
+      <c r="AA95" s="107"/>
+      <c r="AB95" s="107"/>
+      <c r="AC95" s="107"/>
+      <c r="AD95" s="107"/>
+      <c r="AE95" s="107"/>
+      <c r="AF95" s="107"/>
+      <c r="AG95" s="107"/>
+      <c r="AH95" s="107"/>
+      <c r="AI95" s="107"/>
+      <c r="AJ95" s="107"/>
+      <c r="AK95" s="107"/>
+      <c r="AL95" s="107"/>
+      <c r="AM95" s="107"/>
+      <c r="AN95" s="107"/>
+      <c r="AO95" s="107"/>
+      <c r="AP95" s="107"/>
+      <c r="AQ95" s="107"/>
+      <c r="AR95" s="107"/>
+      <c r="AS95" s="107"/>
+      <c r="AT95" s="107"/>
+      <c r="AU95" s="107"/>
+      <c r="AV95" s="107"/>
+      <c r="AW95" s="107"/>
+      <c r="AX95" s="107"/>
+      <c r="AY95" s="107"/>
+      <c r="AZ95" s="107"/>
+      <c r="BA95" s="107"/>
+      <c r="BB95" s="107"/>
+      <c r="BC95" s="107"/>
+      <c r="BD95" s="108"/>
     </row>
     <row r="96" spans="3:56" ht="15" customHeight="1">
       <c r="C96" s="39"/>
@@ -8693,46 +8754,46 @@
       <c r="R96" s="38"/>
       <c r="S96" s="38"/>
       <c r="T96" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U96" s="38"/>
       <c r="V96" s="38"/>
       <c r="W96" s="40"/>
-      <c r="X96" s="160" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y96" s="161"/>
-      <c r="Z96" s="161"/>
-      <c r="AA96" s="161"/>
-      <c r="AB96" s="161"/>
-      <c r="AC96" s="161"/>
-      <c r="AD96" s="161"/>
-      <c r="AE96" s="161"/>
-      <c r="AF96" s="161"/>
-      <c r="AG96" s="161"/>
-      <c r="AH96" s="161"/>
-      <c r="AI96" s="161"/>
-      <c r="AJ96" s="161"/>
-      <c r="AK96" s="161"/>
-      <c r="AL96" s="161"/>
-      <c r="AM96" s="161"/>
-      <c r="AN96" s="161"/>
-      <c r="AO96" s="161"/>
-      <c r="AP96" s="161"/>
-      <c r="AQ96" s="161"/>
-      <c r="AR96" s="161"/>
-      <c r="AS96" s="161"/>
-      <c r="AT96" s="161"/>
-      <c r="AU96" s="161"/>
-      <c r="AV96" s="161"/>
-      <c r="AW96" s="161"/>
-      <c r="AX96" s="161"/>
-      <c r="AY96" s="161"/>
-      <c r="AZ96" s="161"/>
-      <c r="BA96" s="161"/>
-      <c r="BB96" s="161"/>
-      <c r="BC96" s="161"/>
-      <c r="BD96" s="162"/>
+      <c r="X96" s="167" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y96" s="168"/>
+      <c r="Z96" s="168"/>
+      <c r="AA96" s="168"/>
+      <c r="AB96" s="168"/>
+      <c r="AC96" s="168"/>
+      <c r="AD96" s="168"/>
+      <c r="AE96" s="168"/>
+      <c r="AF96" s="168"/>
+      <c r="AG96" s="168"/>
+      <c r="AH96" s="168"/>
+      <c r="AI96" s="168"/>
+      <c r="AJ96" s="168"/>
+      <c r="AK96" s="168"/>
+      <c r="AL96" s="168"/>
+      <c r="AM96" s="168"/>
+      <c r="AN96" s="168"/>
+      <c r="AO96" s="168"/>
+      <c r="AP96" s="168"/>
+      <c r="AQ96" s="168"/>
+      <c r="AR96" s="168"/>
+      <c r="AS96" s="168"/>
+      <c r="AT96" s="168"/>
+      <c r="AU96" s="168"/>
+      <c r="AV96" s="168"/>
+      <c r="AW96" s="168"/>
+      <c r="AX96" s="168"/>
+      <c r="AY96" s="168"/>
+      <c r="AZ96" s="168"/>
+      <c r="BA96" s="168"/>
+      <c r="BB96" s="168"/>
+      <c r="BC96" s="168"/>
+      <c r="BD96" s="169"/>
     </row>
     <row r="97" spans="3:56" ht="15" customHeight="1">
       <c r="C97" s="39"/>
@@ -8757,46 +8818,46 @@
       <c r="R97" s="38"/>
       <c r="S97" s="38"/>
       <c r="T97" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U97" s="38"/>
       <c r="V97" s="38"/>
       <c r="W97" s="40"/>
-      <c r="X97" s="160" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y97" s="161"/>
-      <c r="Z97" s="161"/>
-      <c r="AA97" s="161"/>
-      <c r="AB97" s="161"/>
-      <c r="AC97" s="161"/>
-      <c r="AD97" s="161"/>
-      <c r="AE97" s="161"/>
-      <c r="AF97" s="161"/>
-      <c r="AG97" s="161"/>
-      <c r="AH97" s="161"/>
-      <c r="AI97" s="161"/>
-      <c r="AJ97" s="161"/>
-      <c r="AK97" s="161"/>
-      <c r="AL97" s="161"/>
-      <c r="AM97" s="161"/>
-      <c r="AN97" s="161"/>
-      <c r="AO97" s="161"/>
-      <c r="AP97" s="161"/>
-      <c r="AQ97" s="161"/>
-      <c r="AR97" s="161"/>
-      <c r="AS97" s="161"/>
-      <c r="AT97" s="161"/>
-      <c r="AU97" s="161"/>
-      <c r="AV97" s="161"/>
-      <c r="AW97" s="161"/>
-      <c r="AX97" s="161"/>
-      <c r="AY97" s="161"/>
-      <c r="AZ97" s="161"/>
-      <c r="BA97" s="161"/>
-      <c r="BB97" s="161"/>
-      <c r="BC97" s="161"/>
-      <c r="BD97" s="162"/>
+      <c r="X97" s="167" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y97" s="168"/>
+      <c r="Z97" s="168"/>
+      <c r="AA97" s="168"/>
+      <c r="AB97" s="168"/>
+      <c r="AC97" s="168"/>
+      <c r="AD97" s="168"/>
+      <c r="AE97" s="168"/>
+      <c r="AF97" s="168"/>
+      <c r="AG97" s="168"/>
+      <c r="AH97" s="168"/>
+      <c r="AI97" s="168"/>
+      <c r="AJ97" s="168"/>
+      <c r="AK97" s="168"/>
+      <c r="AL97" s="168"/>
+      <c r="AM97" s="168"/>
+      <c r="AN97" s="168"/>
+      <c r="AO97" s="168"/>
+      <c r="AP97" s="168"/>
+      <c r="AQ97" s="168"/>
+      <c r="AR97" s="168"/>
+      <c r="AS97" s="168"/>
+      <c r="AT97" s="168"/>
+      <c r="AU97" s="168"/>
+      <c r="AV97" s="168"/>
+      <c r="AW97" s="168"/>
+      <c r="AX97" s="168"/>
+      <c r="AY97" s="168"/>
+      <c r="AZ97" s="168"/>
+      <c r="BA97" s="168"/>
+      <c r="BB97" s="168"/>
+      <c r="BC97" s="168"/>
+      <c r="BD97" s="169"/>
     </row>
     <row r="98" spans="3:56" ht="15" customHeight="1">
       <c r="C98" s="39"/>
@@ -8821,46 +8882,46 @@
       <c r="R98" s="38"/>
       <c r="S98" s="38"/>
       <c r="T98" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U98" s="38"/>
       <c r="V98" s="38"/>
       <c r="W98" s="40"/>
-      <c r="X98" s="160" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y98" s="161"/>
-      <c r="Z98" s="161"/>
-      <c r="AA98" s="161"/>
-      <c r="AB98" s="161"/>
-      <c r="AC98" s="161"/>
-      <c r="AD98" s="161"/>
-      <c r="AE98" s="161"/>
-      <c r="AF98" s="161"/>
-      <c r="AG98" s="161"/>
-      <c r="AH98" s="161"/>
-      <c r="AI98" s="161"/>
-      <c r="AJ98" s="161"/>
-      <c r="AK98" s="161"/>
-      <c r="AL98" s="161"/>
-      <c r="AM98" s="161"/>
-      <c r="AN98" s="161"/>
-      <c r="AO98" s="161"/>
-      <c r="AP98" s="161"/>
-      <c r="AQ98" s="161"/>
-      <c r="AR98" s="161"/>
-      <c r="AS98" s="161"/>
-      <c r="AT98" s="161"/>
-      <c r="AU98" s="161"/>
-      <c r="AV98" s="161"/>
-      <c r="AW98" s="161"/>
-      <c r="AX98" s="161"/>
-      <c r="AY98" s="161"/>
-      <c r="AZ98" s="161"/>
-      <c r="BA98" s="161"/>
-      <c r="BB98" s="161"/>
-      <c r="BC98" s="161"/>
-      <c r="BD98" s="162"/>
+      <c r="X98" s="167" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y98" s="168"/>
+      <c r="Z98" s="168"/>
+      <c r="AA98" s="168"/>
+      <c r="AB98" s="168"/>
+      <c r="AC98" s="168"/>
+      <c r="AD98" s="168"/>
+      <c r="AE98" s="168"/>
+      <c r="AF98" s="168"/>
+      <c r="AG98" s="168"/>
+      <c r="AH98" s="168"/>
+      <c r="AI98" s="168"/>
+      <c r="AJ98" s="168"/>
+      <c r="AK98" s="168"/>
+      <c r="AL98" s="168"/>
+      <c r="AM98" s="168"/>
+      <c r="AN98" s="168"/>
+      <c r="AO98" s="168"/>
+      <c r="AP98" s="168"/>
+      <c r="AQ98" s="168"/>
+      <c r="AR98" s="168"/>
+      <c r="AS98" s="168"/>
+      <c r="AT98" s="168"/>
+      <c r="AU98" s="168"/>
+      <c r="AV98" s="168"/>
+      <c r="AW98" s="168"/>
+      <c r="AX98" s="168"/>
+      <c r="AY98" s="168"/>
+      <c r="AZ98" s="168"/>
+      <c r="BA98" s="168"/>
+      <c r="BB98" s="168"/>
+      <c r="BC98" s="168"/>
+      <c r="BD98" s="169"/>
     </row>
     <row r="99" spans="3:56" ht="15" customHeight="1">
       <c r="C99" s="39"/>
@@ -8885,46 +8946,46 @@
       <c r="R99" s="38"/>
       <c r="S99" s="38"/>
       <c r="T99" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U99" s="38"/>
       <c r="V99" s="38"/>
       <c r="W99" s="40"/>
-      <c r="X99" s="160" t="s">
+      <c r="X99" s="167" t="s">
         <v>78</v>
       </c>
-      <c r="Y99" s="161"/>
-      <c r="Z99" s="161"/>
-      <c r="AA99" s="161"/>
-      <c r="AB99" s="161"/>
-      <c r="AC99" s="161"/>
-      <c r="AD99" s="161"/>
-      <c r="AE99" s="161"/>
-      <c r="AF99" s="161"/>
-      <c r="AG99" s="161"/>
-      <c r="AH99" s="161"/>
-      <c r="AI99" s="161"/>
-      <c r="AJ99" s="161"/>
-      <c r="AK99" s="161"/>
-      <c r="AL99" s="161"/>
-      <c r="AM99" s="161"/>
-      <c r="AN99" s="161"/>
-      <c r="AO99" s="161"/>
-      <c r="AP99" s="161"/>
-      <c r="AQ99" s="161"/>
-      <c r="AR99" s="161"/>
-      <c r="AS99" s="161"/>
-      <c r="AT99" s="161"/>
-      <c r="AU99" s="161"/>
-      <c r="AV99" s="161"/>
-      <c r="AW99" s="161"/>
-      <c r="AX99" s="161"/>
-      <c r="AY99" s="161"/>
-      <c r="AZ99" s="161"/>
-      <c r="BA99" s="161"/>
-      <c r="BB99" s="161"/>
-      <c r="BC99" s="161"/>
-      <c r="BD99" s="162"/>
+      <c r="Y99" s="168"/>
+      <c r="Z99" s="168"/>
+      <c r="AA99" s="168"/>
+      <c r="AB99" s="168"/>
+      <c r="AC99" s="168"/>
+      <c r="AD99" s="168"/>
+      <c r="AE99" s="168"/>
+      <c r="AF99" s="168"/>
+      <c r="AG99" s="168"/>
+      <c r="AH99" s="168"/>
+      <c r="AI99" s="168"/>
+      <c r="AJ99" s="168"/>
+      <c r="AK99" s="168"/>
+      <c r="AL99" s="168"/>
+      <c r="AM99" s="168"/>
+      <c r="AN99" s="168"/>
+      <c r="AO99" s="168"/>
+      <c r="AP99" s="168"/>
+      <c r="AQ99" s="168"/>
+      <c r="AR99" s="168"/>
+      <c r="AS99" s="168"/>
+      <c r="AT99" s="168"/>
+      <c r="AU99" s="168"/>
+      <c r="AV99" s="168"/>
+      <c r="AW99" s="168"/>
+      <c r="AX99" s="168"/>
+      <c r="AY99" s="168"/>
+      <c r="AZ99" s="168"/>
+      <c r="BA99" s="168"/>
+      <c r="BB99" s="168"/>
+      <c r="BC99" s="168"/>
+      <c r="BD99" s="169"/>
     </row>
     <row r="100" spans="3:56">
       <c r="C100" s="39"/>
@@ -9039,7 +9100,7 @@
       <c r="BD101" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="90">
+  <mergeCells count="105">
     <mergeCell ref="X97:BD97"/>
     <mergeCell ref="X98:BD98"/>
     <mergeCell ref="X99:BD99"/>
@@ -9054,21 +9115,24 @@
     <mergeCell ref="X90:BD90"/>
     <mergeCell ref="X96:BD96"/>
     <mergeCell ref="X88:BD88"/>
-    <mergeCell ref="AU23:AZ24"/>
-    <mergeCell ref="BA23:BA24"/>
+    <mergeCell ref="X73:AD73"/>
+    <mergeCell ref="AE73:AK73"/>
+    <mergeCell ref="X74:AD74"/>
+    <mergeCell ref="AE74:AK74"/>
+    <mergeCell ref="AL74:BD74"/>
+    <mergeCell ref="X75:AD75"/>
+    <mergeCell ref="AE75:AK75"/>
+    <mergeCell ref="AL75:BD75"/>
     <mergeCell ref="X70:AD70"/>
     <mergeCell ref="AE70:AK70"/>
     <mergeCell ref="E71:Q71"/>
     <mergeCell ref="X71:AD71"/>
     <mergeCell ref="AE71:AK71"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="AQ4:AS4"/>
-    <mergeCell ref="AQ5:AS5"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="U4:AP4"/>
+    <mergeCell ref="AW43:BD43"/>
+    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="H23:I24"/>
+    <mergeCell ref="J23:P24"/>
+    <mergeCell ref="Q23:W24"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C41:G41"/>
     <mergeCell ref="C67:J67"/>
@@ -9083,18 +9147,9 @@
     <mergeCell ref="D10:G15"/>
     <mergeCell ref="H10:U15"/>
     <mergeCell ref="AQ43:AV43"/>
-    <mergeCell ref="AW43:BD43"/>
     <mergeCell ref="X23:AA24"/>
     <mergeCell ref="H22:L22"/>
-    <mergeCell ref="F23:G24"/>
-    <mergeCell ref="H23:I24"/>
-    <mergeCell ref="J23:P24"/>
-    <mergeCell ref="Q23:W24"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AV20:AZ20"/>
-    <mergeCell ref="AP12:AR13"/>
+    <mergeCell ref="AU23:AZ24"/>
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="E69:Q69"/>
     <mergeCell ref="AT12:AV13"/>
@@ -9111,11 +9166,30 @@
     <mergeCell ref="R69:W69"/>
     <mergeCell ref="X69:AD69"/>
     <mergeCell ref="AE69:AK69"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AV20:AZ20"/>
+    <mergeCell ref="AP12:AR13"/>
+    <mergeCell ref="BA23:BA24"/>
     <mergeCell ref="C88:D88"/>
     <mergeCell ref="E88:Q88"/>
     <mergeCell ref="R88:W88"/>
     <mergeCell ref="E70:Q70"/>
     <mergeCell ref="E72:Q72"/>
+    <mergeCell ref="E73:Q73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E74:Q74"/>
+    <mergeCell ref="R74:W74"/>
+    <mergeCell ref="E75:Q75"/>
+    <mergeCell ref="R75:W75"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:AP3"/>
+    <mergeCell ref="AQ2:AW2"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="AQ3:AW3"/>
+    <mergeCell ref="AX3:BE3"/>
     <mergeCell ref="AT4:AW4"/>
     <mergeCell ref="BB4:BE4"/>
     <mergeCell ref="F5:N5"/>
@@ -9124,12 +9198,14 @@
     <mergeCell ref="BB5:BE5"/>
     <mergeCell ref="AX4:BA4"/>
     <mergeCell ref="AX5:BA5"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:AP3"/>
-    <mergeCell ref="AQ2:AW2"/>
-    <mergeCell ref="AX2:BE2"/>
-    <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="AX3:BE3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="AQ5:AS5"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="U4:AP4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" orientation="portrait" r:id="rId1"/>
